--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Moderate Spider Infestation</t>
+  </si>
+  <si>
+    <t>CCIAA General Notice</t>
   </si>
 </sst>
 </file>
@@ -581,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -796,8 +799,8 @@
         <v>120</v>
       </c>
       <c r="P7" s="7">
-        <f>O7/SUM(O$7:O$28)</f>
-        <v>5.8852378616969105E-2</v>
+        <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
+        <v>5.1303976058144504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,8 +832,8 @@
         <v>80</v>
       </c>
       <c r="P8" s="7">
-        <f>O8/SUM(O$7:O$28)</f>
-        <v>3.9234919077979401E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -862,8 +865,8 @@
         <v>35</v>
       </c>
       <c r="P9" s="7">
-        <f>O9/SUM(O$7:O$28)</f>
-        <v>1.7165277096615989E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.4963659683625482E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,8 +898,8 @@
         <v>60</v>
       </c>
       <c r="P10" s="7">
-        <f>O10/SUM(O$7:O$28)</f>
-        <v>2.9426189308484552E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.5651988029072252E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -926,8 +929,8 @@
         <v>300</v>
       </c>
       <c r="P11" s="7">
-        <f>O11/SUM(O$7:O$28)</f>
-        <v>0.14713094654242276</v>
+        <f t="shared" si="2"/>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -959,8 +962,8 @@
         <v>80</v>
       </c>
       <c r="P12" s="7">
-        <f>O12/SUM(O$7:O$28)</f>
-        <v>3.9234919077979401E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -990,8 +993,8 @@
         <v>10</v>
       </c>
       <c r="P13" s="7">
-        <f>O13/SUM(O$7:O$28)</f>
-        <v>4.9043648847474251E-3</v>
+        <f t="shared" si="2"/>
+        <v>4.2753313381787093E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1027,8 +1030,8 @@
         <v>15</v>
       </c>
       <c r="P14" s="7">
-        <f>O14/SUM(O$7:O$28)</f>
-        <v>7.3565473271211381E-3</v>
+        <f t="shared" si="2"/>
+        <v>6.412997007268063E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,8 +1061,8 @@
         <v>300</v>
       </c>
       <c r="P15" s="7">
-        <f>O15/SUM(O$7:O$28)</f>
-        <v>0.14713094654242276</v>
+        <f t="shared" si="2"/>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1095,8 +1098,8 @@
         <v>50</v>
       </c>
       <c r="P16" s="7">
-        <f>O16/SUM(O$7:O$28)</f>
-        <v>2.4521824423737126E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.1376656690893545E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1128,8 +1131,8 @@
         <v>99</v>
       </c>
       <c r="P17" s="7">
-        <f>O17/SUM(O$7:O$28)</f>
-        <v>4.8553212358999509E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2325780247969215E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1159,8 +1162,8 @@
         <v>400</v>
       </c>
       <c r="P18" s="7">
-        <f>O18/SUM(O$7:O$28)</f>
-        <v>0.19617459538989701</v>
+        <f t="shared" si="2"/>
+        <v>0.17101325352714836</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,8 +1197,8 @@
         <v>140</v>
       </c>
       <c r="P19" s="7">
-        <f>O19/SUM(O$7:O$28)</f>
-        <v>6.8661108386463957E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.9854638734501926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1229,8 +1232,8 @@
         <v>115</v>
       </c>
       <c r="P20" s="7">
-        <f>O20/SUM(O$7:O$28)</f>
-        <v>5.6400196174595393E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.9166310389055154E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1260,8 +1263,8 @@
         <v>55</v>
       </c>
       <c r="P21" s="7">
-        <f>O21/SUM(O$7:O$28)</f>
-        <v>2.6974006866110838E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3514322359982898E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1291,8 +1294,8 @@
         <v>100</v>
       </c>
       <c r="P22" s="7">
-        <f>O22/SUM(O$7:O$28)</f>
-        <v>4.9043648847474253E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.2753313381787089E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1322,13 +1325,17 @@
         <v>80</v>
       </c>
       <c r="P23" s="7">
-        <f>O23/SUM(O$7:O$28)</f>
-        <v>3.9234919077979401E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4">
+        <v>300</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1342,15 +1349,15 @@
       <c r="M24" s="4"/>
       <c r="N24" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7">
-        <f>O24/SUM(O$7:O$28)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1376,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="7">
-        <f>O25/SUM(O$7:O$28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1403,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="7">
-        <f>O26/SUM(O$7:O$28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1430,7 +1437,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="7">
-        <f>O27/SUM(O$7:O$28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1457,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="7">
-        <f>O28/SUM(O$7:O$28)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1473,10 +1480,10 @@
       <c r="N29" s="2"/>
       <c r="O29" s="6">
         <f>SUM(O7:O28)</f>
-        <v>2039</v>
+        <v>2339</v>
       </c>
       <c r="P29" s="7">
-        <f>O29/SUM(O$7:O$28)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1569,15 +1576,15 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="6">
-        <f t="shared" ref="N32:N47" si="2">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="6">
-        <f t="shared" ref="O32:O50" si="3">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="7">
-        <f>O32/SUM(O$32:O$50)</f>
+        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
         <v>0.10211896859841715</v>
       </c>
     </row>
@@ -1602,15 +1609,15 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="O33" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="O33" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="P33" s="7">
-        <f>O33/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
@@ -1635,15 +1642,15 @@
         <v>25</v>
       </c>
       <c r="N34" s="6">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O34" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="O34" s="6">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
       <c r="P34" s="7">
-        <f>O34/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
@@ -1666,15 +1673,15 @@
       <c r="L35" s="4"/>
       <c r="M35" s="5"/>
       <c r="N35" s="6">
-        <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="O35" s="6">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
+      <c r="O35" s="6">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
       <c r="P35" s="7">
-        <f>O35/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>3.0635690579525147E-2</v>
       </c>
     </row>
@@ -1701,15 +1708,15 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="6">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="O36" s="6">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="O36" s="6">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
       <c r="P36" s="7">
-        <f>O36/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>4.5953535869287722E-2</v>
       </c>
     </row>
@@ -1732,15 +1739,15 @@
       <c r="L37" s="5"/>
       <c r="M37" s="4"/>
       <c r="N37" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="O37" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="O37" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="P37" s="7">
-        <f>O37/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
@@ -1763,15 +1770,15 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="6">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="O38" s="6">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
+      <c r="O38" s="6">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
       <c r="P38" s="7">
-        <f>O38/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>4.084758743936686E-2</v>
       </c>
     </row>
@@ -1802,15 +1809,15 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="6">
-        <f t="shared" si="2"/>
-        <v>143</v>
-      </c>
-      <c r="O39" s="6">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
+      <c r="O39" s="6">
+        <f t="shared" si="4"/>
+        <v>143</v>
+      </c>
       <c r="P39" s="7">
-        <f>O39/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>7.301506254786827E-2</v>
       </c>
     </row>
@@ -1835,15 +1842,15 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="6">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-      <c r="O40" s="6">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
+      <c r="O40" s="6">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
       <c r="P40" s="7">
-        <f>O40/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>4.6974725555271893E-2</v>
       </c>
     </row>
@@ -1870,15 +1877,15 @@
         <v>15</v>
       </c>
       <c r="N41" s="6">
-        <f t="shared" si="2"/>
-        <v>130</v>
-      </c>
-      <c r="O41" s="6">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
+      <c r="O41" s="6">
+        <f t="shared" si="4"/>
+        <v>130</v>
+      </c>
       <c r="P41" s="7">
-        <f>O41/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>6.6377329588971148E-2</v>
       </c>
     </row>
@@ -1901,15 +1908,15 @@
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="6">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="O42" s="6">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="O42" s="6">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="P42" s="7">
-        <f>O42/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
@@ -1940,15 +1947,15 @@
         <v>1</v>
       </c>
       <c r="N43" s="6">
-        <f t="shared" si="2"/>
-        <v>50.5</v>
-      </c>
-      <c r="O43" s="6">
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
+      <c r="O43" s="6">
+        <f t="shared" si="4"/>
+        <v>50.5</v>
+      </c>
       <c r="P43" s="7">
-        <f>O43/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>2.5785039571100333E-2</v>
       </c>
     </row>
@@ -1973,15 +1980,15 @@
         <v>25</v>
       </c>
       <c r="N44" s="6">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O44" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="O44" s="6">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
       <c r="P44" s="7">
-        <f>O44/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
@@ -2006,15 +2013,15 @@
         <v>25</v>
       </c>
       <c r="N45" s="6">
-        <f t="shared" si="2"/>
-        <v>200</v>
-      </c>
-      <c r="O45" s="6">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
+      <c r="O45" s="6">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
       <c r="P45" s="7">
-        <f>O45/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
@@ -2039,15 +2046,15 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="6">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="O46" s="6">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
+      <c r="O46" s="6">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
       <c r="P46" s="7">
-        <f>O46/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>2.4508552463620117E-2</v>
       </c>
     </row>
@@ -2074,15 +2081,15 @@
         <v>15</v>
       </c>
       <c r="N47" s="6">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="O47" s="6">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
+      <c r="O47" s="6">
+        <f t="shared" si="4"/>
+        <v>165</v>
+      </c>
       <c r="P47" s="7">
-        <f>O47/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>8.4248149093694158E-2</v>
       </c>
     </row>
@@ -2101,15 +2108,15 @@
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="6">
-        <f t="shared" ref="N48:N50" si="4">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>0</v>
       </c>
       <c r="O48" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P48" s="7">
-        <f>O48/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2128,15 +2135,15 @@
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O49" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="P49" s="7">
-        <f>O49/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2155,15 +2162,15 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O50" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="P50" s="7">
-        <f>O50/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2182,7 +2189,7 @@
         <v>1958.5</v>
       </c>
       <c r="P51" s="7">
-        <f>O51/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -2275,15 +2282,15 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="6">
-        <f t="shared" ref="N54:N72" si="5">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N72" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="6">
-        <f t="shared" ref="O54:O72" si="6">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O72" si="8">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" ref="P54:P73" si="7">O54/SUM(O$54:O$72)</f>
+        <f t="shared" ref="P54:P73" si="9">O54/SUM(O$54:O$72)</f>
         <v>0.16463414634146342</v>
       </c>
     </row>
@@ -2310,15 +2317,15 @@
         <v>5</v>
       </c>
       <c r="N55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="O55" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10975609756097561</v>
       </c>
     </row>
@@ -2343,15 +2350,15 @@
         <v>10</v>
       </c>
       <c r="N56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13414634146341464</v>
       </c>
     </row>
@@ -2376,15 +2383,15 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="O57" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="P57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
@@ -2411,15 +2418,15 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="O58" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16463414634146342</v>
       </c>
     </row>
@@ -2444,15 +2451,15 @@
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7560975609756101E-2</v>
       </c>
     </row>
@@ -2477,15 +2484,15 @@
         <v>10</v>
       </c>
       <c r="N60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>85</v>
       </c>
       <c r="O60" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>85</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10365853658536585</v>
       </c>
     </row>
@@ -2512,15 +2519,15 @@
         <v>10</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="O61" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12804878048780488</v>
       </c>
     </row>
@@ -2539,15 +2546,15 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O62" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2566,15 +2573,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O63" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2593,15 +2600,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O64" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2620,15 +2627,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2647,15 +2654,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O66" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2674,15 +2681,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2701,15 +2708,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2728,15 +2735,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2755,15 +2762,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O70" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2782,15 +2789,15 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2809,15 +2816,15 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O72" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P72" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2836,7 +2843,7 @@
         <v>820</v>
       </c>
       <c r="P73" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\SS13\Aurora.3\tools\Event Probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erki\Documents\GitHub\Skull132\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -114,16 +114,10 @@
     <t>Shipping Error</t>
   </si>
   <si>
-    <t>Space Dust</t>
-  </si>
-  <si>
     <t>Trivial News</t>
   </si>
   <si>
     <t>Vermin Infestation</t>
-  </si>
-  <si>
-    <t>Wallroot</t>
   </si>
   <si>
     <t>Clogged Vents</t>
@@ -198,7 +192,13 @@
     <t>Bear Attack</t>
   </si>
   <si>
-    <t>CCIA General Notice</t>
+    <t>Wallrot</t>
+  </si>
+  <si>
+    <t>Moderate Spider Infestation</t>
+  </si>
+  <si>
+    <t>CCIAA General Notice</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +286,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -582,15 +582,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P1001"/>
+  <dimension ref="A1:P999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="10.140625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
@@ -791,16 +791,16 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="6">
-        <f t="shared" ref="N7:N29" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <f t="shared" ref="N7:N28" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" ref="O7:O29" si="1">MEDIAN(C7,N7,D7)</f>
+        <f t="shared" ref="O7:O28" si="1">MEDIAN(C7,N7,D7)</f>
         <v>120</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" ref="P7:P30" si="2">O7/SUM(O$7:O$29)</f>
-        <v>4.9916805324459232E-2</v>
+        <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
+        <v>5.1303976058144504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
       </c>
       <c r="P8" s="7">
         <f t="shared" si="2"/>
-        <v>3.3277870216306155E-2</v>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
       </c>
       <c r="P9" s="7">
         <f t="shared" si="2"/>
-        <v>1.4559068219633943E-2</v>
+        <v>1.4963659683625482E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -899,7 +899,7 @@
       </c>
       <c r="P10" s="7">
         <f t="shared" si="2"/>
-        <v>2.4958402662229616E-2</v>
+        <v>2.5651988029072252E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
       </c>
       <c r="P11" s="7">
         <f t="shared" si="2"/>
-        <v>0.12479201331114809</v>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
       </c>
       <c r="P12" s="7">
         <f t="shared" si="2"/>
-        <v>3.3277870216306155E-2</v>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,15 +973,9 @@
       <c r="B13" s="5">
         <v>10</v>
       </c>
-      <c r="C13" s="4">
-        <v>10</v>
-      </c>
-      <c r="D13" s="4">
-        <v>25</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1000,7 +994,7 @@
       </c>
       <c r="P13" s="7">
         <f t="shared" si="2"/>
-        <v>4.1597337770382693E-3</v>
+        <v>4.2753313381787093E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1037,7 +1031,7 @@
       </c>
       <c r="P14" s="7">
         <f t="shared" si="2"/>
-        <v>6.239600665557404E-3</v>
+        <v>6.412997007268063E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,7 +1062,7 @@
       </c>
       <c r="P15" s="7">
         <f t="shared" si="2"/>
-        <v>0.12479201331114809</v>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1105,7 +1099,7 @@
       </c>
       <c r="P16" s="7">
         <f t="shared" si="2"/>
-        <v>2.0798668885191347E-2</v>
+        <v>2.1376656690893545E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,7 +1132,7 @@
       </c>
       <c r="P17" s="7">
         <f t="shared" si="2"/>
-        <v>4.1181364392678867E-2</v>
+        <v>4.2325780247969215E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1146,20 +1140,14 @@
         <v>31</v>
       </c>
       <c r="B18" s="4">
-        <v>30</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>50</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>5</v>
-      </c>
+      <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -1167,23 +1155,23 @@
       <c r="M18" s="4"/>
       <c r="N18" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="O18" s="6">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="P18" s="7">
         <f t="shared" si="2"/>
-        <v>2.0798668885191347E-2</v>
+        <v>0.17101325352714836</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4">
-        <v>400</v>
+      <c r="B19" s="5">
+        <v>60</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1192,99 +1180,99 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5">
+        <v>20</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="M19" s="5">
+        <v>10</v>
+      </c>
       <c r="N19" s="6">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="O19" s="6">
         <f t="shared" si="1"/>
-        <v>400</v>
+        <v>140</v>
       </c>
       <c r="P19" s="7">
         <f t="shared" si="2"/>
-        <v>0.16638935108153077</v>
+        <v>5.9854638734501926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="B20" s="5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="5">
+      <c r="H20" s="5">
+        <v>5</v>
+      </c>
+      <c r="I20" s="5">
         <v>20</v>
       </c>
+      <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="5">
-        <v>10</v>
-      </c>
+      <c r="M20" s="4"/>
       <c r="N20" s="6">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="O20" s="6">
         <f t="shared" si="1"/>
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7">
         <f t="shared" si="2"/>
-        <v>5.8236272878535771E-2</v>
+        <v>4.9166310389055154E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>34</v>
+      <c r="A21" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="B21" s="5">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="5">
-        <v>5</v>
-      </c>
-      <c r="I21" s="5">
-        <v>20</v>
-      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="6">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="O21" s="6">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7">
         <f t="shared" si="2"/>
-        <v>4.7836938435940099E-2</v>
+        <v>2.3514322359982898E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="5">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1299,23 +1287,23 @@
       <c r="M22" s="4"/>
       <c r="N22" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O22" s="6">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7">
         <f t="shared" si="2"/>
-        <v>2.9118136439267885E-2</v>
+        <v>4.2753313381787089E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1330,23 +1318,23 @@
       <c r="M23" s="4"/>
       <c r="N23" s="6">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O23" s="6">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P23" s="7">
         <f t="shared" si="2"/>
-        <v>4.1597337770382693E-2</v>
+        <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="5">
-        <v>80</v>
+      <c r="A24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="4">
+        <v>300</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1361,24 +1349,20 @@
       <c r="M24" s="4"/>
       <c r="N24" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="O24" s="6">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7">
         <f t="shared" si="2"/>
-        <v>3.3277870216306155E-2</v>
+        <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="4">
-        <v>300</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1392,15 +1376,15 @@
       <c r="M25" s="4"/>
       <c r="N25" s="6">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="O25" s="6">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="P25" s="7">
         <f t="shared" si="2"/>
-        <v>0.12479201331114809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,127 +1469,131 @@
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(O7:O28)</f>
+        <v>2339</v>
       </c>
       <c r="P29" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="6">
-        <f>SUM(O7:O29)</f>
-        <v>2404</v>
-      </c>
-      <c r="P30" s="7">
-        <f t="shared" si="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>19</v>
+      <c r="A32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
+        <v>200</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="6">
+        <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>200</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
+        <v>200</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
+        <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" s="5">
-        <v>200</v>
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1615,382 +1603,372 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
+      <c r="K33" s="5">
+        <v>25</v>
+      </c>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="6">
-        <f t="shared" ref="N33:N48" si="3">IF(C33&gt;0,MAX(B33,C33),B33)+E33*$A$3+F33*$B$3+G33*$C$3+H33*$D$3+I33*$E$3+J33*$F$3+K33*$G$3+L33*$H$3+M33*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="O33" s="6">
-        <f t="shared" ref="O33:O52" si="4">MEDIAN(C33,N33,D33)</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" ref="P33:P48" si="5">O33/SUM(O$33:O$52)</f>
-        <v>9.7252613663992224E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="4">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="B34" s="5">
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="5"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="5">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="5">
         <v>25</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
       <c r="N34" s="6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O34" s="6">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P34" s="7">
         <f t="shared" si="5"/>
-        <v>4.8626306831996112E-2</v>
+        <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="5">
-        <v>25</v>
-      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="6">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O35" s="6">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="P35" s="7">
         <f t="shared" si="5"/>
-        <v>9.7252613663992224E-2</v>
+        <v>3.0635690579525147E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="5">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="5">
-        <v>0</v>
-      </c>
+      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="H36" s="5">
+        <v>5</v>
+      </c>
       <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="J36" s="5">
+        <v>20</v>
+      </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="5">
-        <v>0</v>
-      </c>
+      <c r="M36" s="4"/>
       <c r="N36" s="6">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O36" s="6">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P36" s="7">
         <f t="shared" si="5"/>
-        <v>2.9175784099197667E-2</v>
+        <v>4.5953535869287722E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
-      <c r="H37" s="5">
-        <v>5</v>
-      </c>
+      <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="5">
-        <v>20</v>
-      </c>
+      <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
+      <c r="L37" s="5"/>
       <c r="M37" s="4"/>
       <c r="N37" s="6">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O37" s="6">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P37" s="7">
         <f t="shared" si="5"/>
-        <v>4.3763676148796497E-2</v>
+        <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="H38" s="5"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="5">
-        <v>0</v>
-      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O38" s="6">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P38" s="7">
         <f t="shared" si="5"/>
-        <v>4.8626306831996112E-2</v>
+        <v>4.084758743936686E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="5">
-        <v>100</v>
+        <v>43</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
+      <c r="F39" s="5">
+        <v>45</v>
+      </c>
+      <c r="G39" s="5">
+        <v>25</v>
+      </c>
       <c r="H39" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="5">
+        <v>6</v>
+      </c>
       <c r="M39" s="4"/>
       <c r="N39" s="6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="O39" s="6">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="P39" s="7">
         <f t="shared" si="5"/>
-        <v>4.8626306831996112E-2</v>
+        <v>7.301506254786827E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="B40" s="5">
+        <v>40</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="5">
-        <v>45</v>
-      </c>
-      <c r="G40" s="5">
-        <v>25</v>
-      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
       <c r="H40" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="5">
-        <v>6</v>
-      </c>
+      <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="6">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O40" s="6">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="P40" s="7">
         <f t="shared" si="5"/>
-        <v>6.9535618769754434E-2</v>
+        <v>4.6974725555271893E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="5">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="5">
-        <v>13</v>
-      </c>
+      <c r="G41" s="5">
+        <v>20</v>
+      </c>
+      <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="M41" s="5">
+        <v>15</v>
+      </c>
       <c r="N41" s="6">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="O41" s="6">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="P41" s="7">
         <f t="shared" si="5"/>
-        <v>4.473620228543642E-2</v>
+        <v>6.6377329588971148E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="4">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="B42" s="5">
+        <v>100</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="5">
-        <v>20</v>
-      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="5"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="5">
-        <v>15</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="6">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O42" s="6">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P42" s="7">
         <f t="shared" si="5"/>
-        <v>6.3214198881594949E-2</v>
+        <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="5">
-        <v>100</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="5">
+        <v>10</v>
+      </c>
+      <c r="D43" s="5">
+        <v>125</v>
+      </c>
+      <c r="E43" s="5">
+        <v>1</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
+      <c r="K43" s="4"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
+      <c r="M43" s="4">
+        <v>1</v>
+      </c>
       <c r="N43" s="6">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="O43" s="6">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="P43" s="7">
         <f t="shared" si="5"/>
-        <v>4.8626306831996112E-2</v>
+        <v>2.5785039571100333E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="5">
-        <v>0</v>
-      </c>
-      <c r="C44" s="5">
-        <v>10</v>
-      </c>
-      <c r="D44" s="5">
-        <v>125</v>
-      </c>
-      <c r="E44" s="5">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1998,25 +1976,25 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4">
-        <v>1</v>
+      <c r="M44" s="5">
+        <v>25</v>
       </c>
       <c r="N44" s="6">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="O44" s="6">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="P44" s="7">
         <f t="shared" si="5"/>
-        <v>2.4556284950158037E-2</v>
+        <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B45" s="5">
         <v>50</v>
@@ -2044,48 +2022,48 @@
       </c>
       <c r="P45" s="7">
         <f t="shared" si="5"/>
-        <v>9.7252613663992224E-2</v>
+        <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="5">
         <v>50</v>
+      </c>
+      <c r="B46" s="4">
+        <v>0</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
-      <c r="H46" s="5">
-        <v>7</v>
-      </c>
+      <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="5">
+        <v>12</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="6">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="O46" s="6">
         <f t="shared" si="4"/>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="P46" s="7">
         <f t="shared" si="5"/>
-        <v>3.7928519328956967E-2</v>
+        <v>2.4508552463620117E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B47" s="5">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2094,32 +2072,30 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
+      <c r="J47" s="5">
+        <v>15</v>
+      </c>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="5">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="N47" s="6">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="O47" s="6">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="P47" s="7">
         <f t="shared" si="5"/>
-        <v>9.7252613663992224E-2</v>
+        <v>8.4248149093694158E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
-      </c>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -2128,31 +2104,25 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="5">
-        <v>12</v>
-      </c>
+      <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
       <c r="N48" s="6">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>0</v>
       </c>
       <c r="O48" s="6">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="P48" s="7">
         <f t="shared" si="5"/>
-        <v>2.3340627279358133E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B49" s="5">
-        <v>60</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2160,25 +2130,21 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="5">
-        <v>15</v>
-      </c>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="5">
-        <v>15</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="6">
-        <f>SUM(B49+E49*$A$3+F49*$B$3+G49*$C$3+H49*$D$3+I49*$E$3+J49*$F$3+K49*$G$3+L49*$H$3+M49*$I$3)</f>
-        <v>165</v>
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
       <c r="O49" s="6">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="P49" s="7">
-        <f>O49/SUM(O$7:O$29)</f>
-        <v>6.8635607321131442E-2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2196,7 +2162,7 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="6">
-        <f t="shared" ref="N50:N52" si="6">IF(C50&gt;0,MAX(B50,C50),B50)+E50*$A$3+F50*$B$3+G50*$C$3+H50*$D$3+I50*$E$3+J50*$F$3+K50*$G$3+L50*$H$3+M50*$I$3</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="6">
@@ -2204,159 +2170,171 @@
         <v>0</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" ref="P50:P53" si="7">O50/SUM(O$33:O$52)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="N51" s="2"/>
       <c r="O51" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(O32:O50)</f>
+        <v>1958.5</v>
       </c>
       <c r="P51" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+    </row>
+    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5">
+        <v>135</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="6">
+        <f t="shared" ref="N54:N72" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <v>135</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" ref="O54:O72" si="8">MEDIAN(C54,N54,D54)</f>
+        <v>135</v>
+      </c>
+      <c r="P54" s="7">
+        <f t="shared" ref="P54:P73" si="9">O54/SUM(O$54:O$72)</f>
+        <v>0.16463414634146342</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" s="5">
+        <v>40</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="5">
+        <v>5</v>
+      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="5">
+        <v>5</v>
+      </c>
+      <c r="N55" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="6">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="6">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P52" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="6">
-        <f>SUM(O33:O52)</f>
-        <v>2056.5</v>
-      </c>
-      <c r="P53" s="7">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-    </row>
-    <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P55" s="3" t="s">
-        <v>19</v>
+        <v>90</v>
+      </c>
+      <c r="O55" s="6">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="P55" s="7">
+        <f t="shared" si="9"/>
+        <v>0.10975609756097561</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B56" s="5">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2368,18 +2346,20 @@
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="5">
+        <v>10</v>
+      </c>
       <c r="N56" s="6">
-        <f t="shared" ref="N56:N74" si="8">IF(C56&gt;0,MAX(B56,C56),B56)+E56*$A$3+F56*$B$3+G56*$C$3+H56*$D$3+I56*$E$3+J56*$F$3+K56*$G$3+L56*$H$3+M56*$I$3</f>
-        <v>105</v>
+        <f t="shared" si="7"/>
+        <v>110</v>
       </c>
       <c r="O56" s="6">
-        <f t="shared" ref="O56:O74" si="9">MEDIAN(C56,N56,D56)</f>
-        <v>105</v>
+        <f t="shared" si="8"/>
+        <v>110</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" ref="P56:P75" si="10">O56/SUM(O$56:O$74)</f>
-        <v>0.14685314685314685</v>
+        <f t="shared" si="9"/>
+        <v>0.13414634146341464</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2387,7 +2367,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="5">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2395,26 +2375,24 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="5">
-        <v>5</v>
-      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="O57" s="6">
         <f t="shared" si="8"/>
-        <v>100</v>
-      </c>
-      <c r="O57" s="6">
+        <v>80</v>
+      </c>
+      <c r="P57" s="7">
         <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
-      <c r="P57" s="7">
-        <f t="shared" si="10"/>
-        <v>0.13986013986013987</v>
+        <v>9.7560975609756101E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,108 +2400,108 @@
         <v>55</v>
       </c>
       <c r="B58" s="5">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="H58" s="5">
+        <v>10</v>
+      </c>
+      <c r="I58" s="5">
+        <v>20</v>
+      </c>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="5">
-        <v>10</v>
-      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="6">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="O58" s="6">
         <f t="shared" si="8"/>
-        <v>120</v>
-      </c>
-      <c r="O58" s="6">
+        <v>135</v>
+      </c>
+      <c r="P58" s="7">
         <f t="shared" si="9"/>
-        <v>120</v>
-      </c>
-      <c r="P58" s="7">
-        <f t="shared" si="10"/>
-        <v>0.16783216783216784</v>
+        <v>0.16463414634146342</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B59" s="5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="5">
-        <v>10</v>
-      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="5">
+        <v>15</v>
+      </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
       <c r="N59" s="6">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="O59" s="6">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="O59" s="6">
+      <c r="P59" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="P59" s="7">
-        <f t="shared" si="10"/>
-        <v>0.11188811188811189</v>
+        <v>9.7560975609756101E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>57</v>
+      <c r="A60" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B60" s="5">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="5">
-        <v>10</v>
-      </c>
-      <c r="I60" s="5">
-        <v>20</v>
-      </c>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="5">
+        <v>10</v>
+      </c>
       <c r="N60" s="6">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="O60" s="6">
         <f t="shared" si="8"/>
-        <v>135</v>
-      </c>
-      <c r="O60" s="6">
+        <v>85</v>
+      </c>
+      <c r="P60" s="7">
         <f t="shared" si="9"/>
-        <v>135</v>
-      </c>
-      <c r="P60" s="7">
-        <f t="shared" si="10"/>
-        <v>0.1888111888111888</v>
+        <v>0.10365853658536585</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="5">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="B61" s="4">
+        <v>25</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2533,31 +2511,29 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="5">
-        <v>15</v>
+      <c r="K61" s="4">
+        <v>5</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
+      <c r="M61" s="4">
+        <v>10</v>
+      </c>
       <c r="N61" s="6">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="O61" s="6">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="O61" s="6">
+        <v>105</v>
+      </c>
+      <c r="P61" s="7">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="P61" s="7">
-        <f t="shared" si="10"/>
-        <v>0.11188811188811189</v>
+        <v>0.12804878048780488</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" s="5">
-        <v>35</v>
-      </c>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -2568,20 +2544,18 @@
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="5">
-        <v>10</v>
-      </c>
+      <c r="M62" s="4"/>
       <c r="N62" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="6">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="O62" s="6">
+        <v>0</v>
+      </c>
+      <c r="P62" s="7">
         <f t="shared" si="9"/>
-        <v>95</v>
-      </c>
-      <c r="P62" s="7">
-        <f t="shared" si="10"/>
-        <v>0.13286713286713286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,15 +2573,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O63" s="6">
+      <c r="P63" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2626,15 +2600,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O64" s="6">
+      <c r="P64" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2653,15 +2627,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O65" s="6">
+      <c r="P65" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2680,15 +2654,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O66" s="6">
+      <c r="P66" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2707,15 +2681,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O67" s="6">
+      <c r="P67" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2734,15 +2708,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O68" s="6">
+      <c r="P68" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P68" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2761,15 +2735,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O69" s="6">
+      <c r="P69" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2788,15 +2762,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O70" s="6">
+      <c r="P70" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2815,15 +2789,15 @@
       <c r="L71" s="4"/>
       <c r="M71" s="4"/>
       <c r="N71" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O71" s="6">
+      <c r="P71" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P71" s="7">
-        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2842,71 +2816,49 @@
       <c r="L72" s="4"/>
       <c r="M72" s="4"/>
       <c r="N72" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O72" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O72" s="6">
+      <c r="P72" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="P72" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
-      <c r="M73" s="4"/>
-      <c r="N73" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="N73" s="2"/>
       <c r="O73" s="6">
+        <f>SUM(O53:O72)</f>
+        <v>820</v>
+      </c>
+      <c r="P73" s="7">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P73" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P74" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
     </row>
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
@@ -2918,14 +2870,8 @@
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="N75" s="2"/>
-      <c r="O75" s="6">
-        <f>SUM(O55:O74)</f>
-        <v>715</v>
-      </c>
-      <c r="P75" s="7">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
     </row>
     <row r="76" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
@@ -14939,33 +14885,7 @@
       <c r="O999" s="2"/>
       <c r="P999" s="2"/>
     </row>
-    <row r="1000" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-    </row>
-    <row r="1001" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
-      <c r="P1001" s="2"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erki\Documents\GitHub\Skull132\Aurora.3\tools\Event Probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\SS13\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -189,9 +189,6 @@
     <t>Space Vines</t>
   </si>
   <si>
-    <t>Bear Attack</t>
-  </si>
-  <si>
     <t>Wallrot</t>
   </si>
   <si>
@@ -200,12 +197,15 @@
   <si>
     <t>CCIAA General Notice</t>
   </si>
+  <si>
+    <t>Hostile Animals</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,6 +213,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -259,18 +264,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +292,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -584,25 +590,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="26" width="7" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
+    <col min="9" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" customWidth="1"/>
+    <col min="17" max="26" width="7" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,31 +628,31 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="2"/>
@@ -653,32 +660,32 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>SUM(B3:I3)*1.5</f>
         <v>34.5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>6</v>
       </c>
       <c r="N3" s="2"/>
@@ -723,747 +730,747 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7">
         <f t="shared" ref="N7:N28" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <f t="shared" ref="O7:O28" si="1">MEDIAN(C7,N7,D7)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
         <v>5.1303976058144504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
         <v>15</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="6">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
         <v>20</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <f t="shared" si="2"/>
         <v>1.4963659683625482E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="6">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <f t="shared" si="2"/>
         <v>2.5651988029072252E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>300</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>10</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <f t="shared" si="2"/>
         <v>4.2753313381787093E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="6">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <f t="shared" si="2"/>
         <v>6.412997007268063E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>300</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <f t="shared" si="2"/>
         <v>2.1376656690893545E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>30</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="6">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="7">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="8">
         <f t="shared" si="2"/>
         <v>4.2325780247969215E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>400</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="8">
         <f t="shared" si="2"/>
         <v>0.17101325352714836</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>60</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6">
         <v>20</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6">
         <v>10</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="8">
         <f t="shared" si="2"/>
         <v>5.9854638734501926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6">
         <v>75</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
         <v>5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>20</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="7">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="8">
         <f t="shared" si="2"/>
         <v>4.9166310389055154E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>55</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="7">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="8">
         <f t="shared" si="2"/>
         <v>2.3514322359982898E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="8">
         <f t="shared" si="2"/>
         <v>4.2753313381787089E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>80</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5">
         <v>300</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1478,11 +1485,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="6">
+      <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
         <v>2339</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1508,668 +1515,668 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>200</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="6">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="7">
         <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="7">
         <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="8">
         <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>0</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6">
         <v>25</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="6">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>50</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="5">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6">
         <v>25</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>60</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="7">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="8">
         <f t="shared" si="5"/>
         <v>3.0635690579525147E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>50</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6">
         <v>5</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5">
+      <c r="I36" s="5"/>
+      <c r="J36" s="6">
         <v>20</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="6">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="7">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="7">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="8">
         <f t="shared" si="5"/>
         <v>4.5953535869287722E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>100</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>80</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="6">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="7">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="7">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="8">
         <f t="shared" si="5"/>
         <v>4.084758743936686E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>0</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6">
         <v>45</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <v>25</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>6</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6">
         <v>6</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="6">
+      <c r="M39" s="5"/>
+      <c r="N39" s="7">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="7">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="8">
         <f t="shared" si="5"/>
         <v>7.301506254786827E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6">
         <v>13</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="6">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="7">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="7">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="8">
         <f t="shared" si="5"/>
         <v>4.6974725555271893E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6">
         <v>20</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6">
         <v>15</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="7">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="7">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="8">
         <f t="shared" si="5"/>
         <v>6.6377329588971148E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>100</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="6">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>0</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>125</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
         <v>1</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="7">
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="7">
         <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="8">
         <f t="shared" si="5"/>
         <v>2.5785039571100333E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>50</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6">
         <v>25</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6">
         <v>50</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6">
         <v>25</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>0</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="5">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6">
         <v>12</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="6">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="7">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="8">
         <f t="shared" si="5"/>
         <v>2.4508552463620117E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>60</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5">
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6">
         <v>15</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="7">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="7">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="8">
         <f t="shared" si="5"/>
         <v>8.4248149093694158E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="6">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="7">
         <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="6">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="6">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2184,11 +2191,11 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="6">
+      <c r="O51" s="7">
         <f>SUM(O32:O50)</f>
         <v>1958.5</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2214,616 +2221,616 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>135</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="6">
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="7">
         <f t="shared" ref="N54:N72" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54" s="7">
         <f t="shared" ref="O54:O72" si="8">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="8">
         <f t="shared" ref="P54:P73" si="9">O54/SUM(O$54:O$72)</f>
-        <v>0.16463414634146342</v>
+        <v>0.16770186335403728</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <v>40</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>5</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="5">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="6">
         <v>5</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="7">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="7">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="8">
         <f t="shared" si="9"/>
-        <v>0.10975609756097561</v>
+        <v>0.11180124223602485</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>50</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="6">
         <v>10</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="7">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="7">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="8">
         <f t="shared" si="9"/>
-        <v>0.13414634146341464</v>
+        <v>0.13664596273291926</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <v>40</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6">
         <v>10</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="6">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="7">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="7">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="8">
         <f t="shared" si="9"/>
-        <v>9.7560975609756101E-2</v>
+        <v>9.9378881987577633E-2</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>75</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6">
         <v>10</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="6">
         <v>20</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="6">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="7">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="7">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="8">
         <f t="shared" si="9"/>
-        <v>0.16463414634146342</v>
+        <v>0.16770186335403728</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <v>20</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="5">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6">
         <v>15</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="6">
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="7">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="7">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="8">
         <f t="shared" si="9"/>
-        <v>9.7560975609756101E-2</v>
+        <v>9.9378881987577633E-2</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="5">
+      <c r="A60" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6">
+        <v>10</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="6">
+        <v>10</v>
+      </c>
+      <c r="N60" s="7">
+        <f t="shared" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="O60" s="7">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="P60" s="8">
+        <f t="shared" si="9"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B61" s="5">
         <v>25</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="5">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
+        <v>5</v>
+      </c>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5">
         <v>10</v>
       </c>
-      <c r="N60" s="6">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="O60" s="6">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="P60" s="7">
-        <f t="shared" si="9"/>
-        <v>0.10365853658536585</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="4">
-        <v>25</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <v>5</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
-        <v>10</v>
-      </c>
-      <c r="N61" s="6">
+      <c r="N61" s="7">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61" s="7">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="8">
         <f t="shared" si="9"/>
-        <v>0.12804878048780488</v>
+        <v>0.13043478260869565</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="6">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="6">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O63" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="6">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O64" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="6">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O65" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="6">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O66" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="6">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O67" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="6">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O68" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="6">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="6">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="6">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="6">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -2838,11 +2845,11 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="6">
+      <c r="O73" s="7">
         <f>SUM(O53:O72)</f>
-        <v>820</v>
-      </c>
-      <c r="P73" s="7">
+        <v>805</v>
+      </c>
+      <c r="P73" s="8">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erki\Documents\GitHub\Skull132\Aurora.3\tools\Event Probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Aurora\Maploader\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Space Vines</t>
   </si>
   <si>
-    <t>Bear Attack</t>
-  </si>
-  <si>
     <t>Wallrot</t>
   </si>
   <si>
@@ -204,8 +201,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -213,6 +210,11 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -259,15 +261,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,28 +584,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.140625" customWidth="1"/>
-    <col min="17" max="26" width="7" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="3" customWidth="1"/>
+    <col min="9" max="13" width="7" style="3" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="3" customWidth="1"/>
+    <col min="17" max="26" width="7" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="15.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -621,31 +625,31 @@
       <c r="P1" s="2"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="2"/>
@@ -653,32 +657,32 @@
       <c r="P2" s="2"/>
     </row>
     <row r="3" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <f>SUM(B3:I3)*1.5</f>
         <v>34.5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>6</v>
       </c>
       <c r="N3" s="2"/>
@@ -723,747 +727,747 @@
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>120</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="6">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7">
         <f t="shared" ref="N7:N28" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="7">
         <f t="shared" ref="O7:O28" si="1">MEDIAN(C7,N7,D7)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
         <v>5.1303976058144504E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6">
         <v>15</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="6">
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>15</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="5">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6">
         <v>20</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6">
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="7">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="8">
         <f t="shared" si="2"/>
         <v>1.4963659683625482E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>20</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5">
         <v>10</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="6">
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="8">
         <f t="shared" si="2"/>
         <v>2.5651988029072252E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="5">
         <v>300</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>20</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>10</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="6">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13" s="7">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="8">
         <f t="shared" si="2"/>
         <v>4.2753313381787093E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="5">
         <v>0</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="6">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="8">
         <f t="shared" si="2"/>
         <v>6.412997007268063E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="5">
         <v>300</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="5">
         <v>0</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>25</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>50</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>4</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="6">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="7">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="8">
         <f t="shared" si="2"/>
         <v>2.1376656690893545E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="6">
         <v>30</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="6">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="7">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17" s="7">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="8">
         <f t="shared" si="2"/>
         <v>4.2325780247969215E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="5">
         <v>400</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="6">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="7">
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="8">
         <f t="shared" si="2"/>
         <v>0.17101325352714836</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="6">
         <v>60</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6">
         <v>20</v>
       </c>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="5">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="6">
         <v>10</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="7">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="7">
         <f t="shared" si="1"/>
         <v>140</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="8">
         <f t="shared" si="2"/>
         <v>5.9854638734501926E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="5">
+      <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6">
         <v>75</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="5">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
         <v>5</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>20</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="6">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="7">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="7">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="8">
         <f t="shared" si="2"/>
         <v>4.9166310389055154E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="6">
         <v>55</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="6">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="7">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21" s="7">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="8">
         <f t="shared" si="2"/>
         <v>2.3514322359982898E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="6">
         <v>100</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="6">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="8">
         <f t="shared" si="2"/>
         <v>4.2753313381787089E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="6">
         <v>80</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="6">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="7">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="8">
         <f t="shared" si="2"/>
         <v>3.4202650705429674E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="5">
         <v>300</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="7">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="7">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="8">
         <f t="shared" si="2"/>
         <v>0.12825994014536127</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="6">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="6">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1478,11 +1482,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="6">
+      <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
         <v>2339</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -1508,668 +1512,668 @@
       <c r="P30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="3" t="s">
+      <c r="M31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="3" t="s">
+      <c r="O31" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="3" t="s">
+      <c r="P31" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="6">
         <v>200</v>
       </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="6">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="7">
         <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
-      <c r="O32" s="6">
+      <c r="O32" s="7">
         <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="8">
         <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="5">
         <v>0</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="5">
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="6">
         <v>25</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="6">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O33" s="6">
+      <c r="O33" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="6">
         <v>50</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="5">
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="6">
         <v>25</v>
       </c>
-      <c r="N34" s="6">
+      <c r="N34" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O34" s="6">
+      <c r="O34" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="6">
         <v>60</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6">
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="7">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="O35" s="6">
+      <c r="O35" s="7">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="8">
         <f t="shared" si="5"/>
         <v>3.0635690579525147E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="6">
         <v>50</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6">
         <v>5</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5">
+      <c r="I36" s="5"/>
+      <c r="J36" s="6">
         <v>20</v>
       </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="6">
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="7">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="O36" s="6">
+      <c r="O36" s="7">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="8">
         <f t="shared" si="5"/>
         <v>4.5953535869287722E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="6">
         <v>100</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="6">
         <v>80</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="6">
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="7">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38" s="7">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="8">
         <f t="shared" si="5"/>
         <v>4.084758743936686E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="4">
+      <c r="B39" s="5">
         <v>0</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="5">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="6">
         <v>45</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <v>25</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>6</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="5">
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="6">
         <v>6</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="6">
+      <c r="M39" s="5"/>
+      <c r="N39" s="7">
         <f t="shared" si="3"/>
         <v>143</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39" s="7">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="8">
         <f t="shared" si="5"/>
         <v>7.301506254786827E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="6">
         <v>40</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="5">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6">
         <v>13</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="6">
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="7">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40" s="7">
         <f t="shared" si="4"/>
         <v>92</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="8">
         <f t="shared" si="5"/>
         <v>4.6974725555271893E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="5">
         <v>0</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="5">
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="6">
         <v>20</v>
       </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5">
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="6">
         <v>15</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41" s="7">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41" s="7">
         <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="8">
         <f t="shared" si="5"/>
         <v>6.6377329588971148E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="6">
         <v>100</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="6">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="7">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42" s="7">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="8">
         <f t="shared" si="5"/>
         <v>5.1059484299208577E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="6">
         <v>0</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>10</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>125</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4">
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
         <v>1</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43" s="7">
         <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43" s="7">
         <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="8">
         <f t="shared" si="5"/>
         <v>2.5785039571100333E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="6">
         <v>50</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="5">
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="6">
         <v>25</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="5">
+      <c r="A45" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="6">
         <v>50</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="5">
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="6">
         <v>25</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45" s="7">
         <f t="shared" si="3"/>
         <v>200</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45" s="7">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="8">
         <f t="shared" si="5"/>
         <v>0.10211896859841715</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4">
+      <c r="B46" s="5">
         <v>0</v>
       </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="5">
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6">
         <v>12</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="6">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="7">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46" s="7">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="8">
         <f t="shared" si="5"/>
         <v>2.4508552463620117E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="6">
         <v>60</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="5">
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="6">
         <v>15</v>
       </c>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5">
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="6">
         <v>15</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47" s="7">
         <f t="shared" si="3"/>
         <v>165</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47" s="7">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="8">
         <f t="shared" si="5"/>
         <v>8.4248149093694158E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="6">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="7">
         <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="6">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="6">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50" s="7">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2184,11 +2188,11 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="6">
+      <c r="O51" s="7">
         <f>SUM(O32:O50)</f>
         <v>1958.5</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="8">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -2214,618 +2218,604 @@
       <c r="P52" s="2"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H53" s="3" t="s">
+      <c r="H53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="P53" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="6">
         <v>135</v>
       </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="6">
-        <f t="shared" ref="N54:N72" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="7">
+        <f t="shared" ref="N54:N71" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
-      <c r="O54" s="6">
-        <f t="shared" ref="O54:O72" si="8">MEDIAN(C54,N54,D54)</f>
+      <c r="O54" s="7">
+        <f t="shared" ref="O54:O71" si="8">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
-      <c r="P54" s="7">
-        <f t="shared" ref="P54:P73" si="9">O54/SUM(O$54:O$72)</f>
-        <v>0.16463414634146342</v>
+      <c r="P54" s="8">
+        <f>O54/SUM(O$54:O$71)</f>
+        <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="6">
         <v>40</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="5">
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="6">
         <v>5</v>
       </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="5">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="6">
         <v>5</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55" s="7">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55" s="7">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="P55" s="7">
-        <f t="shared" si="9"/>
-        <v>0.10975609756097561</v>
+      <c r="P55" s="8">
+        <f>O55/SUM(O$54:O$71)</f>
+        <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="6">
         <v>50</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5">
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="6">
         <v>10</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56" s="7">
         <f t="shared" si="7"/>
         <v>110</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56" s="7">
         <f t="shared" si="8"/>
         <v>110</v>
       </c>
-      <c r="P56" s="7">
-        <f t="shared" si="9"/>
-        <v>0.13414634146341464</v>
+      <c r="P56" s="8">
+        <f>O56/SUM(O$54:O$71)</f>
+        <v>0.14965986394557823</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="6">
         <v>40</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="5">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="6">
         <v>10</v>
       </c>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="6">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="7">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57" s="7">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="P57" s="7">
-        <f t="shared" si="9"/>
-        <v>9.7560975609756101E-2</v>
+      <c r="P57" s="8">
+        <f>O57/SUM(O$54:O$71)</f>
+        <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="6">
         <v>75</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="5">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6">
         <v>10</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="6">
         <v>20</v>
       </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="6">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="7">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58" s="7">
         <f t="shared" si="8"/>
         <v>135</v>
       </c>
-      <c r="P58" s="7">
-        <f t="shared" si="9"/>
-        <v>0.16463414634146342</v>
+      <c r="P58" s="8">
+        <f>O58/SUM(O$54:O$71)</f>
+        <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="6">
         <v>20</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="5">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6">
         <v>15</v>
       </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="6">
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="7">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59" s="7">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="P59" s="7">
-        <f t="shared" si="9"/>
-        <v>9.7560975609756101E-2</v>
+      <c r="P59" s="8">
+        <f>O59/SUM(O$54:O$71)</f>
+        <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B60" s="5">
         <v>25</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5">
+        <v>5</v>
+      </c>
+      <c r="L60" s="5"/>
       <c r="M60" s="5">
         <v>10</v>
       </c>
-      <c r="N60" s="6">
-        <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="O60" s="6">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="P60" s="7">
-        <f t="shared" si="9"/>
-        <v>0.10365853658536585</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B61" s="4">
-        <v>25</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <v>5</v>
-      </c>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4">
-        <v>10</v>
-      </c>
-      <c r="N61" s="6">
+      <c r="N60" s="7">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O60" s="7">
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
-      <c r="P61" s="7">
-        <f t="shared" si="9"/>
-        <v>0.12804878048780488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="6">
+      <c r="P60" s="8">
+        <f>O60/SUM(O$54:O$71)</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O61" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P62" s="7">
-        <f t="shared" si="9"/>
+      <c r="P61" s="8">
+        <f>O61/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="6">
+    <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O63" s="6">
+      <c r="O62" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P63" s="7">
-        <f t="shared" si="9"/>
+      <c r="P62" s="8">
+        <f>O62/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="6">
+    <row r="63" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O64" s="6">
+      <c r="O63" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P64" s="7">
-        <f t="shared" si="9"/>
+      <c r="P63" s="8">
+        <f>O63/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="6">
+    <row r="64" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O64" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P65" s="7">
-        <f t="shared" si="9"/>
+      <c r="P64" s="8">
+        <f>O64/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="6">
+    <row r="65" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O66" s="6">
+      <c r="O65" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P66" s="7">
-        <f t="shared" si="9"/>
+      <c r="P65" s="8">
+        <f>O65/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="6">
+    <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O67" s="6">
+      <c r="O66" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P67" s="7">
-        <f t="shared" si="9"/>
+      <c r="P66" s="8">
+        <f>O66/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="6">
+    <row r="67" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+      <c r="M67" s="5"/>
+      <c r="N67" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O68" s="6">
+      <c r="O67" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P68" s="7">
-        <f t="shared" si="9"/>
+      <c r="P67" s="8">
+        <f>O67/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="6">
+    <row r="68" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O68" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P69" s="7">
-        <f t="shared" si="9"/>
+      <c r="P68" s="8">
+        <f>O68/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="6">
+    <row r="69" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+      <c r="M69" s="5"/>
+      <c r="N69" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O69" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P70" s="7">
-        <f t="shared" si="9"/>
+      <c r="P69" s="8">
+        <f>O69/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="6">
+    <row r="70" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O70" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P71" s="7">
-        <f t="shared" si="9"/>
+      <c r="P70" s="8">
+        <f>O70/SUM(O$54:O$71)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="6">
+    <row r="71" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+      <c r="M71" s="5"/>
+      <c r="N71" s="7">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O71" s="7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="P72" s="7">
-        <f t="shared" si="9"/>
+      <c r="P71" s="8">
+        <f>O71/SUM(O$54:O$71)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="7">
+        <f>SUM(O53:O71)</f>
+        <v>735</v>
+      </c>
+      <c r="P72" s="8">
+        <f>O72/SUM(O$54:O$71)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,14 +2828,8 @@
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="N73" s="2"/>
-      <c r="O73" s="6">
-        <f>SUM(O53:O72)</f>
-        <v>820</v>
-      </c>
-      <c r="P73" s="7">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
     </row>
     <row r="74" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
@@ -14872,19 +14856,6 @@
       <c r="O998" s="2"/>
       <c r="P998" s="2"/>
     </row>
-    <row r="999" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Aurora\Maploader\tools\Event Probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekte\GitHub\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -197,6 +197,9 @@
   <si>
     <t>CCIAA General Notice</t>
   </si>
+  <si>
+    <t>Lore News</t>
+  </si>
 </sst>
 </file>
 
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +274,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -804,7 +808,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>5.1303976058144504E-2</v>
+        <v>5.3595355069227336E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +841,7 @@
       </c>
       <c r="P8" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>3.573023671281822E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -870,7 +874,7 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" si="2"/>
-        <v>1.4963659683625482E-2</v>
+        <v>1.5631978561857971E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,7 +907,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="2"/>
-        <v>2.5651988029072252E-2</v>
+        <v>2.6797677534613668E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,7 +938,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>0.13398838767306834</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +971,7 @@
       </c>
       <c r="P12" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>3.573023671281822E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,7 +1002,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="2"/>
-        <v>4.2753313381787093E-3</v>
+        <v>4.4662795891022775E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,7 +1039,7 @@
       </c>
       <c r="P14" s="8">
         <f t="shared" si="2"/>
-        <v>6.412997007268063E-3</v>
+        <v>6.6994193836534171E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1047,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="5">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -1058,15 +1062,15 @@
       <c r="M15" s="5"/>
       <c r="N15" s="7">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O15" s="7">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P15" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>8.9325591782045549E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1094,16 +1098,16 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B16+E16*$A$3+F16*$B$3+G16*$C$3+H16*$D$3+I16*$E$3+J16*$F$3+K16*$G$3+L16*$H$3+M16*$I$3)</f>
         <v>138</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C16,N16,D16)</f>
         <v>50</v>
       </c>
       <c r="P16" s="8">
         <f t="shared" si="2"/>
-        <v>2.1376656690893545E-2</v>
+        <v>2.2331397945511387E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1127,16 +1131,16 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
         <v>99</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C17,N17,D17)</f>
         <v>99</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="2"/>
-        <v>4.2325780247969215E-2</v>
+        <v>4.4216167932112548E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1148,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="5">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1158,16 +1162,16 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <v>100</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f>MEDIAN(C18,N18,D18)</f>
+        <v>100</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="2"/>
-        <v>0.17101325352714836</v>
+        <v>4.4662795891022775E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1193,16 +1197,16 @@
         <v>10</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
         <v>140</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C19,N19,D19)</f>
         <v>140</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="2"/>
-        <v>5.9854638734501926E-2</v>
+        <v>6.2527914247431884E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1228,16 +1232,16 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
         <v>115</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C20,N20,D20)</f>
         <v>115</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="2"/>
-        <v>4.9166310389055154E-2</v>
+        <v>5.1362215274676194E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,16 +1263,16 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
         <v>55</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C21,N21,D21)</f>
         <v>55</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="2"/>
-        <v>2.3514322359982898E-2</v>
+        <v>2.4564537740062529E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1290,16 +1294,16 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
         <v>100</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C22,N22,D22)</f>
         <v>100</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="2"/>
-        <v>4.2753313381787089E-2</v>
+        <v>4.4662795891022775E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,16 +1325,16 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
         <v>80</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C23,N23,D23)</f>
         <v>80</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>3.573023671281822E-2</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1352,21 +1356,25 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7">
-        <f t="shared" si="0"/>
+        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
         <v>300</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="1"/>
+        <f>MEDIAN(C24,N24,D24)</f>
         <v>300</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>0.13398838767306834</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="5">
+        <v>300</v>
+      </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1379,16 +1387,16 @@
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
+        <v>300</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>MEDIAN(C25,N25,D25)</f>
+        <v>300</v>
       </c>
       <c r="P25" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13398838767306834</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1492,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
-        <v>2339</v>
+        <v>2239</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="2"/>
@@ -2294,7 +2302,7 @@
         <v>135</v>
       </c>
       <c r="P54" s="8">
-        <f>O54/SUM(O$54:O$71)</f>
+        <f t="shared" ref="P54:P72" si="9">O54/SUM(O$54:O$71)</f>
         <v>0.18367346938775511</v>
       </c>
     </row>
@@ -2329,7 +2337,7 @@
         <v>90</v>
       </c>
       <c r="P55" s="8">
-        <f>O55/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.12244897959183673</v>
       </c>
     </row>
@@ -2362,7 +2370,7 @@
         <v>110</v>
       </c>
       <c r="P56" s="8">
-        <f>O56/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.14965986394557823</v>
       </c>
     </row>
@@ -2395,7 +2403,7 @@
         <v>80</v>
       </c>
       <c r="P57" s="8">
-        <f>O57/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
@@ -2430,7 +2438,7 @@
         <v>135</v>
       </c>
       <c r="P58" s="8">
-        <f>O58/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.18367346938775511</v>
       </c>
     </row>
@@ -2463,7 +2471,7 @@
         <v>80</v>
       </c>
       <c r="P59" s="8">
-        <f>O59/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
@@ -2498,7 +2506,7 @@
         <v>105</v>
       </c>
       <c r="P60" s="8">
-        <f>O60/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2525,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="8">
-        <f>O61/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f>O62/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2587,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="8">
-        <f>O63/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2606,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="8">
-        <f>O64/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2633,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="8">
-        <f>O65/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="8">
-        <f>O66/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="8">
-        <f>O67/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2714,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f>O68/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="8">
-        <f>O69/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2768,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="8">
-        <f>O70/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f>O71/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2814,7 +2822,7 @@
         <v>735</v>
       </c>
       <c r="P72" s="8">
-        <f>O72/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Aurora\Maploader\tools\Event Probabilities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\SS13\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BA166FF8-B3CC-49F7-8913-2567B97BB06F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -111,12 +112,6 @@
     <t>PDA Spam</t>
   </si>
   <si>
-    <t>Shipping Error</t>
-  </si>
-  <si>
-    <t>Trivial News</t>
-  </si>
-  <si>
     <t>Vermin Infestation</t>
   </si>
   <si>
@@ -197,12 +192,18 @@
   <si>
     <t>CCIAA General Notice</t>
   </si>
+  <si>
+    <t>Containment Error - Virology</t>
+  </si>
+  <si>
+    <t>Containment Error - Xenobiology</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -218,6 +219,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -261,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,9 +278,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -289,7 +297,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -587,11 +595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" style="3" customWidth="1"/>
@@ -804,7 +812,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>5.1303976058144504E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -837,7 +845,7 @@
       </c>
       <c r="P8" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -870,7 +878,7 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" si="2"/>
-        <v>1.4963659683625482E-2</v>
+        <v>1.9021739130434784E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -903,7 +911,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="2"/>
-        <v>2.5651988029072252E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -934,7 +942,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>0.16304347826086957</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,7 +975,7 @@
       </c>
       <c r="P12" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -998,7 +1006,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="2"/>
-        <v>4.2753313381787093E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1035,7 +1043,7 @@
       </c>
       <c r="P14" s="8">
         <f t="shared" si="2"/>
-        <v>6.412997007268063E-3</v>
+        <v>8.152173913043478E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1066,7 +1074,7 @@
       </c>
       <c r="P15" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>0.16304347826086957</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1103,79 +1111,85 @@
       </c>
       <c r="P16" s="8">
         <f t="shared" si="2"/>
-        <v>2.1376656690893545E-2</v>
+        <v>2.717391304347826E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
-      <c r="E17" s="6">
-        <v>2</v>
-      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="6">
+        <v>20</v>
+      </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
       <c r="N17" s="7">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
+        <v>140</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="1"/>
-        <v>99</v>
+        <f>MEDIAN(C17,N17,D17)</f>
+        <v>140</v>
       </c>
       <c r="P17" s="8">
         <f t="shared" si="2"/>
-        <v>4.2325780247969215E-2</v>
+        <v>7.6086956521739135E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="5">
-        <v>400</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="6">
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>20</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7">
-        <f t="shared" si="0"/>
-        <v>400</v>
+        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <v>115</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="1"/>
-        <v>400</v>
+        <f>MEDIAN(C18,N18,D18)</f>
+        <v>115</v>
       </c>
       <c r="P18" s="8">
         <f t="shared" si="2"/>
-        <v>0.17101325352714836</v>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>32</v>
+      <c r="A19" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="B19" s="6">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1184,60 +1198,52 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="6">
-        <v>20</v>
-      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="6">
-        <v>10</v>
-      </c>
+      <c r="M19" s="5"/>
       <c r="N19" s="7">
-        <f t="shared" si="0"/>
-        <v>140</v>
+        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
+        <v>55</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f>MEDIAN(C19,N19,D19)</f>
+        <v>55</v>
       </c>
       <c r="P19" s="8">
         <f t="shared" si="2"/>
-        <v>5.9854638734501926E-2</v>
+        <v>2.9891304347826088E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>56</v>
+      <c r="A20" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B20" s="6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="6">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6">
-        <v>20</v>
-      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7">
-        <f t="shared" si="0"/>
-        <v>115</v>
+        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
+        <v>100</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f>MEDIAN(C20,N20,D20)</f>
+        <v>100</v>
       </c>
       <c r="P20" s="8">
         <f t="shared" si="2"/>
-        <v>4.9166310389055154E-2</v>
+        <v>5.434782608695652E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1245,7 +1251,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="6">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1259,24 +1265,24 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="7">
-        <f t="shared" si="0"/>
-        <v>55</v>
+        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
+        <v>80</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f>MEDIAN(C21,N21,D21)</f>
+        <v>80</v>
       </c>
       <c r="P21" s="8">
         <f t="shared" si="2"/>
-        <v>2.3514322359982898E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="6">
-        <v>100</v>
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5">
+        <v>300</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1290,25 +1296,21 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
       <c r="N22" s="7">
-        <f t="shared" si="0"/>
-        <v>100</v>
+        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
+        <v>300</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f>MEDIAN(C22,N22,D22)</f>
+        <v>300</v>
       </c>
       <c r="P22" s="8">
         <f t="shared" si="2"/>
-        <v>4.2753313381787089E-2</v>
+        <v>0.16304347826086957</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="6">
-        <v>80</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1321,25 +1323,21 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
+        <v>0</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f>MEDIAN(C23,N23,D23)</f>
+        <v>0</v>
       </c>
       <c r="P23" s="8">
         <f t="shared" si="2"/>
-        <v>3.4202650705429674E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5">
-        <v>300</v>
-      </c>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1352,16 +1350,16 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <v>0</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f>MEDIAN(C24,N24,D24)</f>
+        <v>0</v>
       </c>
       <c r="P24" s="8">
         <f t="shared" si="2"/>
-        <v>0.12825994014536127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1484,7 +1482,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
-        <v>2339</v>
+        <v>1840</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="2"/>
@@ -1493,7 +1491,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1589,12 +1587,12 @@
       </c>
       <c r="P32" s="8">
         <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
-        <v>0.10211896859841715</v>
+        <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -1622,12 +1620,12 @@
       </c>
       <c r="P33" s="8">
         <f t="shared" si="5"/>
-        <v>5.1059484299208577E-2</v>
+        <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>50</v>
@@ -1655,12 +1653,12 @@
       </c>
       <c r="P34" s="8">
         <f t="shared" si="5"/>
-        <v>0.10211896859841715</v>
+        <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6">
         <v>60</v>
@@ -1686,12 +1684,12 @@
       </c>
       <c r="P35" s="8">
         <f t="shared" si="5"/>
-        <v>3.0635690579525147E-2</v>
+        <v>2.7797081306462822E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="6">
         <v>50</v>
@@ -1721,12 +1719,12 @@
       </c>
       <c r="P36" s="8">
         <f t="shared" si="5"/>
-        <v>4.5953535869287722E-2</v>
+        <v>4.1695621959694229E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6">
         <v>100</v>
@@ -1752,12 +1750,12 @@
       </c>
       <c r="P37" s="8">
         <f t="shared" si="5"/>
-        <v>5.1059484299208577E-2</v>
+        <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="6">
         <v>80</v>
@@ -1783,12 +1781,12 @@
       </c>
       <c r="P38" s="8">
         <f t="shared" si="5"/>
-        <v>4.084758743936686E-2</v>
+        <v>3.7062775075283765E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -1822,12 +1820,12 @@
       </c>
       <c r="P39" s="8">
         <f t="shared" si="5"/>
-        <v>7.301506254786827E-2</v>
+        <v>6.6249710447069718E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="6">
         <v>40</v>
@@ -1855,12 +1853,12 @@
       </c>
       <c r="P40" s="8">
         <f t="shared" si="5"/>
-        <v>4.6974725555271893E-2</v>
+        <v>4.2622191336576326E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -1890,25 +1888,29 @@
       </c>
       <c r="P41" s="8">
         <f t="shared" si="5"/>
-        <v>6.6377329588971148E-2</v>
+        <v>6.0227009497336115E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>46</v>
+      <c r="A42" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B42" s="6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
+      <c r="G42" s="5">
+        <v>20</v>
+      </c>
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
+      <c r="K42" s="6">
+        <v>15</v>
+      </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="7">
@@ -1921,54 +1923,50 @@
       </c>
       <c r="P42" s="8">
         <f t="shared" si="5"/>
-        <v>5.1059484299208577E-2</v>
+        <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>47</v>
+      <c r="A43" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
       </c>
-      <c r="C43" s="6">
-        <v>10</v>
-      </c>
-      <c r="D43" s="6">
-        <v>125</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
+      <c r="G43" s="5">
+        <v>20</v>
+      </c>
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
       <c r="J43" s="5"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5">
-        <v>1</v>
-      </c>
+      <c r="L43" s="5">
+        <v>15</v>
+      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="7">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>100</v>
       </c>
       <c r="O43" s="7">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>100</v>
       </c>
       <c r="P43" s="8">
         <f t="shared" si="5"/>
-        <v>2.5785039571100333E-2</v>
+        <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1978,34 +1976,38 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="6"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="6">
-        <v>25</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="7">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O44" s="7">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P44" s="8">
         <f t="shared" si="5"/>
-        <v>0.10211896859841715</v>
+        <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6">
-        <v>50</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>10</v>
+      </c>
+      <c r="D45" s="6">
+        <v>125</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -2013,28 +2015,28 @@
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="6">
-        <v>25</v>
+      <c r="M45" s="5">
+        <v>1</v>
       </c>
       <c r="N45" s="7">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>50.5</v>
       </c>
       <c r="O45" s="7">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>50.5</v>
       </c>
       <c r="P45" s="8">
         <f t="shared" si="5"/>
-        <v>0.10211896859841715</v>
+        <v>2.3395876766272874E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="6">
         <v>50</v>
-      </c>
-      <c r="B46" s="5">
-        <v>0</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -2044,30 +2046,30 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="6">
-        <v>12</v>
-      </c>
+      <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="M46" s="6">
+        <v>25</v>
+      </c>
       <c r="N46" s="7">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="O46" s="7">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>200</v>
       </c>
       <c r="P46" s="8">
         <f t="shared" si="5"/>
-        <v>2.4508552463620117E-2</v>
+        <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2076,30 +2078,32 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
-      <c r="J47" s="6">
-        <v>15</v>
-      </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="6">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N47" s="7">
         <f t="shared" si="3"/>
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="O47" s="7">
         <f t="shared" si="4"/>
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="P47" s="8">
         <f t="shared" si="5"/>
-        <v>8.4248149093694158E-2</v>
+        <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
+      <c r="A48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0</v>
+      </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2108,25 +2112,31 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="6">
+        <v>12</v>
+      </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="7">
         <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="O48" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="P48" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.2237665045170257E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
+      <c r="A49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B49" s="6">
+        <v>60</v>
+      </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2134,21 +2144,25 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
+      <c r="J49" s="6">
+        <v>15</v>
+      </c>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="M49" s="6">
+        <v>15</v>
+      </c>
       <c r="N49" s="7">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="O49" s="7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="P49" s="8">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.6441973592772758E-2</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2190,7 +2204,7 @@
       <c r="N51" s="2"/>
       <c r="O51" s="7">
         <f>SUM(O32:O50)</f>
-        <v>1958.5</v>
+        <v>2158.5</v>
       </c>
       <c r="P51" s="8">
         <f t="shared" si="5"/>
@@ -2199,7 +2213,7 @@
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2294,13 +2308,13 @@
         <v>135</v>
       </c>
       <c r="P54" s="8">
-        <f>O54/SUM(O$54:O$71)</f>
+        <f t="shared" ref="P54:P72" si="9">O54/SUM(O$54:O$71)</f>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="6">
         <v>40</v>
@@ -2329,13 +2343,13 @@
         <v>90</v>
       </c>
       <c r="P55" s="8">
-        <f>O55/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="6">
         <v>50</v>
@@ -2362,13 +2376,13 @@
         <v>110</v>
       </c>
       <c r="P56" s="8">
-        <f>O56/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.14965986394557823</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="6">
         <v>40</v>
@@ -2395,13 +2409,13 @@
         <v>80</v>
       </c>
       <c r="P57" s="8">
-        <f>O57/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="6">
         <v>75</v>
@@ -2430,13 +2444,13 @@
         <v>135</v>
       </c>
       <c r="P58" s="8">
-        <f>O58/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B59" s="6">
         <v>20</v>
@@ -2463,13 +2477,13 @@
         <v>80</v>
       </c>
       <c r="P59" s="8">
-        <f>O59/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B60" s="5">
         <v>25</v>
@@ -2498,7 +2512,7 @@
         <v>105</v>
       </c>
       <c r="P60" s="8">
-        <f>O60/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2525,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="8">
-        <f>O61/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2552,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f>O62/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2579,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="8">
-        <f>O63/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2606,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="8">
-        <f>O64/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2633,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="8">
-        <f>O65/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="8">
-        <f>O66/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2687,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="8">
-        <f>O67/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2714,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f>O68/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2741,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="8">
-        <f>O69/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2768,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="8">
-        <f>O70/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2795,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f>O71/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2814,7 +2828,7 @@
         <v>735</v>
       </c>
       <c r="P72" s="8">
-        <f>O72/SUM(O$54:O$71)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -14858,5 +14872,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\SS13\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BA166FF8-B3CC-49F7-8913-2567B97BB06F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{317441D2-7D29-4DF5-A3E9-7C3FAD219C22}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>Money Hacker</t>
-  </si>
-  <si>
-    <t>Money Lotto</t>
   </si>
   <si>
     <t>Mundane News</t>
@@ -595,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -812,7 +809,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>6.5217391304347824E-2</v>
+        <v>6.575342465753424E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -845,7 +842,7 @@
       </c>
       <c r="P8" s="8">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.3835616438356165E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,7 +875,7 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" si="2"/>
-        <v>1.9021739130434784E-2</v>
+        <v>1.9178082191780823E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -911,7 +908,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="2"/>
-        <v>3.2608695652173912E-2</v>
+        <v>3.287671232876712E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -942,7 +939,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="2"/>
-        <v>0.16304347826086957</v>
+        <v>0.16438356164383561</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -975,7 +972,7 @@
       </c>
       <c r="P12" s="8">
         <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <v>4.3835616438356165E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1006,7 +1003,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="2"/>
-        <v>5.434782608695652E-3</v>
+        <v>5.4794520547945206E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1014,17 +1011,11 @@
         <v>27</v>
       </c>
       <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>5</v>
-      </c>
-      <c r="D14" s="5">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1034,16 +1025,16 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="7">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
+        <f t="shared" ref="N14:N21" si="3">SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
+        <v>300</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
+        <f t="shared" ref="O14:O21" si="4">MEDIAN(C14,N14,D14)</f>
+        <v>300</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" si="2"/>
-        <v>8.152173913043478E-3</v>
+        <f t="shared" ref="P14:P21" si="5">O14/SUM(O$7:O$28)</f>
+        <v>0.16438356164383561</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1051,11 +1042,17 @@
         <v>28</v>
       </c>
       <c r="B15" s="5">
-        <v>300</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>25</v>
+      </c>
+      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5">
+        <v>4</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1065,123 +1062,117 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="7">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="2"/>
-        <v>0.16304347826086957</v>
+        <f t="shared" si="5"/>
+        <v>2.7397260273972601E-2</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5">
-        <v>50</v>
-      </c>
-      <c r="E16" s="5">
-        <v>4</v>
-      </c>
+      <c r="B16" s="6">
+        <v>60</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="6">
+        <v>20</v>
+      </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="M16" s="6">
+        <v>10</v>
+      </c>
       <c r="N16" s="7">
-        <f t="shared" si="0"/>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="1"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="2"/>
-        <v>2.717391304347826E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.6712328767123292E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="B17" s="6">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="6">
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
         <v>20</v>
       </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="6">
-        <v>10</v>
-      </c>
+      <c r="M17" s="5"/>
       <c r="N17" s="7">
-        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="O17" s="7">
-        <f>MEDIAN(C17,N17,D17)</f>
-        <v>140</v>
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="2"/>
-        <v>7.6086956521739135E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.3013698630136991E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>54</v>
+      <c r="A18" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="6">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="6">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6">
-        <v>20</v>
-      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7">
-        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="O18" s="7">
-        <f>MEDIAN(C18,N18,D18)</f>
-        <v>115</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.0136986301369864E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1189,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="6">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1203,16 +1194,16 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="7">
-        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="O19" s="7">
-        <f>MEDIAN(C19,N19,D19)</f>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="2"/>
-        <v>2.9891304347826088E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.4794520547945202E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1220,7 +1211,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1234,24 +1225,24 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7">
-        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="O20" s="7">
-        <f>MEDIAN(C20,N20,D20)</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="P20" s="8">
-        <f t="shared" si="2"/>
-        <v>5.434782608695652E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.3835616438356165E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="6">
-        <v>80</v>
+      <c r="A21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="5">
+        <v>300</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1265,25 +1256,21 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="7">
-        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="O21" s="7">
-        <f>MEDIAN(C21,N21,D21)</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="P21" s="8">
-        <f t="shared" si="2"/>
-        <v>4.3478260869565216E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.16438356164383561</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="5">
-        <v>300</v>
-      </c>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1295,18 +1282,9 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="7">
-        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
-        <v>300</v>
-      </c>
-      <c r="O22" s="7">
-        <f>MEDIAN(C22,N22,D22)</f>
-        <v>300</v>
-      </c>
-      <c r="P22" s="8">
-        <f t="shared" si="2"/>
-        <v>0.16304347826086957</v>
-      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="8"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -1323,11 +1301,11 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7">
-        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
+        <f t="shared" ref="N17:N24" si="6">SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
         <v>0</v>
       </c>
       <c r="O23" s="7">
-        <f>MEDIAN(C23,N23,D23)</f>
+        <f t="shared" ref="O17:O24" si="7">MEDIAN(C23,N23,D23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="8">
@@ -1350,11 +1328,11 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7">
-        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O24" s="7">
-        <f>MEDIAN(C24,N24,D24)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P24" s="8">
@@ -1482,7 +1460,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
-        <v>1840</v>
+        <v>1825</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="2"/>
@@ -1491,7 +1469,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1578,21 +1556,21 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="7">
-        <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N47" si="8">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O50" si="9">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
+        <f t="shared" ref="P32:P51" si="10">O32/SUM(O$32:O$50)</f>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -1611,21 +1589,21 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="6">
         <v>50</v>
@@ -1644,21 +1622,21 @@
         <v>25</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="6">
         <v>60</v>
@@ -1675,21 +1653,21 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
       <c r="N35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.7797081306462822E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="6">
         <v>50</v>
@@ -1710,21 +1688,21 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.1695621959694229E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B37" s="6">
         <v>100</v>
@@ -1741,21 +1719,21 @@
       <c r="L37" s="6"/>
       <c r="M37" s="5"/>
       <c r="N37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B38" s="6">
         <v>80</v>
@@ -1772,21 +1750,21 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3.7062775075283765E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -1811,21 +1789,21 @@
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>143</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.6249710447069718E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B40" s="6">
         <v>40</v>
@@ -1844,21 +1822,21 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>92</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>92</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.2622191336576326E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -1879,21 +1857,21 @@
         <v>15</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>130</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>130</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6.0227009497336115E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1914,21 +1892,21 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1949,21 +1927,21 @@
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6">
         <v>100</v>
@@ -1980,21 +1958,21 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -2019,21 +1997,21 @@
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>50.5</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>50.5</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.3395876766272874E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6">
         <v>50</v>
@@ -2052,21 +2030,21 @@
         <v>25</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>50</v>
@@ -2085,21 +2063,21 @@
         <v>25</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>200</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -2118,21 +2096,21 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="7">
-        <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <f t="shared" ref="N48:N50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>48</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2.2237665045170257E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49" s="6">
         <v>60</v>
@@ -2153,15 +2131,15 @@
         <v>15</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>165</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7.6441973592772758E-2</v>
       </c>
     </row>
@@ -2180,15 +2158,15 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -2207,13 +2185,13 @@
         <v>2158.5</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2300,21 +2278,21 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="7">
-        <f t="shared" ref="N54:N71" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N71" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54:O71" si="8">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O71" si="13">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" ref="P54:P72" si="9">O54/SUM(O$54:O$71)</f>
+        <f t="shared" ref="P54:P72" si="14">O54/SUM(O$54:O$71)</f>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="6">
         <v>40</v>
@@ -2335,21 +2313,21 @@
         <v>5</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>90</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="6">
         <v>50</v>
@@ -2368,21 +2346,21 @@
         <v>10</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>110</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>110</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.14965986394557823</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="6">
         <v>40</v>
@@ -2401,21 +2379,21 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="6">
         <v>75</v>
@@ -2436,21 +2414,21 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>135</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>135</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="6">
         <v>20</v>
@@ -2469,21 +2447,21 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>80</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>80</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B60" s="5">
         <v>25</v>
@@ -2504,15 +2482,15 @@
         <v>10</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2531,15 +2509,15 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2558,15 +2536,15 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2585,15 +2563,15 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2612,15 +2590,15 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2639,15 +2617,15 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2666,15 +2644,15 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2693,15 +2671,15 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2720,15 +2698,15 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2747,15 +2725,15 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2774,15 +2752,15 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P70" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2801,15 +2779,15 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2828,7 +2806,7 @@
         <v>735</v>
       </c>
       <c r="P72" s="8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
     </row>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projekte\SS13\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{317441D2-7D29-4DF5-A3E9-7C3FAD219C22}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BA166FF8-B3CC-49F7-8913-2567B97BB06F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Money Hacker</t>
+  </si>
+  <si>
+    <t>Money Lotto</t>
   </si>
   <si>
     <t>Mundane News</t>
@@ -592,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -809,7 +812,7 @@
       </c>
       <c r="P7" s="8">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>6.575342465753424E-2</v>
+        <v>6.5217391304347824E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,7 +845,7 @@
       </c>
       <c r="P8" s="8">
         <f t="shared" si="2"/>
-        <v>4.3835616438356165E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -875,7 +878,7 @@
       </c>
       <c r="P9" s="8">
         <f t="shared" si="2"/>
-        <v>1.9178082191780823E-2</v>
+        <v>1.9021739130434784E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -908,7 +911,7 @@
       </c>
       <c r="P10" s="8">
         <f t="shared" si="2"/>
-        <v>3.287671232876712E-2</v>
+        <v>3.2608695652173912E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -939,7 +942,7 @@
       </c>
       <c r="P11" s="8">
         <f t="shared" si="2"/>
-        <v>0.16438356164383561</v>
+        <v>0.16304347826086957</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -972,7 +975,7 @@
       </c>
       <c r="P12" s="8">
         <f t="shared" si="2"/>
-        <v>4.3835616438356165E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1003,7 +1006,7 @@
       </c>
       <c r="P13" s="8">
         <f t="shared" si="2"/>
-        <v>5.4794520547945206E-3</v>
+        <v>5.434782608695652E-3</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,11 +1014,17 @@
         <v>27</v>
       </c>
       <c r="B14" s="5">
-        <v>300</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <v>15</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1025,16 +1034,16 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
       <c r="N14" s="7">
-        <f t="shared" ref="N14:N21" si="3">SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
-        <v>300</v>
+        <f t="shared" si="0"/>
+        <v>34.5</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" ref="O14:O21" si="4">MEDIAN(C14,N14,D14)</f>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>15</v>
       </c>
       <c r="P14" s="8">
-        <f t="shared" ref="P14:P21" si="5">O14/SUM(O$7:O$28)</f>
-        <v>0.16438356164383561</v>
+        <f t="shared" si="2"/>
+        <v>8.152173913043478E-3</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1042,17 +1051,11 @@
         <v>28</v>
       </c>
       <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>25</v>
-      </c>
-      <c r="D15" s="5">
-        <v>50</v>
-      </c>
-      <c r="E15" s="5">
-        <v>4</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -1062,117 +1065,123 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
       <c r="N15" s="7">
-        <f t="shared" si="3"/>
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>300</v>
       </c>
       <c r="P15" s="8">
-        <f t="shared" si="5"/>
-        <v>2.7397260273972601E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.16304347826086957</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>25</v>
+      </c>
+      <c r="D16" s="5">
+        <v>50</v>
+      </c>
+      <c r="E16" s="5">
+        <v>4</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
-      <c r="J16" s="6">
-        <v>20</v>
-      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="6">
-        <v>10</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="7">
-        <f t="shared" si="3"/>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>138</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="4"/>
-        <v>140</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="P16" s="8">
-        <f t="shared" si="5"/>
-        <v>7.6712328767123292E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.717391304347826E-2</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B17" s="6">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="H17" s="6">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="6">
         <v>20</v>
       </c>
-      <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6">
+        <v>10</v>
+      </c>
       <c r="N17" s="7">
-        <f t="shared" si="3"/>
-        <v>115</v>
+        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
+        <v>140</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="4"/>
-        <v>115</v>
+        <f>MEDIAN(C17,N17,D17)</f>
+        <v>140</v>
       </c>
       <c r="P17" s="8">
-        <f t="shared" si="5"/>
-        <v>6.3013698630136991E-2</v>
+        <f t="shared" si="2"/>
+        <v>7.6086956521739135E-2</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>30</v>
+      <c r="A18" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="B18" s="6">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>20</v>
+      </c>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="7">
-        <f t="shared" si="3"/>
-        <v>55</v>
+        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <v>115</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="4"/>
-        <v>55</v>
+        <f>MEDIAN(C18,N18,D18)</f>
+        <v>115</v>
       </c>
       <c r="P18" s="8">
-        <f t="shared" si="5"/>
-        <v>3.0136986301369864E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1180,7 +1189,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="6">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1194,16 +1203,16 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="7">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
+        <v>55</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f>MEDIAN(C19,N19,D19)</f>
+        <v>55</v>
       </c>
       <c r="P19" s="8">
-        <f t="shared" si="5"/>
-        <v>5.4794520547945202E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.9891304347826088E-2</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1211,7 +1220,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1225,24 +1234,24 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
       <c r="N20" s="7">
-        <f t="shared" si="3"/>
+        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
+        <v>100</v>
+      </c>
+      <c r="O20" s="7">
+        <f>MEDIAN(C20,N20,D20)</f>
+        <v>100</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="2"/>
+        <v>5.434782608695652E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
         <v>80</v>
-      </c>
-      <c r="O20" s="7">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="P20" s="8">
-        <f t="shared" si="5"/>
-        <v>4.3835616438356165E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="5">
-        <v>300</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1256,21 +1265,25 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
       <c r="N21" s="7">
-        <f t="shared" si="3"/>
+        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
+        <v>80</v>
+      </c>
+      <c r="O21" s="7">
+        <f>MEDIAN(C21,N21,D21)</f>
+        <v>80</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="2"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5">
         <v>300</v>
       </c>
-      <c r="O21" s="7">
-        <f t="shared" si="4"/>
-        <v>300</v>
-      </c>
-      <c r="P21" s="8">
-        <f t="shared" si="5"/>
-        <v>0.16438356164383561</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1282,9 +1295,18 @@
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="8"/>
+      <c r="N22" s="7">
+        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
+        <v>300</v>
+      </c>
+      <c r="O22" s="7">
+        <f>MEDIAN(C22,N22,D22)</f>
+        <v>300</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="2"/>
+        <v>0.16304347826086957</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
@@ -1301,11 +1323,11 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="7">
-        <f t="shared" ref="N17:N24" si="6">SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
+        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
         <v>0</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" ref="O17:O24" si="7">MEDIAN(C23,N23,D23)</f>
+        <f>MEDIAN(C23,N23,D23)</f>
         <v>0</v>
       </c>
       <c r="P23" s="8">
@@ -1328,11 +1350,11 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="7">
-        <f t="shared" si="6"/>
+        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
         <v>0</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="7"/>
+        <f>MEDIAN(C24,N24,D24)</f>
         <v>0</v>
       </c>
       <c r="P24" s="8">
@@ -1460,7 +1482,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="7">
         <f>SUM(O7:O28)</f>
-        <v>1825</v>
+        <v>1840</v>
       </c>
       <c r="P29" s="8">
         <f t="shared" si="2"/>
@@ -1469,7 +1491,7 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1556,21 +1578,21 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
       <c r="N32" s="7">
-        <f t="shared" ref="N32:N47" si="8">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N47" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" ref="O32:O50" si="9">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="8">
-        <f t="shared" ref="P32:P51" si="10">O32/SUM(O$32:O$50)</f>
+        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="5">
         <v>0</v>
@@ -1589,21 +1611,21 @@
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
       <c r="N33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P33" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>50</v>
@@ -1622,21 +1644,21 @@
         <v>25</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="P34" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6">
         <v>60</v>
@@ -1653,21 +1675,21 @@
       <c r="L35" s="5"/>
       <c r="M35" s="6"/>
       <c r="N35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="P35" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.7797081306462822E-2</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B36" s="6">
         <v>50</v>
@@ -1688,21 +1710,21 @@
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
       <c r="N36" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="P36" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.1695621959694229E-2</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6">
         <v>100</v>
@@ -1719,21 +1741,21 @@
       <c r="L37" s="6"/>
       <c r="M37" s="5"/>
       <c r="N37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P37" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B38" s="6">
         <v>80</v>
@@ -1750,21 +1772,21 @@
       <c r="L38" s="5"/>
       <c r="M38" s="5"/>
       <c r="N38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="P38" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>3.7062775075283765E-2</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B39" s="5">
         <v>0</v>
@@ -1789,21 +1811,21 @@
       </c>
       <c r="M39" s="5"/>
       <c r="N39" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>143</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>143</v>
       </c>
       <c r="P39" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>6.6249710447069718E-2</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="6">
         <v>40</v>
@@ -1822,21 +1844,21 @@
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>92</v>
       </c>
       <c r="P40" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.2622191336576326E-2</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B41" s="5">
         <v>0</v>
@@ -1857,21 +1879,21 @@
         <v>15</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
       <c r="P41" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>6.0227009497336115E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="6">
         <v>0</v>
@@ -1892,21 +1914,21 @@
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P42" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
@@ -1927,21 +1949,21 @@
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P43" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6">
         <v>100</v>
@@ -1958,21 +1980,21 @@
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
       <c r="N44" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P44" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>4.63284688441047E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="6">
         <v>0</v>
@@ -1997,21 +2019,21 @@
         <v>1</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>50.5</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>50.5</v>
       </c>
       <c r="P45" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.3395876766272874E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="6">
         <v>50</v>
@@ -2030,21 +2052,21 @@
         <v>25</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="P46" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6">
         <v>50</v>
@@ -2063,21 +2085,21 @@
         <v>25</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="P47" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>9.2656937688209401E-2</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="5">
         <v>0</v>
@@ -2096,21 +2118,21 @@
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
       <c r="N48" s="7">
-        <f t="shared" ref="N48:N50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <f t="shared" ref="N48:N50" si="6">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>48</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>2.2237665045170257E-2</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B49" s="6">
         <v>60</v>
@@ -2131,15 +2153,15 @@
         <v>15</v>
       </c>
       <c r="N49" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>165</v>
       </c>
       <c r="P49" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>7.6441973592772758E-2</v>
       </c>
     </row>
@@ -2158,15 +2180,15 @@
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
       <c r="N50" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P50" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2185,13 +2207,13 @@
         <v>2158.5</v>
       </c>
       <c r="P51" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2278,21 +2300,21 @@
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
       <c r="N54" s="7">
-        <f t="shared" ref="N54:N71" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N71" si="7">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" ref="O54:O71" si="13">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O71" si="8">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="8">
-        <f t="shared" ref="P54:P72" si="14">O54/SUM(O$54:O$71)</f>
+        <f t="shared" ref="P54:P72" si="9">O54/SUM(O$54:O$71)</f>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B55" s="6">
         <v>40</v>
@@ -2313,21 +2335,21 @@
         <v>5</v>
       </c>
       <c r="N55" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="P55" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.12244897959183673</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B56" s="6">
         <v>50</v>
@@ -2346,21 +2368,21 @@
         <v>10</v>
       </c>
       <c r="N56" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>110</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>110</v>
       </c>
       <c r="P56" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.14965986394557823</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" s="6">
         <v>40</v>
@@ -2379,21 +2401,21 @@
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="P57" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B58" s="6">
         <v>75</v>
@@ -2414,21 +2436,21 @@
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="P58" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.18367346938775511</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B59" s="6">
         <v>20</v>
@@ -2447,21 +2469,21 @@
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.10884353741496598</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B60" s="5">
         <v>25</v>
@@ -2482,15 +2504,15 @@
         <v>10</v>
       </c>
       <c r="N60" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>105</v>
       </c>
       <c r="P60" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
     </row>
@@ -2509,15 +2531,15 @@
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
       <c r="N61" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P61" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2536,15 +2558,15 @@
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P62" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2563,15 +2585,15 @@
       <c r="L63" s="5"/>
       <c r="M63" s="5"/>
       <c r="N63" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P63" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2590,15 +2612,15 @@
       <c r="L64" s="5"/>
       <c r="M64" s="5"/>
       <c r="N64" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P64" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2617,15 +2639,15 @@
       <c r="L65" s="5"/>
       <c r="M65" s="5"/>
       <c r="N65" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P65" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2644,15 +2666,15 @@
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P66" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2671,15 +2693,15 @@
       <c r="L67" s="5"/>
       <c r="M67" s="5"/>
       <c r="N67" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P67" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2698,15 +2720,15 @@
       <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P68" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2725,15 +2747,15 @@
       <c r="L69" s="5"/>
       <c r="M69" s="5"/>
       <c r="N69" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P69" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2752,15 +2774,15 @@
       <c r="L70" s="5"/>
       <c r="M70" s="5"/>
       <c r="N70" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O70" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P70" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2779,15 +2801,15 @@
       <c r="L71" s="5"/>
       <c r="M71" s="5"/>
       <c r="N71" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O71" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P71" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -2806,7 +2828,7 @@
         <v>735</v>
       </c>
       <c r="P72" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Byond coding\aurorastation\tools\Event Probabilities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D7A99-DA7C-40D9-846F-45414EFDE725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,12 +301,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,16 +1956,16 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N50" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N49" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O49" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
-        <v>9.1386794608179112E-2</v>
+        <f>O32/SUM(O$32:O$49)</f>
+        <v>9.5762508977735222E-2</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -1927,10 +1980,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1940,22 +1993,22 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>25</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O33/SUM(O$32:O$49)</f>
+        <v>9.5762508977735222E-2</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -1970,10 +2023,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1985,20 +2038,18 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4">
-        <v>25</v>
-      </c>
+      <c r="M34" s="4"/>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="5"/>
-        <v>9.1386794608179112E-2</v>
+        <f>O34/SUM(O$32:O$49)</f>
+        <v>2.8728752693320564E-2</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2013,33 +2064,37 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>20</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="5"/>
-        <v>2.7416038382453736E-2</v>
+        <f>O35/SUM(O$32:O$49)</f>
+        <v>4.3093129039980846E-2</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -2054,37 +2109,33 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
-        <v>20</v>
-      </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="5"/>
-        <v>4.1124057573680602E-2</v>
+        <f>O36/SUM(O$32:O$49)</f>
+        <v>4.7881254488867611E-2</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2099,10 +2150,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2117,15 +2168,15 @@
       <c r="M37" s="4"/>
       <c r="N37" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O37/SUM(O$32:O$49)</f>
+        <v>3.8305003591094088E-2</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2140,33 +2191,41 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="F38" s="4">
+        <v>45</v>
+      </c>
+      <c r="G38" s="4">
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="4">
+        <v>6</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="5"/>
-        <v>3.6554717843271647E-2</v>
+        <f>O38/SUM(O$32:O$49)</f>
+        <v>6.8470193919080685E-2</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2181,41 +2240,35 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <v>45</v>
-      </c>
-      <c r="G39" s="4">
-        <v>25</v>
-      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4">
-        <v>6</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="5"/>
-        <v>6.5341558144848072E-2</v>
+        <f>O39/SUM(O$32:O$49)</f>
+        <v>4.4050754129758202E-2</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2230,35 +2283,37 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>13</v>
-      </c>
+      <c r="G40" s="4">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>15</v>
+      </c>
       <c r="N40" s="5">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="5"/>
-        <v>4.2037925519762397E-2</v>
+        <f>O40/SUM(O$32:O$49)</f>
+        <v>6.2245630835527893E-2</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2273,7 +2328,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -2288,22 +2343,22 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4">
+        <v>15</v>
+      </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>15</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="5">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="5"/>
-        <v>5.9401416495316425E-2</v>
+        <f>O41/SUM(O$32:O$49)</f>
+        <v>4.7881254488867611E-2</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2318,7 +2373,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2333,10 +2388,10 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>15</v>
       </c>
-      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5">
         <f t="shared" si="3"/>
@@ -2347,8 +2402,8 @@
         <v>100</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O42/SUM(O$32:O$49)</f>
+        <v>4.7881254488867611E-2</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -2363,25 +2418,21 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4">
-        <v>20</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4">
-        <v>15</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5">
         <f t="shared" si="3"/>
@@ -2392,8 +2443,8 @@
         <v>100</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O43/SUM(O$32:O$49)</f>
+        <v>4.7881254488867611E-2</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -2408,14 +2459,20 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4">
-        <v>100</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>125</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2423,18 +2480,20 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="O44" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O44/SUM(O$32:O$49)</f>
+        <v>2.4180033516878141E-2</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -2449,20 +2508,14 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
         <v>50</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4">
-        <v>125</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2471,19 +2524,19 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="O45" s="5">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="5"/>
-        <v>2.3075165638565227E-2</v>
+        <f>O45/SUM(O$32:O$49)</f>
+        <v>9.5762508977735222E-2</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -2498,7 +2551,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="4">
         <v>50</v>
@@ -2525,8 +2578,8 @@
         <v>200</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="5"/>
-        <v>9.1386794608179112E-2</v>
+        <f>O46/SUM(O$32:O$49)</f>
+        <v>9.5762508977735222E-2</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2541,10 +2594,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2554,22 +2607,22 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4">
+        <v>12</v>
+      </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>25</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="O47" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="5"/>
-        <v>9.1386794608179112E-2</v>
+        <f>O47/SUM(O$32:O$49)</f>
+        <v>2.2983002154656453E-2</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2583,11 +2636,11 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
+      <c r="A48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7">
+        <v>30</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2596,23 +2649,27 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
-        <v>12</v>
+      <c r="J48" s="4">
+        <v>15</v>
+      </c>
+      <c r="K48" s="7">
+        <v>15</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4">
+        <v>15</v>
+      </c>
       <c r="N48" s="5">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O48" s="5">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="5"/>
-        <v>2.193283070596299E-2</v>
+        <f>O48/SUM(O$32:O$49)</f>
+        <v>9.336844625329184E-2</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2626,12 +2683,8 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="7">
-        <v>30</v>
-      </c>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2639,27 +2692,21 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>15</v>
-      </c>
-      <c r="K49" s="7">
-        <v>15</v>
-      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="4">
-        <v>15</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="5">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="O49" s="5">
         <f t="shared" si="4"/>
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="5"/>
-        <v>8.9102124742974645E-2</v>
+        <f>O49/SUM(O$32:O$49)</f>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -2673,30 +2720,27 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>SUM(O32:O49)</f>
+        <v>2088.5</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f>O50/SUM(O$32:O$49)</f>
+        <v>1</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -2710,28 +2754,24 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="5">
-        <f>SUM(O32:O50)</f>
-        <v>2188.5</v>
-      </c>
-      <c r="P51" s="6">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2744,24 +2784,54 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -2774,53 +2844,34 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N53" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P53" s="3" t="s">
-        <v>19</v>
+      <c r="A53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="4">
+        <v>135</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="5">
+        <f t="shared" ref="N53:N70" si="5">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
+        <v>135</v>
+      </c>
+      <c r="O53" s="5">
+        <f t="shared" ref="O53:O70" si="6">MEDIAN(C53,N53,D53)</f>
+        <v>135</v>
+      </c>
+      <c r="P53" s="6">
+        <f>O53/SUM(O$53:O$70)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -2835,33 +2886,37 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B54" s="4">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
+      <c r="H54" s="4">
+        <v>5</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
+      <c r="M54" s="4">
+        <v>5</v>
+      </c>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:N71" si="6">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
-        <v>135</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O71" si="7">MEDIAN(C54,N54,D54)</f>
-        <v>135</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" ref="P54:P72" si="8">O54/SUM(O$54:O$71)</f>
-        <v>0.15976331360946747</v>
+        <f>O54/SUM(O$53:O$70)</f>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -2876,37 +2931,35 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B55" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>5</v>
-      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N55" s="5">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="O55" s="5">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="O55" s="5">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="8"/>
-        <v>0.10650887573964497</v>
+        <f>O55/SUM(O$53:O$70)</f>
+        <v>0.1164021164021164</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -2921,35 +2974,35 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="H56" s="4">
+        <v>10</v>
+      </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>10</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="5">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="O56" s="5">
         <f t="shared" si="6"/>
-        <v>110</v>
-      </c>
-      <c r="O56" s="5">
-        <f t="shared" si="7"/>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="8"/>
-        <v>0.13017751479289941</v>
+        <f>O56/SUM(O$53:O$70)</f>
+        <v>8.4656084656084651E-2</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -2964,10 +3017,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" s="4">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2977,22 +3030,24 @@
       <c r="H57" s="4">
         <v>10</v>
       </c>
-      <c r="I57" s="4"/>
+      <c r="I57" s="4">
+        <v>20</v>
+      </c>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="O57" s="5">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="O57" s="5">
-        <f t="shared" si="7"/>
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="8"/>
-        <v>9.4674556213017749E-2</v>
+        <f>O57/SUM(O$53:O$70)</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -3007,37 +3062,37 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4">
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4">
+        <v>5</v>
+      </c>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4">
         <v>10</v>
       </c>
-      <c r="I58" s="4">
-        <v>20</v>
-      </c>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
       <c r="N58" s="5">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="O58" s="5">
         <f t="shared" si="6"/>
-        <v>135</v>
-      </c>
-      <c r="O58" s="5">
-        <f t="shared" si="7"/>
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="8"/>
-        <v>0.15976331360946747</v>
+        <f>O58/SUM(O$53:O$70)</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -3051,11 +3106,11 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="4">
-        <v>25</v>
+      <c r="A59" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="7">
+        <v>15</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3065,24 +3120,24 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
-        <v>5</v>
+      <c r="K59" s="7">
+        <v>10</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="4">
-        <v>10</v>
+      <c r="M59" s="7">
+        <v>15</v>
       </c>
       <c r="N59" s="5">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="O59" s="5">
         <f t="shared" si="6"/>
-        <v>105</v>
-      </c>
-      <c r="O59" s="5">
-        <f t="shared" si="7"/>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="8"/>
-        <v>0.1242603550295858</v>
+        <f>O59/SUM(O$53:O$70)</f>
+        <v>0.15343915343915343</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3096,38 +3151,36 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="7">
-        <v>15</v>
+      <c r="A60" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="4">
+        <v>5</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4">
+        <v>10</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="7">
-        <v>10</v>
-      </c>
+      <c r="K60" s="4"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="7">
-        <v>15</v>
-      </c>
+      <c r="M60" s="4"/>
       <c r="N60" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="O60" s="5">
         <f t="shared" si="6"/>
-        <v>145</v>
-      </c>
-      <c r="O60" s="5">
-        <f t="shared" si="7"/>
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="8"/>
-        <v>0.17159763313609466</v>
+        <f>O60/SUM(O$53:O$70)</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -3142,35 +3195,35 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B61" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4">
-        <v>10</v>
-      </c>
+      <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
+      <c r="K61" s="4">
+        <v>25</v>
+      </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
-        <f t="shared" si="6"/>
-        <v>45</v>
+        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
+        <v>100</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="7"/>
-        <v>45</v>
+        <f>MEDIAN(C61,N61,D61)</f>
+        <v>100</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="8"/>
-        <v>5.3254437869822487E-2</v>
+        <f>O61/SUM(O$32:O$49)</f>
+        <v>4.7881254488867611E-2</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -3198,15 +3251,15 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O62" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P62" s="6">
-        <f t="shared" si="8"/>
+        <f>O62/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="2"/>
@@ -3235,15 +3288,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O63" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P63" s="6">
-        <f t="shared" si="8"/>
+        <f>O63/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3272,15 +3325,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O64" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P64" s="6">
-        <f t="shared" si="8"/>
+        <f>O64/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3309,15 +3362,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O65" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P65" s="6">
-        <f t="shared" si="8"/>
+        <f>O65/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3346,15 +3399,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O66" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P66" s="6">
-        <f t="shared" si="8"/>
+        <f>O66/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="2"/>
@@ -3383,15 +3436,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O67" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P67" s="6">
-        <f t="shared" si="8"/>
+        <f>O67/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="2"/>
@@ -3420,15 +3473,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O68" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P68" s="6">
-        <f t="shared" si="8"/>
+        <f>O68/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="2"/>
@@ -3457,15 +3510,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O69" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P69" s="6">
-        <f t="shared" si="8"/>
+        <f>O69/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="2"/>
@@ -3494,15 +3547,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O70" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P70" s="6">
-        <f t="shared" si="8"/>
+        <f>O70/SUM(O$53:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="2"/>
@@ -3517,30 +3570,27 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(O52:O70)</f>
+        <v>945</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>O71/SUM(O$53:O$70)</f>
+        <v>1</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -3568,14 +3618,8 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="5">
-        <f>SUM(O53:O71)</f>
-        <v>845</v>
-      </c>
-      <c r="P72" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
@@ -29543,34 +29587,6 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Byond coding\aurorastation\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293D7A99-DA7C-40D9-846F-45414EFDE725}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A05395-473D-4530-8180-791D1AFD0288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1956,16 +1956,16 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N49" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N48" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O49" si="4">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O48" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="6">
-        <f>O32/SUM(O$32:O$49)</f>
-        <v>9.5762508977735222E-2</v>
+        <f>O32/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -2007,8 +2007,8 @@
         <v>200</v>
       </c>
       <c r="P33" s="6">
-        <f>O33/SUM(O$32:O$49)</f>
-        <v>9.5762508977735222E-2</v>
+        <f>O33/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -2048,8 +2048,8 @@
         <v>60</v>
       </c>
       <c r="P34" s="6">
-        <f>O34/SUM(O$32:O$49)</f>
-        <v>2.8728752693320564E-2</v>
+        <f>O34/SUM(O$32:O$50)</f>
+        <v>2.7416038382453736E-2</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2093,8 +2093,8 @@
         <v>90</v>
       </c>
       <c r="P35" s="6">
-        <f>O35/SUM(O$32:O$49)</f>
-        <v>4.3093129039980846E-2</v>
+        <f>O35/SUM(O$32:O$50)</f>
+        <v>4.1124057573680602E-2</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -2134,8 +2134,8 @@
         <v>100</v>
       </c>
       <c r="P36" s="6">
-        <f>O36/SUM(O$32:O$49)</f>
-        <v>4.7881254488867611E-2</v>
+        <f>O36/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2175,8 +2175,8 @@
         <v>80</v>
       </c>
       <c r="P37" s="6">
-        <f>O37/SUM(O$32:O$49)</f>
-        <v>3.8305003591094088E-2</v>
+        <f>O37/SUM(O$32:O$50)</f>
+        <v>3.6554717843271647E-2</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2224,8 +2224,8 @@
         <v>143</v>
       </c>
       <c r="P38" s="6">
-        <f>O38/SUM(O$32:O$49)</f>
-        <v>6.8470193919080685E-2</v>
+        <f>O38/SUM(O$32:O$50)</f>
+        <v>6.5341558144848072E-2</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2267,8 +2267,8 @@
         <v>92</v>
       </c>
       <c r="P39" s="6">
-        <f>O39/SUM(O$32:O$49)</f>
-        <v>4.4050754129758202E-2</v>
+        <f>O39/SUM(O$32:O$50)</f>
+        <v>4.2037925519762397E-2</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2312,8 +2312,8 @@
         <v>130</v>
       </c>
       <c r="P40" s="6">
-        <f>O40/SUM(O$32:O$49)</f>
-        <v>6.2245630835527893E-2</v>
+        <f>O40/SUM(O$32:O$50)</f>
+        <v>5.9401416495316425E-2</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2357,8 +2357,8 @@
         <v>100</v>
       </c>
       <c r="P41" s="6">
-        <f>O41/SUM(O$32:O$49)</f>
-        <v>4.7881254488867611E-2</v>
+        <f>O41/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2402,8 +2402,8 @@
         <v>100</v>
       </c>
       <c r="P42" s="6">
-        <f>O42/SUM(O$32:O$49)</f>
-        <v>4.7881254488867611E-2</v>
+        <f>O42/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -2443,8 +2443,8 @@
         <v>100</v>
       </c>
       <c r="P43" s="6">
-        <f>O43/SUM(O$32:O$49)</f>
-        <v>4.7881254488867611E-2</v>
+        <f>O43/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -2492,8 +2492,8 @@
         <v>50.5</v>
       </c>
       <c r="P44" s="6">
-        <f>O44/SUM(O$32:O$49)</f>
-        <v>2.4180033516878141E-2</v>
+        <f>O44/SUM(O$32:O$50)</f>
+        <v>2.3075165638565227E-2</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -2535,8 +2535,8 @@
         <v>200</v>
       </c>
       <c r="P45" s="6">
-        <f>O45/SUM(O$32:O$49)</f>
-        <v>9.5762508977735222E-2</v>
+        <f>O45/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -2578,8 +2578,8 @@
         <v>200</v>
       </c>
       <c r="P46" s="6">
-        <f>O46/SUM(O$32:O$49)</f>
-        <v>9.5762508977735222E-2</v>
+        <f>O46/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2621,8 +2621,8 @@
         <v>48</v>
       </c>
       <c r="P47" s="6">
-        <f>O47/SUM(O$32:O$49)</f>
-        <v>2.2983002154656453E-2</v>
+        <f>O47/SUM(O$32:O$50)</f>
+        <v>2.193283070596299E-2</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2668,8 +2668,8 @@
         <v>195</v>
       </c>
       <c r="P48" s="6">
-        <f>O48/SUM(O$32:O$49)</f>
-        <v>9.336844625329184E-2</v>
+        <f>O48/SUM(O$32:O$50)</f>
+        <v>8.9102124742974645E-2</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2683,8 +2683,12 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
+      </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -2693,20 +2697,22 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
+      <c r="K49" s="4">
+        <v>25</v>
+      </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
       <c r="N49" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF(C49&gt;0,MAX(B49,C49),B49)+E49*$A$3+F49*$B$3+G49*$C$3+H49*$D$3+I49*$E$3+J49*$F$3+K49*$G$3+L49*$H$3+M49*$I$3</f>
+        <v>100</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>MEDIAN(C49,N49,D49)</f>
+        <v>100</v>
       </c>
       <c r="P49" s="6">
-        <f>O49/SUM(O$32:O$49)</f>
-        <v>0</v>
+        <f>O49/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -2720,27 +2726,30 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="5">
+        <f>IF(C50&gt;0,MAX(B50,C50),B50)+E50*$A$3+F50*$B$3+G50*$C$3+H50*$D$3+I50*$E$3+J50*$F$3+K50*$G$3+L50*$H$3+M50*$I$3</f>
+        <v>0</v>
+      </c>
       <c r="O50" s="5">
-        <f>SUM(O32:O49)</f>
-        <v>2088.5</v>
+        <f>MEDIAN(C50,N50,D50)</f>
+        <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f>O50/SUM(O$32:O$49)</f>
-        <v>1</v>
+        <f>O50/SUM(O$32:O$50)</f>
+        <v>0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -2754,24 +2763,28 @@
       <c r="Z50" s="2"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+      <c r="O51" s="5">
+        <f>SUM(O32:O50)</f>
+        <v>2188.5</v>
+      </c>
+      <c r="P51" s="6">
+        <f>O51/SUM(O$32:O$50)</f>
+        <v>1</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2784,54 +2797,24 @@
       <c r="Z51" s="2"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -2844,34 +2827,53 @@
       <c r="Z52" s="2"/>
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B53" s="4">
-        <v>135</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="5">
-        <f t="shared" ref="N53:N70" si="5">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
-        <v>135</v>
-      </c>
-      <c r="O53" s="5">
-        <f t="shared" ref="O53:O70" si="6">MEDIAN(C53,N53,D53)</f>
-        <v>135</v>
-      </c>
-      <c r="P53" s="6">
-        <f>O53/SUM(O$53:O$70)</f>
-        <v>0.14285714285714285</v>
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -2886,37 +2888,33 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
-        <v>5</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>5</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="5">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" ref="N54:N70" si="5">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <v>135</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" ref="O54:O70" si="6">MEDIAN(C54,N54,D54)</f>
+        <v>135</v>
       </c>
       <c r="P54" s="6">
-        <f>O54/SUM(O$53:O$70)</f>
-        <v>9.5238095238095233E-2</v>
+        <f>O54/SUM(O$54:O$70)</f>
+        <v>0.15976331360946747</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -2931,35 +2929,37 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="N55" s="5">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="O55" s="5">
         <f t="shared" si="6"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="P55" s="6">
-        <f>O55/SUM(O$53:O$70)</f>
-        <v>0.1164021164021164</v>
+        <f>O55/SUM(O$54:O$70)</f>
+        <v>0.10650887573964497</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -2974,35 +2974,35 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="4">
-        <v>10</v>
-      </c>
+      <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="4">
+        <v>10</v>
+      </c>
       <c r="N56" s="5">
         <f t="shared" si="5"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="O56" s="5">
         <f t="shared" si="6"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="P56" s="6">
-        <f>O56/SUM(O$53:O$70)</f>
-        <v>8.4656084656084651E-2</v>
+        <f>O56/SUM(O$54:O$70)</f>
+        <v>0.13017751479289941</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -3017,10 +3017,10 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="4">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -3030,24 +3030,22 @@
       <c r="H57" s="4">
         <v>10</v>
       </c>
-      <c r="I57" s="4">
-        <v>20</v>
-      </c>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5">
         <f t="shared" si="5"/>
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="O57" s="5">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="P57" s="6">
-        <f>O57/SUM(O$53:O$70)</f>
-        <v>0.14285714285714285</v>
+        <f>O57/SUM(O$54:O$70)</f>
+        <v>9.4674556213017749E-2</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -3062,37 +3060,37 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
+      <c r="H58" s="4">
+        <v>10</v>
+      </c>
+      <c r="I58" s="4">
+        <v>20</v>
+      </c>
       <c r="J58" s="4"/>
-      <c r="K58" s="4">
-        <v>5</v>
-      </c>
+      <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>10</v>
-      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="5">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="O58" s="5">
         <f t="shared" si="6"/>
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="P58" s="6">
-        <f>O58/SUM(O$53:O$70)</f>
-        <v>0.1111111111111111</v>
+        <f>O58/SUM(O$54:O$70)</f>
+        <v>0.15976331360946747</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -3106,11 +3104,11 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="7">
-        <v>15</v>
+      <c r="A59" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="4">
+        <v>25</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
@@ -3120,24 +3118,24 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="7">
+      <c r="K59" s="4">
+        <v>5</v>
+      </c>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4">
         <v>10</v>
-      </c>
-      <c r="L59" s="4"/>
-      <c r="M59" s="7">
-        <v>15</v>
       </c>
       <c r="N59" s="5">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="O59" s="5">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="P59" s="6">
-        <f>O59/SUM(O$53:O$70)</f>
-        <v>0.15343915343915343</v>
+        <f>O59/SUM(O$54:O$70)</f>
+        <v>0.1242603550295858</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3151,36 +3149,38 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="4">
-        <v>5</v>
+      <c r="A60" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="7">
+        <v>15</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4">
-        <v>10</v>
-      </c>
+      <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
+      <c r="K60" s="7">
+        <v>10</v>
+      </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
+      <c r="M60" s="7">
+        <v>15</v>
+      </c>
       <c r="N60" s="5">
         <f t="shared" si="5"/>
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="O60" s="5">
         <f t="shared" si="6"/>
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="P60" s="6">
-        <f>O60/SUM(O$53:O$70)</f>
-        <v>4.7619047619047616E-2</v>
+        <f>O60/SUM(O$54:O$70)</f>
+        <v>0.17159763313609466</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -3195,35 +3195,35 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B61" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>10</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4">
-        <v>25</v>
-      </c>
+      <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
-        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>45</v>
       </c>
       <c r="O61" s="5">
-        <f>MEDIAN(C61,N61,D61)</f>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>45</v>
       </c>
       <c r="P61" s="6">
-        <f>O61/SUM(O$32:O$49)</f>
-        <v>4.7881254488867611E-2</v>
+        <f>O61/SUM(O$54:O$70)</f>
+        <v>5.3254437869822487E-2</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <f>O62/SUM(O$53:O$70)</f>
+        <f>O62/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="2"/>
@@ -3296,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <f>O63/SUM(O$53:O$70)</f>
+        <f>O63/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3333,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <f>O64/SUM(O$53:O$70)</f>
+        <f>O64/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <f>O65/SUM(O$53:O$70)</f>
+        <f>O65/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <f>O66/SUM(O$53:O$70)</f>
+        <f>O66/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="2"/>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <f>O67/SUM(O$53:O$70)</f>
+        <f>O67/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="2"/>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <f>O68/SUM(O$53:O$70)</f>
+        <f>O68/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="2"/>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <f>O69/SUM(O$53:O$70)</f>
+        <f>O69/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="2"/>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <f>O70/SUM(O$53:O$70)</f>
+        <f>O70/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="2"/>
@@ -3585,11 +3585,11 @@
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" s="5">
-        <f>SUM(O52:O70)</f>
-        <v>945</v>
+        <f>SUM(O53:O70)</f>
+        <v>845</v>
       </c>
       <c r="P71" s="6">
-        <f>O71/SUM(O$53:O$70)</f>
+        <f>O71/SUM(O$54:O$70)</f>
         <v>1</v>
       </c>
       <c r="Q71" s="2"/>
@@ -29559,34 +29559,6 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,15 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Byond coding\aurorastation\tools\Event Probabilities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A05395-473D-4530-8180-791D1AFD0288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -211,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,12 +301,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,7 +351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +384,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +436,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,11 +628,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L64" sqref="L64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="T68" sqref="T68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1903,15 +1956,15 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N50" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N48" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O50" si="4">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O48" si="4">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
+        <f>O32/SUM(O$32:O$50)</f>
         <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q32" s="2"/>
@@ -1927,10 +1980,10 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -1940,22 +1993,22 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4">
         <v>25</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
       <c r="N33" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O33" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O33/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -1970,10 +2023,10 @@
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1985,20 +2038,18 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="4">
-        <v>25</v>
-      </c>
+      <c r="M34" s="4"/>
       <c r="N34" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="O34" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="5"/>
-        <v>9.1386794608179112E-2</v>
+        <f>O34/SUM(O$32:O$50)</f>
+        <v>2.7416038382453736E-2</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2013,33 +2064,37 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>20</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="5"/>
-        <v>2.7416038382453736E-2</v>
+        <f>O35/SUM(O$32:O$50)</f>
+        <v>4.1124057573680602E-2</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -2054,37 +2109,33 @@
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
-      <c r="H36" s="4">
-        <v>5</v>
-      </c>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="4">
-        <v>20</v>
-      </c>
+      <c r="J36" s="4"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="O36" s="5">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="5"/>
-        <v>4.1124057573680602E-2</v>
+        <f>O36/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2099,10 +2150,10 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="4">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2117,15 +2168,15 @@
       <c r="M37" s="4"/>
       <c r="N37" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O37" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O37/SUM(O$32:O$50)</f>
+        <v>3.6554717843271647E-2</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2140,33 +2191,41 @@
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="F38" s="4">
+        <v>45</v>
+      </c>
+      <c r="G38" s="4">
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="4">
+        <v>6</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="4"/>
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="5"/>
-        <v>3.6554717843271647E-2</v>
+        <f>O38/SUM(O$32:O$50)</f>
+        <v>6.5341558144848072E-2</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2181,41 +2240,35 @@
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4">
-        <v>45</v>
-      </c>
-      <c r="G39" s="4">
-        <v>25</v>
-      </c>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
       <c r="H39" s="4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4">
-        <v>6</v>
-      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5">
         <f t="shared" si="3"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="O39" s="5">
         <f t="shared" si="4"/>
-        <v>143</v>
+        <v>92</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="5"/>
-        <v>6.5341558144848072E-2</v>
+        <f>O39/SUM(O$32:O$50)</f>
+        <v>4.2037925519762397E-2</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2230,35 +2283,37 @@
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4">
-        <v>13</v>
-      </c>
+      <c r="G40" s="4">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="M40" s="4">
+        <v>15</v>
+      </c>
       <c r="N40" s="5">
         <f t="shared" si="3"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="O40" s="5">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="5"/>
-        <v>4.2037925519762397E-2</v>
+        <f>O40/SUM(O$32:O$50)</f>
+        <v>5.9401416495316425E-2</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2273,7 +2328,7 @@
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -2288,22 +2343,22 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
+      <c r="K41" s="4">
+        <v>15</v>
+      </c>
       <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>15</v>
-      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="5">
         <f t="shared" si="3"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="O41" s="5">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="5"/>
-        <v>5.9401416495316425E-2</v>
+        <f>O41/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2318,7 +2373,7 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -2333,10 +2388,10 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4">
         <v>15</v>
       </c>
-      <c r="L42" s="4"/>
       <c r="M42" s="4"/>
       <c r="N42" s="5">
         <f t="shared" si="3"/>
@@ -2347,7 +2402,7 @@
         <v>100</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="5"/>
+        <f>O42/SUM(O$32:O$50)</f>
         <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2363,25 +2418,21 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B43" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="4">
-        <v>20</v>
-      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4">
-        <v>15</v>
-      </c>
+      <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5">
         <f t="shared" si="3"/>
@@ -2392,7 +2443,7 @@
         <v>100</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="5"/>
+        <f>O43/SUM(O$32:O$50)</f>
         <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2408,14 +2459,20 @@
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B44" s="4">
-        <v>100</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="4">
+        <v>10</v>
+      </c>
+      <c r="D44" s="4">
+        <v>125</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -2423,18 +2480,20 @@
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>1</v>
+      </c>
       <c r="N44" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="O44" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>50.5</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="5"/>
-        <v>4.5693397304089556E-2</v>
+        <f>O44/SUM(O$32:O$50)</f>
+        <v>2.3075165638565227E-2</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -2449,20 +2508,14 @@
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="4">
         <v>50</v>
       </c>
-      <c r="B45" s="4">
-        <v>0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>10</v>
-      </c>
-      <c r="D45" s="4">
-        <v>125</v>
-      </c>
-      <c r="E45" s="4">
-        <v>1</v>
-      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -2471,19 +2524,19 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="N45" s="5">
         <f t="shared" si="3"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="O45" s="5">
         <f t="shared" si="4"/>
-        <v>50.5</v>
+        <v>200</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="5"/>
-        <v>2.3075165638565227E-2</v>
+        <f>O45/SUM(O$32:O$50)</f>
+        <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -2498,7 +2551,7 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" s="4">
         <v>50</v>
@@ -2525,7 +2578,7 @@
         <v>200</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="5"/>
+        <f>O46/SUM(O$32:O$50)</f>
         <v>9.1386794608179112E-2</v>
       </c>
       <c r="Q46" s="2"/>
@@ -2541,10 +2594,10 @@
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B47" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2554,22 +2607,22 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
+      <c r="K47" s="4">
+        <v>12</v>
+      </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>25</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="O47" s="5">
         <f t="shared" si="4"/>
-        <v>200</v>
+        <v>48</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="5"/>
-        <v>9.1386794608179112E-2</v>
+        <f>O47/SUM(O$32:O$50)</f>
+        <v>2.193283070596299E-2</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2583,11 +2636,11 @@
       <c r="Z47" s="2"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0</v>
+      <c r="A48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="7">
+        <v>30</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2596,23 +2649,27 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
-        <v>12</v>
+      <c r="J48" s="4">
+        <v>15</v>
+      </c>
+      <c r="K48" s="7">
+        <v>15</v>
       </c>
       <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
+      <c r="M48" s="4">
+        <v>15</v>
+      </c>
       <c r="N48" s="5">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="O48" s="5">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>195</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="5"/>
-        <v>2.193283070596299E-2</v>
+        <f>O48/SUM(O$32:O$50)</f>
+        <v>8.9102124742974645E-2</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2626,11 +2683,11 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="7">
-        <v>30</v>
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2639,27 +2696,23 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4">
-        <v>15</v>
-      </c>
-      <c r="K49" s="7">
-        <v>15</v>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4">
+        <v>25</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="4">
-        <v>15</v>
-      </c>
+      <c r="M49" s="4"/>
       <c r="N49" s="5">
-        <f t="shared" si="3"/>
-        <v>195</v>
+        <f>IF(C49&gt;0,MAX(B49,C49),B49)+E49*$A$3+F49*$B$3+G49*$C$3+H49*$D$3+I49*$E$3+J49*$F$3+K49*$G$3+L49*$H$3+M49*$I$3</f>
+        <v>100</v>
       </c>
       <c r="O49" s="5">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f>MEDIAN(C49,N49,D49)</f>
+        <v>100</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="5"/>
-        <v>8.9102124742974645E-2</v>
+        <f>O49/SUM(O$32:O$50)</f>
+        <v>4.5693397304089556E-2</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -2687,15 +2740,15 @@
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
       <c r="N50" s="5">
-        <f t="shared" si="3"/>
+        <f>IF(C50&gt;0,MAX(B50,C50),B50)+E50*$A$3+F50*$B$3+G50*$C$3+H50*$D$3+I50*$E$3+J50*$F$3+K50*$G$3+L50*$H$3+M50*$I$3</f>
         <v>0</v>
       </c>
       <c r="O50" s="5">
-        <f t="shared" si="4"/>
+        <f>MEDIAN(C50,N50,D50)</f>
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="5"/>
+        <f>O50/SUM(O$32:O$50)</f>
         <v>0</v>
       </c>
       <c r="Q50" s="2"/>
@@ -2729,7 +2782,7 @@
         <v>2188.5</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="5"/>
+        <f>O51/SUM(O$32:O$50)</f>
         <v>1</v>
       </c>
       <c r="Q51" s="2"/>
@@ -2852,15 +2905,15 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:N71" si="6">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N70" si="5">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O71" si="7">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O70" si="6">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" ref="P54:P72" si="8">O54/SUM(O$54:O$71)</f>
+        <f>O54/SUM(O$54:O$70)</f>
         <v>0.15976331360946747</v>
       </c>
       <c r="Q54" s="2"/>
@@ -2897,15 +2950,15 @@
         <v>5</v>
       </c>
       <c r="N55" s="5">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="O55" s="5">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="O55" s="5">
-        <f t="shared" si="7"/>
-        <v>90</v>
-      </c>
       <c r="P55" s="6">
-        <f t="shared" si="8"/>
+        <f>O55/SUM(O$54:O$70)</f>
         <v>0.10650887573964497</v>
       </c>
       <c r="Q55" s="2"/>
@@ -2940,15 +2993,15 @@
         <v>10</v>
       </c>
       <c r="N56" s="5">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="O56" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
-      <c r="O56" s="5">
-        <f t="shared" si="7"/>
-        <v>110</v>
-      </c>
       <c r="P56" s="6">
-        <f t="shared" si="8"/>
+        <f>O56/SUM(O$54:O$70)</f>
         <v>0.13017751479289941</v>
       </c>
       <c r="Q56" s="2"/>
@@ -2983,15 +3036,15 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="O57" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
-      <c r="O57" s="5">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
       <c r="P57" s="6">
-        <f t="shared" si="8"/>
+        <f>O57/SUM(O$54:O$70)</f>
         <v>9.4674556213017749E-2</v>
       </c>
       <c r="Q57" s="2"/>
@@ -3028,15 +3081,15 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="O58" s="5">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="O58" s="5">
-        <f t="shared" si="7"/>
-        <v>135</v>
-      </c>
       <c r="P58" s="6">
-        <f t="shared" si="8"/>
+        <f>O58/SUM(O$54:O$70)</f>
         <v>0.15976331360946747</v>
       </c>
       <c r="Q58" s="2"/>
@@ -3073,15 +3126,15 @@
         <v>10</v>
       </c>
       <c r="N59" s="5">
+        <f t="shared" si="5"/>
+        <v>105</v>
+      </c>
+      <c r="O59" s="5">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="O59" s="5">
-        <f t="shared" si="7"/>
-        <v>105</v>
-      </c>
       <c r="P59" s="6">
-        <f t="shared" si="8"/>
+        <f>O59/SUM(O$54:O$70)</f>
         <v>0.1242603550295858</v>
       </c>
       <c r="Q59" s="2"/>
@@ -3118,15 +3171,15 @@
         <v>15</v>
       </c>
       <c r="N60" s="5">
+        <f t="shared" si="5"/>
+        <v>145</v>
+      </c>
+      <c r="O60" s="5">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
-      <c r="O60" s="5">
-        <f t="shared" si="7"/>
-        <v>145</v>
-      </c>
       <c r="P60" s="6">
-        <f t="shared" si="8"/>
+        <f>O60/SUM(O$54:O$70)</f>
         <v>0.17159763313609466</v>
       </c>
       <c r="Q60" s="2"/>
@@ -3161,15 +3214,15 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="O61" s="5">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="O61" s="5">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
       <c r="P61" s="6">
-        <f t="shared" si="8"/>
+        <f>O61/SUM(O$54:O$70)</f>
         <v>5.3254437869822487E-2</v>
       </c>
       <c r="Q61" s="2"/>
@@ -3198,15 +3251,15 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O62" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P62" s="6">
-        <f t="shared" si="8"/>
+        <f>O62/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q62" s="2"/>
@@ -3235,15 +3288,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O63" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P63" s="6">
-        <f t="shared" si="8"/>
+        <f>O63/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3272,15 +3325,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O64" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P64" s="6">
-        <f t="shared" si="8"/>
+        <f>O64/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3309,15 +3362,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O65" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P65" s="6">
-        <f t="shared" si="8"/>
+        <f>O65/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3346,15 +3399,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O66" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P66" s="6">
-        <f t="shared" si="8"/>
+        <f>O66/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q66" s="2"/>
@@ -3383,15 +3436,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O67" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P67" s="6">
-        <f t="shared" si="8"/>
+        <f>O67/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q67" s="2"/>
@@ -3420,15 +3473,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O68" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P68" s="6">
-        <f t="shared" si="8"/>
+        <f>O68/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q68" s="2"/>
@@ -3457,15 +3510,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O69" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P69" s="6">
-        <f t="shared" si="8"/>
+        <f>O69/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q69" s="2"/>
@@ -3494,15 +3547,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O70" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="P70" s="6">
-        <f t="shared" si="8"/>
+        <f>O70/SUM(O$54:O$70)</f>
         <v>0</v>
       </c>
       <c r="Q70" s="2"/>
@@ -3517,30 +3570,27 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
       <c r="O71" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(O53:O70)</f>
+        <v>845</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>O71/SUM(O$54:O$70)</f>
+        <v>1</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -3568,14 +3618,8 @@
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
-      <c r="O72" s="5">
-        <f>SUM(O53:O71)</f>
-        <v>845</v>
-      </c>
-      <c r="P72" s="6">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
@@ -29515,62 +29559,6 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Byond coding\aurorastation\tools\Event Probabilities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A05395-473D-4530-8180-791D1AFD0288}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -223,11 +217,20 @@
   <si>
     <t>Downed Ship</t>
   </si>
+  <si>
+    <t>Drone Malfunction</t>
+  </si>
+  <si>
+    <t>Drone Uprising</t>
+  </si>
+  <si>
+    <t>Drone Revolution</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -309,7 +312,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -351,7 +354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,26 +387,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,23 +422,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -628,11 +597,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="T68" sqref="T68"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -925,7 +894,7 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>6.1538461538461542E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -968,7 +937,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>4.1025641025641026E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1011,7 +980,7 @@
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>1.7948717948717947E-2</v>
+        <v>1.6826923076923076E-2</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1054,7 +1023,7 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>3.0769230769230771E-2</v>
+        <v>2.8846153846153848E-2</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1095,7 +1064,7 @@
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.14423076923076922</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1138,7 +1107,7 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="2"/>
-        <v>4.1025641025641026E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1179,7 +1148,7 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>5.1282051282051282E-3</v>
+        <v>4.807692307692308E-3</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1226,7 +1195,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="2"/>
-        <v>7.6923076923076927E-3</v>
+        <v>7.2115384615384619E-3</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1267,7 +1236,7 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.14423076923076922</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1314,7 +1283,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="2"/>
-        <v>2.564102564102564E-2</v>
+        <v>2.403846153846154E-2</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1359,7 +1328,7 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" si="2"/>
-        <v>7.179487179487179E-2</v>
+        <v>6.7307692307692304E-2</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1404,7 +1373,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" si="2"/>
-        <v>5.8974358974358973E-2</v>
+        <v>5.5288461538461536E-2</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1445,7 +1414,7 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="2"/>
-        <v>2.8205128205128206E-2</v>
+        <v>2.6442307692307692E-2</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1486,7 +1455,7 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" si="2"/>
-        <v>5.128205128205128E-2</v>
+        <v>4.807692307692308E-2</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1527,7 +1496,7 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" si="2"/>
-        <v>4.1025641025641026E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1568,7 +1537,7 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" si="2"/>
-        <v>0.15384615384615385</v>
+        <v>0.14423076923076922</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1611,7 +1580,7 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="2"/>
-        <v>4.6153846153846156E-2</v>
+        <v>4.3269230769230768E-2</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1652,7 +1621,7 @@
       </c>
       <c r="P24" s="6">
         <f t="shared" si="2"/>
-        <v>1.0256410256410256E-2</v>
+        <v>9.6153846153846159E-3</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1666,14 +1635,20 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="4">
+        <v>10</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>30</v>
+      </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
@@ -1681,15 +1656,15 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="O25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="P25" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1830,7 +1805,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="5">
         <f>SUM(O7:O28)</f>
-        <v>1950</v>
+        <v>2080</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="2"/>
@@ -1964,8 +1939,8 @@
         <v>200</v>
       </c>
       <c r="P32" s="6">
-        <f>O32/SUM(O$32:O$50)</f>
-        <v>9.1386794608179112E-2</v>
+        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
+        <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -2007,8 +1982,8 @@
         <v>200</v>
       </c>
       <c r="P33" s="6">
-        <f>O33/SUM(O$32:O$50)</f>
-        <v>9.1386794608179112E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -2048,8 +2023,8 @@
         <v>60</v>
       </c>
       <c r="P34" s="6">
-        <f>O34/SUM(O$32:O$50)</f>
-        <v>2.7416038382453736E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.5712449110777802E-2</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -2093,8 +2068,8 @@
         <v>90</v>
       </c>
       <c r="P35" s="6">
-        <f>O35/SUM(O$32:O$50)</f>
-        <v>4.1124057573680602E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.8568673666166703E-2</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -2134,8 +2109,8 @@
         <v>100</v>
       </c>
       <c r="P36" s="6">
-        <f>O36/SUM(O$32:O$50)</f>
-        <v>4.5693397304089556E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2175,8 +2150,8 @@
         <v>80</v>
       </c>
       <c r="P37" s="6">
-        <f>O37/SUM(O$32:O$50)</f>
-        <v>3.6554717843271647E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.4283265481037072E-2</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2224,8 +2199,8 @@
         <v>143</v>
       </c>
       <c r="P38" s="6">
-        <f>O38/SUM(O$32:O$50)</f>
-        <v>6.5341558144848072E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.1281337047353758E-2</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2267,8 +2242,8 @@
         <v>92</v>
       </c>
       <c r="P39" s="6">
-        <f>O39/SUM(O$32:O$50)</f>
-        <v>4.2037925519762397E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.9425755303192631E-2</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2312,8 +2287,8 @@
         <v>130</v>
       </c>
       <c r="P40" s="6">
-        <f>O40/SUM(O$32:O$50)</f>
-        <v>5.9401416495316425E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.5710306406685235E-2</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2357,8 +2332,8 @@
         <v>100</v>
       </c>
       <c r="P41" s="6">
-        <f>O41/SUM(O$32:O$50)</f>
-        <v>4.5693397304089556E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2402,8 +2377,8 @@
         <v>100</v>
       </c>
       <c r="P42" s="6">
-        <f>O42/SUM(O$32:O$50)</f>
-        <v>4.5693397304089556E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -2443,8 +2418,8 @@
         <v>100</v>
       </c>
       <c r="P43" s="6">
-        <f>O43/SUM(O$32:O$50)</f>
-        <v>4.5693397304089556E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -2492,8 +2467,8 @@
         <v>50.5</v>
       </c>
       <c r="P44" s="6">
-        <f>O44/SUM(O$32:O$50)</f>
-        <v>2.3075165638565227E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.1641311334904649E-2</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -2535,8 +2510,8 @@
         <v>200</v>
       </c>
       <c r="P45" s="6">
-        <f>O45/SUM(O$32:O$50)</f>
-        <v>9.1386794608179112E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -2578,8 +2553,8 @@
         <v>200</v>
       </c>
       <c r="P46" s="6">
-        <f>O46/SUM(O$32:O$50)</f>
-        <v>9.1386794608179112E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2621,8 +2596,8 @@
         <v>48</v>
       </c>
       <c r="P47" s="6">
-        <f>O47/SUM(O$32:O$50)</f>
-        <v>2.193283070596299E-2</v>
+        <f t="shared" si="5"/>
+        <v>2.0569959288622243E-2</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2668,8 +2643,8 @@
         <v>195</v>
       </c>
       <c r="P48" s="6">
-        <f>O48/SUM(O$32:O$50)</f>
-        <v>8.9102124742974645E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.3565459610027856E-2</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2711,8 +2686,8 @@
         <v>100</v>
       </c>
       <c r="P49" s="6">
-        <f>O49/SUM(O$32:O$50)</f>
-        <v>4.5693397304089556E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -2726,14 +2701,20 @@
       <c r="Z49" s="2"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="4">
+        <v>25</v>
+      </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
+      <c r="H50" s="4">
+        <v>30</v>
+      </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
@@ -2741,15 +2722,15 @@
       <c r="M50" s="4"/>
       <c r="N50" s="5">
         <f>IF(C50&gt;0,MAX(B50,C50),B50)+E50*$A$3+F50*$B$3+G50*$C$3+H50*$D$3+I50*$E$3+J50*$F$3+K50*$G$3+L50*$H$3+M50*$I$3</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="O50" s="5">
         <f>MEDIAN(C50,N50,D50)</f>
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="P50" s="6">
-        <f>O50/SUM(O$32:O$50)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>6.2138418684379686E-2</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -2779,10 +2760,10 @@
       <c r="N51" s="2"/>
       <c r="O51" s="5">
         <f>SUM(O32:O50)</f>
-        <v>2188.5</v>
+        <v>2333.5</v>
       </c>
       <c r="P51" s="6">
-        <f>O51/SUM(O$32:O$50)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="Q51" s="2"/>
@@ -2905,16 +2886,16 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:N70" si="5">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N70" si="6">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O70" si="6">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O70" si="7">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="6">
-        <f>O54/SUM(O$54:O$70)</f>
-        <v>0.15976331360946747</v>
+        <f t="shared" ref="P54:P71" si="8">O54/SUM(O$54:O$70)</f>
+        <v>0.14438502673796791</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -2950,16 +2931,16 @@
         <v>5</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="O55" s="5">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
+      <c r="O55" s="5">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
       <c r="P55" s="6">
-        <f>O55/SUM(O$54:O$70)</f>
-        <v>0.10650887573964497</v>
+        <f t="shared" si="8"/>
+        <v>9.6256684491978606E-2</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -2993,16 +2974,16 @@
         <v>10</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="5"/>
-        <v>110</v>
-      </c>
-      <c r="O56" s="5">
         <f t="shared" si="6"/>
         <v>110</v>
       </c>
+      <c r="O56" s="5">
+        <f t="shared" si="7"/>
+        <v>110</v>
+      </c>
       <c r="P56" s="6">
-        <f>O56/SUM(O$54:O$70)</f>
-        <v>0.13017751479289941</v>
+        <f t="shared" si="8"/>
+        <v>0.11764705882352941</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -3036,16 +3017,16 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="O57" s="5">
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
+      <c r="O57" s="5">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
       <c r="P57" s="6">
-        <f>O57/SUM(O$54:O$70)</f>
-        <v>9.4674556213017749E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.5561497326203204E-2</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -3081,16 +3062,16 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5">
-        <f t="shared" si="5"/>
-        <v>135</v>
-      </c>
-      <c r="O58" s="5">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
+      <c r="O58" s="5">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
       <c r="P58" s="6">
-        <f>O58/SUM(O$54:O$70)</f>
-        <v>0.15976331360946747</v>
+        <f t="shared" si="8"/>
+        <v>0.14438502673796791</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -3126,16 +3107,16 @@
         <v>10</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="5"/>
-        <v>105</v>
-      </c>
-      <c r="O59" s="5">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
+      <c r="O59" s="5">
+        <f t="shared" si="7"/>
+        <v>105</v>
+      </c>
       <c r="P59" s="6">
-        <f>O59/SUM(O$54:O$70)</f>
-        <v>0.1242603550295858</v>
+        <f t="shared" si="8"/>
+        <v>0.11229946524064172</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3171,16 +3152,16 @@
         <v>15</v>
       </c>
       <c r="N60" s="5">
-        <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-      <c r="O60" s="5">
         <f t="shared" si="6"/>
         <v>145</v>
       </c>
+      <c r="O60" s="5">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
       <c r="P60" s="6">
-        <f>O60/SUM(O$54:O$70)</f>
-        <v>0.17159763313609466</v>
+        <f t="shared" si="8"/>
+        <v>0.15508021390374332</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -3214,16 +3195,16 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="O61" s="5">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
+      <c r="O61" s="5">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
       <c r="P61" s="6">
-        <f>O61/SUM(O$54:O$70)</f>
-        <v>5.3254437869822487E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.8128342245989303E-2</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -3237,30 +3218,40 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="4">
+        <v>0</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4">
+        <v>10</v>
+      </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
+      <c r="K62" s="4">
+        <v>5</v>
+      </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
+      <c r="M62" s="4">
+        <v>5</v>
+      </c>
       <c r="N62" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="P62" s="6">
-        <f>O62/SUM(O$54:O$70)</f>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>9.6256684491978606E-2</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -3288,15 +3279,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O63" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P63" s="6">
-        <f>O63/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3325,15 +3316,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O64" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P64" s="6">
-        <f>O64/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3362,15 +3353,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O65" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P65" s="6">
-        <f>O65/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3399,15 +3390,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O66" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P66" s="6">
-        <f>O66/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q66" s="2"/>
@@ -3436,15 +3427,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O67" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P67" s="6">
-        <f>O67/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q67" s="2"/>
@@ -3473,15 +3464,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O68" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P68" s="6">
-        <f>O68/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q68" s="2"/>
@@ -3510,15 +3501,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O69" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P69" s="6">
-        <f>O69/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q69" s="2"/>
@@ -3547,15 +3538,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O70" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="P70" s="6">
-        <f>O70/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q70" s="2"/>
@@ -3586,10 +3577,10 @@
       <c r="N71" s="2"/>
       <c r="O71" s="5">
         <f>SUM(O53:O70)</f>
-        <v>845</v>
+        <v>935</v>
       </c>
       <c r="P71" s="6">
-        <f>O71/SUM(O$54:O$70)</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q71" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>Drone Revolution</t>
+  </si>
+  <si>
+    <t>Cozmozoan Migration</t>
   </si>
 </sst>
 </file>
@@ -600,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +897,7 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>5.7692307692307696E-2</v>
+        <v>5.6074766355140186E-2</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -937,7 +940,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7383177570093455E-2</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -980,7 +983,7 @@
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>1.6826923076923076E-2</v>
+        <v>1.6355140186915886E-2</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1023,7 +1026,7 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>2.8846153846153848E-2</v>
+        <v>2.8037383177570093E-2</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1064,7 +1067,7 @@
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>0.14423076923076922</v>
+        <v>0.14018691588785046</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1107,7 +1110,7 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7383177570093455E-2</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1148,7 +1151,7 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>4.807692307692308E-3</v>
+        <v>4.6728971962616819E-3</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1195,7 +1198,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="2"/>
-        <v>7.2115384615384619E-3</v>
+        <v>7.0093457943925233E-3</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1236,7 +1239,7 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>0.14423076923076922</v>
+        <v>0.14018691588785046</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1283,7 +1286,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="2"/>
-        <v>2.403846153846154E-2</v>
+        <v>2.336448598130841E-2</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1328,7 +1331,7 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" si="2"/>
-        <v>6.7307692307692304E-2</v>
+        <v>6.5420560747663545E-2</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1373,7 +1376,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" si="2"/>
-        <v>5.5288461538461536E-2</v>
+        <v>5.3738317757009345E-2</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="2"/>
-        <v>2.6442307692307692E-2</v>
+        <v>2.5700934579439252E-2</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1455,7 +1458,7 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" si="2"/>
-        <v>4.807692307692308E-2</v>
+        <v>4.6728971962616821E-2</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" si="2"/>
-        <v>3.8461538461538464E-2</v>
+        <v>3.7383177570093455E-2</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1537,7 +1540,7 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" si="2"/>
-        <v>0.14423076923076922</v>
+        <v>0.14018691588785046</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1580,7 +1583,7 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="2"/>
-        <v>4.3269230769230768E-2</v>
+        <v>4.2056074766355138E-2</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1621,7 +1624,7 @@
       </c>
       <c r="P24" s="6">
         <f t="shared" si="2"/>
-        <v>9.6153846153846159E-3</v>
+        <v>9.3457943925233638E-3</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1664,7 +1667,7 @@
       </c>
       <c r="P25" s="6">
         <f t="shared" si="2"/>
-        <v>6.25E-2</v>
+        <v>6.0747663551401869E-2</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1678,8 +1681,12 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="4">
+        <v>60</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1693,15 +1700,15 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="O26" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P26" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.8037383177570093E-2</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -1805,7 +1812,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="5">
         <f>SUM(O7:O28)</f>
-        <v>2080</v>
+        <v>2140</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spark\Desktop\Fixed\Aurora.3\tools\Event Probabilities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79AD941-A3E5-42FC-A82F-925B71B11376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -17,6 +23,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -212,9 +219,6 @@
     <t>Severe Infestation</t>
   </si>
   <si>
-    <t>Golem Rune</t>
-  </si>
-  <si>
     <t>Downed Ship</t>
   </si>
   <si>
@@ -233,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,9 +394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,6 +446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,11 +638,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -897,7 +935,7 @@
       </c>
       <c r="P7" s="6">
         <f t="shared" ref="P7:P29" si="2">O7/SUM(O$7:O$28)</f>
-        <v>5.6074766355140186E-2</v>
+        <v>5.6603773584905662E-2</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -940,7 +978,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>3.7383177570093455E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -983,7 +1021,7 @@
       </c>
       <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>1.6355140186915886E-2</v>
+        <v>1.6509433962264151E-2</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1026,7 +1064,7 @@
       </c>
       <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>2.8037383177570093E-2</v>
+        <v>2.8301886792452831E-2</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1067,7 +1105,7 @@
       </c>
       <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>0.14018691588785046</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1110,7 +1148,7 @@
       </c>
       <c r="P12" s="6">
         <f t="shared" si="2"/>
-        <v>3.7383177570093455E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1151,7 +1189,7 @@
       </c>
       <c r="P13" s="6">
         <f t="shared" si="2"/>
-        <v>4.6728971962616819E-3</v>
+        <v>4.7169811320754715E-3</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1198,7 +1236,7 @@
       </c>
       <c r="P14" s="6">
         <f t="shared" si="2"/>
-        <v>7.0093457943925233E-3</v>
+        <v>7.0754716981132077E-3</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1239,7 +1277,7 @@
       </c>
       <c r="P15" s="6">
         <f t="shared" si="2"/>
-        <v>0.14018691588785046</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1286,7 +1324,7 @@
       </c>
       <c r="P16" s="6">
         <f t="shared" si="2"/>
-        <v>2.336448598130841E-2</v>
+        <v>2.358490566037736E-2</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1331,7 +1369,7 @@
       </c>
       <c r="P17" s="6">
         <f t="shared" si="2"/>
-        <v>6.5420560747663545E-2</v>
+        <v>6.6037735849056603E-2</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1376,7 +1414,7 @@
       </c>
       <c r="P18" s="6">
         <f t="shared" si="2"/>
-        <v>5.3738317757009345E-2</v>
+        <v>5.4245283018867926E-2</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1417,7 +1455,7 @@
       </c>
       <c r="P19" s="6">
         <f t="shared" si="2"/>
-        <v>2.5700934579439252E-2</v>
+        <v>2.5943396226415096E-2</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1458,7 +1496,7 @@
       </c>
       <c r="P20" s="6">
         <f t="shared" si="2"/>
-        <v>4.6728971962616821E-2</v>
+        <v>4.716981132075472E-2</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1499,7 +1537,7 @@
       </c>
       <c r="P21" s="6">
         <f t="shared" si="2"/>
-        <v>3.7383177570093455E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1540,7 +1578,7 @@
       </c>
       <c r="P22" s="6">
         <f t="shared" si="2"/>
-        <v>0.14018691588785046</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1583,7 +1621,7 @@
       </c>
       <c r="P23" s="6">
         <f t="shared" si="2"/>
-        <v>4.2056074766355138E-2</v>
+        <v>4.2452830188679243E-2</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1598,33 +1636,35 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B24" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="H24" s="4">
+        <v>30</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <v>130</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>MEDIAN(C24,N24,D24)</f>
+        <v>130</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="2"/>
-        <v>9.3457943925233638E-3</v>
+        <f>O24/SUM(O$7:O$28)</f>
+        <v>6.1320754716981132E-2</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1639,35 +1679,33 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B25" s="4">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4">
-        <v>30</v>
-      </c>
+      <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="5">
-        <f t="shared" si="0"/>
-        <v>130</v>
+        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
+        <v>60</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f>MEDIAN(C25,N25,D25)</f>
+        <v>60</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="2"/>
-        <v>6.0747663551401869E-2</v>
+        <f>O25/SUM(O$7:O$28)</f>
+        <v>2.8301886792452831E-2</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1681,12 +1719,8 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="4">
-        <v>60</v>
-      </c>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1699,16 +1733,16 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5">
-        <f t="shared" si="0"/>
-        <v>60</v>
+        <f t="shared" ref="N26" si="3">SUM(B26+E26*$A$3+F26*$B$3+G26*$C$3+H26*$D$3+I26*$E$3+J26*$F$3+K26*$G$3+L26*$H$3+M26*$I$3)</f>
+        <v>0</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" ref="O26" si="4">MEDIAN(C26,N26,D26)</f>
+        <v>0</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="2"/>
-        <v>2.8037383177570093E-2</v>
+        <f t="shared" ref="P26" si="5">O26/SUM(O$7:O$28)</f>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -1812,7 +1846,7 @@
       <c r="N29" s="2"/>
       <c r="O29" s="5">
         <f>SUM(O7:O28)</f>
-        <v>2140</v>
+        <v>2120</v>
       </c>
       <c r="P29" s="6">
         <f t="shared" si="2"/>
@@ -1938,15 +1972,15 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N48" si="3">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="N32:N48" si="6">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>200</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O48" si="4">MEDIAN(C32,N32,D32)</f>
+        <f t="shared" ref="O32:O48" si="7">MEDIAN(C32,N32,D32)</f>
         <v>200</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P51" si="5">O32/SUM(O$32:O$50)</f>
+        <f t="shared" ref="P32:P51" si="8">O32/SUM(O$32:O$50)</f>
         <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q32" s="2"/>
@@ -1981,15 +2015,15 @@
         <v>25</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q33" s="2"/>
@@ -2022,15 +2056,15 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.5712449110777802E-2</v>
       </c>
       <c r="Q34" s="2"/>
@@ -2067,15 +2101,15 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.8568673666166703E-2</v>
       </c>
       <c r="Q35" s="2"/>
@@ -2108,15 +2142,15 @@
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q36" s="2"/>
@@ -2149,15 +2183,15 @@
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
       <c r="N37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>80</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.4283265481037072E-2</v>
       </c>
       <c r="Q37" s="2"/>
@@ -2198,15 +2232,15 @@
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>143</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.1281337047353758E-2</v>
       </c>
       <c r="Q38" s="2"/>
@@ -2241,15 +2275,15 @@
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>92</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>92</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.9425755303192631E-2</v>
       </c>
       <c r="Q39" s="2"/>
@@ -2286,15 +2320,15 @@
         <v>15</v>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>130</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>5.5710306406685235E-2</v>
       </c>
       <c r="Q40" s="2"/>
@@ -2331,15 +2365,15 @@
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
       <c r="N41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q41" s="2"/>
@@ -2376,15 +2410,15 @@
       </c>
       <c r="M42" s="4"/>
       <c r="N42" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q42" s="2"/>
@@ -2417,15 +2451,15 @@
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
       <c r="N43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q43" s="2"/>
@@ -2466,15 +2500,15 @@
         <v>1</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>50.5</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50.5</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.1641311334904649E-2</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2509,15 +2543,15 @@
         <v>25</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q45" s="2"/>
@@ -2552,15 +2586,15 @@
         <v>25</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.5708163702592668E-2</v>
       </c>
       <c r="Q46" s="2"/>
@@ -2595,15 +2629,15 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>48</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.0569959288622243E-2</v>
       </c>
       <c r="Q47" s="2"/>
@@ -2642,15 +2676,15 @@
         <v>15</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="O48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8.3565459610027856E-2</v>
       </c>
       <c r="Q48" s="2"/>
@@ -2693,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.2854081851296334E-2</v>
       </c>
       <c r="Q49" s="2"/>
@@ -2709,7 +2743,7 @@
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="4">
         <v>25</v>
@@ -2736,7 +2770,7 @@
         <v>145</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>6.2138418684379686E-2</v>
       </c>
       <c r="Q50" s="2"/>
@@ -2770,7 +2804,7 @@
         <v>2333.5</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="Q51" s="2"/>
@@ -2893,15 +2927,15 @@
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
       <c r="N54" s="5">
-        <f t="shared" ref="N54:N70" si="6">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="N54:N70" si="9">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O70" si="7">MEDIAN(C54,N54,D54)</f>
+        <f t="shared" ref="O54:O70" si="10">MEDIAN(C54,N54,D54)</f>
         <v>135</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" ref="P54:P71" si="8">O54/SUM(O$54:O$70)</f>
+        <f t="shared" ref="P54:P71" si="11">O54/SUM(O$54:O$70)</f>
         <v>0.14438502673796791</v>
       </c>
       <c r="Q54" s="2"/>
@@ -2938,15 +2972,15 @@
         <v>5</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.6256684491978606E-2</v>
       </c>
       <c r="Q55" s="2"/>
@@ -2981,15 +3015,15 @@
         <v>10</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>110</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="Q56" s="2"/>
@@ -3024,15 +3058,15 @@
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
       <c r="N57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>80</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>8.5561497326203204E-2</v>
       </c>
       <c r="Q57" s="2"/>
@@ -3069,15 +3103,15 @@
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>135</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>135</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.14438502673796791</v>
       </c>
       <c r="Q58" s="2"/>
@@ -3114,15 +3148,15 @@
         <v>10</v>
       </c>
       <c r="N59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>105</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.11229946524064172</v>
       </c>
       <c r="Q59" s="2"/>
@@ -3159,15 +3193,15 @@
         <v>15</v>
       </c>
       <c r="N60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>145</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.15508021390374332</v>
       </c>
       <c r="Q60" s="2"/>
@@ -3183,7 +3217,7 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="4">
         <v>5</v>
@@ -3202,15 +3236,15 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>45</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>4.8128342245989303E-2</v>
       </c>
       <c r="Q61" s="2"/>
@@ -3226,7 +3260,7 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B62" s="4">
         <v>0</v>
@@ -3249,15 +3283,15 @@
         <v>5</v>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>90</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
       <c r="P62" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>9.6256684491978606E-2</v>
       </c>
       <c r="Q62" s="2"/>
@@ -3286,15 +3320,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3323,15 +3357,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3360,15 +3394,15 @@
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
       <c r="N65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q65" s="2"/>
@@ -3397,15 +3431,15 @@
       <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q66" s="2"/>
@@ -3434,15 +3468,15 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O67" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q67" s="2"/>
@@ -3471,15 +3505,15 @@
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
       <c r="N68" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O68" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q68" s="2"/>
@@ -3508,15 +3542,15 @@
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
       <c r="N69" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O69" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q69" s="2"/>
@@ -3545,15 +3579,15 @@
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
       <c r="N70" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O70" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q70" s="2"/>
@@ -3587,7 +3621,7 @@
         <v>935</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q71" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -88,9 +92,6 @@
     <t>Economic News</t>
   </si>
   <si>
-    <t>Lost Carp</t>
-  </si>
-  <si>
     <t>Money Hacker</t>
   </si>
   <si>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>Moderate</t>
-  </si>
-  <si>
-    <t>Carp School</t>
   </si>
   <si>
     <t>Communication Blackout</t>
@@ -190,9 +188,6 @@
     <t>Blob</t>
   </si>
   <si>
-    <t>Carp Migration</t>
-  </si>
-  <si>
     <t>Space Vines</t>
   </si>
   <si>
@@ -209,23 +204,32 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -233,17 +237,23 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -259,29 +269,143 @@
       </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="10" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,31 +603,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ee11bf8-2c51-4794-bab0-b08c213463fd}">
+  <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="P47" sqref="P47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.434285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="26.57"/>
-    <col customWidth="1" min="2" max="2" width="6.57"/>
-    <col customWidth="1" min="3" max="3" width="10.14"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="8.29"/>
-    <col customWidth="1" min="6" max="6" width="6.14"/>
-    <col customWidth="1" min="7" max="7" width="7.14"/>
-    <col customWidth="1" min="8" max="8" width="10.14"/>
-    <col customWidth="1" min="9" max="13" width="7.0"/>
-    <col customWidth="1" min="14" max="14" width="10.14"/>
-    <col customWidth="1" min="15" max="15" width="10.0"/>
-    <col customWidth="1" min="16" max="16" width="10.14"/>
-    <col customWidth="1" min="17" max="26" width="15.14"/>
+    <col min="1" max="1" width="26.571428571428573" customWidth="1"/>
+    <col min="2" max="2" width="6.571428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.142857142857142" customWidth="1"/>
+    <col min="4" max="4" width="10.428571428571429" customWidth="1"/>
+    <col min="5" max="5" width="8.285714285714286" customWidth="1"/>
+    <col min="6" max="6" width="6.142857142857143" customWidth="1"/>
+    <col min="7" max="7" width="7.142857142857143" customWidth="1"/>
+    <col min="8" max="8" width="10.142857142857142" customWidth="1"/>
+    <col min="9" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="10.142857142857142" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.142857142857142" customWidth="1"/>
+    <col min="17" max="26" width="15.142857142857142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +657,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,34 +703,34 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
         <v>34.5</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -626,7 +750,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -656,7 +780,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -688,7 +812,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -748,12 +872,12 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="4">
-        <v>120.0</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -767,16 +891,16 @@
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="5">
-        <f t="shared" ref="N7:N28" si="1">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <f t="shared" si="0" ref="N7:N11">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
       <c r="O7" s="5">
-        <f t="shared" ref="O7:O28" si="2">MEDIAN(C7,N7,D7)</f>
+        <f t="shared" si="1" ref="O7:O11">MEDIAN(C7,N7,D7)</f>
         <v>120</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" ref="P7:P29" si="3">O7/SUM(O$7:O$28)</f>
-        <v>0.05660377358</v>
+        <f t="shared" si="2" ref="P7:P11">O7/SUM(O$7:O$27)</f>
+        <v>0.058823529411764705</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -789,12 +913,12 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -802,7 +926,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -810,16 +934,16 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="O8" s="5">
+      <c r="P8" s="6">
         <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="3"/>
-        <v>0.03773584906</v>
+        <v>0.039215686274509803</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -832,12 +956,12 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -847,22 +971,22 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="O9" s="5">
+      <c r="P9" s="6">
         <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="3"/>
-        <v>0.01650943396</v>
+        <v>0.017156862745098041</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -875,12 +999,12 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -888,7 +1012,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -896,16 +1020,16 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="O10" s="5">
+      <c r="P10" s="6">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02830188679</v>
+        <v>0.029411764705882353</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -918,12 +1042,12 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="4">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -937,16 +1061,16 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="O11" s="5">
+      <c r="P11" s="6">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="3"/>
-        <v>0.141509434</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -959,37 +1083,35 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
-        <v>20.0</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="3"/>
-        <v>0.03773584906</v>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9">
+        <f t="shared" si="3" ref="N12:N27">SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
+        <v>10</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="4" ref="O12:O27">MEDIAN(C12,N12,D12)</f>
+        <v>10</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="5" ref="P12:P28">O12/SUM(O$7:O$27)</f>
+        <v>0.0049019607843137254</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1002,16 +1124,22 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1021,16 +1149,16 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>34.5</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>15</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="3"/>
-        <v>0.004716981132</v>
+        <f t="shared" si="5"/>
+        <v>0.0073529411764705881</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1043,22 +1171,16 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="D14" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1.0</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1068,16 +1190,16 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5">
-        <f t="shared" si="1"/>
-        <v>34.5</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="O14" s="5">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="3"/>
-        <v>0.007075471698</v>
+        <f t="shared" si="5"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1090,16 +1212,22 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>25</v>
+      </c>
+      <c r="D15" s="4">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1109,16 +1237,16 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="O15" s="5">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="3"/>
-        <v>0.141509434</v>
+        <f t="shared" si="5"/>
+        <v>0.024509803921568627</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1131,41 +1259,39 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="D16" s="4">
-        <v>50.0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>4.0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="J16" s="4">
+        <v>20</v>
+      </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="M16" s="4">
+        <v>10</v>
+      </c>
       <c r="N16" s="5">
-        <f t="shared" si="1"/>
-        <v>138</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02358490566</v>
+        <f t="shared" si="5"/>
+        <v>0.068627450980392163</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1178,39 +1304,39 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="4">
-        <v>60.0</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="H17" s="4">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>20</v>
+      </c>
+      <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="M17" s="4"/>
       <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>140</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="O17" s="5">
-        <f t="shared" si="2"/>
-        <v>140</v>
+        <f t="shared" si="4"/>
+        <v>115</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="3"/>
-        <v>0.06603773585</v>
+        <f t="shared" si="5"/>
+        <v>0.056372549019607844</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -1223,39 +1349,35 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="4">
-        <v>75.0</v>
+        <v>55</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="I18" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5">
-        <f t="shared" si="1"/>
-        <v>115</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="O18" s="5">
-        <f t="shared" si="2"/>
-        <v>115</v>
+        <f t="shared" si="4"/>
+        <v>55</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="3"/>
-        <v>0.05424528302</v>
+        <f t="shared" si="5"/>
+        <v>0.026960784313725492</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1268,12 +1390,12 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="4">
-        <v>55.0</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1287,16 +1409,16 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5">
-        <f t="shared" si="1"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="O19" s="5">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02594339623</v>
+        <f t="shared" si="5"/>
+        <v>0.049019607843137254</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1309,12 +1431,12 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>100.0</v>
+        <v>80</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1328,16 +1450,16 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5">
-        <f t="shared" si="1"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>80</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.04716981132</v>
+        <f t="shared" si="5"/>
+        <v>0.039215686274509803</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1350,12 +1472,12 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="4">
-        <v>80.0</v>
+        <v>300</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1369,16 +1491,16 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5">
-        <f t="shared" si="1"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="O21" s="5">
-        <f t="shared" si="2"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>300</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="3"/>
-        <v>0.03773584906</v>
+        <f t="shared" si="5"/>
+        <v>0.14705882352941177</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1391,12 +1513,12 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="4">
-        <v>300.0</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1405,21 +1527,23 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="J22" s="4">
+        <v>30</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>300</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="O22" s="5">
-        <f t="shared" si="2"/>
-        <v>300</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="3"/>
-        <v>0.141509434</v>
+        <f t="shared" si="5"/>
+        <v>0.044117647058823532</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1432,37 +1556,37 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B23" s="4">
-        <v>60.0</v>
+        <v>10</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="H23" s="4">
+        <v>30</v>
+      </c>
       <c r="I23" s="4"/>
-      <c r="J23" s="4">
-        <v>30.0</v>
-      </c>
+      <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="O23" s="5">
-        <f t="shared" si="2"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="3"/>
-        <v>0.04245283019</v>
+        <f t="shared" si="5"/>
+        <v>0.063725490196078427</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -1475,37 +1599,35 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B24" s="4">
-        <v>10.0</v>
+        <v>60</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="4">
-        <v>30.0</v>
-      </c>
+      <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="O24" s="5">
-        <f t="shared" si="2"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>60</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.06132075472</v>
+        <f t="shared" si="5"/>
+        <v>0.029411764705882353</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -1518,13 +1640,9 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="4">
-        <v>60.0</v>
-      </c>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1537,16 +1655,16 @@
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O25" s="5">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="3"/>
-        <v>0.02830188679</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -1559,7 +1677,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1574,15 +1692,15 @@
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
       <c r="N26" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q26" s="2"/>
@@ -1596,7 +1714,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1611,15 +1729,15 @@
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
       <c r="N27" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q27" s="2"/>
@@ -1633,31 +1751,28 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f>SUM(O7:O27)</f>
+        <v>2040</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -1670,29 +1785,25 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="5">
-        <f>SUM(O7:O28)</f>
-        <v>2120</v>
-      </c>
-      <c r="P29" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1704,25 +1815,55 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1734,54 +1875,35 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>19</v>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="4">
+        <v>200</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="5">
+        <f>IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <v>200</v>
+      </c>
+      <c r="O31" s="5">
+        <f>MEDIAN(C31,N31,D31)</f>
+        <v>200</v>
+      </c>
+      <c r="P31" s="6">
+        <f>O31/SUM(O$31:O$47)</f>
+        <v>0.097967180994366881</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -1794,12 +1916,12 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4">
-        <v>200.0</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1813,16 +1935,16 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" ref="N32:N49" si="4">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="6" ref="N32:N47">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>60</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32:O49" si="5">MEDIAN(C32,N32,D32)</f>
-        <v>200</v>
+        <f t="shared" si="7" ref="O32:O47">MEDIAN(C32,N32,D32)</f>
+        <v>60</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" ref="P32:P50" si="6">O32/SUM(O$32:O$49)</f>
-        <v>0.08922596476</v>
+        <f t="shared" si="8" ref="P32:P48">O32/SUM(O$31:O$47)</f>
+        <v>0.029390154298310066</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -1835,37 +1957,39 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B33" s="4">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="H33" s="4">
+        <v>5</v>
+      </c>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="4">
+        <v>20</v>
+      </c>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="4">
-        <v>25.0</v>
-      </c>
+      <c r="M33" s="4"/>
       <c r="N33" s="5">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="7"/>
+        <v>90</v>
       </c>
       <c r="P33" s="6">
-        <f t="shared" si="6"/>
-        <v>0.08922596476</v>
+        <f t="shared" si="8"/>
+        <v>0.044085231447465102</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -1878,12 +2002,12 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B34" s="4">
-        <v>60.0</v>
+        <v>100</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -1897,16 +2021,16 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <f t="shared" si="4"/>
-        <v>60</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" si="5"/>
-        <v>60</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="P34" s="6">
-        <f t="shared" si="6"/>
-        <v>0.02676778943</v>
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -1919,39 +2043,35 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B35" s="4">
-        <v>50.0</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="H35" s="4"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="J35" s="4"/>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
-        <f t="shared" si="4"/>
-        <v>90</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="5"/>
-        <v>90</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
       <c r="P35" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04015168414</v>
+        <f t="shared" si="8"/>
+        <v>0.039186872397746757</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -1964,35 +2084,43 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B36" s="4">
-        <v>100.0</v>
+        <v>0</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="F36" s="4">
+        <v>45</v>
+      </c>
+      <c r="G36" s="4">
+        <v>25</v>
+      </c>
+      <c r="H36" s="4">
+        <v>6</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
+      <c r="L36" s="4">
+        <v>6</v>
+      </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>143</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>143</v>
       </c>
       <c r="P36" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04461298238</v>
+        <f t="shared" si="8"/>
+        <v>0.070046534410972319</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -2005,35 +2133,39 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="4">
-        <v>80.0</v>
+        <v>0</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4">
+        <v>20</v>
+      </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="M37" s="4">
+        <v>15</v>
+      </c>
       <c r="N37" s="5">
-        <f t="shared" si="4"/>
-        <v>80</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="5"/>
-        <v>80</v>
+        <f t="shared" si="7"/>
+        <v>130</v>
       </c>
       <c r="P37" s="6">
-        <f t="shared" si="6"/>
-        <v>0.0356903859</v>
+        <f t="shared" si="8"/>
+        <v>0.063678667646338477</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -2046,43 +2178,39 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B38" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4">
-        <v>45.0</v>
-      </c>
+      <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="H38" s="4">
-        <v>6.0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4">
-        <v>6.0</v>
-      </c>
+      <c r="K38" s="4">
+        <v>15</v>
+      </c>
+      <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
-        <f t="shared" si="4"/>
-        <v>143</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="5"/>
-        <v>143</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" si="6"/>
-        <v>0.0637965648</v>
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -2095,39 +2223,39 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B39" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="L39" s="4">
+        <v>15</v>
+      </c>
+      <c r="M39" s="4"/>
       <c r="N39" s="5">
-        <f t="shared" si="4"/>
-        <v>130</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="5"/>
-        <v>130</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="6"/>
-        <v>0.05799687709</v>
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -2140,39 +2268,35 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="4">
-        <v>0.0</v>
+        <v>100</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04461298238</v>
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -2185,39 +2309,43 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B41" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="4">
+        <v>10</v>
+      </c>
+      <c r="D41" s="4">
+        <v>125</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4">
-        <v>20.0</v>
-      </c>
+      <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="M41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4">
+        <v>1</v>
+      </c>
       <c r="N41" s="5">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>50.5</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>50.5</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04461298238</v>
+        <f t="shared" si="8"/>
+        <v>0.024736713201077638</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -2230,12 +2358,12 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B42" s="4">
-        <v>100.0</v>
+        <v>50</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2247,18 +2375,20 @@
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
+      <c r="M42" s="4">
+        <v>25</v>
+      </c>
       <c r="N42" s="5">
-        <f t="shared" si="4"/>
-        <v>100</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04461298238</v>
+        <f t="shared" si="8"/>
+        <v>0.097967180994366881</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -2271,22 +2401,16 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B43" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C43" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>125.0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1.0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2295,19 +2419,19 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
-        <v>1.0</v>
+        <v>25</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="4"/>
-        <v>50.5</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="5"/>
-        <v>50.5</v>
+        <f t="shared" si="7"/>
+        <v>200</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="6"/>
-        <v>0.0225295561</v>
+        <f t="shared" si="8"/>
+        <v>0.097967180994366881</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -2320,12 +2444,12 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B44" s="4">
-        <v>50.0</v>
+        <v>0</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2335,22 +2459,22 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
+      <c r="K44" s="4">
+        <v>12</v>
+      </c>
       <c r="L44" s="4"/>
-      <c r="M44" s="4">
-        <v>25.0</v>
-      </c>
+      <c r="M44" s="4"/>
       <c r="N44" s="5">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="7"/>
+        <v>48</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="6"/>
-        <v>0.08922596476</v>
+        <f t="shared" si="8"/>
+        <v>0.023512123438648051</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -2363,12 +2487,12 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B45" s="4">
-        <v>50.0</v>
+        <v>30</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2377,23 +2501,27 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="J45" s="4">
+        <v>15</v>
+      </c>
+      <c r="K45" s="4">
+        <v>15</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>25.0</v>
+        <v>15</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="4"/>
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>195</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="5"/>
-        <v>200</v>
+        <f t="shared" si="7"/>
+        <v>195</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="6"/>
-        <v>0.08922596476</v>
+        <f t="shared" si="8"/>
+        <v>0.095518001469507716</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -2406,12 +2534,12 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2422,21 +2550,21 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4">
-        <v>12.0</v>
+        <v>25</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="5">
-        <f t="shared" si="4"/>
-        <v>48</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="5"/>
-        <v>48</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="6"/>
-        <v>0.02141423154</v>
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -2449,41 +2577,37 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B47" s="4">
-        <v>30.0</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="4">
+        <v>30</v>
+      </c>
       <c r="I47" s="4"/>
-      <c r="J47" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="K47" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="M47" s="4"/>
       <c r="N47" s="5">
-        <f t="shared" si="4"/>
-        <v>195</v>
+        <f t="shared" si="6"/>
+        <v>145</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="5"/>
-        <v>195</v>
+        <f t="shared" si="7"/>
+        <v>145</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="6"/>
-        <v>0.08699531564</v>
+        <f t="shared" si="8"/>
+        <v>0.071026206220915988</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -2496,37 +2620,28 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B48" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="5">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="5">
-        <f t="shared" si="5"/>
-        <v>100</v>
+        <f>SUM(O31:O47)</f>
+        <v>2041.5</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="6"/>
-        <v>0.04461298238</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -2539,38 +2654,25 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4">
-        <v>30.0</v>
-      </c>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="5">
-        <f t="shared" si="4"/>
-        <v>145</v>
-      </c>
-      <c r="O49" s="5">
-        <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-      <c r="P49" s="6">
-        <f t="shared" si="6"/>
-        <v>0.06468882445</v>
-      </c>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -2582,28 +2684,54 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="5">
-        <f>SUM(O32:O49)</f>
-        <v>2241.5</v>
-      </c>
-      <c r="P50" s="6">
-        <f t="shared" si="6"/>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A50" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>1</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -2616,25 +2744,36 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A51" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="4">
+        <v>135</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="5">
+        <f>IF(C51&gt;0,MAX(B51,C51),B51)+E51*$A$3+F51*$B$3+G51*$C$3+H51*$D$3+I51*$E$3+J51*$F$3+K51*$G$3+L51*$H$3+M51*$I$3</f>
+        <v>135</v>
+      </c>
+      <c r="O51" s="5">
+        <f>MEDIAN(C51,N51,D51)</f>
+        <v>135</v>
+      </c>
+      <c r="P51" s="6">
+        <f>O51/SUM(O$51:O$64)</f>
+        <v>0.19285714285714287</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2646,54 +2785,39 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="4">
+        <v>40</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4">
         <v>5</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>19</v>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4">
+        <v>5</v>
+      </c>
+      <c r="N52" s="5">
+        <f>IF(C52&gt;0,MAX(B52,C52),B52)+E52*$A$3+F52*$B$3+G52*$C$3+H52*$D$3+I52*$E$3+J52*$F$3+K52*$G$3+L52*$H$3+M52*$I$3</f>
+        <v>90</v>
+      </c>
+      <c r="O52" s="5">
+        <f>MEDIAN(C52,N52,D52)</f>
+        <v>90</v>
+      </c>
+      <c r="P52" s="6">
+        <f>O52/SUM(O$51:O$64)</f>
+        <v>0.12857142857142856</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -2706,35 +2830,39 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B53" s="4">
-        <v>135.0</v>
+        <v>75</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="H53" s="4">
+        <v>10</v>
+      </c>
+      <c r="I53" s="4">
+        <v>20</v>
+      </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5">
-        <f t="shared" ref="N53:N67" si="7">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
+        <f t="shared" si="9" ref="N53:N64">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
         <v>135</v>
       </c>
       <c r="O53" s="5">
-        <f t="shared" ref="O53:O67" si="8">MEDIAN(C53,N53,D53)</f>
+        <f t="shared" si="10" ref="O53:O64">MEDIAN(C53,N53,D53)</f>
         <v>135</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" ref="P53:P68" si="9">O53/SUM(O$53:O$67)</f>
-        <v>0.1666666667</v>
+        <f t="shared" si="11" ref="P53:P65">O53/SUM(O$51:O$64)</f>
+        <v>0.19285714285714287</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -2747,39 +2875,39 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B54" s="4">
-        <v>40.0</v>
+        <v>25</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
+      <c r="K54" s="4">
+        <v>5</v>
+      </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4">
-        <v>5.0</v>
+        <v>10</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>105</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" si="8"/>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1111111111</v>
+        <f t="shared" si="11"/>
+        <v>0.14999999999999999</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -2792,12 +2920,12 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B55" s="4">
-        <v>50.0</v>
+        <v>15</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2807,22 +2935,24 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
+      <c r="K55" s="4">
+        <v>10</v>
+      </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <v>10.0</v>
+        <v>15</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="7"/>
-        <v>110</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="8"/>
-        <v>110</v>
+        <f t="shared" si="10"/>
+        <v>145</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1358024691</v>
+        <f t="shared" si="11"/>
+        <v>0.20714285714285716</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -2835,12 +2965,12 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B56" s="4">
-        <v>75.0</v>
+        <v>0</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2848,26 +2978,28 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="I56" s="4">
-        <v>20.0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
+      <c r="K56" s="4">
+        <v>5</v>
+      </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
+      <c r="M56" s="4">
+        <v>5</v>
+      </c>
       <c r="N56" s="5">
-        <f t="shared" si="7"/>
-        <v>135</v>
+        <f t="shared" si="9"/>
+        <v>90</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="8"/>
-        <v>135</v>
+        <f t="shared" si="10"/>
+        <v>90</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1666666667</v>
+        <f t="shared" si="11"/>
+        <v>0.12857142857142856</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -2880,13 +3012,9 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="4">
-        <v>25.0</v>
-      </c>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -2895,24 +3023,20 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="K57" s="4"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="M57" s="4"/>
       <c r="N57" s="5">
-        <f t="shared" si="7"/>
-        <v>105</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="8"/>
-        <v>105</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1296296296</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -2925,13 +3049,9 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B58" s="4">
-        <v>15.0</v>
-      </c>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -2940,24 +3060,20 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="K58" s="4"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="4">
-        <v>15.0</v>
-      </c>
+      <c r="M58" s="4"/>
       <c r="N58" s="5">
-        <f t="shared" si="7"/>
-        <v>145</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="8"/>
-        <v>145</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1790123457</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -2970,41 +3086,31 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="4">
-        <v>0.0</v>
-      </c>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4">
-        <v>10.0</v>
-      </c>
+      <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="K59" s="4"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="4">
-        <v>5.0</v>
-      </c>
+      <c r="M59" s="4"/>
       <c r="N59" s="5">
-        <f t="shared" si="7"/>
-        <v>90</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="8"/>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="9"/>
-        <v>0.1111111111</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -3017,7 +3123,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3032,15 +3138,15 @@
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
       <c r="N60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q60" s="2"/>
@@ -3054,7 +3160,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3069,15 +3175,15 @@
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
       <c r="N61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q61" s="2"/>
@@ -3091,7 +3197,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3106,15 +3212,15 @@
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
       <c r="N62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q62" s="2"/>
@@ -3128,7 +3234,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3143,15 +3249,15 @@
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
       <c r="N63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O63" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q63" s="2"/>
@@ -3165,7 +3271,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3180,15 +3286,15 @@
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
       <c r="N64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q64" s="2"/>
@@ -3202,31 +3308,28 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>SUM(O50:O64)</f>
+        <v>700</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -3239,32 +3342,23 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
@@ -3276,32 +3370,23 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="5">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="6">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
@@ -3313,7 +3398,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3328,14 +3413,8 @@
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
-      <c r="O68" s="5">
-        <f>SUM(O52:O67)</f>
-        <v>810</v>
-      </c>
-      <c r="P68" s="6">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
@@ -3347,7 +3426,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3375,7 +3454,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3403,7 +3482,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3431,7 +3510,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3459,7 +3538,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3487,7 +3566,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3515,7 +3594,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3543,7 +3622,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3571,7 +3650,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3599,7 +3678,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3627,7 +3706,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3655,7 +3734,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3683,7 +3762,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3711,7 +3790,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3739,7 +3818,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3767,7 +3846,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3795,7 +3874,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3823,7 +3902,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3851,7 +3930,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3879,7 +3958,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" ht="15.75" customHeight="1">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3907,7 +3986,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3935,7 +4014,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3963,7 +4042,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3991,7 +4070,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4019,7 +4098,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4047,7 +4126,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" ht="15.75" customHeight="1">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4075,7 +4154,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4103,7 +4182,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" ht="15.75" customHeight="1">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4131,7 +4210,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4159,7 +4238,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4187,7 +4266,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4215,7 +4294,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4243,7 +4322,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4271,7 +4350,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" ht="15.75" customHeight="1">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4299,7 +4378,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4327,7 +4406,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4355,7 +4434,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4383,7 +4462,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4411,7 +4490,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4439,7 +4518,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4467,7 +4546,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4495,7 +4574,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4523,7 +4602,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4551,7 +4630,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4579,7 +4658,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4607,7 +4686,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4635,7 +4714,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4663,7 +4742,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4691,7 +4770,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4719,7 +4798,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4747,7 +4826,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4775,7 +4854,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4803,7 +4882,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4831,7 +4910,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4859,7 +4938,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4887,7 +4966,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4915,7 +4994,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4943,7 +5022,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4971,7 +5050,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4999,7 +5078,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5027,7 +5106,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5055,7 +5134,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5083,7 +5162,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5111,7 +5190,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5139,7 +5218,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5167,7 +5246,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5195,7 +5274,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5223,7 +5302,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5251,7 +5330,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5279,7 +5358,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5307,7 +5386,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5335,7 +5414,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5363,7 +5442,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5391,7 +5470,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5419,7 +5498,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5447,7 +5526,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5475,7 +5554,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5503,7 +5582,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5531,7 +5610,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5559,7 +5638,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5587,7 +5666,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5615,7 +5694,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5643,7 +5722,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5671,7 +5750,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5699,7 +5778,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5727,7 +5806,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5755,7 +5834,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5783,7 +5862,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5811,7 +5890,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5839,7 +5918,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5867,7 +5946,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5895,7 +5974,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -5923,7 +6002,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5951,7 +6030,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5979,7 +6058,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6007,7 +6086,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6035,7 +6114,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6063,7 +6142,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6091,7 +6170,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6119,7 +6198,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6147,7 +6226,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6175,7 +6254,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6203,7 +6282,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6231,7 +6310,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6259,7 +6338,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6287,7 +6366,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6315,7 +6394,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6343,7 +6422,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6371,7 +6450,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6399,7 +6478,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6427,7 +6506,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6455,7 +6534,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6483,7 +6562,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6511,7 +6590,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6539,7 +6618,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6567,7 +6646,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6595,7 +6674,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6623,7 +6702,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6651,7 +6730,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6679,7 +6758,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6707,7 +6786,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6735,7 +6814,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6763,7 +6842,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6791,7 +6870,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6819,7 +6898,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6847,7 +6926,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6875,7 +6954,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6903,7 +6982,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -6931,7 +7010,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -6959,7 +7038,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6987,7 +7066,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7015,7 +7094,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7043,7 +7122,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7071,7 +7150,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7099,7 +7178,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7127,7 +7206,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7155,7 +7234,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7183,7 +7262,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7211,7 +7290,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7239,7 +7318,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7267,7 +7346,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7295,7 +7374,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7323,7 +7402,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7351,7 +7430,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7379,7 +7458,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7407,7 +7486,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7435,7 +7514,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7463,7 +7542,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7491,7 +7570,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7519,7 +7598,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7547,7 +7626,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7575,7 +7654,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7603,7 +7682,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7631,7 +7710,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7659,7 +7738,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7687,7 +7766,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7715,7 +7794,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7743,7 +7822,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7771,7 +7850,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7799,7 +7878,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7827,7 +7906,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7855,7 +7934,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7883,7 +7962,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7911,7 +7990,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -7939,7 +8018,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -7967,7 +8046,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -7995,7 +8074,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8023,7 +8102,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8051,7 +8130,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8079,7 +8158,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8107,7 +8186,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8135,7 +8214,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8163,7 +8242,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8191,7 +8270,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8219,7 +8298,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8247,7 +8326,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8275,7 +8354,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8303,7 +8382,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8331,7 +8410,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8359,7 +8438,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8387,7 +8466,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8415,7 +8494,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8443,7 +8522,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8471,7 +8550,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8499,7 +8578,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8527,7 +8606,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8555,7 +8634,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8583,7 +8662,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8611,7 +8690,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8639,7 +8718,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8667,7 +8746,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8695,7 +8774,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8723,7 +8802,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8751,7 +8830,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8779,7 +8858,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8807,7 +8886,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8835,7 +8914,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8863,90 +8942,9 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="A266" s="2"/>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-      <c r="D266" s="2"/>
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
-      <c r="G266" s="2"/>
-      <c r="H266" s="2"/>
-      <c r="I266" s="2"/>
-      <c r="J266" s="2"/>
-      <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
-      <c r="M266" s="2"/>
-      <c r="N266" s="2"/>
-      <c r="O266" s="2"/>
-      <c r="P266" s="2"/>
-      <c r="Q266" s="2"/>
-      <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
-      <c r="T266" s="2"/>
-      <c r="U266" s="2"/>
-      <c r="V266" s="2"/>
-      <c r="W266" s="2"/>
-      <c r="X266" s="2"/>
-      <c r="Y266" s="2"/>
-      <c r="Z266" s="2"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="A267" s="2"/>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-      <c r="D267" s="2"/>
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
-      <c r="G267" s="2"/>
-      <c r="H267" s="2"/>
-      <c r="I267" s="2"/>
-      <c r="J267" s="2"/>
-      <c r="K267" s="2"/>
-      <c r="L267" s="2"/>
-      <c r="M267" s="2"/>
-      <c r="N267" s="2"/>
-      <c r="O267" s="2"/>
-      <c r="P267" s="2"/>
-      <c r="Q267" s="2"/>
-      <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
-      <c r="T267" s="2"/>
-      <c r="U267" s="2"/>
-      <c r="V267" s="2"/>
-      <c r="W267" s="2"/>
-      <c r="X267" s="2"/>
-      <c r="Y267" s="2"/>
-      <c r="Z267" s="2"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="A268" s="2"/>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-      <c r="D268" s="2"/>
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
-      <c r="G268" s="2"/>
-      <c r="H268" s="2"/>
-      <c r="I268" s="2"/>
-      <c r="J268" s="2"/>
-      <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
-      <c r="M268" s="2"/>
-      <c r="N268" s="2"/>
-      <c r="O268" s="2"/>
-      <c r="P268" s="2"/>
-      <c r="Q268" s="2"/>
-      <c r="R268" s="2"/>
-      <c r="S268" s="2"/>
-      <c r="T268" s="2"/>
-      <c r="U268" s="2"/>
-      <c r="V268" s="2"/>
-      <c r="W268" s="2"/>
-      <c r="X268" s="2"/>
-      <c r="Y268" s="2"/>
-      <c r="Z268" s="2"/>
-    </row>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
     <row r="269" ht="15.75" customHeight="1"/>
     <row r="270" ht="15.75" customHeight="1"/>
     <row r="271" ht="15.75" customHeight="1"/>
@@ -9673,13 +9671,8 @@
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,21 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657EC88-D63A-4A7A-A2CC-092D534D34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -199,24 +217,21 @@
   <si>
     <t>Drone Revolution</t>
   </si>
+  <si>
+    <t>Min Pop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -267,136 +282,35 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment/>
-      <protection/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-  </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="15" builtinId="5"/>
-    <cellStyle name="Currency" xfId="16" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
-    <cellStyle name="Comma" xfId="18" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -409,7 +323,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -599,35 +513,40 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ee11bf8-2c51-4794-bab0-b08c213463fd}">
-  <dimension ref="A1:Z265"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
+  <dimension ref="A1:AA994"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="P47" sqref="P47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.434285714285714" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.571428571428573" customWidth="1"/>
-    <col min="2" max="2" width="6.571428571428571" customWidth="1"/>
-    <col min="3" max="3" width="10.142857142857142" customWidth="1"/>
-    <col min="4" max="4" width="10.428571428571429" customWidth="1"/>
-    <col min="5" max="5" width="8.285714285714286" customWidth="1"/>
-    <col min="6" max="6" width="6.142857142857143" customWidth="1"/>
-    <col min="7" max="7" width="7.142857142857143" customWidth="1"/>
-    <col min="8" max="8" width="10.142857142857142" customWidth="1"/>
-    <col min="9" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="10.142857142857142" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
-    <col min="16" max="16" width="10.142857142857142" customWidth="1"/>
-    <col min="17" max="26" width="15.142857142857142" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="27" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,8 +575,9 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" ht="15">
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -702,8 +622,9 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-    </row>
-    <row r="3" spans="1:26" ht="15">
+      <c r="AA2" s="2"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
         <v>34.5</v>
@@ -749,8 +670,9 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-    </row>
-    <row r="4" spans="1:26" ht="15">
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -765,10 +687,10 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="O4" s="2"/>
+      <c r="P4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -779,8 +701,9 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-    </row>
-    <row r="5" spans="1:26" ht="15">
+      <c r="AA4" s="2"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -796,11 +719,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -811,8 +734,9 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="15">
+      <c r="AA5" s="2"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -853,15 +777,17 @@
         <v>9</v>
       </c>
       <c r="N6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -871,8 +797,9 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA6" s="2"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -890,19 +817,19 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="5">
-        <f t="shared" si="0" ref="N7:N11">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
+        <f>SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" si="1" ref="O7:O11">MEDIAN(C7,N7,D7)</f>
+      <c r="P7" s="5">
+        <f>MEDIAN(C7,O7,D7)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="6">
-        <f t="shared" si="2" ref="P7:P11">O7/SUM(O$7:O$27)</f>
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="6">
+        <f t="shared" ref="Q7:Q11" si="0">P7/SUM(P$7:P$27)</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -912,8 +839,9 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -934,18 +862,20 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <f>SUM(B8+E8*$A$3+F8*$B$3+G8*$C$3+H8*$D$3+I8*$E$3+J8*$F$3+K8*$G$3+L8*$H$3+M8*$I$3)</f>
+        <v>80</v>
+      </c>
+      <c r="P8" s="5">
+        <f>MEDIAN(C8,O8,D8)</f>
+        <v>80</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="O8" s="5">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="P8" s="6">
-        <f t="shared" si="2"/>
-        <v>0.039215686274509803</v>
-      </c>
-      <c r="Q8" s="2"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -955,8 +885,9 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-    </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA8" s="2"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -977,18 +908,20 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <f>SUM(B9+E9*$A$3+F9*$B$3+G9*$C$3+H9*$D$3+I9*$E$3+J9*$F$3+K9*$G$3+L9*$H$3+M9*$I$3)</f>
+        <v>35</v>
+      </c>
+      <c r="P9" s="5">
+        <f>MEDIAN(C9,O9,D9)</f>
+        <v>35</v>
+      </c>
+      <c r="Q9" s="6">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="O9" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="P9" s="6">
-        <f t="shared" si="2"/>
-        <v>0.017156862745098041</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>1.7156862745098041E-2</v>
+      </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -998,8 +931,9 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA9" s="2"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -1020,18 +954,20 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <f>SUM(B10+E10*$A$3+F10*$B$3+G10*$C$3+H10*$D$3+I10*$E$3+J10*$F$3+K10*$G$3+L10*$H$3+M10*$I$3)</f>
+        <v>60</v>
+      </c>
+      <c r="P10" s="5">
+        <f>MEDIAN(C10,O10,D10)</f>
+        <v>60</v>
+      </c>
+      <c r="Q10" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="O10" s="5">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="P10" s="6">
-        <f t="shared" si="2"/>
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="Q10" s="2"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -1041,8 +977,9 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA10" s="2"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1061,18 +998,20 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5">
+        <v>1</v>
+      </c>
+      <c r="O11" s="5">
+        <f>SUM(B11+E11*$A$3+F11*$B$3+G11*$C$3+H11*$D$3+I11*$E$3+J11*$F$3+K11*$G$3+L11*$H$3+M11*$I$3)</f>
+        <v>300</v>
+      </c>
+      <c r="P11" s="5">
+        <f>MEDIAN(C11,O11,D11)</f>
+        <v>300</v>
+      </c>
+      <c r="Q11" s="6">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="O11" s="5">
-        <f t="shared" si="1"/>
-        <v>300</v>
-      </c>
-      <c r="P11" s="6">
-        <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1082,38 +1021,41 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-    </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="AA11" s="2"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="9">
-        <f t="shared" si="3" ref="N12:N27">SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="8">
+        <f>SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
         <v>10</v>
       </c>
-      <c r="O12" s="9">
-        <f t="shared" si="4" ref="O12:O27">MEDIAN(C12,N12,D12)</f>
+      <c r="P12" s="8">
+        <f>MEDIAN(C12,O12,D12)</f>
         <v>10</v>
       </c>
-      <c r="P12" s="10">
-        <f t="shared" si="5" ref="P12:P28">O12/SUM(O$7:O$27)</f>
-        <v>0.0049019607843137254</v>
-      </c>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="9">
+        <f t="shared" ref="Q12:Q28" si="1">P12/SUM(P$7:P$27)</f>
+        <v>4.9019607843137254E-3</v>
+      </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1123,8 +1065,9 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-    </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA12" s="2"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1149,18 +1092,20 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <f>SUM(B13+E13*$A$3+F13*$B$3+G13*$C$3+H13*$D$3+I13*$E$3+J13*$F$3+K13*$G$3+L13*$H$3+M13*$I$3)</f>
         <v>34.5</v>
       </c>
-      <c r="O13" s="5">
-        <f t="shared" si="4"/>
+      <c r="P13" s="5">
+        <f>MEDIAN(C13,O13,D13)</f>
         <v>15</v>
       </c>
-      <c r="P13" s="6">
-        <f t="shared" si="5"/>
-        <v>0.0073529411764705881</v>
-      </c>
-      <c r="Q13" s="2"/>
+      <c r="Q13" s="6">
+        <f t="shared" si="1"/>
+        <v>7.3529411764705881E-3</v>
+      </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1170,8 +1115,9 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA13" s="2"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1190,18 +1136,20 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="5">
+        <f>SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
         <v>300</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="4"/>
+      <c r="P14" s="5">
+        <f>MEDIAN(C14,O14,D14)</f>
         <v>300</v>
       </c>
-      <c r="P14" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q14" s="6">
+        <f t="shared" si="1"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1211,8 +1159,9 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA14" s="2"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1237,18 +1186,20 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="5">
+        <f>SUM(B15+E15*$A$3+F15*$B$3+G15*$C$3+H15*$D$3+I15*$E$3+J15*$F$3+K15*$G$3+L15*$H$3+M15*$I$3)</f>
         <v>138</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="4"/>
+      <c r="P15" s="5">
+        <f>MEDIAN(C15,O15,D15)</f>
         <v>50</v>
       </c>
-      <c r="P15" s="6">
-        <f t="shared" si="5"/>
-        <v>0.024509803921568627</v>
-      </c>
-      <c r="Q15" s="2"/>
+      <c r="Q15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.4509803921568627E-2</v>
+      </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1258,8 +1209,9 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-    </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA15" s="2"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1282,18 +1234,20 @@
         <v>10</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="5">
+        <f>SUM(B16+E16*$A$3+F16*$B$3+G16*$C$3+H16*$D$3+I16*$E$3+J16*$F$3+K16*$G$3+L16*$H$3+M16*$I$3)</f>
         <v>140</v>
       </c>
-      <c r="O16" s="5">
-        <f t="shared" si="4"/>
+      <c r="P16" s="5">
+        <f>MEDIAN(C16,O16,D16)</f>
         <v>140</v>
       </c>
-      <c r="P16" s="6">
-        <f t="shared" si="5"/>
-        <v>0.068627450980392163</v>
-      </c>
-      <c r="Q16" s="2"/>
+      <c r="Q16" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8627450980392163E-2</v>
+      </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1303,8 +1257,9 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-    </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA16" s="2"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1327,18 +1282,20 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="5">
+        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
         <v>115</v>
       </c>
-      <c r="O17" s="5">
-        <f t="shared" si="4"/>
+      <c r="P17" s="5">
+        <f>MEDIAN(C17,O17,D17)</f>
         <v>115</v>
       </c>
-      <c r="P17" s="6">
-        <f t="shared" si="5"/>
-        <v>0.056372549019607844</v>
-      </c>
-      <c r="Q17" s="2"/>
+      <c r="Q17" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6372549019607844E-2</v>
+      </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1348,8 +1305,9 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-    </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA17" s="2"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1368,18 +1326,20 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
         <v>55</v>
       </c>
-      <c r="O18" s="5">
-        <f t="shared" si="4"/>
+      <c r="P18" s="5">
+        <f>MEDIAN(C18,O18,D18)</f>
         <v>55</v>
       </c>
-      <c r="P18" s="6">
-        <f t="shared" si="5"/>
-        <v>0.026960784313725492</v>
-      </c>
-      <c r="Q18" s="2"/>
+      <c r="Q18" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6960784313725492E-2</v>
+      </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1389,8 +1349,9 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-    </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA18" s="2"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1409,18 +1370,20 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
         <v>100</v>
       </c>
-      <c r="O19" s="5">
-        <f t="shared" si="4"/>
+      <c r="P19" s="5">
+        <f>MEDIAN(C19,O19,D19)</f>
         <v>100</v>
       </c>
-      <c r="P19" s="6">
-        <f t="shared" si="5"/>
-        <v>0.049019607843137254</v>
-      </c>
-      <c r="Q19" s="2"/>
+      <c r="Q19" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9019607843137254E-2</v>
+      </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1430,8 +1393,9 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-    </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA19" s="2"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1450,18 +1414,20 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O20" s="5">
+        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
         <v>80</v>
       </c>
-      <c r="O20" s="5">
-        <f t="shared" si="4"/>
+      <c r="P20" s="5">
+        <f>MEDIAN(C20,O20,D20)</f>
         <v>80</v>
       </c>
-      <c r="P20" s="6">
-        <f t="shared" si="5"/>
-        <v>0.039215686274509803</v>
-      </c>
-      <c r="Q20" s="2"/>
+      <c r="Q20" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9215686274509803E-2</v>
+      </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1471,8 +1437,9 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-    </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA20" s="2"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1491,18 +1458,20 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O21" s="5">
+        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
         <v>300</v>
       </c>
-      <c r="O21" s="5">
-        <f t="shared" si="4"/>
+      <c r="P21" s="5">
+        <f>MEDIAN(C21,O21,D21)</f>
         <v>300</v>
       </c>
-      <c r="P21" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q21" s="6">
+        <f t="shared" si="1"/>
         <v>0.14705882352941177</v>
       </c>
-      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1512,8 +1481,9 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-    </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA21" s="2"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1534,18 +1504,20 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="5">
+        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
         <v>90</v>
       </c>
-      <c r="O22" s="5">
-        <f t="shared" si="4"/>
+      <c r="P22" s="5">
+        <f>MEDIAN(C22,O22,D22)</f>
         <v>90</v>
       </c>
-      <c r="P22" s="6">
-        <f t="shared" si="5"/>
-        <v>0.044117647058823532</v>
-      </c>
-      <c r="Q22" s="2"/>
+      <c r="Q22" s="6">
+        <f t="shared" si="1"/>
+        <v>4.4117647058823532E-2</v>
+      </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1555,8 +1527,9 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-    </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA22" s="2"/>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1577,18 +1550,20 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O23" s="5">
+        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
         <v>130</v>
       </c>
-      <c r="O23" s="5">
-        <f t="shared" si="4"/>
+      <c r="P23" s="5">
+        <f>MEDIAN(C23,O23,D23)</f>
         <v>130</v>
       </c>
-      <c r="P23" s="6">
-        <f t="shared" si="5"/>
-        <v>0.063725490196078427</v>
-      </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="6">
+        <f t="shared" si="1"/>
+        <v>6.3725490196078427E-2</v>
+      </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1598,8 +1573,9 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA23" s="2"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1618,18 +1594,20 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5">
-        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O24" s="5">
+        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
         <v>60</v>
       </c>
-      <c r="O24" s="5">
-        <f t="shared" si="4"/>
+      <c r="P24" s="5">
+        <f>MEDIAN(C24,O24,D24)</f>
         <v>60</v>
       </c>
-      <c r="P24" s="6">
-        <f t="shared" si="5"/>
-        <v>0.029411764705882353</v>
-      </c>
-      <c r="Q24" s="2"/>
+      <c r="Q24" s="6">
+        <f t="shared" si="1"/>
+        <v>2.9411764705882353E-2</v>
+      </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1639,8 +1617,9 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA24" s="2"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1654,19 +1633,19 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5">
-        <f t="shared" si="3"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
+        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
         <v>0</v>
       </c>
-      <c r="O25" s="5">
-        <f t="shared" si="4"/>
+      <c r="P25" s="5">
+        <f>MEDIAN(C25,O25,D25)</f>
         <v>0</v>
       </c>
-      <c r="P25" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q25" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1676,8 +1655,9 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-    </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA25" s="2"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1691,19 +1671,19 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="5">
-        <f t="shared" si="3"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
+        <f>SUM(B26+E26*$A$3+F26*$B$3+G26*$C$3+H26*$D$3+I26*$E$3+J26*$F$3+K26*$G$3+L26*$H$3+M26*$I$3)</f>
         <v>0</v>
       </c>
-      <c r="O26" s="5">
-        <f t="shared" si="4"/>
+      <c r="P26" s="5">
+        <f>MEDIAN(C26,O26,D26)</f>
         <v>0</v>
       </c>
-      <c r="P26" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q26" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1713,8 +1693,9 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-    </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA26" s="2"/>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1728,19 +1709,19 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5">
-        <f t="shared" si="3"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
+        <f>SUM(B27+E27*$A$3+F27*$B$3+G27*$C$3+H27*$D$3+I27*$E$3+J27*$F$3+K27*$G$3+L27*$H$3+M27*$I$3)</f>
         <v>0</v>
       </c>
-      <c r="O27" s="5">
-        <f t="shared" si="4"/>
+      <c r="P27" s="5">
+        <f>MEDIAN(C27,O27,D27)</f>
         <v>0</v>
       </c>
-      <c r="P27" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q27" s="6">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1750,8 +1731,9 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-    </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA27" s="2"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1766,15 +1748,15 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="5">
-        <f>SUM(O7:O27)</f>
+      <c r="O28" s="2"/>
+      <c r="P28" s="5">
+        <f>SUM(P7:P27)</f>
         <v>2040</v>
       </c>
-      <c r="P28" s="6">
-        <f t="shared" si="5"/>
+      <c r="Q28" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1784,8 +1766,9 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-    </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA28" s="2"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1784,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="2"/>
+      <c r="N29" s="1"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1814,8 +1797,9 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-    </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA29" s="2"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -1856,15 +1840,17 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="P30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -1874,8 +1860,9 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-    </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA30" s="2"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1893,19 +1880,19 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <f>IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
-      <c r="O31" s="5">
-        <f>MEDIAN(C31,N31,D31)</f>
+      <c r="P31" s="5">
+        <f>MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
-      <c r="P31" s="6">
-        <f>O31/SUM(O$31:O$47)</f>
-        <v>0.097967180994366881</v>
-      </c>
-      <c r="Q31" s="2"/>
+      <c r="Q31" s="6">
+        <f>P31/SUM(P$31:P$47)</f>
+        <v>9.7967180994366881E-2</v>
+      </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -1915,8 +1902,9 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-    </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA31" s="2"/>
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1935,18 +1923,20 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <f t="shared" si="6" ref="N32:N47">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>1</v>
+      </c>
+      <c r="O32" s="5">
+        <f>IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>60</v>
       </c>
-      <c r="O32" s="5">
-        <f t="shared" si="7" ref="O32:O47">MEDIAN(C32,N32,D32)</f>
+      <c r="P32" s="5">
+        <f>MEDIAN(C32,O32,D32)</f>
         <v>60</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" si="8" ref="P32:P48">O32/SUM(O$31:O$47)</f>
-        <v>0.029390154298310066</v>
-      </c>
-      <c r="Q32" s="2"/>
+      <c r="Q32" s="6">
+        <f t="shared" ref="Q32:Q48" si="2">P32/SUM(P$31:P$47)</f>
+        <v>2.9390154298310066E-2</v>
+      </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -1956,8 +1946,9 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-    </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1980,18 +1971,20 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="5">
+        <f>IF(C33&gt;0,MAX(B33,C33),B33)+E33*$A$3+F33*$B$3+G33*$C$3+H33*$D$3+I33*$E$3+J33*$F$3+K33*$G$3+L33*$H$3+M33*$I$3</f>
         <v>90</v>
       </c>
-      <c r="O33" s="5">
-        <f t="shared" si="7"/>
+      <c r="P33" s="5">
+        <f>MEDIAN(C33,O33,D33)</f>
         <v>90</v>
       </c>
-      <c r="P33" s="6">
-        <f t="shared" si="8"/>
-        <v>0.044085231447465102</v>
-      </c>
-      <c r="Q33" s="2"/>
+      <c r="Q33" s="6">
+        <f t="shared" si="2"/>
+        <v>4.4085231447465102E-2</v>
+      </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -2001,8 +1994,9 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-    </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA33" s="2"/>
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2021,18 +2015,20 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O34" s="5">
+        <f>IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
         <v>100</v>
       </c>
-      <c r="O34" s="5">
-        <f t="shared" si="7"/>
+      <c r="P34" s="5">
+        <f>MEDIAN(C34,O34,D34)</f>
         <v>100</v>
       </c>
-      <c r="P34" s="6">
-        <f t="shared" si="8"/>
-        <v>0.048983590497183441</v>
-      </c>
-      <c r="Q34" s="2"/>
+      <c r="Q34" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8983590497183441E-2</v>
+      </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2042,8 +2038,9 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-    </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA34" s="2"/>
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2062,18 +2059,20 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O35" s="5">
+        <f>IF(C35&gt;0,MAX(B35,C35),B35)+E35*$A$3+F35*$B$3+G35*$C$3+H35*$D$3+I35*$E$3+J35*$F$3+K35*$G$3+L35*$H$3+M35*$I$3</f>
         <v>80</v>
       </c>
-      <c r="O35" s="5">
-        <f t="shared" si="7"/>
+      <c r="P35" s="5">
+        <f>MEDIAN(C35,O35,D35)</f>
         <v>80</v>
       </c>
-      <c r="P35" s="6">
-        <f t="shared" si="8"/>
-        <v>0.039186872397746757</v>
-      </c>
-      <c r="Q35" s="2"/>
+      <c r="Q35" s="6">
+        <f t="shared" si="2"/>
+        <v>3.9186872397746757E-2</v>
+      </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -2083,8 +2082,9 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-    </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA35" s="2"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2111,18 +2111,20 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="5">
+        <f>IF(C36&gt;0,MAX(B36,C36),B36)+E36*$A$3+F36*$B$3+G36*$C$3+H36*$D$3+I36*$E$3+J36*$F$3+K36*$G$3+L36*$H$3+M36*$I$3</f>
         <v>143</v>
       </c>
-      <c r="O36" s="5">
-        <f t="shared" si="7"/>
+      <c r="P36" s="5">
+        <f>MEDIAN(C36,O36,D36)</f>
         <v>143</v>
       </c>
-      <c r="P36" s="6">
-        <f t="shared" si="8"/>
-        <v>0.070046534410972319</v>
-      </c>
-      <c r="Q36" s="2"/>
+      <c r="Q36" s="6">
+        <f t="shared" si="2"/>
+        <v>7.0046534410972319E-2</v>
+      </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -2132,8 +2134,9 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2156,18 +2159,20 @@
         <v>15</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="5">
+        <f>IF(C37&gt;0,MAX(B37,C37),B37)+E37*$A$3+F37*$B$3+G37*$C$3+H37*$D$3+I37*$E$3+J37*$F$3+K37*$G$3+L37*$H$3+M37*$I$3</f>
         <v>130</v>
       </c>
-      <c r="O37" s="5">
-        <f t="shared" si="7"/>
+      <c r="P37" s="5">
+        <f>MEDIAN(C37,O37,D37)</f>
         <v>130</v>
       </c>
-      <c r="P37" s="6">
-        <f t="shared" si="8"/>
-        <v>0.063678667646338477</v>
-      </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="6">
+        <f t="shared" si="2"/>
+        <v>6.3678667646338477E-2</v>
+      </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -2177,8 +2182,9 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
@@ -2201,18 +2207,20 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O38" s="5">
+        <f>IF(C38&gt;0,MAX(B38,C38),B38)+E38*$A$3+F38*$B$3+G38*$C$3+H38*$D$3+I38*$E$3+J38*$F$3+K38*$G$3+L38*$H$3+M38*$I$3</f>
         <v>100</v>
       </c>
-      <c r="O38" s="5">
-        <f t="shared" si="7"/>
+      <c r="P38" s="5">
+        <f>MEDIAN(C38,O38,D38)</f>
         <v>100</v>
       </c>
-      <c r="P38" s="6">
-        <f t="shared" si="8"/>
-        <v>0.048983590497183441</v>
-      </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8983590497183441E-2</v>
+      </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -2222,8 +2230,9 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -2246,18 +2255,20 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O39" s="5">
+        <f>IF(C39&gt;0,MAX(B39,C39),B39)+E39*$A$3+F39*$B$3+G39*$C$3+H39*$D$3+I39*$E$3+J39*$F$3+K39*$G$3+L39*$H$3+M39*$I$3</f>
         <v>100</v>
       </c>
-      <c r="O39" s="5">
-        <f t="shared" si="7"/>
+      <c r="P39" s="5">
+        <f>MEDIAN(C39,O39,D39)</f>
         <v>100</v>
       </c>
-      <c r="P39" s="6">
-        <f t="shared" si="8"/>
-        <v>0.048983590497183441</v>
-      </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8983590497183441E-2</v>
+      </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -2267,8 +2278,9 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
@@ -2287,18 +2299,20 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O40" s="5">
+        <f>IF(C40&gt;0,MAX(B40,C40),B40)+E40*$A$3+F40*$B$3+G40*$C$3+H40*$D$3+I40*$E$3+J40*$F$3+K40*$G$3+L40*$H$3+M40*$I$3</f>
         <v>100</v>
       </c>
-      <c r="O40" s="5">
-        <f t="shared" si="7"/>
+      <c r="P40" s="5">
+        <f>MEDIAN(C40,O40,D40)</f>
         <v>100</v>
       </c>
-      <c r="P40" s="6">
-        <f t="shared" si="8"/>
-        <v>0.048983590497183441</v>
-      </c>
-      <c r="Q40" s="2"/>
+      <c r="Q40" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8983590497183441E-2</v>
+      </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2308,8 +2322,9 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
@@ -2336,18 +2351,20 @@
         <v>1</v>
       </c>
       <c r="N41" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O41" s="5">
+        <f>IF(C41&gt;0,MAX(B41,C41),B41)+E41*$A$3+F41*$B$3+G41*$C$3+H41*$D$3+I41*$E$3+J41*$F$3+K41*$G$3+L41*$H$3+M41*$I$3</f>
         <v>50.5</v>
       </c>
-      <c r="O41" s="5">
-        <f t="shared" si="7"/>
+      <c r="P41" s="5">
+        <f>MEDIAN(C41,O41,D41)</f>
         <v>50.5</v>
       </c>
-      <c r="P41" s="6">
-        <f t="shared" si="8"/>
-        <v>0.024736713201077638</v>
-      </c>
-      <c r="Q41" s="2"/>
+      <c r="Q41" s="6">
+        <f t="shared" si="2"/>
+        <v>2.4736713201077638E-2</v>
+      </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -2357,8 +2374,9 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
@@ -2379,18 +2397,20 @@
         <v>25</v>
       </c>
       <c r="N42" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O42" s="5">
+        <f>IF(C42&gt;0,MAX(B42,C42),B42)+E42*$A$3+F42*$B$3+G42*$C$3+H42*$D$3+I42*$E$3+J42*$F$3+K42*$G$3+L42*$H$3+M42*$I$3</f>
         <v>200</v>
       </c>
-      <c r="O42" s="5">
-        <f t="shared" si="7"/>
+      <c r="P42" s="5">
+        <f>MEDIAN(C42,O42,D42)</f>
         <v>200</v>
       </c>
-      <c r="P42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.097967180994366881</v>
-      </c>
-      <c r="Q42" s="2"/>
+      <c r="Q42" s="6">
+        <f t="shared" si="2"/>
+        <v>9.7967180994366881E-2</v>
+      </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -2400,8 +2420,9 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -2422,18 +2443,20 @@
         <v>25</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O43" s="5">
+        <f>IF(C43&gt;0,MAX(B43,C43),B43)+E43*$A$3+F43*$B$3+G43*$C$3+H43*$D$3+I43*$E$3+J43*$F$3+K43*$G$3+L43*$H$3+M43*$I$3</f>
         <v>200</v>
       </c>
-      <c r="O43" s="5">
-        <f t="shared" si="7"/>
+      <c r="P43" s="5">
+        <f>MEDIAN(C43,O43,D43)</f>
         <v>200</v>
       </c>
-      <c r="P43" s="6">
-        <f t="shared" si="8"/>
-        <v>0.097967180994366881</v>
-      </c>
-      <c r="Q43" s="2"/>
+      <c r="Q43" s="6">
+        <f t="shared" si="2"/>
+        <v>9.7967180994366881E-2</v>
+      </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -2443,8 +2466,9 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
@@ -2465,18 +2489,20 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O44" s="5">
+        <f>IF(C44&gt;0,MAX(B44,C44),B44)+E44*$A$3+F44*$B$3+G44*$C$3+H44*$D$3+I44*$E$3+J44*$F$3+K44*$G$3+L44*$H$3+M44*$I$3</f>
         <v>48</v>
       </c>
-      <c r="O44" s="5">
-        <f t="shared" si="7"/>
+      <c r="P44" s="5">
+        <f>MEDIAN(C44,O44,D44)</f>
         <v>48</v>
       </c>
-      <c r="P44" s="6">
-        <f t="shared" si="8"/>
-        <v>0.023512123438648051</v>
-      </c>
-      <c r="Q44" s="2"/>
+      <c r="Q44" s="6">
+        <f t="shared" si="2"/>
+        <v>2.3512123438648051E-2</v>
+      </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -2486,8 +2512,9 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
@@ -2512,18 +2539,20 @@
         <v>15</v>
       </c>
       <c r="N45" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O45" s="5">
+        <f>IF(C45&gt;0,MAX(B45,C45),B45)+E45*$A$3+F45*$B$3+G45*$C$3+H45*$D$3+I45*$E$3+J45*$F$3+K45*$G$3+L45*$H$3+M45*$I$3</f>
         <v>195</v>
       </c>
-      <c r="O45" s="5">
-        <f t="shared" si="7"/>
+      <c r="P45" s="5">
+        <f>MEDIAN(C45,O45,D45)</f>
         <v>195</v>
       </c>
-      <c r="P45" s="6">
-        <f t="shared" si="8"/>
-        <v>0.095518001469507716</v>
-      </c>
-      <c r="Q45" s="2"/>
+      <c r="Q45" s="6">
+        <f t="shared" si="2"/>
+        <v>9.5518001469507716E-2</v>
+      </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -2533,8 +2562,9 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2555,18 +2585,20 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O46" s="5">
+        <f>IF(C46&gt;0,MAX(B46,C46),B46)+E46*$A$3+F46*$B$3+G46*$C$3+H46*$D$3+I46*$E$3+J46*$F$3+K46*$G$3+L46*$H$3+M46*$I$3</f>
         <v>100</v>
       </c>
-      <c r="O46" s="5">
-        <f t="shared" si="7"/>
+      <c r="P46" s="5">
+        <f>MEDIAN(C46,O46,D46)</f>
         <v>100</v>
       </c>
-      <c r="P46" s="6">
-        <f t="shared" si="8"/>
-        <v>0.048983590497183441</v>
-      </c>
-      <c r="Q46" s="2"/>
+      <c r="Q46" s="6">
+        <f t="shared" si="2"/>
+        <v>4.8983590497183441E-2</v>
+      </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -2576,8 +2608,9 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
@@ -2598,18 +2631,20 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="5">
-        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="O47" s="5">
+        <f>IF(C47&gt;0,MAX(B47,C47),B47)+E47*$A$3+F47*$B$3+G47*$C$3+H47*$D$3+I47*$E$3+J47*$F$3+K47*$G$3+L47*$H$3+M47*$I$3</f>
         <v>145</v>
       </c>
-      <c r="O47" s="5">
-        <f t="shared" si="7"/>
+      <c r="P47" s="5">
+        <f>MEDIAN(C47,O47,D47)</f>
         <v>145</v>
       </c>
-      <c r="P47" s="6">
-        <f t="shared" si="8"/>
-        <v>0.071026206220915988</v>
-      </c>
-      <c r="Q47" s="2"/>
+      <c r="Q47" s="6">
+        <f t="shared" si="2"/>
+        <v>7.1026206220915988E-2</v>
+      </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -2619,8 +2654,9 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2635,15 +2671,15 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="5">
-        <f>SUM(O31:O47)</f>
+      <c r="O48" s="2"/>
+      <c r="P48" s="5">
+        <f>SUM(P31:P47)</f>
         <v>2041.5</v>
       </c>
-      <c r="P48" s="6">
-        <f t="shared" si="8"/>
+      <c r="Q48" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -2653,8 +2689,9 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2670,7 +2707,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="2"/>
+      <c r="N49" s="1"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2683,8 +2720,9 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -2725,15 +2763,17 @@
         <v>9</v>
       </c>
       <c r="N50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -2743,8 +2783,9 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>20</v>
       </c>
@@ -2762,19 +2803,19 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="5">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
         <f>IF(C51&gt;0,MAX(B51,C51),B51)+E51*$A$3+F51*$B$3+G51*$C$3+H51*$D$3+I51*$E$3+J51*$F$3+K51*$G$3+L51*$H$3+M51*$I$3</f>
         <v>135</v>
       </c>
-      <c r="O51" s="5">
-        <f>MEDIAN(C51,N51,D51)</f>
+      <c r="P51" s="5">
+        <f>MEDIAN(C51,O51,D51)</f>
         <v>135</v>
       </c>
-      <c r="P51" s="6">
-        <f>O51/SUM(O$51:O$64)</f>
+      <c r="Q51" s="6">
+        <f>P51/SUM(P$51:P$64)</f>
         <v>0.19285714285714287</v>
       </c>
-      <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -2784,8 +2825,9 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -2808,18 +2850,20 @@
         <v>5</v>
       </c>
       <c r="N52" s="5">
+        <v>10</v>
+      </c>
+      <c r="O52" s="5">
         <f>IF(C52&gt;0,MAX(B52,C52),B52)+E52*$A$3+F52*$B$3+G52*$C$3+H52*$D$3+I52*$E$3+J52*$F$3+K52*$G$3+L52*$H$3+M52*$I$3</f>
         <v>90</v>
       </c>
-      <c r="O52" s="5">
-        <f>MEDIAN(C52,N52,D52)</f>
+      <c r="P52" s="5">
+        <f>MEDIAN(C52,O52,D52)</f>
         <v>90</v>
       </c>
-      <c r="P52" s="6">
-        <f>O52/SUM(O$51:O$64)</f>
+      <c r="Q52" s="6">
+        <f>P52/SUM(P$51:P$64)</f>
         <v>0.12857142857142856</v>
       </c>
-      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2829,8 +2873,9 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -2853,18 +2898,20 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5">
-        <f t="shared" si="9" ref="N53:N64">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
+        <v>1</v>
+      </c>
+      <c r="O53" s="5">
+        <f>IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
         <v>135</v>
       </c>
-      <c r="O53" s="5">
-        <f t="shared" si="10" ref="O53:O64">MEDIAN(C53,N53,D53)</f>
+      <c r="P53" s="5">
+        <f>MEDIAN(C53,O53,D53)</f>
         <v>135</v>
       </c>
-      <c r="P53" s="6">
-        <f t="shared" si="11" ref="P53:P65">O53/SUM(O$51:O$64)</f>
+      <c r="Q53" s="6">
+        <f t="shared" ref="Q53:Q65" si="3">P53/SUM(P$51:P$64)</f>
         <v>0.19285714285714287</v>
       </c>
-      <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -2874,8 +2921,9 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -2898,18 +2946,20 @@
         <v>10</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O54" s="5">
+        <f>IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>105</v>
       </c>
-      <c r="O54" s="5">
-        <f t="shared" si="10"/>
+      <c r="P54" s="5">
+        <f>MEDIAN(C54,O54,D54)</f>
         <v>105</v>
       </c>
-      <c r="P54" s="6">
-        <f t="shared" si="11"/>
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="Q54" s="2"/>
+      <c r="Q54" s="6">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -2919,8 +2969,9 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -2943,18 +2994,20 @@
         <v>15</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="5">
+        <f>IF(C55&gt;0,MAX(B55,C55),B55)+E55*$A$3+F55*$B$3+G55*$C$3+H55*$D$3+I55*$E$3+J55*$F$3+K55*$G$3+L55*$H$3+M55*$I$3</f>
         <v>145</v>
       </c>
-      <c r="O55" s="5">
-        <f t="shared" si="10"/>
+      <c r="P55" s="5">
+        <f>MEDIAN(C55,O55,D55)</f>
         <v>145</v>
       </c>
-      <c r="P55" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q55" s="6">
+        <f t="shared" si="3"/>
         <v>0.20714285714285716</v>
       </c>
-      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -2964,8 +3017,9 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -2990,18 +3044,20 @@
         <v>5</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O56" s="5">
+        <f>IF(C56&gt;0,MAX(B56,C56),B56)+E56*$A$3+F56*$B$3+G56*$C$3+H56*$D$3+I56*$E$3+J56*$F$3+K56*$G$3+L56*$H$3+M56*$I$3</f>
         <v>90</v>
       </c>
-      <c r="O56" s="5">
-        <f t="shared" si="10"/>
+      <c r="P56" s="5">
+        <f>MEDIAN(C56,O56,D56)</f>
         <v>90</v>
       </c>
-      <c r="P56" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q56" s="6">
+        <f t="shared" si="3"/>
         <v>0.12857142857142856</v>
       </c>
-      <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -3011,8 +3067,9 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3026,19 +3083,19 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="5">
-        <f t="shared" si="9"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5">
+        <f>IF(C57&gt;0,MAX(B57,C57),B57)+E57*$A$3+F57*$B$3+G57*$C$3+H57*$D$3+I57*$E$3+J57*$F$3+K57*$G$3+L57*$H$3+M57*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="5">
-        <f t="shared" si="10"/>
+      <c r="P57" s="5">
+        <f>MEDIAN(C57,O57,D57)</f>
         <v>0</v>
       </c>
-      <c r="P57" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q57" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -3048,8 +3105,9 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3063,19 +3121,19 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="5">
-        <f t="shared" si="9"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5">
+        <f>IF(C58&gt;0,MAX(B58,C58),B58)+E58*$A$3+F58*$B$3+G58*$C$3+H58*$D$3+I58*$E$3+J58*$F$3+K58*$G$3+L58*$H$3+M58*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O58" s="5">
-        <f t="shared" si="10"/>
+      <c r="P58" s="5">
+        <f>MEDIAN(C58,O58,D58)</f>
         <v>0</v>
       </c>
-      <c r="P58" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q58" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -3085,8 +3143,9 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3100,19 +3159,19 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="5">
-        <f t="shared" si="9"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5">
+        <f>IF(C59&gt;0,MAX(B59,C59),B59)+E59*$A$3+F59*$B$3+G59*$C$3+H59*$D$3+I59*$E$3+J59*$F$3+K59*$G$3+L59*$H$3+M59*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O59" s="5">
-        <f t="shared" si="10"/>
+      <c r="P59" s="5">
+        <f>MEDIAN(C59,O59,D59)</f>
         <v>0</v>
       </c>
-      <c r="P59" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q59" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -3122,8 +3181,9 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3137,19 +3197,19 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="5">
-        <f t="shared" si="9"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5">
+        <f>IF(C60&gt;0,MAX(B60,C60),B60)+E60*$A$3+F60*$B$3+G60*$C$3+H60*$D$3+I60*$E$3+J60*$F$3+K60*$G$3+L60*$H$3+M60*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O60" s="5">
-        <f t="shared" si="10"/>
+      <c r="P60" s="5">
+        <f>MEDIAN(C60,O60,D60)</f>
         <v>0</v>
       </c>
-      <c r="P60" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q60" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -3159,8 +3219,9 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3174,19 +3235,19 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="5">
-        <f t="shared" si="9"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5">
+        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O61" s="5">
-        <f t="shared" si="10"/>
+      <c r="P61" s="5">
+        <f>MEDIAN(C61,O61,D61)</f>
         <v>0</v>
       </c>
-      <c r="P61" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q61" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -3196,8 +3257,9 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3211,19 +3273,19 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="5">
-        <f t="shared" si="9"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5">
+        <f>IF(C62&gt;0,MAX(B62,C62),B62)+E62*$A$3+F62*$B$3+G62*$C$3+H62*$D$3+I62*$E$3+J62*$F$3+K62*$G$3+L62*$H$3+M62*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O62" s="5">
-        <f t="shared" si="10"/>
+      <c r="P62" s="5">
+        <f>MEDIAN(C62,O62,D62)</f>
         <v>0</v>
       </c>
-      <c r="P62" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q62" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
@@ -3233,8 +3295,9 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3248,19 +3311,19 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="5">
-        <f t="shared" si="9"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5">
+        <f>IF(C63&gt;0,MAX(B63,C63),B63)+E63*$A$3+F63*$B$3+G63*$C$3+H63*$D$3+I63*$E$3+J63*$F$3+K63*$G$3+L63*$H$3+M63*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O63" s="5">
-        <f t="shared" si="10"/>
+      <c r="P63" s="5">
+        <f>MEDIAN(C63,O63,D63)</f>
         <v>0</v>
       </c>
-      <c r="P63" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q63" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -3270,8 +3333,9 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3285,19 +3349,19 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="5">
-        <f t="shared" si="9"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5">
+        <f>IF(C64&gt;0,MAX(B64,C64),B64)+E64*$A$3+F64*$B$3+G64*$C$3+H64*$D$3+I64*$E$3+J64*$F$3+K64*$G$3+L64*$H$3+M64*$I$3</f>
         <v>0</v>
       </c>
-      <c r="O64" s="5">
-        <f t="shared" si="10"/>
+      <c r="P64" s="5">
+        <f>MEDIAN(C64,O64,D64)</f>
         <v>0</v>
       </c>
-      <c r="P64" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q64" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -3307,8 +3371,9 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3323,15 +3388,15 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="5">
-        <f>SUM(O50:O64)</f>
+      <c r="O65" s="2"/>
+      <c r="P65" s="5">
+        <f>SUM(P50:P64)</f>
         <v>700</v>
       </c>
-      <c r="P65" s="6">
-        <f t="shared" si="11"/>
+      <c r="Q65" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -3341,8 +3406,9 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3369,8 +3435,9 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3397,8 +3464,9 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3425,8 +3493,9 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3453,8 +3522,9 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3481,8 +3551,9 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3509,8 +3580,9 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3537,8 +3609,9 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3565,8 +3638,9 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3593,8 +3667,9 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3621,8 +3696,9 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3649,8 +3725,9 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3677,8 +3754,9 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3705,8 +3783,9 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3733,8 +3812,9 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3761,8 +3841,9 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3789,8 +3870,9 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3817,8 +3899,9 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3845,8 +3928,9 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3873,8 +3957,9 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3901,8 +3986,9 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3929,8 +4015,9 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3957,8 +4044,9 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3985,8 +4073,9 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4013,8 +4102,9 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4041,8 +4131,9 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4069,8 +4160,9 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4097,8 +4189,9 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-    </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA92" s="2"/>
+    </row>
+    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4125,8 +4218,9 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-    </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA93" s="2"/>
+    </row>
+    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4153,8 +4247,9 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-    </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA94" s="2"/>
+    </row>
+    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4181,8 +4276,9 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-    </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA95" s="2"/>
+    </row>
+    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4209,8 +4305,9 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-    </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA96" s="2"/>
+    </row>
+    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4237,8 +4334,9 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-    </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA97" s="2"/>
+    </row>
+    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4265,8 +4363,9 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-    </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA98" s="2"/>
+    </row>
+    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4293,8 +4392,9 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-    </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA99" s="2"/>
+    </row>
+    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4321,8 +4421,9 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-    </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA100" s="2"/>
+    </row>
+    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4349,8 +4450,9 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-    </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA101" s="2"/>
+    </row>
+    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4377,8 +4479,9 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-    </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA102" s="2"/>
+    </row>
+    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4405,8 +4508,9 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-    </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA103" s="2"/>
+    </row>
+    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4433,8 +4537,9 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-    </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA104" s="2"/>
+    </row>
+    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4461,8 +4566,9 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-    </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA105" s="2"/>
+    </row>
+    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4489,8 +4595,9 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-    </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA106" s="2"/>
+    </row>
+    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4517,8 +4624,9 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-    </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA107" s="2"/>
+    </row>
+    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4545,8 +4653,9 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-    </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA108" s="2"/>
+    </row>
+    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4573,8 +4682,9 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-    </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA109" s="2"/>
+    </row>
+    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4601,8 +4711,9 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-    </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA110" s="2"/>
+    </row>
+    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4629,8 +4740,9 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-    </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA111" s="2"/>
+    </row>
+    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4657,8 +4769,9 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-    </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA112" s="2"/>
+    </row>
+    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4685,8 +4798,9 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-    </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA113" s="2"/>
+    </row>
+    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4713,8 +4827,9 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-    </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA114" s="2"/>
+    </row>
+    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4741,8 +4856,9 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-    </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA115" s="2"/>
+    </row>
+    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4769,8 +4885,9 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-    </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA116" s="2"/>
+    </row>
+    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4797,8 +4914,9 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-    </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA117" s="2"/>
+    </row>
+    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4825,8 +4943,9 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-    </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA118" s="2"/>
+    </row>
+    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4853,8 +4972,9 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-    </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA119" s="2"/>
+    </row>
+    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -4881,8 +5001,9 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-    </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA120" s="2"/>
+    </row>
+    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -4909,8 +5030,9 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-    </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA121" s="2"/>
+    </row>
+    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -4937,8 +5059,9 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-    </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA122" s="2"/>
+    </row>
+    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -4965,8 +5088,9 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-    </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA123" s="2"/>
+    </row>
+    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4993,8 +5117,9 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-    </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA124" s="2"/>
+    </row>
+    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5021,8 +5146,9 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-    </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA125" s="2"/>
+    </row>
+    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5049,8 +5175,9 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-    </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA126" s="2"/>
+    </row>
+    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5077,8 +5204,9 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-    </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA127" s="2"/>
+    </row>
+    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5105,8 +5233,9 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-    </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA128" s="2"/>
+    </row>
+    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5133,8 +5262,9 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-    </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA129" s="2"/>
+    </row>
+    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5161,8 +5291,9 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-    </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA130" s="2"/>
+    </row>
+    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5189,8 +5320,9 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-    </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA131" s="2"/>
+    </row>
+    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5217,8 +5349,9 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-    </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA132" s="2"/>
+    </row>
+    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5245,8 +5378,9 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-    </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA133" s="2"/>
+    </row>
+    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5273,8 +5407,9 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-    </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA134" s="2"/>
+    </row>
+    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5301,8 +5436,9 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-    </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA135" s="2"/>
+    </row>
+    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5329,8 +5465,9 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-    </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA136" s="2"/>
+    </row>
+    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5357,8 +5494,9 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-    </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA137" s="2"/>
+    </row>
+    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5385,8 +5523,9 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-    </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA138" s="2"/>
+    </row>
+    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5413,8 +5552,9 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-    </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA139" s="2"/>
+    </row>
+    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5441,8 +5581,9 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-    </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA140" s="2"/>
+    </row>
+    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5469,8 +5610,9 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-    </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA141" s="2"/>
+    </row>
+    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5497,8 +5639,9 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-    </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA142" s="2"/>
+    </row>
+    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5525,8 +5668,9 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-    </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA143" s="2"/>
+    </row>
+    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5553,8 +5697,9 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-    </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA144" s="2"/>
+    </row>
+    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5581,8 +5726,9 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-    </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA145" s="2"/>
+    </row>
+    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5609,8 +5755,9 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-    </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA146" s="2"/>
+    </row>
+    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5637,8 +5784,9 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-    </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA147" s="2"/>
+    </row>
+    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5665,8 +5813,9 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-    </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA148" s="2"/>
+    </row>
+    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5693,8 +5842,9 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-    </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA149" s="2"/>
+    </row>
+    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5721,8 +5871,9 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-    </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA150" s="2"/>
+    </row>
+    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5749,8 +5900,9 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-    </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA151" s="2"/>
+    </row>
+    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5777,8 +5929,9 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-    </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA152" s="2"/>
+    </row>
+    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5805,8 +5958,9 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-    </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA153" s="2"/>
+    </row>
+    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5833,8 +5987,9 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-    </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA154" s="2"/>
+    </row>
+    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -5861,8 +6016,9 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-    </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA155" s="2"/>
+    </row>
+    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -5889,8 +6045,9 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-    </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA156" s="2"/>
+    </row>
+    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -5917,8 +6074,9 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-    </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA157" s="2"/>
+    </row>
+    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -5945,8 +6103,9 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-    </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA158" s="2"/>
+    </row>
+    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -5973,8 +6132,9 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-    </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA159" s="2"/>
+    </row>
+    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6001,8 +6161,9 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-    </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA160" s="2"/>
+    </row>
+    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6029,8 +6190,9 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-    </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA161" s="2"/>
+    </row>
+    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6057,8 +6219,9 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-    </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA162" s="2"/>
+    </row>
+    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6085,8 +6248,9 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-    </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA163" s="2"/>
+    </row>
+    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6113,8 +6277,9 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-    </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA164" s="2"/>
+    </row>
+    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6141,8 +6306,9 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-    </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA165" s="2"/>
+    </row>
+    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6169,8 +6335,9 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-    </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA166" s="2"/>
+    </row>
+    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6197,8 +6364,9 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-    </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA167" s="2"/>
+    </row>
+    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6225,8 +6393,9 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-    </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA168" s="2"/>
+    </row>
+    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6253,8 +6422,9 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-    </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA169" s="2"/>
+    </row>
+    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6281,8 +6451,9 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-    </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA170" s="2"/>
+    </row>
+    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6309,8 +6480,9 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-    </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA171" s="2"/>
+    </row>
+    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6337,8 +6509,9 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-    </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA172" s="2"/>
+    </row>
+    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6365,8 +6538,9 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-    </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA173" s="2"/>
+    </row>
+    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6393,8 +6567,9 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-    </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA174" s="2"/>
+    </row>
+    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6421,8 +6596,9 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-    </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA175" s="2"/>
+    </row>
+    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6449,8 +6625,9 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-    </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA176" s="2"/>
+    </row>
+    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6477,8 +6654,9 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-    </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA177" s="2"/>
+    </row>
+    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6505,8 +6683,9 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-    </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA178" s="2"/>
+    </row>
+    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6533,8 +6712,9 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-    </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA179" s="2"/>
+    </row>
+    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6561,8 +6741,9 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-    </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA180" s="2"/>
+    </row>
+    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6589,8 +6770,9 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-    </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA181" s="2"/>
+    </row>
+    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6617,8 +6799,9 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-    </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA182" s="2"/>
+    </row>
+    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6645,8 +6828,9 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-    </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA183" s="2"/>
+    </row>
+    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6673,8 +6857,9 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-    </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA184" s="2"/>
+    </row>
+    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6701,8 +6886,9 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-    </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA185" s="2"/>
+    </row>
+    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6729,8 +6915,9 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-    </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA186" s="2"/>
+    </row>
+    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6757,8 +6944,9 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-    </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA187" s="2"/>
+    </row>
+    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6785,8 +6973,9 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-    </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA188" s="2"/>
+    </row>
+    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -6813,8 +7002,9 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-    </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA189" s="2"/>
+    </row>
+    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -6841,8 +7031,9 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-    </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA190" s="2"/>
+    </row>
+    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -6869,8 +7060,9 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-    </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA191" s="2"/>
+    </row>
+    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -6897,8 +7089,9 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-    </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA192" s="2"/>
+    </row>
+    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -6925,8 +7118,9 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-    </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA193" s="2"/>
+    </row>
+    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -6953,8 +7147,9 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-    </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA194" s="2"/>
+    </row>
+    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -6981,8 +7176,9 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-    </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA195" s="2"/>
+    </row>
+    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7009,8 +7205,9 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-    </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA196" s="2"/>
+    </row>
+    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7037,8 +7234,9 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-    </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA197" s="2"/>
+    </row>
+    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7065,8 +7263,9 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-    </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA198" s="2"/>
+    </row>
+    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7093,8 +7292,9 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-    </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA199" s="2"/>
+    </row>
+    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7121,8 +7321,9 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-    </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA200" s="2"/>
+    </row>
+    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7149,8 +7350,9 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
-    </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA201" s="2"/>
+    </row>
+    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7177,8 +7379,9 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
-    </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA202" s="2"/>
+    </row>
+    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7205,8 +7408,9 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
-    </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA203" s="2"/>
+    </row>
+    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7233,8 +7437,9 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
-    </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA204" s="2"/>
+    </row>
+    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7261,8 +7466,9 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-    </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA205" s="2"/>
+    </row>
+    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7289,8 +7495,9 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
-    </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA206" s="2"/>
+    </row>
+    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7317,8 +7524,9 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
-    </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA207" s="2"/>
+    </row>
+    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7345,8 +7553,9 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
-    </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA208" s="2"/>
+    </row>
+    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7373,8 +7582,9 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
-    </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA209" s="2"/>
+    </row>
+    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7401,8 +7611,9 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
-    </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA210" s="2"/>
+    </row>
+    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7429,8 +7640,9 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
-    </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA211" s="2"/>
+    </row>
+    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7457,8 +7669,9 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
-    </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA212" s="2"/>
+    </row>
+    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7485,8 +7698,9 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
-    </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA213" s="2"/>
+    </row>
+    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7513,8 +7727,9 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
-    </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA214" s="2"/>
+    </row>
+    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7541,8 +7756,9 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
-    </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA215" s="2"/>
+    </row>
+    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7569,8 +7785,9 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
-    </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA216" s="2"/>
+    </row>
+    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7597,8 +7814,9 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
-    </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA217" s="2"/>
+    </row>
+    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7625,8 +7843,9 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
-    </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA218" s="2"/>
+    </row>
+    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7653,8 +7872,9 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
-    </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA219" s="2"/>
+    </row>
+    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7681,8 +7901,9 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
-    </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA220" s="2"/>
+    </row>
+    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7709,8 +7930,9 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
-    </row>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA221" s="2"/>
+    </row>
+    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7737,8 +7959,9 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
-    </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA222" s="2"/>
+    </row>
+    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7765,8 +7988,9 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
-    </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA223" s="2"/>
+    </row>
+    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -7793,8 +8017,9 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
-    </row>
-    <row r="225" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA224" s="2"/>
+    </row>
+    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -7821,8 +8046,9 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
-    </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA225" s="2"/>
+    </row>
+    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -7849,8 +8075,9 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
-    </row>
-    <row r="227" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA226" s="2"/>
+    </row>
+    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -7877,8 +8104,9 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
-    </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA227" s="2"/>
+    </row>
+    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -7905,8 +8133,9 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
-    </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA228" s="2"/>
+    </row>
+    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -7933,8 +8162,9 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
-    </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA229" s="2"/>
+    </row>
+    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -7961,8 +8191,9 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
-    </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA230" s="2"/>
+    </row>
+    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -7989,8 +8220,9 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
-    </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA231" s="2"/>
+    </row>
+    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8017,8 +8249,9 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
-    </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA232" s="2"/>
+    </row>
+    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8045,8 +8278,9 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
-    </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA233" s="2"/>
+    </row>
+    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8073,8 +8307,9 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
-    </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA234" s="2"/>
+    </row>
+    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8101,8 +8336,9 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
-    </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA235" s="2"/>
+    </row>
+    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8129,8 +8365,9 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
-    </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA236" s="2"/>
+    </row>
+    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8157,8 +8394,9 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
-    </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA237" s="2"/>
+    </row>
+    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8185,8 +8423,9 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
-    </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA238" s="2"/>
+    </row>
+    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8213,8 +8452,9 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
-    </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA239" s="2"/>
+    </row>
+    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8241,8 +8481,9 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
-    </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA240" s="2"/>
+    </row>
+    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8269,8 +8510,9 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
-    </row>
-    <row r="242" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA241" s="2"/>
+    </row>
+    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8297,8 +8539,9 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
-    </row>
-    <row r="243" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA242" s="2"/>
+    </row>
+    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8325,8 +8568,9 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
-    </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA243" s="2"/>
+    </row>
+    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8353,8 +8597,9 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
-    </row>
-    <row r="245" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA244" s="2"/>
+    </row>
+    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8381,8 +8626,9 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
-    </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA245" s="2"/>
+    </row>
+    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8409,8 +8655,9 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
-    </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA246" s="2"/>
+    </row>
+    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8437,8 +8684,9 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
-    </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA247" s="2"/>
+    </row>
+    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8465,8 +8713,9 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
-    </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA248" s="2"/>
+    </row>
+    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8493,8 +8742,9 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
-    </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA249" s="2"/>
+    </row>
+    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8521,8 +8771,9 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
-    </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA250" s="2"/>
+    </row>
+    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8549,8 +8800,9 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
-    </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA251" s="2"/>
+    </row>
+    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8577,8 +8829,9 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
-    </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA252" s="2"/>
+    </row>
+    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8605,8 +8858,9 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
-    </row>
-    <row r="254" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA253" s="2"/>
+    </row>
+    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8633,8 +8887,9 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
-    </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA254" s="2"/>
+    </row>
+    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8661,8 +8916,9 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
-    </row>
-    <row r="256" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA255" s="2"/>
+    </row>
+    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8689,8 +8945,9 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
-    </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA256" s="2"/>
+    </row>
+    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8717,8 +8974,9 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
-    </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA257" s="2"/>
+    </row>
+    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -8745,8 +9003,9 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
-    </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA258" s="2"/>
+    </row>
+    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -8773,8 +9032,9 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
-    </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA259" s="2"/>
+    </row>
+    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -8801,8 +9061,9 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
-    </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA260" s="2"/>
+    </row>
+    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -8829,8 +9090,9 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
-    </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA261" s="2"/>
+    </row>
+    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -8857,8 +9119,9 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
-    </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA262" s="2"/>
+    </row>
+    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -8885,8 +9148,9 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
-    </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA263" s="2"/>
+    </row>
+    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -8913,8 +9177,9 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
-    </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1">
+      <c r="AA264" s="2"/>
+    </row>
+    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -8941,738 +9206,739 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
+      <c r="AA265" s="2"/>
+    </row>
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657EC88-D63A-4A7A-A2CC-092D534D34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E19BBF-68F0-473C-AF70-513937143D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>Communication Blackout</t>
-  </si>
-  <si>
     <t>Electrical Storm</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
   </si>
   <si>
     <t>Ion Storm</t>
-  </si>
-  <si>
-    <t>Prison Break</t>
-  </si>
-  <si>
-    <t>Containment Error - Virology</t>
   </si>
   <si>
     <t>Containment Error - Xenobiology</t>
@@ -186,9 +177,6 @@
   </si>
   <si>
     <t>Moderate Spider Infestation</t>
-  </si>
-  <si>
-    <t>Viral Infection</t>
   </si>
   <si>
     <t>Moderate Infestation</t>
@@ -219,6 +207,21 @@
   </si>
   <si>
     <t>Min Pop</t>
+  </si>
+  <si>
+    <t>Comet Expulsion</t>
+  </si>
+  <si>
+    <t>Containment Error - Bridge</t>
+  </si>
+  <si>
+    <t>Containment Error - Security</t>
+  </si>
+  <si>
+    <t>Comms Blackout</t>
+  </si>
+  <si>
+    <t>Comms Blackout - Damage</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -284,11 +287,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -305,6 +349,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,13 +569,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
-  <dimension ref="A1:AA994"/>
+  <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -627,7 +678,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
-        <v>34.5</v>
+        <v>31.5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -648,7 +699,7 @@
         <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
         <v>6</v>
@@ -777,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
@@ -819,16 +870,16 @@
       <c r="M7" s="4"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5">
-        <f>SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <f t="shared" ref="O7:O27" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
       <c r="P7" s="5">
-        <f>MEDIAN(C7,O7,D7)</f>
+        <f t="shared" ref="P7:P27" si="1">MEDIAN(C7,O7,D7)</f>
         <v>120</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q11" si="0">P7/SUM(P$7:P$27)</f>
-        <v>5.8823529411764705E-2</v>
+        <f t="shared" ref="Q7:Q11" si="2">P7/SUM(P$7:P$27)</f>
+        <v>5.5172413793103448E-2</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -865,16 +916,16 @@
         <v>1</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(B8+E8*$A$3+F8*$B$3+G8*$C$3+H8*$D$3+I8*$E$3+J8*$F$3+K8*$G$3+L8*$H$3+M8*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="P8" s="5">
-        <f>MEDIAN(C8,O8,D8)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="0"/>
-        <v>3.9215686274509803E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.6781609195402298E-2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -911,16 +962,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <f>SUM(B9+E9*$A$3+F9*$B$3+G9*$C$3+H9*$D$3+I9*$E$3+J9*$F$3+K9*$G$3+L9*$H$3+M9*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="P9" s="5">
-        <f>MEDIAN(C9,O9,D9)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="Q9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7156862745098041E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.6091954022988506E-2</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -957,16 +1008,16 @@
         <v>1</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM(B10+E10*$A$3+F10*$B$3+G10*$C$3+H10*$D$3+I10*$E$3+J10*$F$3+K10*$G$3+L10*$H$3+M10*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P10" s="5">
-        <f>MEDIAN(C10,O10,D10)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.7586206896551724E-2</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1001,16 +1052,16 @@
         <v>1</v>
       </c>
       <c r="O11" s="5">
-        <f>SUM(B11+E11*$A$3+F11*$B$3+G11*$C$3+H11*$D$3+I11*$E$3+J11*$F$3+K11*$G$3+L11*$H$3+M11*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P11" s="5">
-        <f>MEDIAN(C11,O11,D11)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="Q11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14705882352941177</v>
+        <f t="shared" si="2"/>
+        <v>0.13793103448275862</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1045,16 +1096,16 @@
         <v>1</v>
       </c>
       <c r="O12" s="8">
-        <f>SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P12" s="8">
-        <f>MEDIAN(C12,O12,D12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="Q12" s="9">
-        <f t="shared" ref="Q12:Q28" si="1">P12/SUM(P$7:P$27)</f>
-        <v>4.9019607843137254E-3</v>
+        <f t="shared" ref="Q12:Q28" si="3">P12/SUM(P$7:P$27)</f>
+        <v>4.5977011494252873E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1095,16 +1146,16 @@
         <v>1</v>
       </c>
       <c r="O13" s="5">
-        <f>SUM(B13+E13*$A$3+F13*$B$3+G13*$C$3+H13*$D$3+I13*$E$3+J13*$F$3+K13*$G$3+L13*$H$3+M13*$I$3)</f>
-        <v>34.5</v>
+        <f t="shared" si="0"/>
+        <v>31.5</v>
       </c>
       <c r="P13" s="5">
-        <f>MEDIAN(C13,O13,D13)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3529411764705881E-3</v>
+        <f t="shared" si="3"/>
+        <v>6.8965517241379309E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1139,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P14" s="5">
-        <f>MEDIAN(C14,O14,D14)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="Q14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+        <f t="shared" si="3"/>
+        <v>0.13793103448275862</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1189,16 +1240,16 @@
         <v>1</v>
       </c>
       <c r="O15" s="5">
-        <f>SUM(B15+E15*$A$3+F15*$B$3+G15*$C$3+H15*$D$3+I15*$E$3+J15*$F$3+K15*$G$3+L15*$H$3+M15*$I$3)</f>
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>126</v>
       </c>
       <c r="P15" s="5">
-        <f>MEDIAN(C15,O15,D15)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4509803921568627E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.2988505747126436E-2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1237,16 +1288,16 @@
         <v>1</v>
       </c>
       <c r="O16" s="5">
-        <f>SUM(B16+E16*$A$3+F16*$B$3+G16*$C$3+H16*$D$3+I16*$E$3+J16*$F$3+K16*$G$3+L16*$H$3+M16*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="P16" s="5">
-        <f>MEDIAN(C16,O16,D16)</f>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="Q16" s="6">
-        <f t="shared" si="1"/>
-        <v>6.8627450980392163E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.4367816091954022E-2</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1285,16 +1336,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="P17" s="5">
-        <f>MEDIAN(C17,O17,D17)</f>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
       <c r="Q17" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6372549019607844E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.2873563218390804E-2</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1329,16 +1380,16 @@
         <v>1</v>
       </c>
       <c r="O18" s="5">
-        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P18" s="5">
-        <f>MEDIAN(C18,O18,D18)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6960784313725492E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.528735632183908E-2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1373,16 +1424,16 @@
         <v>1</v>
       </c>
       <c r="O19" s="5">
-        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P19" s="5">
-        <f>MEDIAN(C19,O19,D19)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="Q19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.9019607843137254E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.5977011494252873E-2</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1417,16 +1468,16 @@
         <v>1</v>
       </c>
       <c r="O20" s="5">
-        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="P20" s="5">
-        <f>MEDIAN(C20,O20,D20)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="Q20" s="6">
-        <f t="shared" si="1"/>
-        <v>3.9215686274509803E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.6781609195402298E-2</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1461,16 +1512,16 @@
         <v>1</v>
       </c>
       <c r="O21" s="5">
-        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P21" s="5">
-        <f>MEDIAN(C21,O21,D21)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+        <f t="shared" si="3"/>
+        <v>0.13793103448275862</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1498,25 +1549,29 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <v>30</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>15</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>15</v>
+      </c>
       <c r="N22" s="5">
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
       <c r="P22" s="5">
-        <f>MEDIAN(C22,O22,D22)</f>
-        <v>90</v>
+        <f t="shared" si="1"/>
+        <v>225</v>
       </c>
       <c r="Q22" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4117647058823532E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.10344827586206896</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1553,16 +1608,16 @@
         <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>130</v>
       </c>
       <c r="P23" s="5">
-        <f>MEDIAN(C23,O23,D23)</f>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="1"/>
-        <v>6.3725490196078427E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.9770114942528735E-2</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1597,16 +1652,16 @@
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P24" s="5">
-        <f>MEDIAN(C24,O24,D24)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.7586206896551724E-2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1635,15 +1690,15 @@
       <c r="M25" s="4"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5">
-        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P25" s="5">
-        <f>MEDIAN(C25,O25,D25)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R25" s="2"/>
@@ -1673,15 +1728,15 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
-        <f>SUM(B26+E26*$A$3+F26*$B$3+G26*$C$3+H26*$D$3+I26*$E$3+J26*$F$3+K26*$G$3+L26*$H$3+M26*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <f>MEDIAN(C26,O26,D26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1711,15 +1766,15 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5">
-        <f>SUM(B27+E27*$A$3+F27*$B$3+G27*$C$3+H27*$D$3+I27*$E$3+J27*$F$3+K27*$G$3+L27*$H$3+M27*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f>MEDIAN(C27,O27,D27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1751,10 +1806,10 @@
       <c r="O28" s="2"/>
       <c r="P28" s="5">
         <f>SUM(P7:P27)</f>
-        <v>2040</v>
+        <v>2175</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="R28" s="2"/>
@@ -1840,7 +1895,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>17</v>
@@ -1882,16 +1937,16 @@
       <c r="M31" s="4"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5">
-        <f>IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <f t="shared" ref="O31:O47" si="4">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
       <c r="P31" s="5">
-        <f>MEDIAN(C31,O31,D31)</f>
+        <f t="shared" ref="P31:P47" si="5">MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
       <c r="Q31" s="6">
         <f>P31/SUM(P$31:P$47)</f>
-        <v>9.7967180994366881E-2</v>
+        <v>0.10191082802547771</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1906,10 +1961,10 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1919,23 +1974,25 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>25</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <f>IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
-        <v>60</v>
+        <f t="shared" ref="O32" si="6">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>100</v>
       </c>
       <c r="P32" s="5">
-        <f>MEDIAN(C32,O32,D32)</f>
-        <v>60</v>
+        <f t="shared" ref="P32" si="7">MEDIAN(C32,O32,D32)</f>
+        <v>100</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32:Q48" si="2">P32/SUM(P$31:P$47)</f>
-        <v>2.9390154298310066E-2</v>
+        <f>P32/SUM(P$31:P$47)</f>
+        <v>5.0955414012738856E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -1950,23 +2007,19 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>5</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>20</v>
-      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1974,16 +2027,16 @@
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f>IF(C33&gt;0,MAX(B33,C33),B33)+E33*$A$3+F33*$B$3+G33*$C$3+H33*$D$3+I33*$E$3+J33*$F$3+K33*$G$3+L33*$H$3+M33*$I$3</f>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
       <c r="P33" s="5">
-        <f>MEDIAN(C33,O33,D33)</f>
-        <v>90</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="2"/>
-        <v>4.4085231447465102E-2</v>
+        <f>P33/SUM(P$31:P$47)</f>
+        <v>5.0955414012738856E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1998,7 +2051,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4">
         <v>100</v>
@@ -2008,7 +2061,9 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>25</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -2018,16 +2073,16 @@
         <v>1</v>
       </c>
       <c r="O34" s="5">
-        <f>IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
-        <v>100</v>
+        <f t="shared" ref="O34" si="8">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <v>200</v>
       </c>
       <c r="P34" s="5">
-        <f>MEDIAN(C34,O34,D34)</f>
-        <v>100</v>
+        <f t="shared" ref="P34" si="9">MEDIAN(C34,O34,D34)</f>
+        <v>200</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>P34/SUM(P$31:P$47)</f>
+        <v>0.10191082802547771</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2042,19 +2097,23 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>5</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>20</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2062,16 +2121,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f>IF(C35&gt;0,MAX(B35,C35),B35)+E35*$A$3+F35*$B$3+G35*$C$3+H35*$D$3+I35*$E$3+J35*$F$3+K35*$G$3+L35*$H$3+M35*$I$3</f>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="P35" s="5">
-        <f>MEDIAN(C35,O35,D35)</f>
-        <v>80</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="2"/>
-        <v>3.9186872397746757E-2</v>
+        <f>P35/SUM(P$31:P$47)</f>
+        <v>4.5859872611464965E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2086,7 +2145,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2094,36 +2153,28 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <v>45</v>
-      </c>
-      <c r="G36" s="4">
-        <v>25</v>
-      </c>
-      <c r="H36" s="4">
-        <v>6</v>
-      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4">
-        <v>6</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f>IF(C36&gt;0,MAX(B36,C36),B36)+E36*$A$3+F36*$B$3+G36*$C$3+H36*$D$3+I36*$E$3+J36*$F$3+K36*$G$3+L36*$H$3+M36*$I$3</f>
-        <v>143</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f>MEDIAN(C36,O36,D36)</f>
-        <v>143</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="2"/>
-        <v>7.0046534410972319E-2</v>
+        <f>P36/SUM(P$31:P$47)</f>
+        <v>0</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2138,7 +2189,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -2147,31 +2198,27 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>20</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4">
-        <v>15</v>
-      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="5">
         <v>1</v>
       </c>
       <c r="O37" s="5">
-        <f>IF(C37&gt;0,MAX(B37,C37),B37)+E37*$A$3+F37*$B$3+G37*$C$3+H37*$D$3+I37*$E$3+J37*$F$3+K37*$G$3+L37*$H$3+M37*$I$3</f>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f>MEDIAN(C37,O37,D37)</f>
-        <v>130</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="2"/>
-        <v>6.3678667646338477E-2</v>
+        <f>P37/SUM(P$31:P$47)</f>
+        <v>0</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2186,7 +2233,7 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -2194,32 +2241,36 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>45</v>
+      </c>
       <c r="G38" s="4">
-        <v>20</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
-        <v>15</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>6</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
         <v>1</v>
       </c>
       <c r="O38" s="5">
-        <f>IF(C38&gt;0,MAX(B38,C38),B38)+E38*$A$3+F38*$B$3+G38*$C$3+H38*$D$3+I38*$E$3+J38*$F$3+K38*$G$3+L38*$H$3+M38*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>131</v>
       </c>
       <c r="P38" s="5">
-        <f>MEDIAN(C38,O38,D38)</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>131</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>P38/SUM(P$31:P$47)</f>
+        <v>6.67515923566879E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2234,7 +2285,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -2250,24 +2301,24 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>15</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="5">
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f>IF(C39&gt;0,MAX(B39,C39),B39)+E39*$A$3+F39*$B$3+G39*$C$3+H39*$D$3+I39*$E$3+J39*$F$3+K39*$G$3+L39*$H$3+M39*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>130</v>
       </c>
       <c r="P39" s="5">
-        <f>MEDIAN(C39,O39,D39)</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>130</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>P39/SUM(P$31:P$47)</f>
+        <v>6.6242038216560509E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2282,17 +2333,21 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4">
+        <v>15</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2302,16 +2357,16 @@
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f>IF(C40&gt;0,MAX(B40,C40),B40)+E40*$A$3+F40*$B$3+G40*$C$3+H40*$D$3+I40*$E$3+J40*$F$3+K40*$G$3+L40*$H$3+M40*$I$3</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="P40" s="5">
-        <f>MEDIAN(C40,O40,D40)</f>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>P40/SUM(P$31:P$47)</f>
+        <v>5.0955414012738856E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2326,44 +2381,40 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4">
-        <v>125</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>20</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>1</v>
-      </c>
+      <c r="L41" s="4">
+        <v>25</v>
+      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="5">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f>IF(C41&gt;0,MAX(B41,C41),B41)+E41*$A$3+F41*$B$3+G41*$C$3+H41*$D$3+I41*$E$3+J41*$F$3+K41*$G$3+L41*$H$3+M41*$I$3</f>
-        <v>50.5</v>
+        <f t="shared" si="4"/>
+        <v>90</v>
       </c>
       <c r="P41" s="5">
-        <f>MEDIAN(C41,O41,D41)</f>
-        <v>50.5</v>
+        <f t="shared" si="5"/>
+        <v>90</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="2"/>
-        <v>2.4736713201077638E-2</v>
+        <f>P41/SUM(P$31:P$47)</f>
+        <v>4.5859872611464965E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2378,10 +2429,10 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2391,25 +2442,25 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="4">
+        <v>20</v>
+      </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="4">
-        <v>25</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="5">
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f>IF(C42&gt;0,MAX(B42,C42),B42)+E42*$A$3+F42*$B$3+G42*$C$3+H42*$D$3+I42*$E$3+J42*$F$3+K42*$G$3+L42*$H$3+M42*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>180</v>
       </c>
       <c r="P42" s="5">
-        <f>MEDIAN(C42,O42,D42)</f>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>180</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
+        <f>P42/SUM(P$31:P$47)</f>
+        <v>9.171974522292993E-2</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2424,14 +2475,20 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4">
+        <v>125</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2440,22 +2497,22 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N43" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f>IF(C43&gt;0,MAX(B43,C43),B43)+E43*$A$3+F43*$B$3+G43*$C$3+H43*$D$3+I43*$E$3+J43*$F$3+K43*$G$3+L43*$H$3+M43*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="4"/>
+        <v>71.5</v>
       </c>
       <c r="P43" s="5">
-        <f>MEDIAN(C43,O43,D43)</f>
-        <v>200</v>
+        <f t="shared" si="5"/>
+        <v>71.5</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
+        <f>P43/SUM(P$31:P$47)</f>
+        <v>3.6433121019108283E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2470,10 +2527,10 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2483,25 +2540,25 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
-        <v>12</v>
-      </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>15</v>
+      </c>
       <c r="N44" s="5">
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f>IF(C44&gt;0,MAX(B44,C44),B44)+E44*$A$3+F44*$B$3+G44*$C$3+H44*$D$3+I44*$E$3+J44*$F$3+K44*$G$3+L44*$H$3+M44*$I$3</f>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>140</v>
       </c>
       <c r="P44" s="5">
-        <f>MEDIAN(C44,O44,D44)</f>
-        <v>48</v>
+        <f t="shared" si="5"/>
+        <v>140</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3512123438648051E-2</v>
+        <f>P44/SUM(P$31:P$47)</f>
+        <v>7.1337579617834393E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2516,10 +2573,10 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2528,30 +2585,26 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4">
-        <v>15</v>
-      </c>
-      <c r="K45" s="4">
-        <v>15</v>
-      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N45" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O45" s="5">
-        <f>IF(C45&gt;0,MAX(B45,C45),B45)+E45*$A$3+F45*$B$3+G45*$C$3+H45*$D$3+I45*$E$3+J45*$F$3+K45*$G$3+L45*$H$3+M45*$I$3</f>
-        <v>195</v>
+        <f t="shared" si="4"/>
+        <v>110</v>
       </c>
       <c r="P45" s="5">
-        <f>MEDIAN(C45,O45,D45)</f>
-        <v>195</v>
+        <f t="shared" si="5"/>
+        <v>110</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="2"/>
-        <v>9.5518001469507716E-2</v>
+        <f>P45/SUM(P$31:P$47)</f>
+        <v>5.605095541401274E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2566,10 +2619,10 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2578,26 +2631,30 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>15</v>
+      </c>
       <c r="K46" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4">
+        <v>15</v>
+      </c>
       <c r="N46" s="5">
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f>IF(C46&gt;0,MAX(B46,C46),B46)+E46*$A$3+F46*$B$3+G46*$C$3+H46*$D$3+I46*$E$3+J46*$F$3+K46*$G$3+L46*$H$3+M46*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>175</v>
       </c>
       <c r="P46" s="5">
-        <f>MEDIAN(C46,O46,D46)</f>
-        <v>100</v>
+        <f t="shared" si="5"/>
+        <v>175</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>P46/SUM(P$31:P$47)</f>
+        <v>8.9171974522292988E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2611,39 +2668,39 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="A47" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="11">
         <v>25</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11">
         <v>30</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="5">
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="12">
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f>IF(C47&gt;0,MAX(B47,C47),B47)+E47*$A$3+F47*$B$3+G47*$C$3+H47*$D$3+I47*$E$3+J47*$F$3+K47*$G$3+L47*$H$3+M47*$I$3</f>
+        <f t="shared" si="4"/>
         <v>145</v>
       </c>
       <c r="P47" s="5">
-        <f>MEDIAN(C47,O47,D47)</f>
+        <f t="shared" si="5"/>
         <v>145</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" si="2"/>
-        <v>7.1026206220915988E-2</v>
+        <f>P47/SUM(P$31:P$47)</f>
+        <v>7.3885350318471335E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2657,28 +2714,39 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="A48" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="13">
+        <v>20</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13">
+        <v>15</v>
+      </c>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14">
+        <v>1</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" ref="O48:O50" si="10">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>80</v>
+      </c>
       <c r="P48" s="5">
-        <f>SUM(P31:P47)</f>
-        <v>2041.5</v>
+        <f t="shared" ref="P48:P50" si="11">MEDIAN(C48,O48,D48)</f>
+        <v>80</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>P48/SUM(P$31:P$47)</f>
+        <v>4.0764331210191081E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2692,25 +2760,34 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14">
+        <v>1</v>
+      </c>
+      <c r="O49" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>P49/SUM(P$31:P$47)</f>
+        <v>0</v>
+      </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
@@ -2723,56 +2800,33 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14">
         <v>1</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>19</v>
+      <c r="O50" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <f>P50/SUM(P$31:P$47)</f>
+        <v>0</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2786,35 +2840,28 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="4">
-        <v>135</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5">
-        <f>IF(C51&gt;0,MAX(B51,C51),B51)+E51*$A$3+F51*$B$3+G51*$C$3+H51*$D$3+I51*$E$3+J51*$F$3+K51*$G$3+L51*$H$3+M51*$I$3</f>
-        <v>135</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" s="5">
-        <f>MEDIAN(C51,O51,D51)</f>
-        <v>135</v>
+        <f>SUM(P31:P47)</f>
+        <v>1962.5</v>
       </c>
       <c r="Q51" s="6">
-        <f>P51/SUM(P$51:P$64)</f>
-        <v>0.19285714285714287</v>
+        <f>P51/SUM(P$31:P$47)</f>
+        <v>1</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2828,42 +2875,25 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="4">
-        <v>40</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>5</v>
-      </c>
-      <c r="N52" s="5">
-        <v>10</v>
-      </c>
-      <c r="O52" s="5">
-        <f>IF(C52&gt;0,MAX(B52,C52),B52)+E52*$A$3+F52*$B$3+G52*$C$3+H52*$D$3+I52*$E$3+J52*$F$3+K52*$G$3+L52*$H$3+M52*$I$3</f>
-        <v>90</v>
-      </c>
-      <c r="P52" s="5">
-        <f>MEDIAN(C52,O52,D52)</f>
-        <v>90</v>
-      </c>
-      <c r="Q52" s="6">
-        <f>P52/SUM(P$51:P$64)</f>
-        <v>0.12857142857142856</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2876,41 +2906,56 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4">
-        <v>75</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>10</v>
-      </c>
-      <c r="I53" s="4">
-        <v>20</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5">
-        <f>IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
-        <v>135</v>
-      </c>
-      <c r="P53" s="5">
-        <f>MEDIAN(C53,O53,D53)</f>
-        <v>135</v>
-      </c>
-      <c r="Q53" s="6">
-        <f t="shared" ref="Q53:Q65" si="3">P53/SUM(P$51:P$64)</f>
-        <v>0.19285714285714287</v>
+      <c r="O53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -2925,10 +2970,10 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2938,27 +2983,21 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
-        <v>5</v>
-      </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>10</v>
-      </c>
-      <c r="N54" s="5">
-        <v>8</v>
-      </c>
+      <c r="M54" s="4"/>
+      <c r="N54" s="5"/>
       <c r="O54" s="5">
-        <f>IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
-        <v>105</v>
+        <f t="shared" ref="O54:O67" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f>MEDIAN(C54,O54,D54)</f>
-        <v>105</v>
+        <f t="shared" ref="P54:P67" si="13">MEDIAN(C54,O54,D54)</f>
+        <v>135</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f>P54/SUM(P$54:P$67)</f>
+        <v>0.156794425087108</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -2973,40 +3012,40 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4">
-        <v>10</v>
-      </c>
+      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N55" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f>IF(C55&gt;0,MAX(B55,C55),B55)+E55*$A$3+F55*$B$3+G55*$C$3+H55*$D$3+I55*$E$3+J55*$F$3+K55*$G$3+L55*$H$3+M55*$I$3</f>
-        <v>145</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="P55" s="5">
-        <f>MEDIAN(C55,O55,D55)</f>
-        <v>145</v>
+        <f t="shared" si="13"/>
+        <v>90</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" si="3"/>
-        <v>0.20714285714285716</v>
+        <f>P55/SUM(P$54:P$67)</f>
+        <v>0.10452961672473868</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3021,10 +3060,10 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3034,29 +3073,27 @@
       <c r="H56" s="4">
         <v>10</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="4">
+        <v>20</v>
+      </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4">
-        <v>5</v>
-      </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>5</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="5">
         <v>1</v>
       </c>
       <c r="O56" s="5">
-        <f>IF(C56&gt;0,MAX(B56,C56),B56)+E56*$A$3+F56*$B$3+G56*$C$3+H56*$D$3+I56*$E$3+J56*$F$3+K56*$G$3+L56*$H$3+M56*$I$3</f>
-        <v>90</v>
+        <f t="shared" si="12"/>
+        <v>135</v>
       </c>
       <c r="P56" s="5">
-        <f>MEDIAN(C56,O56,D56)</f>
-        <v>90</v>
+        <f t="shared" si="13"/>
+        <v>135</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="3"/>
-        <v>0.12857142857142856</v>
+        <f t="shared" ref="Q56:Q68" si="14">P56/SUM(P$54:P$67)</f>
+        <v>0.156794425087108</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3070,8 +3107,12 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>25</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3080,21 +3121,27 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4">
+        <v>10</v>
+      </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="5"/>
+      <c r="M57" s="4">
+        <v>10</v>
+      </c>
+      <c r="N57" s="5">
+        <v>8</v>
+      </c>
       <c r="O57" s="5">
-        <f>IF(C57&gt;0,MAX(B57,C57),B57)+E57*$A$3+F57*$B$3+G57*$C$3+H57*$D$3+I57*$E$3+J57*$F$3+K57*$G$3+L57*$H$3+M57*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>125</v>
       </c>
       <c r="P57" s="5">
-        <f>MEDIAN(C57,O57,D57)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>125</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.14518002322880372</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3108,8 +3155,12 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>15</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3118,21 +3169,27 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4">
+        <v>5</v>
+      </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="5"/>
+      <c r="M58" s="4">
+        <v>15</v>
+      </c>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
       <c r="O58" s="5">
-        <f>IF(C58&gt;0,MAX(B58,C58),B58)+E58*$A$3+F58*$B$3+G58*$C$3+H58*$D$3+I58*$E$3+J58*$F$3+K58*$G$3+L58*$H$3+M58*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>125</v>
       </c>
       <c r="P58" s="5">
-        <f>MEDIAN(C58,O58,D58)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>125</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.14518002322880372</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3146,31 +3203,43 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>10</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4">
+        <v>5</v>
+      </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="5"/>
+      <c r="M59" s="4">
+        <v>5</v>
+      </c>
+      <c r="N59" s="5">
+        <v>1</v>
+      </c>
       <c r="O59" s="5">
-        <f>IF(C59&gt;0,MAX(B59,C59),B59)+E59*$A$3+F59*$B$3+G59*$C$3+H59*$D$3+I59*$E$3+J59*$F$3+K59*$G$3+L59*$H$3+M59*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="P59" s="5">
-        <f>MEDIAN(C59,O59,D59)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>90</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>0.10452961672473868</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3184,31 +3253,39 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4">
+        <v>20</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
+      <c r="N60" s="5">
+        <v>8</v>
+      </c>
       <c r="O60" s="5">
-        <f>IF(C60&gt;0,MAX(B60,C60),B60)+E60*$A$3+F60*$B$3+G60*$C$3+H60*$D$3+I60*$E$3+J60*$F$3+K60*$G$3+L60*$H$3+M60*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>81</v>
       </c>
       <c r="P60" s="5">
-        <f>MEDIAN(C60,O60,D60)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>81</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>9.4076655052264813E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3222,31 +3299,39 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4">
+        <v>20</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>15</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="5"/>
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
       <c r="O61" s="5">
-        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>80</v>
       </c>
       <c r="P61" s="5">
-        <f>MEDIAN(C61,O61,D61)</f>
-        <v>0</v>
+        <f t="shared" si="13"/>
+        <v>80</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>9.2915214866434379E-2</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3275,15 +3360,15 @@
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5">
-        <f>IF(C62&gt;0,MAX(B62,C62),B62)+E62*$A$3+F62*$B$3+G62*$C$3+H62*$D$3+I62*$E$3+J62*$F$3+K62*$G$3+L62*$H$3+M62*$I$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P62" s="5">
-        <f>MEDIAN(C62,O62,D62)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R62" s="2"/>
@@ -3313,15 +3398,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f>IF(C63&gt;0,MAX(B63,C63),B63)+E63*$A$3+F63*$B$3+G63*$C$3+H63*$D$3+I63*$E$3+J63*$F$3+K63*$G$3+L63*$H$3+M63*$I$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f>MEDIAN(C63,O63,D63)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3351,15 +3436,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f>IF(C64&gt;0,MAX(B64,C64),B64)+E64*$A$3+F64*$B$3+G64*$C$3+H64*$D$3+I64*$E$3+J64*$F$3+K64*$G$3+L64*$H$3+M64*$I$3</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f>MEDIAN(C64,O64,D64)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3374,28 +3459,31 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="P65" s="5">
-        <f>SUM(P50:P64)</f>
-        <v>700</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -3409,23 +3497,32 @@
       <c r="AA65" s="2"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -3438,23 +3535,32 @@
       <c r="AA66" s="2"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -3482,8 +3588,14 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="P68" s="5">
+        <f>SUM(P53:P67)</f>
+        <v>861</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -9208,9 +9320,93 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="2"/>
+      <c r="R266" s="2"/>
+      <c r="S266" s="2"/>
+      <c r="T266" s="2"/>
+      <c r="U266" s="2"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="2"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
+      <c r="Z266" s="2"/>
+      <c r="AA266" s="2"/>
+    </row>
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+      <c r="O267" s="2"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2"/>
+      <c r="V267" s="2"/>
+      <c r="W267" s="2"/>
+      <c r="X267" s="2"/>
+      <c r="Y267" s="2"/>
+      <c r="Z267" s="2"/>
+      <c r="AA267" s="2"/>
+    </row>
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
+      <c r="N268" s="2"/>
+      <c r="O268" s="2"/>
+      <c r="P268" s="2"/>
+      <c r="Q268" s="2"/>
+      <c r="R268" s="2"/>
+      <c r="S268" s="2"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="2"/>
+      <c r="X268" s="2"/>
+      <c r="Y268" s="2"/>
+      <c r="Z268" s="2"/>
+      <c r="AA268" s="2"/>
+    </row>
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9937,6 +10133,9 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E19BBF-68F0-473C-AF70-513937143D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9998939-5C99-43CF-BE54-AFA03018F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -264,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -328,11 +328,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,14 +359,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +587,7 @@
   <dimension ref="A1:AA997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -678,7 +693,7 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
-        <v>31.5</v>
+        <v>25.5</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -687,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -699,10 +714,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -836,7 +851,7 @@
       <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="2"/>
@@ -868,20 +883,22 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5">
         <f t="shared" ref="O7:O27" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="16">
         <f t="shared" ref="P7:P27" si="1">MEDIAN(C7,O7,D7)</f>
         <v>120</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q11" si="2">P7/SUM(P$7:P$27)</f>
-        <v>5.5172413793103448E-2</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="18">
+        <f>IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
+        <v>5.8111380145278453E-2</v>
+      </c>
+      <c r="R7" s="15"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -917,17 +934,17 @@
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="P8" s="5">
+        <v>65</v>
+      </c>
+      <c r="P8" s="16">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="2"/>
-        <v>3.6781609195402298E-2</v>
-      </c>
-      <c r="R8" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" ref="Q8:Q27" si="2">IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
+        <v>3.1476997578692496E-2</v>
+      </c>
+      <c r="R8" s="14"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -969,9 +986,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="18">
         <f t="shared" si="2"/>
-        <v>1.6091954022988506E-2</v>
+        <v>1.6949152542372881E-2</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1009,15 +1026,15 @@
       </c>
       <c r="O10" s="5">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="Q10" s="6">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="18">
         <f t="shared" si="2"/>
-        <v>2.7586206896551724E-2</v>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1059,9 +1076,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="18">
         <f t="shared" si="2"/>
-        <v>0.13793103448275862</v>
+        <v>0.14527845036319612</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1103,9 +1120,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:Q28" si="3">P12/SUM(P$7:P$27)</f>
-        <v>4.5977011494252873E-3</v>
+      <c r="Q12" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8426150121065378E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1147,15 +1164,15 @@
       </c>
       <c r="O13" s="5">
         <f t="shared" si="0"/>
-        <v>31.5</v>
+        <v>25.5</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="3"/>
-        <v>6.8965517241379309E-3</v>
+      <c r="Q13" s="18">
+        <f t="shared" si="2"/>
+        <v>7.2639225181598066E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1197,9 +1214,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="3"/>
-        <v>0.13793103448275862</v>
+      <c r="Q14" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14527845036319612</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1241,15 +1258,15 @@
       </c>
       <c r="O15" s="5">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="3"/>
-        <v>2.2988505747126436E-2</v>
+      <c r="Q15" s="18">
+        <f t="shared" si="2"/>
+        <v>2.4213075060532687E-2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1289,15 +1306,15 @@
       </c>
       <c r="O16" s="5">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="1"/>
-        <v>140</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="3"/>
-        <v>6.4367816091954022E-2</v>
+        <v>120</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="2"/>
+        <v>5.8111380145278453E-2</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1337,15 +1354,15 @@
       </c>
       <c r="O17" s="5">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="1"/>
-        <v>115</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="3"/>
-        <v>5.2873563218390804E-2</v>
+        <v>110</v>
+      </c>
+      <c r="Q17" s="18">
+        <f t="shared" si="2"/>
+        <v>5.3268765133171914E-2</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1387,9 +1404,9 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="3"/>
-        <v>2.528735632183908E-2</v>
+      <c r="Q18" s="18">
+        <f t="shared" si="2"/>
+        <v>2.6634382566585957E-2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1431,9 +1448,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="3"/>
-        <v>4.5977011494252873E-2</v>
+      <c r="Q19" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1475,9 +1492,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="3"/>
-        <v>3.6781609195402298E-2</v>
+      <c r="Q20" s="18">
+        <f t="shared" si="2"/>
+        <v>3.8740920096852302E-2</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1519,9 +1536,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="3"/>
-        <v>0.13793103448275862</v>
+      <c r="Q21" s="18">
+        <f t="shared" si="2"/>
+        <v>0.14527845036319612</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1563,15 +1580,15 @@
       </c>
       <c r="O22" s="5">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="P22" s="5">
         <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="3"/>
-        <v>0.10344827586206896</v>
+        <v>195</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="2"/>
+        <v>9.4430992736077482E-2</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1609,15 +1626,15 @@
       </c>
       <c r="O23" s="5">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P23" s="5">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="3"/>
-        <v>5.9770114942528735E-2</v>
+        <v>100</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="2"/>
+        <v>4.8426150121065374E-2</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1659,9 +1676,9 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="3"/>
-        <v>2.7586206896551724E-2</v>
+      <c r="Q24" s="18">
+        <f t="shared" si="2"/>
+        <v>2.9055690072639227E-2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1697,8 +1714,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="3"/>
+      <c r="Q25" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R25" s="2"/>
@@ -1735,8 +1752,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="3"/>
+      <c r="Q26" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1773,8 +1790,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="3"/>
+      <c r="Q27" s="18">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1806,10 +1823,10 @@
       <c r="O28" s="2"/>
       <c r="P28" s="5">
         <f>SUM(P7:P27)</f>
-        <v>2175</v>
+        <v>2065</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="Q12:Q28" si="3">P28/SUM(P$7:P$27)</f>
         <v>1</v>
       </c>
       <c r="R28" s="2"/>
@@ -1935,7 +1952,9 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
       <c r="O31" s="5">
         <f t="shared" ref="O31:O47" si="4">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
@@ -1945,8 +1964,8 @@
         <v>200</v>
       </c>
       <c r="Q31" s="6">
-        <f>P31/SUM(P$31:P$47)</f>
-        <v>0.10191082802547771</v>
+        <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
+        <v>0.11176306230790724</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1991,8 +2010,8 @@
         <v>100</v>
       </c>
       <c r="Q32" s="6">
-        <f>P32/SUM(P$31:P$47)</f>
-        <v>5.0955414012738856E-2</v>
+        <f t="shared" ref="Q32:Q50" si="8">IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
+        <v>5.5881531153953619E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2035,8 +2054,8 @@
         <v>100</v>
       </c>
       <c r="Q33" s="6">
-        <f>P33/SUM(P$31:P$47)</f>
-        <v>5.0955414012738856E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.5881531153953619E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2070,19 +2089,19 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34" si="8">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
-        <v>200</v>
+        <f t="shared" ref="O34" si="9">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <v>175</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34" si="9">MEDIAN(C34,O34,D34)</f>
-        <v>200</v>
+        <f t="shared" ref="P34" si="10">MEDIAN(C34,O34,D34)</f>
+        <v>175</v>
       </c>
       <c r="Q34" s="6">
-        <f>P34/SUM(P$31:P$47)</f>
-        <v>0.10191082802547771</v>
+        <f t="shared" si="8"/>
+        <v>9.7792679519418835E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2122,15 +2141,15 @@
       </c>
       <c r="O35" s="5">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q35" s="6">
-        <f>P35/SUM(P$31:P$47)</f>
-        <v>4.5859872611464965E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7499301480860574E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2173,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f>P36/SUM(P$31:P$47)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R36" s="2"/>
@@ -2217,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f>P37/SUM(P$31:P$47)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R37" s="2"/>
@@ -2262,15 +2281,15 @@
       </c>
       <c r="O38" s="5">
         <f t="shared" si="4"/>
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="5"/>
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="Q38" s="6">
-        <f>P38/SUM(P$31:P$47)</f>
-        <v>6.67515923566879E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.6499022073204808E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2310,15 +2329,15 @@
       </c>
       <c r="O39" s="5">
         <f t="shared" si="4"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="P39" s="5">
         <f t="shared" si="5"/>
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="Q39" s="6">
-        <f>P39/SUM(P$31:P$47)</f>
-        <v>6.6242038216560509E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.5881531153953619E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2358,15 +2377,15 @@
       </c>
       <c r="O40" s="5">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="P40" s="5">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q40" s="6">
-        <f>P40/SUM(P$31:P$47)</f>
-        <v>5.0955414012738856E-2</v>
+        <f t="shared" si="8"/>
+        <v>4.7499301480860574E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2406,15 +2425,15 @@
       </c>
       <c r="O41" s="5">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="P41" s="5">
         <f t="shared" si="5"/>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Q41" s="6">
-        <f>P41/SUM(P$31:P$47)</f>
-        <v>4.5859872611464965E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.6322995250069851E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2459,8 +2478,8 @@
         <v>180</v>
       </c>
       <c r="Q42" s="6">
-        <f>P42/SUM(P$31:P$47)</f>
-        <v>9.171974522292993E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.10058675607711651</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2504,15 +2523,15 @@
       </c>
       <c r="O43" s="5">
         <f t="shared" si="4"/>
-        <v>71.5</v>
+        <v>55.5</v>
       </c>
       <c r="P43" s="5">
         <f t="shared" si="5"/>
-        <v>71.5</v>
+        <v>55.5</v>
       </c>
       <c r="Q43" s="6">
-        <f>P43/SUM(P$31:P$47)</f>
-        <v>3.6433121019108283E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.1014249790444259E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2550,15 +2569,15 @@
       </c>
       <c r="O44" s="5">
         <f t="shared" si="4"/>
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="P44" s="5">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="Q44" s="6">
-        <f>P44/SUM(P$31:P$47)</f>
-        <v>7.1337579617834393E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.1469684269348977E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2596,15 +2615,15 @@
       </c>
       <c r="O45" s="5">
         <f t="shared" si="4"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="P45" s="5">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="Q45" s="6">
-        <f>P45/SUM(P$31:P$47)</f>
-        <v>5.605095541401274E-2</v>
+        <f t="shared" si="8"/>
+        <v>5.0293378038558254E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2646,15 +2665,15 @@
       </c>
       <c r="O46" s="5">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="P46" s="5">
         <f t="shared" si="5"/>
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="Q46" s="6">
-        <f>P46/SUM(P$31:P$47)</f>
-        <v>8.9171974522292988E-2</v>
+        <f t="shared" si="8"/>
+        <v>8.1028220173232746E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2668,39 +2687,39 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>25</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
         <v>30</v>
       </c>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="12">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="11">
         <v>1</v>
       </c>
       <c r="O47" s="5">
         <f t="shared" si="4"/>
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="P47" s="5">
         <f t="shared" si="5"/>
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="Q47" s="6">
-        <f>P47/SUM(P$31:P$47)</f>
-        <v>7.3885350318471335E-2</v>
+        <f t="shared" si="8"/>
+        <v>6.4263760827046656E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2714,39 +2733,39 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48" s="12">
         <v>20</v>
       </c>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12">
         <v>15</v>
       </c>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="14">
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13">
         <v>1</v>
       </c>
-      <c r="O48" s="10">
-        <f t="shared" ref="O48:O50" si="10">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
-        <v>80</v>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:O50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>65</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:P50" si="11">MEDIAN(C48,O48,D48)</f>
-        <v>80</v>
+        <f t="shared" ref="P48:P50" si="12">MEDIAN(C48,O48,D48)</f>
+        <v>65</v>
       </c>
       <c r="Q48" s="6">
-        <f>P48/SUM(P$31:P$47)</f>
-        <v>4.0764331210191081E-2</v>
+        <f t="shared" si="8"/>
+        <v>3.6322995250069851E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2760,32 +2779,32 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="14">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13">
         <v>1</v>
       </c>
-      <c r="O49" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="5">
+      <c r="O49" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="P49" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q49" s="6">
-        <f>P49/SUM(P$31:P$47)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R49" s="2"/>
@@ -2800,32 +2819,32 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13">
         <v>1</v>
       </c>
-      <c r="O50" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="5">
+      <c r="O50" s="9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="P50" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q50" s="6">
-        <f>P50/SUM(P$31:P$47)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R50" s="2"/>
@@ -2856,11 +2875,11 @@
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="5">
-        <f>SUM(P31:P47)</f>
-        <v>1962.5</v>
+        <f>SUM(P31:P50)</f>
+        <v>1789.5</v>
       </c>
       <c r="Q51" s="6">
-        <f>P51/SUM(P$31:P$47)</f>
+        <f>P51/SUM(P$31:P$50)</f>
         <v>1</v>
       </c>
       <c r="R51" s="2"/>
@@ -2986,18 +3005,20 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="5"/>
+      <c r="N54" s="5">
+        <v>0</v>
+      </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O67" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="O54:O67" si="13">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ref="P54:P67" si="13">MEDIAN(C54,O54,D54)</f>
+        <f t="shared" ref="P54:P67" si="14">MEDIAN(C54,O54,D54)</f>
         <v>135</v>
       </c>
       <c r="Q54" s="6">
-        <f>P54/SUM(P$54:P$67)</f>
-        <v>0.156794425087108</v>
+        <f>IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
+        <v>0.18467852257181944</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3036,16 +3057,16 @@
         <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="12"/>
-        <v>90</v>
+        <f t="shared" si="13"/>
+        <v>75</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="13"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>75</v>
       </c>
       <c r="Q55" s="6">
-        <f>P55/SUM(P$54:P$67)</f>
-        <v>0.10452961672473868</v>
+        <f t="shared" ref="Q55:Q67" si="15">IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
+        <v>0.10259917920656635</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3081,19 +3102,19 @@
       <c r="L56" s="4"/>
       <c r="M56" s="4"/>
       <c r="N56" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="12"/>
-        <v>135</v>
+        <f t="shared" si="13"/>
+        <v>125</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="13"/>
-        <v>135</v>
+        <f t="shared" si="14"/>
+        <v>125</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" ref="Q56:Q68" si="14">P56/SUM(P$54:P$67)</f>
-        <v>0.156794425087108</v>
+        <f t="shared" si="15"/>
+        <v>0.17099863201094392</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3132,16 +3153,16 @@
         <v>8</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>105</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="13"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>105</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="14"/>
-        <v>0.14518002322880372</v>
+        <f t="shared" si="15"/>
+        <v>0.1436388508891929</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3180,16 +3201,16 @@
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="13"/>
+        <v>95</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="13"/>
-        <v>125</v>
+        <f t="shared" si="14"/>
+        <v>95</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="14"/>
-        <v>0.14518002322880372</v>
+        <f t="shared" si="15"/>
+        <v>0.12995896032831739</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3227,19 +3248,19 @@
         <v>5</v>
       </c>
       <c r="N59" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="12"/>
-        <v>90</v>
+        <f t="shared" si="13"/>
+        <v>70</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="13"/>
-        <v>90</v>
+        <f t="shared" si="14"/>
+        <v>70</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="14"/>
-        <v>0.10452961672473868</v>
+        <f t="shared" si="15"/>
+        <v>9.575923392612859E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3276,16 +3297,16 @@
         <v>8</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="12"/>
-        <v>81</v>
+        <f t="shared" si="13"/>
+        <v>61</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="13"/>
-        <v>81</v>
+        <f t="shared" si="14"/>
+        <v>61</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="14"/>
-        <v>9.4076655052264813E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.3447332421340628E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3299,7 +3320,7 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B61" s="4">
@@ -3322,16 +3343,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="12"/>
-        <v>80</v>
+        <f t="shared" si="13"/>
+        <v>65</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <f t="shared" si="14"/>
+        <v>65</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="14"/>
-        <v>9.2915214866434379E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.8919288645690833E-2</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3360,15 +3381,15 @@
       <c r="M62" s="4"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P62" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P62" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q62" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R62" s="2"/>
@@ -3398,15 +3419,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P63" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q63" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3436,15 +3457,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P64" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q64" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3474,15 +3495,15 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P65" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q65" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65" s="2"/>
@@ -3512,15 +3533,15 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q66" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R66" s="2"/>
@@ -3550,15 +3571,15 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P67" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q67" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R67" s="2"/>
@@ -3590,10 +3611,10 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>861</v>
+        <v>731</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="Q56:Q68" si="16">P68/SUM(P$54:P$67)</f>
         <v>1</v>
       </c>
       <c r="R68" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,39 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657EC88-D63A-4A7A-A2CC-092D534D34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9225" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -217,21 +199,24 @@
   <si>
     <t>Drone Revolution</t>
   </si>
-  <si>
-    <t>Min Pop</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -282,35 +267,136 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="15" builtinId="5"/>
+    <cellStyle name="Currency" xfId="16" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="17" builtinId="7"/>
+    <cellStyle name="Comma" xfId="18" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="19" builtinId="6"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -323,7 +409,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -513,40 +599,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
-  <dimension ref="A1:AA994"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ee11bf8-2c51-4794-bab0-b08c213463fd}">
+  <dimension ref="A1:Z265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="P47" sqref="P47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.434285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="27" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.571428571428573" customWidth="1"/>
+    <col min="2" max="2" width="6.571428571428571" customWidth="1"/>
+    <col min="3" max="3" width="10.142857142857142" customWidth="1"/>
+    <col min="4" max="4" width="10.428571428571429" customWidth="1"/>
+    <col min="5" max="5" width="8.285714285714286" customWidth="1"/>
+    <col min="6" max="6" width="6.142857142857143" customWidth="1"/>
+    <col min="7" max="7" width="7.142857142857143" customWidth="1"/>
+    <col min="8" max="8" width="10.142857142857142" customWidth="1"/>
+    <col min="9" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="10.142857142857142" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.142857142857142" customWidth="1"/>
+    <col min="17" max="26" width="15.142857142857142" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,9 +656,8 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:26" ht="15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -622,9 +702,8 @@
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:26" ht="15">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
         <v>34.5</v>
@@ -670,9 +749,8 @@
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:26" ht="15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -687,10 +765,10 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -701,9 +779,8 @@
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:26" ht="15">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -719,11 +796,11 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -734,9 +811,8 @@
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:26" ht="15">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -777,17 +853,15 @@
         <v>9</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
@@ -797,9 +871,8 @@
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-    </row>
-    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -817,19 +890,19 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <f t="shared" si="0" ref="N7:N11">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <v>120</v>
+      </c>
       <c r="O7" s="5">
-        <f>SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <f t="shared" si="1" ref="O7:O11">MEDIAN(C7,N7,D7)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="5">
-        <f>MEDIAN(C7,O7,D7)</f>
-        <v>120</v>
-      </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q11" si="0">P7/SUM(P$7:P$27)</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2" ref="P7:P11">O7/SUM(O$7:O$27)</f>
+        <v>0.058823529411764705</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
@@ -839,9 +912,8 @@
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
@@ -862,20 +934,18 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(B8+E8*$A$3+F8*$B$3+G8*$C$3+H8*$D$3+I8*$E$3+J8*$F$3+K8*$G$3+L8*$H$3+M8*$I$3)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="P8" s="5">
-        <f>MEDIAN(C8,O8,D8)</f>
-        <v>80</v>
-      </c>
-      <c r="Q8" s="6">
-        <f t="shared" si="0"/>
-        <v>3.9215686274509803E-2</v>
-      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.039215686274509803</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -885,9 +955,8 @@
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-    </row>
-    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:26" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -908,20 +977,18 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>35</v>
       </c>
       <c r="O9" s="5">
-        <f>SUM(B9+E9*$A$3+F9*$B$3+G9*$C$3+H9*$D$3+I9*$E$3+J9*$F$3+K9*$G$3+L9*$H$3+M9*$I$3)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="P9" s="5">
-        <f>MEDIAN(C9,O9,D9)</f>
-        <v>35</v>
-      </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7156862745098041E-2</v>
-      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.017156862745098041</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -931,9 +998,8 @@
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-    </row>
-    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -954,20 +1020,18 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM(B10+E10*$A$3+F10*$B$3+G10*$C$3+H10*$D$3+I10*$E$3+J10*$F$3+K10*$G$3+L10*$H$3+M10*$I$3)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="P10" s="5">
-        <f>MEDIAN(C10,O10,D10)</f>
-        <v>60</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -977,9 +1041,8 @@
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-    </row>
-    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -998,20 +1061,18 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="O11" s="5">
-        <f>SUM(B11+E11*$A$3+F11*$B$3+G11*$C$3+H11*$D$3+I11*$E$3+J11*$F$3+K11*$G$3+L11*$H$3+M11*$I$3)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="P11" s="5">
-        <f>MEDIAN(C11,O11,D11)</f>
-        <v>300</v>
-      </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="0"/>
+      <c r="P11" s="6">
+        <f t="shared" si="2"/>
         <v>0.14705882352941177</v>
       </c>
+      <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -1021,41 +1082,38 @@
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-    </row>
-    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="8">
         <v>10</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="5">
-        <v>1</v>
-      </c>
-      <c r="O12" s="8">
-        <f>SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="9">
+        <f t="shared" si="3" ref="N12:N27">SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
         <v>10</v>
       </c>
-      <c r="P12" s="8">
-        <f>MEDIAN(C12,O12,D12)</f>
+      <c r="O12" s="9">
+        <f t="shared" si="4" ref="O12:O27">MEDIAN(C12,N12,D12)</f>
         <v>10</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:Q28" si="1">P12/SUM(P$7:P$27)</f>
-        <v>4.9019607843137254E-3</v>
-      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="5" ref="P12:P28">O12/SUM(O$7:O$27)</f>
+        <v>0.0049019607843137254</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -1065,9 +1123,8 @@
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-    </row>
-    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:26" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
@@ -1092,20 +1149,18 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>34.5</v>
       </c>
       <c r="O13" s="5">
-        <f>SUM(B13+E13*$A$3+F13*$B$3+G13*$C$3+H13*$D$3+I13*$E$3+J13*$F$3+K13*$G$3+L13*$H$3+M13*$I$3)</f>
-        <v>34.5</v>
-      </c>
-      <c r="P13" s="5">
-        <f>MEDIAN(C13,O13,D13)</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3529411764705881E-3</v>
-      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="5"/>
+        <v>0.0073529411764705881</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -1115,9 +1170,8 @@
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-    </row>
-    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>27</v>
       </c>
@@ -1136,20 +1190,18 @@
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
       <c r="N14" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="P14" s="5">
-        <f>MEDIAN(C14,O14,D14)</f>
-        <v>300</v>
-      </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
+      <c r="P14" s="6">
+        <f t="shared" si="5"/>
         <v>0.14705882352941177</v>
       </c>
+      <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
@@ -1159,9 +1211,8 @@
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-    </row>
-    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
@@ -1186,20 +1237,18 @@
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
       <c r="N15" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>138</v>
       </c>
       <c r="O15" s="5">
-        <f>SUM(B15+E15*$A$3+F15*$B$3+G15*$C$3+H15*$D$3+I15*$E$3+J15*$F$3+K15*$G$3+L15*$H$3+M15*$I$3)</f>
-        <v>138</v>
-      </c>
-      <c r="P15" s="5">
-        <f>MEDIAN(C15,O15,D15)</f>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4509803921568627E-2</v>
-      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.024509803921568627</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
@@ -1209,9 +1258,8 @@
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-    </row>
-    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1234,20 +1282,18 @@
         <v>10</v>
       </c>
       <c r="N16" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>140</v>
       </c>
       <c r="O16" s="5">
-        <f>SUM(B16+E16*$A$3+F16*$B$3+G16*$C$3+H16*$D$3+I16*$E$3+J16*$F$3+K16*$G$3+L16*$H$3+M16*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="P16" s="5">
-        <f>MEDIAN(C16,O16,D16)</f>
-        <v>140</v>
-      </c>
-      <c r="Q16" s="6">
-        <f t="shared" si="1"/>
-        <v>6.8627450980392163E-2</v>
-      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="5"/>
+        <v>0.068627450980392163</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
@@ -1257,9 +1303,8 @@
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-    </row>
-    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>30</v>
       </c>
@@ -1282,20 +1327,18 @@
       <c r="L17" s="4"/>
       <c r="M17" s="4"/>
       <c r="N17" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="O17" s="5">
-        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>115</v>
       </c>
-      <c r="P17" s="5">
-        <f>MEDIAN(C17,O17,D17)</f>
-        <v>115</v>
-      </c>
-      <c r="Q17" s="6">
-        <f t="shared" si="1"/>
-        <v>5.6372549019607844E-2</v>
-      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="5"/>
+        <v>0.056372549019607844</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1305,9 +1348,8 @@
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-    </row>
-    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
@@ -1326,20 +1368,18 @@
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
       <c r="N18" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
       <c r="O18" s="5">
-        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
-      <c r="P18" s="5">
-        <f>MEDIAN(C18,O18,D18)</f>
-        <v>55</v>
-      </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6960784313725492E-2</v>
-      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="5"/>
+        <v>0.026960784313725492</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
@@ -1349,9 +1389,8 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-    </row>
-    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>32</v>
       </c>
@@ -1370,20 +1409,18 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
       <c r="N19" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="O19" s="5">
-        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P19" s="5">
-        <f>MEDIAN(C19,O19,D19)</f>
-        <v>100</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.9019607843137254E-2</v>
-      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="5"/>
+        <v>0.049019607843137254</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
@@ -1393,9 +1430,8 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-    </row>
-    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>33</v>
       </c>
@@ -1414,20 +1450,18 @@
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>80</v>
       </c>
       <c r="O20" s="5">
-        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="P20" s="5">
-        <f>MEDIAN(C20,O20,D20)</f>
-        <v>80</v>
-      </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="1"/>
-        <v>3.9215686274509803E-2</v>
-      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="5"/>
+        <v>0.039215686274509803</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -1437,9 +1471,8 @@
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-    </row>
-    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
@@ -1458,20 +1491,18 @@
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>300</v>
       </c>
       <c r="O21" s="5">
-        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>300</v>
       </c>
-      <c r="P21" s="5">
-        <f>MEDIAN(C21,O21,D21)</f>
-        <v>300</v>
-      </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="1"/>
+      <c r="P21" s="6">
+        <f t="shared" si="5"/>
         <v>0.14705882352941177</v>
       </c>
+      <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
@@ -1481,9 +1512,8 @@
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-    </row>
-    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>35</v>
       </c>
@@ -1504,20 +1534,18 @@
       <c r="L22" s="4"/>
       <c r="M22" s="4"/>
       <c r="N22" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="O22" s="5">
-        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="P22" s="5">
-        <f>MEDIAN(C22,O22,D22)</f>
-        <v>90</v>
-      </c>
-      <c r="Q22" s="6">
-        <f t="shared" si="1"/>
-        <v>4.4117647058823532E-2</v>
-      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="5"/>
+        <v>0.044117647058823532</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
@@ -1527,9 +1555,8 @@
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-    </row>
-    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>36</v>
       </c>
@@ -1550,20 +1577,18 @@
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
       <c r="N23" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>130</v>
       </c>
       <c r="O23" s="5">
-        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>130</v>
       </c>
-      <c r="P23" s="5">
-        <f>MEDIAN(C23,O23,D23)</f>
-        <v>130</v>
-      </c>
-      <c r="Q23" s="6">
-        <f t="shared" si="1"/>
-        <v>6.3725490196078427E-2</v>
-      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="5"/>
+        <v>0.063725490196078427</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
@@ -1573,9 +1598,8 @@
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-    </row>
-    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -1594,20 +1618,18 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
       <c r="N24" s="5">
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
       </c>
       <c r="O24" s="5">
-        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="P24" s="5">
-        <f>MEDIAN(C24,O24,D24)</f>
-        <v>60</v>
-      </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
-      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="5"/>
+        <v>0.029411764705882353</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -1617,9 +1639,8 @@
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-    </row>
-    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1633,19 +1654,19 @@
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O25" s="5">
-        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="5">
-        <f>MEDIAN(C25,O25,D25)</f>
+      <c r="P25" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
@@ -1655,9 +1676,8 @@
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-    </row>
-    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1671,19 +1691,19 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="5"/>
+      <c r="N26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O26" s="5">
-        <f>SUM(B26+E26*$A$3+F26*$B$3+G26*$C$3+H26*$D$3+I26*$E$3+J26*$F$3+K26*$G$3+L26*$H$3+M26*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P26" s="5">
-        <f>MEDIAN(C26,O26,D26)</f>
+      <c r="P26" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
@@ -1693,9 +1713,8 @@
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-    </row>
-    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1709,19 +1728,19 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
+      <c r="N27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="O27" s="5">
-        <f>SUM(B27+E27*$A$3+F27*$B$3+G27*$C$3+H27*$D$3+I27*$E$3+J27*$F$3+K27*$G$3+L27*$H$3+M27*$I$3)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P27" s="5">
-        <f>MEDIAN(C27,O27,D27)</f>
+      <c r="P27" s="6">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
@@ -1731,9 +1750,8 @@
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-    </row>
-    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1748,15 +1766,15 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="5">
-        <f>SUM(P7:P27)</f>
+      <c r="O28" s="5">
+        <f>SUM(O7:O27)</f>
         <v>2040</v>
       </c>
-      <c r="Q28" s="6">
-        <f t="shared" si="1"/>
+      <c r="P28" s="6">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
+      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
@@ -1766,9 +1784,8 @@
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-    </row>
-    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>38</v>
       </c>
@@ -1784,7 +1801,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1797,9 +1814,8 @@
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
-      <c r="AA29" s="2"/>
-    </row>
-    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
@@ -1840,17 +1856,15 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
       <c r="T30" s="2"/>
@@ -1860,9 +1874,8 @@
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
-      <c r="AA30" s="2"/>
-    </row>
-    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>20</v>
       </c>
@@ -1880,19 +1893,19 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5">
+      <c r="N31" s="5">
         <f>IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
-      <c r="P31" s="5">
-        <f>MEDIAN(C31,O31,D31)</f>
+      <c r="O31" s="5">
+        <f>MEDIAN(C31,N31,D31)</f>
         <v>200</v>
       </c>
-      <c r="Q31" s="6">
-        <f>P31/SUM(P$31:P$47)</f>
-        <v>9.7967180994366881E-2</v>
-      </c>
+      <c r="P31" s="6">
+        <f>O31/SUM(O$31:O$47)</f>
+        <v>0.097967180994366881</v>
+      </c>
+      <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
       <c r="T31" s="2"/>
@@ -1902,9 +1915,8 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-    </row>
-    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1923,20 +1935,18 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
-        <v>1</v>
+        <f t="shared" si="6" ref="N32:N47">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>60</v>
       </c>
       <c r="O32" s="5">
-        <f>IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" si="7" ref="O32:O47">MEDIAN(C32,N32,D32)</f>
         <v>60</v>
       </c>
-      <c r="P32" s="5">
-        <f>MEDIAN(C32,O32,D32)</f>
-        <v>60</v>
-      </c>
-      <c r="Q32" s="6">
-        <f t="shared" ref="Q32:Q48" si="2">P32/SUM(P$31:P$47)</f>
-        <v>2.9390154298310066E-2</v>
-      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="8" ref="P32:P48">O32/SUM(O$31:O$47)</f>
+        <v>0.029390154298310066</v>
+      </c>
+      <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
       <c r="T32" s="2"/>
@@ -1946,9 +1956,8 @@
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-    </row>
-    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1971,20 +1980,18 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>90</v>
       </c>
       <c r="O33" s="5">
-        <f>IF(C33&gt;0,MAX(B33,C33),B33)+E33*$A$3+F33*$B$3+G33*$C$3+H33*$D$3+I33*$E$3+J33*$F$3+K33*$G$3+L33*$H$3+M33*$I$3</f>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="P33" s="5">
-        <f>MEDIAN(C33,O33,D33)</f>
-        <v>90</v>
-      </c>
-      <c r="Q33" s="6">
-        <f t="shared" si="2"/>
-        <v>4.4085231447465102E-2</v>
-      </c>
+      <c r="P33" s="6">
+        <f t="shared" si="8"/>
+        <v>0.044085231447465102</v>
+      </c>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -1994,9 +2001,8 @@
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
-      <c r="AA33" s="2"/>
-    </row>
-    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:26" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2015,20 +2021,18 @@
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O34" s="5">
-        <f>IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="P34" s="5">
-        <f>MEDIAN(C34,O34,D34)</f>
-        <v>100</v>
-      </c>
-      <c r="Q34" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
-      </c>
+      <c r="P34" s="6">
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -2038,9 +2042,8 @@
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
-      <c r="AA34" s="2"/>
-    </row>
-    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2059,20 +2062,18 @@
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>80</v>
       </c>
       <c r="O35" s="5">
-        <f>IF(C35&gt;0,MAX(B35,C35),B35)+E35*$A$3+F35*$B$3+G35*$C$3+H35*$D$3+I35*$E$3+J35*$F$3+K35*$G$3+L35*$H$3+M35*$I$3</f>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="P35" s="5">
-        <f>MEDIAN(C35,O35,D35)</f>
-        <v>80</v>
-      </c>
-      <c r="Q35" s="6">
-        <f t="shared" si="2"/>
-        <v>3.9186872397746757E-2</v>
-      </c>
+      <c r="P35" s="6">
+        <f t="shared" si="8"/>
+        <v>0.039186872397746757</v>
+      </c>
+      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -2082,9 +2083,8 @@
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
-      <c r="AA35" s="2"/>
-    </row>
-    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:26" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2111,20 +2111,18 @@
       </c>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>143</v>
       </c>
       <c r="O36" s="5">
-        <f>IF(C36&gt;0,MAX(B36,C36),B36)+E36*$A$3+F36*$B$3+G36*$C$3+H36*$D$3+I36*$E$3+J36*$F$3+K36*$G$3+L36*$H$3+M36*$I$3</f>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
-      <c r="P36" s="5">
-        <f>MEDIAN(C36,O36,D36)</f>
-        <v>143</v>
-      </c>
-      <c r="Q36" s="6">
-        <f t="shared" si="2"/>
-        <v>7.0046534410972319E-2</v>
-      </c>
+      <c r="P36" s="6">
+        <f t="shared" si="8"/>
+        <v>0.070046534410972319</v>
+      </c>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -2134,9 +2132,8 @@
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2159,20 +2156,18 @@
         <v>15</v>
       </c>
       <c r="N37" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>130</v>
       </c>
       <c r="O37" s="5">
-        <f>IF(C37&gt;0,MAX(B37,C37),B37)+E37*$A$3+F37*$B$3+G37*$C$3+H37*$D$3+I37*$E$3+J37*$F$3+K37*$G$3+L37*$H$3+M37*$I$3</f>
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
-      <c r="P37" s="5">
-        <f>MEDIAN(C37,O37,D37)</f>
-        <v>130</v>
-      </c>
-      <c r="Q37" s="6">
-        <f t="shared" si="2"/>
-        <v>6.3678667646338477E-2</v>
-      </c>
+      <c r="P37" s="6">
+        <f t="shared" si="8"/>
+        <v>0.063678667646338477</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -2182,9 +2177,8 @@
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
-      <c r="AA37" s="2"/>
-    </row>
-    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
@@ -2207,20 +2201,18 @@
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O38" s="5">
-        <f>IF(C38&gt;0,MAX(B38,C38),B38)+E38*$A$3+F38*$B$3+G38*$C$3+H38*$D$3+I38*$E$3+J38*$F$3+K38*$G$3+L38*$H$3+M38*$I$3</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="P38" s="5">
-        <f>MEDIAN(C38,O38,D38)</f>
-        <v>100</v>
-      </c>
-      <c r="Q38" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
-      </c>
+      <c r="P38" s="6">
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
       <c r="T38" s="2"/>
@@ -2230,9 +2222,8 @@
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
-      <c r="AA38" s="2"/>
-    </row>
-    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>46</v>
       </c>
@@ -2255,20 +2246,18 @@
       </c>
       <c r="M39" s="4"/>
       <c r="N39" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O39" s="5">
-        <f>IF(C39&gt;0,MAX(B39,C39),B39)+E39*$A$3+F39*$B$3+G39*$C$3+H39*$D$3+I39*$E$3+J39*$F$3+K39*$G$3+L39*$H$3+M39*$I$3</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="P39" s="5">
-        <f>MEDIAN(C39,O39,D39)</f>
-        <v>100</v>
-      </c>
-      <c r="Q39" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
-      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -2278,9 +2267,8 @@
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-    </row>
-    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>47</v>
       </c>
@@ -2299,20 +2287,18 @@
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
       <c r="N40" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O40" s="5">
-        <f>IF(C40&gt;0,MAX(B40,C40),B40)+E40*$A$3+F40*$B$3+G40*$C$3+H40*$D$3+I40*$E$3+J40*$F$3+K40*$G$3+L40*$H$3+M40*$I$3</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="P40" s="5">
-        <f>MEDIAN(C40,O40,D40)</f>
-        <v>100</v>
-      </c>
-      <c r="Q40" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
-      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
+      </c>
+      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -2322,9 +2308,8 @@
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
-      <c r="AA40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>48</v>
       </c>
@@ -2351,20 +2336,18 @@
         <v>1</v>
       </c>
       <c r="N41" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>50.5</v>
       </c>
       <c r="O41" s="5">
-        <f>IF(C41&gt;0,MAX(B41,C41),B41)+E41*$A$3+F41*$B$3+G41*$C$3+H41*$D$3+I41*$E$3+J41*$F$3+K41*$G$3+L41*$H$3+M41*$I$3</f>
+        <f t="shared" si="7"/>
         <v>50.5</v>
       </c>
-      <c r="P41" s="5">
-        <f>MEDIAN(C41,O41,D41)</f>
-        <v>50.5</v>
-      </c>
-      <c r="Q41" s="6">
-        <f t="shared" si="2"/>
-        <v>2.4736713201077638E-2</v>
-      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="8"/>
+        <v>0.024736713201077638</v>
+      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -2374,9 +2357,8 @@
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>49</v>
       </c>
@@ -2397,20 +2379,18 @@
         <v>25</v>
       </c>
       <c r="N42" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="O42" s="5">
-        <f>IF(C42&gt;0,MAX(B42,C42),B42)+E42*$A$3+F42*$B$3+G42*$C$3+H42*$D$3+I42*$E$3+J42*$F$3+K42*$G$3+L42*$H$3+M42*$I$3</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="P42" s="5">
-        <f>MEDIAN(C42,O42,D42)</f>
-        <v>200</v>
-      </c>
-      <c r="Q42" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
-      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="8"/>
+        <v>0.097967180994366881</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -2420,9 +2400,8 @@
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
-      <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>50</v>
       </c>
@@ -2443,20 +2422,18 @@
         <v>25</v>
       </c>
       <c r="N43" s="5">
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>200</v>
       </c>
       <c r="O43" s="5">
-        <f>IF(C43&gt;0,MAX(B43,C43),B43)+E43*$A$3+F43*$B$3+G43*$C$3+H43*$D$3+I43*$E$3+J43*$F$3+K43*$G$3+L43*$H$3+M43*$I$3</f>
+        <f t="shared" si="7"/>
         <v>200</v>
       </c>
-      <c r="P43" s="5">
-        <f>MEDIAN(C43,O43,D43)</f>
-        <v>200</v>
-      </c>
-      <c r="Q43" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
-      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="8"/>
+        <v>0.097967180994366881</v>
+      </c>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -2466,9 +2443,8 @@
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
-      <c r="AA43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:26" ht="15.75" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>51</v>
       </c>
@@ -2489,20 +2465,18 @@
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
       <c r="N44" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>48</v>
       </c>
       <c r="O44" s="5">
-        <f>IF(C44&gt;0,MAX(B44,C44),B44)+E44*$A$3+F44*$B$3+G44*$C$3+H44*$D$3+I44*$E$3+J44*$F$3+K44*$G$3+L44*$H$3+M44*$I$3</f>
+        <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="P44" s="5">
-        <f>MEDIAN(C44,O44,D44)</f>
-        <v>48</v>
-      </c>
-      <c r="Q44" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3512123438648051E-2</v>
-      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="8"/>
+        <v>0.023512123438648051</v>
+      </c>
+      <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -2512,9 +2486,8 @@
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>52</v>
       </c>
@@ -2539,20 +2512,18 @@
         <v>15</v>
       </c>
       <c r="N45" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>195</v>
       </c>
       <c r="O45" s="5">
-        <f>IF(C45&gt;0,MAX(B45,C45),B45)+E45*$A$3+F45*$B$3+G45*$C$3+H45*$D$3+I45*$E$3+J45*$F$3+K45*$G$3+L45*$H$3+M45*$I$3</f>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="P45" s="5">
-        <f>MEDIAN(C45,O45,D45)</f>
-        <v>195</v>
-      </c>
-      <c r="Q45" s="6">
-        <f t="shared" si="2"/>
-        <v>9.5518001469507716E-2</v>
-      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="8"/>
+        <v>0.095518001469507716</v>
+      </c>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -2562,9 +2533,8 @@
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
-      <c r="AA45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2585,20 +2555,18 @@
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
       <c r="N46" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>100</v>
       </c>
       <c r="O46" s="5">
-        <f>IF(C46&gt;0,MAX(B46,C46),B46)+E46*$A$3+F46*$B$3+G46*$C$3+H46*$D$3+I46*$E$3+J46*$F$3+K46*$G$3+L46*$H$3+M46*$I$3</f>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="P46" s="5">
-        <f>MEDIAN(C46,O46,D46)</f>
-        <v>100</v>
-      </c>
-      <c r="Q46" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
-      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="8"/>
+        <v>0.048983590497183441</v>
+      </c>
+      <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -2608,9 +2576,8 @@
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
-      <c r="AA46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>54</v>
       </c>
@@ -2631,20 +2598,18 @@
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
       <c r="N47" s="5">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>145</v>
       </c>
       <c r="O47" s="5">
-        <f>IF(C47&gt;0,MAX(B47,C47),B47)+E47*$A$3+F47*$B$3+G47*$C$3+H47*$D$3+I47*$E$3+J47*$F$3+K47*$G$3+L47*$H$3+M47*$I$3</f>
+        <f t="shared" si="7"/>
         <v>145</v>
       </c>
-      <c r="P47" s="5">
-        <f>MEDIAN(C47,O47,D47)</f>
-        <v>145</v>
-      </c>
-      <c r="Q47" s="6">
-        <f t="shared" si="2"/>
-        <v>7.1026206220915988E-2</v>
-      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="8"/>
+        <v>0.071026206220915988</v>
+      </c>
+      <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -2654,9 +2619,8 @@
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
-      <c r="AA47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:26" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2671,15 +2635,15 @@
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="5">
-        <f>SUM(P31:P47)</f>
+      <c r="O48" s="5">
+        <f>SUM(O31:O47)</f>
         <v>2041.5</v>
       </c>
-      <c r="Q48" s="6">
-        <f t="shared" si="2"/>
+      <c r="P48" s="6">
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
+      <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -2689,9 +2653,8 @@
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
-      <c r="AA48" s="2"/>
-    </row>
-    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
@@ -2707,7 +2670,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
@@ -2720,9 +2683,8 @@
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-    </row>
-    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:26" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
@@ -2763,17 +2725,15 @@
         <v>9</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="3" t="s">
         <v>19</v>
       </c>
+      <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
       <c r="T50" s="2"/>
@@ -2783,9 +2743,8 @@
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-    </row>
-    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>20</v>
       </c>
@@ -2803,19 +2762,19 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5">
+      <c r="N51" s="5">
         <f>IF(C51&gt;0,MAX(B51,C51),B51)+E51*$A$3+F51*$B$3+G51*$C$3+H51*$D$3+I51*$E$3+J51*$F$3+K51*$G$3+L51*$H$3+M51*$I$3</f>
         <v>135</v>
       </c>
-      <c r="P51" s="5">
-        <f>MEDIAN(C51,O51,D51)</f>
+      <c r="O51" s="5">
+        <f>MEDIAN(C51,N51,D51)</f>
         <v>135</v>
       </c>
-      <c r="Q51" s="6">
-        <f>P51/SUM(P$51:P$64)</f>
+      <c r="P51" s="6">
+        <f>O51/SUM(O$51:O$64)</f>
         <v>0.19285714285714287</v>
       </c>
+      <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
       <c r="T51" s="2"/>
@@ -2825,9 +2784,8 @@
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-    </row>
-    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>56</v>
       </c>
@@ -2850,20 +2808,18 @@
         <v>5</v>
       </c>
       <c r="N52" s="5">
-        <v>10</v>
-      </c>
-      <c r="O52" s="5">
         <f>IF(C52&gt;0,MAX(B52,C52),B52)+E52*$A$3+F52*$B$3+G52*$C$3+H52*$D$3+I52*$E$3+J52*$F$3+K52*$G$3+L52*$H$3+M52*$I$3</f>
         <v>90</v>
       </c>
-      <c r="P52" s="5">
-        <f>MEDIAN(C52,O52,D52)</f>
+      <c r="O52" s="5">
+        <f>MEDIAN(C52,N52,D52)</f>
         <v>90</v>
       </c>
-      <c r="Q52" s="6">
-        <f>P52/SUM(P$51:P$64)</f>
+      <c r="P52" s="6">
+        <f>O52/SUM(O$51:O$64)</f>
         <v>0.12857142857142856</v>
       </c>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2873,9 +2829,8 @@
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
-      <c r="AA52" s="2"/>
-    </row>
-    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="4" t="s">
         <v>57</v>
       </c>
@@ -2898,20 +2853,18 @@
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
       <c r="N53" s="5">
-        <v>1</v>
+        <f t="shared" si="9" ref="N53:N64">IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
+        <v>135</v>
       </c>
       <c r="O53" s="5">
-        <f>IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
+        <f t="shared" si="10" ref="O53:O64">MEDIAN(C53,N53,D53)</f>
         <v>135</v>
       </c>
-      <c r="P53" s="5">
-        <f>MEDIAN(C53,O53,D53)</f>
-        <v>135</v>
-      </c>
-      <c r="Q53" s="6">
-        <f t="shared" ref="Q53:Q65" si="3">P53/SUM(P$51:P$64)</f>
+      <c r="P53" s="6">
+        <f t="shared" si="11" ref="P53:P65">O53/SUM(O$51:O$64)</f>
         <v>0.19285714285714287</v>
       </c>
+      <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
       <c r="T53" s="2"/>
@@ -2921,9 +2874,8 @@
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
-      <c r="AA53" s="2"/>
-    </row>
-    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>58</v>
       </c>
@@ -2946,20 +2898,18 @@
         <v>10</v>
       </c>
       <c r="N54" s="5">
-        <v>8</v>
+        <f t="shared" si="9"/>
+        <v>105</v>
       </c>
       <c r="O54" s="5">
-        <f>IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="P54" s="5">
-        <f>MEDIAN(C54,O54,D54)</f>
-        <v>105</v>
-      </c>
-      <c r="Q54" s="6">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
-      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="11"/>
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
       <c r="T54" s="2"/>
@@ -2969,9 +2919,8 @@
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
-      <c r="AA54" s="2"/>
-    </row>
-    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="4" t="s">
         <v>59</v>
       </c>
@@ -2994,20 +2943,18 @@
         <v>15</v>
       </c>
       <c r="N55" s="5">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>145</v>
       </c>
       <c r="O55" s="5">
-        <f>IF(C55&gt;0,MAX(B55,C55),B55)+E55*$A$3+F55*$B$3+G55*$C$3+H55*$D$3+I55*$E$3+J55*$F$3+K55*$G$3+L55*$H$3+M55*$I$3</f>
+        <f t="shared" si="10"/>
         <v>145</v>
       </c>
-      <c r="P55" s="5">
-        <f>MEDIAN(C55,O55,D55)</f>
-        <v>145</v>
-      </c>
-      <c r="Q55" s="6">
-        <f t="shared" si="3"/>
+      <c r="P55" s="6">
+        <f t="shared" si="11"/>
         <v>0.20714285714285716</v>
       </c>
+      <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
@@ -3017,9 +2964,8 @@
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
-      <c r="AA55" s="2"/>
-    </row>
-    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>60</v>
       </c>
@@ -3044,20 +2990,18 @@
         <v>5</v>
       </c>
       <c r="N56" s="5">
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>90</v>
       </c>
       <c r="O56" s="5">
-        <f>IF(C56&gt;0,MAX(B56,C56),B56)+E56*$A$3+F56*$B$3+G56*$C$3+H56*$D$3+I56*$E$3+J56*$F$3+K56*$G$3+L56*$H$3+M56*$I$3</f>
+        <f t="shared" si="10"/>
         <v>90</v>
       </c>
-      <c r="P56" s="5">
-        <f>MEDIAN(C56,O56,D56)</f>
-        <v>90</v>
-      </c>
-      <c r="Q56" s="6">
-        <f t="shared" si="3"/>
+      <c r="P56" s="6">
+        <f t="shared" si="11"/>
         <v>0.12857142857142856</v>
       </c>
+      <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
       <c r="T56" s="2"/>
@@ -3067,9 +3011,8 @@
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
-      <c r="AA56" s="2"/>
-    </row>
-    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -3083,19 +3026,19 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="5"/>
+      <c r="N57" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O57" s="5">
-        <f>IF(C57&gt;0,MAX(B57,C57),B57)+E57*$A$3+F57*$B$3+G57*$C$3+H57*$D$3+I57*$E$3+J57*$F$3+K57*$G$3+L57*$H$3+M57*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P57" s="5">
-        <f>MEDIAN(C57,O57,D57)</f>
+      <c r="P57" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q57" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
       <c r="T57" s="2"/>
@@ -3105,9 +3048,8 @@
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
-      <c r="AA57" s="2"/>
-    </row>
-    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -3121,19 +3063,19 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="5"/>
+      <c r="N58" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O58" s="5">
-        <f>IF(C58&gt;0,MAX(B58,C58),B58)+E58*$A$3+F58*$B$3+G58*$C$3+H58*$D$3+I58*$E$3+J58*$F$3+K58*$G$3+L58*$H$3+M58*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P58" s="5">
-        <f>MEDIAN(C58,O58,D58)</f>
+      <c r="P58" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q58" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2"/>
@@ -3143,9 +3085,8 @@
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-    </row>
-    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -3159,19 +3100,19 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
-      <c r="N59" s="5"/>
+      <c r="N59" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O59" s="5">
-        <f>IF(C59&gt;0,MAX(B59,C59),B59)+E59*$A$3+F59*$B$3+G59*$C$3+H59*$D$3+I59*$E$3+J59*$F$3+K59*$G$3+L59*$H$3+M59*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P59" s="5">
-        <f>MEDIAN(C59,O59,D59)</f>
+      <c r="P59" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q59" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
       <c r="T59" s="2"/>
@@ -3181,9 +3122,8 @@
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-    </row>
-    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -3197,19 +3137,19 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
+      <c r="N60" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O60" s="5">
-        <f>IF(C60&gt;0,MAX(B60,C60),B60)+E60*$A$3+F60*$B$3+G60*$C$3+H60*$D$3+I60*$E$3+J60*$F$3+K60*$G$3+L60*$H$3+M60*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P60" s="5">
-        <f>MEDIAN(C60,O60,D60)</f>
+      <c r="P60" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
       <c r="T60" s="2"/>
@@ -3219,9 +3159,8 @@
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
-      <c r="AA60" s="2"/>
-    </row>
-    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -3235,19 +3174,19 @@
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="5"/>
+      <c r="N61" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O61" s="5">
-        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P61" s="5">
-        <f>MEDIAN(C61,O61,D61)</f>
+      <c r="P61" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q61" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2"/>
@@ -3257,9 +3196,8 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-    </row>
-    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -3273,19 +3211,19 @@
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O62" s="5">
-        <f>IF(C62&gt;0,MAX(B62,C62),B62)+E62*$A$3+F62*$B$3+G62*$C$3+H62*$D$3+I62*$E$3+J62*$F$3+K62*$G$3+L62*$H$3+M62*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P62" s="5">
-        <f>MEDIAN(C62,O62,D62)</f>
+      <c r="P62" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
       <c r="T62" s="2"/>
@@ -3295,9 +3233,8 @@
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-    </row>
-    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -3311,19 +3248,19 @@
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="5"/>
+      <c r="N63" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O63" s="5">
-        <f>IF(C63&gt;0,MAX(B63,C63),B63)+E63*$A$3+F63*$B$3+G63*$C$3+H63*$D$3+I63*$E$3+J63*$F$3+K63*$G$3+L63*$H$3+M63*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P63" s="5">
-        <f>MEDIAN(C63,O63,D63)</f>
+      <c r="P63" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q63" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
       <c r="T63" s="2"/>
@@ -3333,9 +3270,8 @@
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
-      <c r="AA63" s="2"/>
-    </row>
-    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -3349,19 +3285,19 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
-      <c r="N64" s="5"/>
+      <c r="N64" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O64" s="5">
-        <f>IF(C64&gt;0,MAX(B64,C64),B64)+E64*$A$3+F64*$B$3+G64*$C$3+H64*$D$3+I64*$E$3+J64*$F$3+K64*$G$3+L64*$H$3+M64*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="P64" s="5">
-        <f>MEDIAN(C64,O64,D64)</f>
+      <c r="P64" s="6">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="Q64" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
@@ -3371,9 +3307,8 @@
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
-      <c r="AA64" s="2"/>
-    </row>
-    <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3388,15 +3323,15 @@
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="5">
-        <f>SUM(P50:P64)</f>
+      <c r="O65" s="5">
+        <f>SUM(O50:O64)</f>
         <v>700</v>
       </c>
-      <c r="Q65" s="6">
-        <f t="shared" si="3"/>
+      <c r="P65" s="6">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
+      <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
       <c r="T65" s="2"/>
@@ -3406,9 +3341,8 @@
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
-      <c r="AA65" s="2"/>
-    </row>
-    <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3435,9 +3369,8 @@
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
-      <c r="AA66" s="2"/>
-    </row>
-    <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3464,9 +3397,8 @@
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
-      <c r="AA67" s="2"/>
-    </row>
-    <row r="68" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3493,9 +3425,8 @@
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
-      <c r="AA68" s="2"/>
-    </row>
-    <row r="69" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3522,9 +3453,8 @@
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-    </row>
-    <row r="70" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3551,9 +3481,8 @@
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
-      <c r="AA70" s="2"/>
-    </row>
-    <row r="71" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3580,9 +3509,8 @@
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-    </row>
-    <row r="72" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3609,9 +3537,8 @@
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
-      <c r="AA72" s="2"/>
-    </row>
-    <row r="73" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3638,9 +3565,8 @@
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
-      <c r="AA73" s="2"/>
-    </row>
-    <row r="74" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3667,9 +3593,8 @@
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-    </row>
-    <row r="75" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3696,9 +3621,8 @@
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-    </row>
-    <row r="76" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3725,9 +3649,8 @@
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
-      <c r="AA76" s="2"/>
-    </row>
-    <row r="77" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3754,9 +3677,8 @@
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-    </row>
-    <row r="78" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3783,9 +3705,8 @@
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-    </row>
-    <row r="79" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3812,9 +3733,8 @@
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
-      <c r="AA79" s="2"/>
-    </row>
-    <row r="80" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3841,9 +3761,8 @@
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
-      <c r="AA80" s="2"/>
-    </row>
-    <row r="81" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3870,9 +3789,8 @@
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-    </row>
-    <row r="82" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3899,9 +3817,8 @@
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
-      <c r="AA82" s="2"/>
-    </row>
-    <row r="83" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3928,9 +3845,8 @@
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-    </row>
-    <row r="84" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3957,9 +3873,8 @@
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-    </row>
-    <row r="85" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3986,9 +3901,8 @@
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
-      <c r="AA85" s="2"/>
-    </row>
-    <row r="86" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -4015,9 +3929,8 @@
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
-      <c r="AA86" s="2"/>
-    </row>
-    <row r="87" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -4044,9 +3957,8 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
-      <c r="AA87" s="2"/>
-    </row>
-    <row r="88" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -4073,9 +3985,8 @@
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
-      <c r="AA88" s="2"/>
-    </row>
-    <row r="89" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -4102,9 +4013,8 @@
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
-      <c r="AA89" s="2"/>
-    </row>
-    <row r="90" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:26" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -4131,9 +4041,8 @@
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
-      <c r="AA90" s="2"/>
-    </row>
-    <row r="91" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -4160,9 +4069,8 @@
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-    </row>
-    <row r="92" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:26" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -4189,9 +4097,8 @@
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-    </row>
-    <row r="93" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:26" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -4218,9 +4125,8 @@
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
-    </row>
-    <row r="94" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:26" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -4247,9 +4153,8 @@
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-    </row>
-    <row r="95" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -4276,9 +4181,8 @@
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-    </row>
-    <row r="96" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -4305,9 +4209,8 @@
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-    </row>
-    <row r="97" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -4334,9 +4237,8 @@
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-    </row>
-    <row r="98" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -4363,9 +4265,8 @@
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-    </row>
-    <row r="99" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -4392,9 +4293,8 @@
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-    </row>
-    <row r="100" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -4421,9 +4321,8 @@
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-    </row>
-    <row r="101" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:26" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -4450,9 +4349,8 @@
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
-      <c r="AA101" s="2"/>
-    </row>
-    <row r="102" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -4479,9 +4377,8 @@
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
-      <c r="AA102" s="2"/>
-    </row>
-    <row r="103" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -4508,9 +4405,8 @@
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
-      <c r="AA103" s="2"/>
-    </row>
-    <row r="104" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -4537,9 +4433,8 @@
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
-      <c r="AA104" s="2"/>
-    </row>
-    <row r="105" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -4566,9 +4461,8 @@
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
-      <c r="AA105" s="2"/>
-    </row>
-    <row r="106" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -4595,9 +4489,8 @@
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
-      <c r="AA106" s="2"/>
-    </row>
-    <row r="107" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -4624,9 +4517,8 @@
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
-      <c r="AA107" s="2"/>
-    </row>
-    <row r="108" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:26" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -4653,9 +4545,8 @@
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
-      <c r="AA108" s="2"/>
-    </row>
-    <row r="109" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -4682,9 +4573,8 @@
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
-      <c r="AA109" s="2"/>
-    </row>
-    <row r="110" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -4711,9 +4601,8 @@
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-    </row>
-    <row r="111" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -4740,9 +4629,8 @@
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-    </row>
-    <row r="112" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -4769,9 +4657,8 @@
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-    </row>
-    <row r="113" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:26" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -4798,9 +4685,8 @@
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-    </row>
-    <row r="114" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -4827,9 +4713,8 @@
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-    </row>
-    <row r="115" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -4856,9 +4741,8 @@
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-    </row>
-    <row r="116" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:26" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -4885,9 +4769,8 @@
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-    </row>
-    <row r="117" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -4914,9 +4797,8 @@
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-    </row>
-    <row r="118" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:26" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -4943,9 +4825,8 @@
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
-    </row>
-    <row r="119" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:26" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4972,9 +4853,8 @@
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
-      <c r="AA119" s="2"/>
-    </row>
-    <row r="120" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:26" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -5001,9 +4881,8 @@
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
-      <c r="AA120" s="2"/>
-    </row>
-    <row r="121" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -5030,9 +4909,8 @@
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
-      <c r="AA121" s="2"/>
-    </row>
-    <row r="122" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -5059,9 +4937,8 @@
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
-      <c r="AA122" s="2"/>
-    </row>
-    <row r="123" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -5088,9 +4965,8 @@
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
-      <c r="AA123" s="2"/>
-    </row>
-    <row r="124" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -5117,9 +4993,8 @@
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
-      <c r="AA124" s="2"/>
-    </row>
-    <row r="125" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -5146,9 +5021,8 @@
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
-      <c r="AA125" s="2"/>
-    </row>
-    <row r="126" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:26" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -5175,9 +5049,8 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
-      <c r="AA126" s="2"/>
-    </row>
-    <row r="127" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -5204,9 +5077,8 @@
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
-      <c r="AA127" s="2"/>
-    </row>
-    <row r="128" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -5233,9 +5105,8 @@
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
-      <c r="AA128" s="2"/>
-    </row>
-    <row r="129" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -5262,9 +5133,8 @@
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
-      <c r="AA129" s="2"/>
-    </row>
-    <row r="130" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -5291,9 +5161,8 @@
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
-      <c r="AA130" s="2"/>
-    </row>
-    <row r="131" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -5320,9 +5189,8 @@
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
-      <c r="AA131" s="2"/>
-    </row>
-    <row r="132" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -5349,9 +5217,8 @@
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
-      <c r="AA132" s="2"/>
-    </row>
-    <row r="133" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -5378,9 +5245,8 @@
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
-      <c r="AA133" s="2"/>
-    </row>
-    <row r="134" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:26" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -5407,9 +5273,8 @@
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
-      <c r="AA134" s="2"/>
-    </row>
-    <row r="135" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -5436,9 +5301,8 @@
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
-      <c r="AA135" s="2"/>
-    </row>
-    <row r="136" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:26" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -5465,9 +5329,8 @@
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
-      <c r="AA136" s="2"/>
-    </row>
-    <row r="137" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -5494,9 +5357,8 @@
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
-      <c r="AA137" s="2"/>
-    </row>
-    <row r="138" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -5523,9 +5385,8 @@
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
-      <c r="AA138" s="2"/>
-    </row>
-    <row r="139" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -5552,9 +5413,8 @@
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
-      <c r="AA139" s="2"/>
-    </row>
-    <row r="140" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -5581,9 +5441,8 @@
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
-      <c r="AA140" s="2"/>
-    </row>
-    <row r="141" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -5610,9 +5469,8 @@
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
-      <c r="AA141" s="2"/>
-    </row>
-    <row r="142" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -5639,9 +5497,8 @@
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
-      <c r="AA142" s="2"/>
-    </row>
-    <row r="143" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -5668,9 +5525,8 @@
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
-      <c r="AA143" s="2"/>
-    </row>
-    <row r="144" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -5697,9 +5553,8 @@
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
-      <c r="AA144" s="2"/>
-    </row>
-    <row r="145" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -5726,9 +5581,8 @@
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
-      <c r="AA145" s="2"/>
-    </row>
-    <row r="146" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -5755,9 +5609,8 @@
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
-      <c r="AA146" s="2"/>
-    </row>
-    <row r="147" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:26" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -5784,9 +5637,8 @@
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
-      <c r="AA147" s="2"/>
-    </row>
-    <row r="148" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -5813,9 +5665,8 @@
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
-      <c r="AA148" s="2"/>
-    </row>
-    <row r="149" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -5842,9 +5693,8 @@
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
-      <c r="AA149" s="2"/>
-    </row>
-    <row r="150" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:26" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -5871,9 +5721,8 @@
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
-      <c r="AA150" s="2"/>
-    </row>
-    <row r="151" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:26" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -5900,9 +5749,8 @@
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
-      <c r="AA151" s="2"/>
-    </row>
-    <row r="152" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -5929,9 +5777,8 @@
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
-      <c r="AA152" s="2"/>
-    </row>
-    <row r="153" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:26" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -5958,9 +5805,8 @@
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
-      <c r="AA153" s="2"/>
-    </row>
-    <row r="154" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -5987,9 +5833,8 @@
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
-      <c r="AA154" s="2"/>
-    </row>
-    <row r="155" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:26" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -6016,9 +5861,8 @@
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
-      <c r="AA155" s="2"/>
-    </row>
-    <row r="156" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:26" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -6045,9 +5889,8 @@
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
-      <c r="AA156" s="2"/>
-    </row>
-    <row r="157" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:26" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -6074,9 +5917,8 @@
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
-      <c r="AA157" s="2"/>
-    </row>
-    <row r="158" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -6103,9 +5945,8 @@
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
-      <c r="AA158" s="2"/>
-    </row>
-    <row r="159" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -6132,9 +5973,8 @@
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
-      <c r="AA159" s="2"/>
-    </row>
-    <row r="160" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -6161,9 +6001,8 @@
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
-      <c r="AA160" s="2"/>
-    </row>
-    <row r="161" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -6190,9 +6029,8 @@
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
-      <c r="AA161" s="2"/>
-    </row>
-    <row r="162" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -6219,9 +6057,8 @@
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
-      <c r="AA162" s="2"/>
-    </row>
-    <row r="163" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:26" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -6248,9 +6085,8 @@
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
-      <c r="AA163" s="2"/>
-    </row>
-    <row r="164" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -6277,9 +6113,8 @@
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
-      <c r="AA164" s="2"/>
-    </row>
-    <row r="165" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -6306,9 +6141,8 @@
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
-      <c r="AA165" s="2"/>
-    </row>
-    <row r="166" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:26" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -6335,9 +6169,8 @@
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
-      <c r="AA166" s="2"/>
-    </row>
-    <row r="167" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:26" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -6364,9 +6197,8 @@
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
-      <c r="AA167" s="2"/>
-    </row>
-    <row r="168" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -6393,9 +6225,8 @@
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
-      <c r="AA168" s="2"/>
-    </row>
-    <row r="169" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:26" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -6422,9 +6253,8 @@
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
-      <c r="AA169" s="2"/>
-    </row>
-    <row r="170" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -6451,9 +6281,8 @@
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
-      <c r="AA170" s="2"/>
-    </row>
-    <row r="171" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -6480,9 +6309,8 @@
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
-      <c r="AA171" s="2"/>
-    </row>
-    <row r="172" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -6509,9 +6337,8 @@
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
-      <c r="AA172" s="2"/>
-    </row>
-    <row r="173" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -6538,9 +6365,8 @@
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
-      <c r="AA173" s="2"/>
-    </row>
-    <row r="174" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -6567,9 +6393,8 @@
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
-      <c r="AA174" s="2"/>
-    </row>
-    <row r="175" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -6596,9 +6421,8 @@
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
-      <c r="AA175" s="2"/>
-    </row>
-    <row r="176" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -6625,9 +6449,8 @@
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
-      <c r="AA176" s="2"/>
-    </row>
-    <row r="177" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -6654,9 +6477,8 @@
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
-      <c r="AA177" s="2"/>
-    </row>
-    <row r="178" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:26" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -6683,9 +6505,8 @@
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
-      <c r="AA178" s="2"/>
-    </row>
-    <row r="179" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -6712,9 +6533,8 @@
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
-      <c r="AA179" s="2"/>
-    </row>
-    <row r="180" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:26" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -6741,9 +6561,8 @@
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
-      <c r="AA180" s="2"/>
-    </row>
-    <row r="181" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:26" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -6770,9 +6589,8 @@
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
-      <c r="AA181" s="2"/>
-    </row>
-    <row r="182" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:26" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -6799,9 +6617,8 @@
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
-      <c r="AA182" s="2"/>
-    </row>
-    <row r="183" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:26" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -6828,9 +6645,8 @@
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
-      <c r="AA183" s="2"/>
-    </row>
-    <row r="184" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:26" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -6857,9 +6673,8 @@
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
-      <c r="AA184" s="2"/>
-    </row>
-    <row r="185" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -6886,9 +6701,8 @@
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
-      <c r="AA185" s="2"/>
-    </row>
-    <row r="186" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -6915,9 +6729,8 @@
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
-      <c r="AA186" s="2"/>
-    </row>
-    <row r="187" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -6944,9 +6757,8 @@
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
-      <c r="AA187" s="2"/>
-    </row>
-    <row r="188" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -6973,9 +6785,8 @@
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
-      <c r="AA188" s="2"/>
-    </row>
-    <row r="189" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -7002,9 +6813,8 @@
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
-      <c r="AA189" s="2"/>
-    </row>
-    <row r="190" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -7031,9 +6841,8 @@
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
-      <c r="AA190" s="2"/>
-    </row>
-    <row r="191" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:26" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -7060,9 +6869,8 @@
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
-      <c r="AA191" s="2"/>
-    </row>
-    <row r="192" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -7089,9 +6897,8 @@
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
-      <c r="AA192" s="2"/>
-    </row>
-    <row r="193" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -7118,9 +6925,8 @@
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
-      <c r="AA193" s="2"/>
-    </row>
-    <row r="194" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -7147,9 +6953,8 @@
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
-      <c r="AA194" s="2"/>
-    </row>
-    <row r="195" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -7176,9 +6981,8 @@
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
-      <c r="AA195" s="2"/>
-    </row>
-    <row r="196" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -7205,9 +7009,8 @@
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
-      <c r="AA196" s="2"/>
-    </row>
-    <row r="197" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:26" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -7234,9 +7037,8 @@
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
-      <c r="AA197" s="2"/>
-    </row>
-    <row r="198" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:26" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -7263,9 +7065,8 @@
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
-      <c r="AA198" s="2"/>
-    </row>
-    <row r="199" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -7292,9 +7093,8 @@
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
-      <c r="AA199" s="2"/>
-    </row>
-    <row r="200" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:26" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -7321,9 +7121,8 @@
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
-      <c r="AA200" s="2"/>
-    </row>
-    <row r="201" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -7350,9 +7149,8 @@
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
-      <c r="AA201" s="2"/>
-    </row>
-    <row r="202" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -7379,9 +7177,8 @@
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
-      <c r="AA202" s="2"/>
-    </row>
-    <row r="203" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -7408,9 +7205,8 @@
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
-      <c r="AA203" s="2"/>
-    </row>
-    <row r="204" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -7437,9 +7233,8 @@
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
-      <c r="AA204" s="2"/>
-    </row>
-    <row r="205" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:26" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -7466,9 +7261,8 @@
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
-      <c r="AA205" s="2"/>
-    </row>
-    <row r="206" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:26" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -7495,9 +7289,8 @@
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
-      <c r="AA206" s="2"/>
-    </row>
-    <row r="207" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:26" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -7524,9 +7317,8 @@
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
-      <c r="AA207" s="2"/>
-    </row>
-    <row r="208" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:26" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -7553,9 +7345,8 @@
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
-      <c r="AA208" s="2"/>
-    </row>
-    <row r="209" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -7582,9 +7373,8 @@
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
-      <c r="AA209" s="2"/>
-    </row>
-    <row r="210" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -7611,9 +7401,8 @@
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
-      <c r="AA210" s="2"/>
-    </row>
-    <row r="211" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -7640,9 +7429,8 @@
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
-      <c r="AA211" s="2"/>
-    </row>
-    <row r="212" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -7669,9 +7457,8 @@
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
-      <c r="AA212" s="2"/>
-    </row>
-    <row r="213" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -7698,9 +7485,8 @@
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
-      <c r="AA213" s="2"/>
-    </row>
-    <row r="214" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -7727,9 +7513,8 @@
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
-      <c r="AA214" s="2"/>
-    </row>
-    <row r="215" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -7756,9 +7541,8 @@
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
-      <c r="AA215" s="2"/>
-    </row>
-    <row r="216" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -7785,9 +7569,8 @@
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
-      <c r="AA216" s="2"/>
-    </row>
-    <row r="217" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:26" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -7814,9 +7597,8 @@
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
-      <c r="AA217" s="2"/>
-    </row>
-    <row r="218" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:26" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -7843,9 +7625,8 @@
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
-      <c r="AA218" s="2"/>
-    </row>
-    <row r="219" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -7872,9 +7653,8 @@
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
-      <c r="AA219" s="2"/>
-    </row>
-    <row r="220" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:26" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -7901,9 +7681,8 @@
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
-      <c r="AA220" s="2"/>
-    </row>
-    <row r="221" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -7930,9 +7709,8 @@
       <c r="X221" s="2"/>
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
-      <c r="AA221" s="2"/>
-    </row>
-    <row r="222" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -7959,9 +7737,8 @@
       <c r="X222" s="2"/>
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
-      <c r="AA222" s="2"/>
-    </row>
-    <row r="223" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -7988,9 +7765,8 @@
       <c r="X223" s="2"/>
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
-      <c r="AA223" s="2"/>
-    </row>
-    <row r="224" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -8017,9 +7793,8 @@
       <c r="X224" s="2"/>
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
-      <c r="AA224" s="2"/>
-    </row>
-    <row r="225" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:26" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -8046,9 +7821,8 @@
       <c r="X225" s="2"/>
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
-      <c r="AA225" s="2"/>
-    </row>
-    <row r="226" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -8075,9 +7849,8 @@
       <c r="X226" s="2"/>
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
-      <c r="AA226" s="2"/>
-    </row>
-    <row r="227" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:26" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -8104,9 +7877,8 @@
       <c r="X227" s="2"/>
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
-      <c r="AA227" s="2"/>
-    </row>
-    <row r="228" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -8133,9 +7905,8 @@
       <c r="X228" s="2"/>
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
-      <c r="AA228" s="2"/>
-    </row>
-    <row r="229" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -8162,9 +7933,8 @@
       <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
-      <c r="AA229" s="2"/>
-    </row>
-    <row r="230" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -8191,9 +7961,8 @@
       <c r="X230" s="2"/>
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
-      <c r="AA230" s="2"/>
-    </row>
-    <row r="231" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -8220,9 +7989,8 @@
       <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
-      <c r="AA231" s="2"/>
-    </row>
-    <row r="232" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -8249,9 +8017,8 @@
       <c r="X232" s="2"/>
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
-      <c r="AA232" s="2"/>
-    </row>
-    <row r="233" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -8278,9 +8045,8 @@
       <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
-      <c r="AA233" s="2"/>
-    </row>
-    <row r="234" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -8307,9 +8073,8 @@
       <c r="X234" s="2"/>
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
-      <c r="AA234" s="2"/>
-    </row>
-    <row r="235" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -8336,9 +8101,8 @@
       <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
-      <c r="AA235" s="2"/>
-    </row>
-    <row r="236" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -8365,9 +8129,8 @@
       <c r="X236" s="2"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
-      <c r="AA236" s="2"/>
-    </row>
-    <row r="237" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -8394,9 +8157,8 @@
       <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
-      <c r="AA237" s="2"/>
-    </row>
-    <row r="238" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -8423,9 +8185,8 @@
       <c r="X238" s="2"/>
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
-      <c r="AA238" s="2"/>
-    </row>
-    <row r="239" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -8452,9 +8213,8 @@
       <c r="X239" s="2"/>
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
-      <c r="AA239" s="2"/>
-    </row>
-    <row r="240" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -8481,9 +8241,8 @@
       <c r="X240" s="2"/>
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
-      <c r="AA240" s="2"/>
-    </row>
-    <row r="241" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -8510,9 +8269,8 @@
       <c r="X241" s="2"/>
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
-      <c r="AA241" s="2"/>
-    </row>
-    <row r="242" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:26" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -8539,9 +8297,8 @@
       <c r="X242" s="2"/>
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
-      <c r="AA242" s="2"/>
-    </row>
-    <row r="243" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:26" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -8568,9 +8325,8 @@
       <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
-      <c r="AA243" s="2"/>
-    </row>
-    <row r="244" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -8597,9 +8353,8 @@
       <c r="X244" s="2"/>
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
-      <c r="AA244" s="2"/>
-    </row>
-    <row r="245" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:26" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -8626,9 +8381,8 @@
       <c r="X245" s="2"/>
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
-      <c r="AA245" s="2"/>
-    </row>
-    <row r="246" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -8655,9 +8409,8 @@
       <c r="X246" s="2"/>
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
-      <c r="AA246" s="2"/>
-    </row>
-    <row r="247" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -8684,9 +8437,8 @@
       <c r="X247" s="2"/>
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
-      <c r="AA247" s="2"/>
-    </row>
-    <row r="248" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -8713,9 +8465,8 @@
       <c r="X248" s="2"/>
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
-      <c r="AA248" s="2"/>
-    </row>
-    <row r="249" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -8742,9 +8493,8 @@
       <c r="X249" s="2"/>
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
-      <c r="AA249" s="2"/>
-    </row>
-    <row r="250" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -8771,9 +8521,8 @@
       <c r="X250" s="2"/>
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
-      <c r="AA250" s="2"/>
-    </row>
-    <row r="251" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -8800,9 +8549,8 @@
       <c r="X251" s="2"/>
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
-      <c r="AA251" s="2"/>
-    </row>
-    <row r="252" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -8829,9 +8577,8 @@
       <c r="X252" s="2"/>
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
-      <c r="AA252" s="2"/>
-    </row>
-    <row r="253" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -8858,9 +8605,8 @@
       <c r="X253" s="2"/>
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
-      <c r="AA253" s="2"/>
-    </row>
-    <row r="254" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:26" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -8887,9 +8633,8 @@
       <c r="X254" s="2"/>
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
-      <c r="AA254" s="2"/>
-    </row>
-    <row r="255" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -8916,9 +8661,8 @@
       <c r="X255" s="2"/>
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
-      <c r="AA255" s="2"/>
-    </row>
-    <row r="256" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:26" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -8945,9 +8689,8 @@
       <c r="X256" s="2"/>
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
-      <c r="AA256" s="2"/>
-    </row>
-    <row r="257" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -8974,9 +8717,8 @@
       <c r="X257" s="2"/>
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
-      <c r="AA257" s="2"/>
-    </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -9003,9 +8745,8 @@
       <c r="X258" s="2"/>
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
-      <c r="AA258" s="2"/>
-    </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -9032,9 +8773,8 @@
       <c r="X259" s="2"/>
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
-      <c r="AA259" s="2"/>
-    </row>
-    <row r="260" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -9061,9 +8801,8 @@
       <c r="X260" s="2"/>
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
-      <c r="AA260" s="2"/>
-    </row>
-    <row r="261" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -9090,9 +8829,8 @@
       <c r="X261" s="2"/>
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
-      <c r="AA261" s="2"/>
-    </row>
-    <row r="262" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -9119,9 +8857,8 @@
       <c r="X262" s="2"/>
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
-      <c r="AA262" s="2"/>
-    </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -9148,9 +8885,8 @@
       <c r="X263" s="2"/>
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
-      <c r="AA263" s="2"/>
-    </row>
-    <row r="264" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -9177,9 +8913,8 @@
       <c r="X264" s="2"/>
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
-      <c r="AA264" s="2"/>
-    </row>
-    <row r="265" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -9206,739 +8941,738 @@
       <c r="X265" s="2"/>
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
-      <c r="AA265" s="2"/>
-    </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9998939-5C99-43CF-BE54-AFA03018F4AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD698411-A99F-4BEF-8B59-8D9B4AB818E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -345,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -364,8 +364,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -693,10 +692,10 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -851,7 +850,7 @@
       <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="17" t="s">
+      <c r="Q6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="2"/>
@@ -890,15 +889,15 @@
         <f t="shared" ref="O7:O27" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="16">
+      <c r="P7" s="15">
         <f t="shared" ref="P7:P27" si="1">MEDIAN(C7,O7,D7)</f>
         <v>120</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f>IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
-        <v>5.8111380145278453E-2</v>
-      </c>
-      <c r="R7" s="15"/>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R7" s="14"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -936,15 +935,15 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="P8" s="16">
+      <c r="P8" s="15">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="Q8" s="18">
-        <f t="shared" ref="Q8:Q27" si="2">IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
-        <v>3.1476997578692496E-2</v>
-      </c>
-      <c r="R8" s="14"/>
+      <c r="Q8" s="17">
+        <f>IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
+        <v>2.9545454545454545E-2</v>
+      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
@@ -986,9 +985,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q9" s="18">
-        <f t="shared" si="2"/>
-        <v>1.6949152542372881E-2</v>
+      <c r="Q9" s="17">
+        <f>IF($A$3 &gt; N9, P9/SUM(P$7:P$27), 0)</f>
+        <v>1.5909090909090907E-2</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1032,9 +1031,9 @@
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q10" s="18">
-        <f t="shared" si="2"/>
-        <v>2.4213075060532687E-2</v>
+      <c r="Q10" s="17">
+        <f>IF($A$3 &gt; N10, P10/SUM(P$7:P$27), 0)</f>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1076,9 +1075,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q11" s="18">
-        <f t="shared" si="2"/>
-        <v>0.14527845036319612</v>
+      <c r="Q11" s="17">
+        <f>IF($A$3 &gt; N11, P11/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1120,9 +1119,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q12" s="18">
-        <f t="shared" si="2"/>
-        <v>4.8426150121065378E-3</v>
+      <c r="Q12" s="17">
+        <f>IF($A$3 &gt; N12, P12/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1164,15 +1163,15 @@
       </c>
       <c r="O13" s="5">
         <f t="shared" si="0"/>
-        <v>25.5</v>
+        <v>24</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q13" s="18">
-        <f t="shared" si="2"/>
-        <v>7.2639225181598066E-3</v>
+      <c r="Q13" s="17">
+        <f>IF($A$3 &gt; N13, P13/SUM(P$7:P$27), 0)</f>
+        <v>6.8181818181818179E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1214,9 +1213,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q14" s="18">
-        <f t="shared" si="2"/>
-        <v>0.14527845036319612</v>
+      <c r="Q14" s="17">
+        <f>IF($A$3 &gt; N14, P14/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1258,15 +1257,15 @@
       </c>
       <c r="O15" s="5">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q15" s="18">
-        <f t="shared" si="2"/>
-        <v>2.4213075060532687E-2</v>
+      <c r="Q15" s="17">
+        <f>IF($A$3 &gt; N15, P15/SUM(P$7:P$27), 0)</f>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1312,9 +1311,9 @@
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="Q16" s="18">
-        <f t="shared" si="2"/>
-        <v>5.8111380145278453E-2</v>
+      <c r="Q16" s="17">
+        <f>IF($A$3 &gt; N16, P16/SUM(P$7:P$27), 0)</f>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1360,9 +1359,9 @@
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="Q17" s="18">
-        <f t="shared" si="2"/>
-        <v>5.3268765133171914E-2</v>
+      <c r="Q17" s="17">
+        <f>IF($A$3 &gt; N17, P17/SUM(P$7:P$27), 0)</f>
+        <v>0.05</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1404,9 +1403,9 @@
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q18" s="18">
-        <f t="shared" si="2"/>
-        <v>2.6634382566585957E-2</v>
+      <c r="Q18" s="17">
+        <f>IF($A$3 &gt; N18, P18/SUM(P$7:P$27), 0)</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1448,9 +1447,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q19" s="18">
-        <f t="shared" si="2"/>
-        <v>4.8426150121065374E-2</v>
+      <c r="Q19" s="17">
+        <f>IF($A$3 &gt; N19, P19/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1492,9 +1491,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Q20" s="18">
-        <f t="shared" si="2"/>
-        <v>3.8740920096852302E-2</v>
+      <c r="Q20" s="17">
+        <f>IF($A$3 &gt; N20, P20/SUM(P$7:P$27), 0)</f>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1536,9 +1535,9 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q21" s="18">
-        <f t="shared" si="2"/>
-        <v>0.14527845036319612</v>
+      <c r="Q21" s="17">
+        <f>IF($A$3 &gt; N21, P21/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1586,9 +1585,9 @@
         <f t="shared" si="1"/>
         <v>195</v>
       </c>
-      <c r="Q22" s="18">
-        <f t="shared" si="2"/>
-        <v>9.4430992736077482E-2</v>
+      <c r="Q22" s="17">
+        <f>IF($A$3 &gt; N22, P22/SUM(P$7:P$27), 0)</f>
+        <v>8.8636363636363638E-2</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1632,9 +1631,9 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q23" s="18">
-        <f t="shared" si="2"/>
-        <v>4.8426150121065374E-2</v>
+      <c r="Q23" s="17">
+        <f>IF($A$3 &gt; N23, P23/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1676,9 +1675,9 @@
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q24" s="18">
-        <f t="shared" si="2"/>
-        <v>2.9055690072639227E-2</v>
+      <c r="Q24" s="17">
+        <f>IF($A$3 &gt; N24, P24/SUM(P$7:P$27), 0)</f>
+        <v>2.7272727272727271E-2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1692,31 +1691,41 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>50</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>20</v>
+      </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>25</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="18">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="Q25" s="17">
+        <f>IF($A$3 &gt; N25, P25/SUM(P$7:P$27), 0)</f>
+        <v>6.1363636363636363E-2</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1752,8 +1761,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="18">
-        <f t="shared" si="2"/>
+      <c r="Q26" s="17">
+        <f>IF($A$3 &gt; N26, P26/SUM(P$7:P$27), 0)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1790,8 +1799,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="18">
-        <f t="shared" si="2"/>
+      <c r="Q27" s="17">
+        <f>IF($A$3 &gt; N27, P27/SUM(P$7:P$27), 0)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1823,10 +1832,10 @@
       <c r="O28" s="2"/>
       <c r="P28" s="5">
         <f>SUM(P7:P27)</f>
-        <v>2065</v>
+        <v>2200</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" ref="Q12:Q28" si="3">P28/SUM(P$7:P$27)</f>
+        <f>P28/SUM(P$7:P$27)</f>
         <v>1</v>
       </c>
       <c r="R28" s="2"/>
@@ -1956,16 +1965,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:O47" si="4">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <f t="shared" ref="O31:O47" si="2">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" ref="P31:P47" si="5">MEDIAN(C31,O31,D31)</f>
+        <f t="shared" ref="P31:P47" si="3">MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
       <c r="Q31" s="6">
         <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
-        <v>0.11176306230790724</v>
+        <v>0.11344299489506524</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2002,16 +2011,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32" si="6">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="O32" si="4">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>100</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" ref="P32" si="7">MEDIAN(C32,O32,D32)</f>
+        <f t="shared" ref="P32" si="5">MEDIAN(C32,O32,D32)</f>
         <v>100</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32:Q50" si="8">IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
-        <v>5.5881531153953619E-2</v>
+        <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2046,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="8"/>
-        <v>5.5881531153953619E-2</v>
+        <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2092,16 +2101,16 @@
         <v>6</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34" si="9">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <f t="shared" ref="O34" si="6">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
         <v>175</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34" si="10">MEDIAN(C34,O34,D34)</f>
+        <f t="shared" ref="P34" si="7">MEDIAN(C34,O34,D34)</f>
         <v>175</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="8"/>
-        <v>9.7792679519418835E-2</v>
+        <f>IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
+        <v>9.9262620533182078E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2119,15 +2128,17 @@
         <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
@@ -2140,16 +2151,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="4"/>
-        <v>85</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="5"/>
-        <v>85</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="8"/>
-        <v>4.7499301480860574E-2</v>
+        <f>IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
+        <v>5.9557572319909248E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2184,15 +2195,15 @@
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="8"/>
+        <f>IF($A$3 &gt; N36, P36/SUM(P$31:P$50), 0)</f>
         <v>0</v>
       </c>
       <c r="R36" s="2"/>
@@ -2228,15 +2239,15 @@
         <v>1</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="8"/>
+        <f>IF($A$3 &gt; N37, P37/SUM(P$31:P$50), 0)</f>
         <v>0</v>
       </c>
       <c r="R37" s="2"/>
@@ -2280,16 +2291,16 @@
         <v>1</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="4"/>
-        <v>119</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="P38" s="5">
-        <f t="shared" si="5"/>
-        <v>119</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="8"/>
-        <v>6.6499022073204808E-2</v>
+        <f>IF($A$3 &gt; N38, P38/SUM(P$31:P$50), 0)</f>
+        <v>4.1973908111174137E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2328,16 +2339,16 @@
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="P39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="8"/>
-        <v>5.5881531153953619E-2</v>
+        <f>IF($A$3 &gt; N39, P39/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2376,16 +2387,16 @@
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
       <c r="P40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="8"/>
-        <v>4.7499301480860574E-2</v>
+        <f>IF($A$3 &gt; N40, P40/SUM(P$31:P$50), 0)</f>
+        <v>4.821327283040272E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2424,16 +2435,16 @@
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>65</v>
       </c>
       <c r="P41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="8"/>
-        <v>3.6322995250069851E-2</v>
+        <f>IF($A$3 &gt; N41, P41/SUM(P$31:P$50), 0)</f>
+        <v>3.6868973340896199E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2470,16 +2481,16 @@
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="P42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="8"/>
-        <v>0.10058675607711651</v>
+        <f>IF($A$3 &gt; N42, P42/SUM(P$31:P$50), 0)</f>
+        <v>0.1020986954055587</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2522,16 +2533,16 @@
         <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="4"/>
-        <v>55.5</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="P43" s="5">
-        <f t="shared" si="5"/>
-        <v>55.5</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="8"/>
-        <v>3.1014249790444259E-2</v>
+        <f>IF($A$3 &gt; N43, P43/SUM(P$31:P$50), 0)</f>
+        <v>3.0629608621667612E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2568,16 +2579,16 @@
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="P44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="8"/>
-        <v>6.1469684269348977E-2</v>
+        <f>IF($A$3 &gt; N44, P44/SUM(P$31:P$50), 0)</f>
+        <v>6.2393647192285878E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2614,16 +2625,16 @@
         <v>8</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="P45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="8"/>
-        <v>5.0293378038558254E-2</v>
+        <f>IF($A$3 &gt; N45, P45/SUM(P$31:P$50), 0)</f>
+        <v>5.104934770277935E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2664,16 +2675,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>145</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="8"/>
-        <v>8.1028220173232746E-2</v>
+        <f>IF($A$3 &gt; N46, P46/SUM(P$31:P$50), 0)</f>
+        <v>8.2246171298922296E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2710,16 +2721,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>115</v>
       </c>
       <c r="P47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>115</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" si="8"/>
-        <v>6.4263760827046656E-2</v>
+        <f>IF($A$3 &gt; N47, P47/SUM(P$31:P$50), 0)</f>
+        <v>6.5229722064662501E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2756,16 +2767,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <f t="shared" ref="O48:O50" si="8">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>65</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:P50" si="12">MEDIAN(C48,O48,D48)</f>
+        <f t="shared" ref="P48:P50" si="9">MEDIAN(C48,O48,D48)</f>
         <v>65</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" si="8"/>
-        <v>3.6322995250069851E-2</v>
+        <f>IF($A$3 &gt; N48, P48/SUM(P$31:P$50), 0)</f>
+        <v>3.6868973340896199E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2796,15 +2807,15 @@
         <v>1</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f t="shared" si="8"/>
+        <f>IF($A$3 &gt; N49, P49/SUM(P$31:P$50), 0)</f>
         <v>0</v>
       </c>
       <c r="R49" s="2"/>
@@ -2836,15 +2847,15 @@
         <v>1</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f t="shared" si="8"/>
+        <f>IF($A$3 &gt; N50, P50/SUM(P$31:P$50), 0)</f>
         <v>0</v>
       </c>
       <c r="R50" s="2"/>
@@ -2876,7 +2887,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="5">
         <f>SUM(P31:P50)</f>
-        <v>1789.5</v>
+        <v>1763</v>
       </c>
       <c r="Q51" s="6">
         <f>P51/SUM(P$31:P$50)</f>
@@ -3009,16 +3020,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O67" si="13">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="O54:O67" si="10">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ref="P54:P67" si="14">MEDIAN(C54,O54,D54)</f>
+        <f t="shared" ref="P54:P67" si="11">MEDIAN(C54,O54,D54)</f>
         <v>135</v>
       </c>
       <c r="Q54" s="6">
         <f>IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
-        <v>0.18467852257181944</v>
+        <v>0.16343825665859565</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3057,16 +3068,16 @@
         <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" ref="Q55:Q67" si="15">IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
-        <v>0.10259917920656635</v>
+        <f>IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
+        <v>9.0799031476997583E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3105,16 +3116,16 @@
         <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>125</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>125</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="15"/>
-        <v>0.17099863201094392</v>
+        <f>IF($A$3 &gt; N56, P56/SUM(P$54:P$67), 0)</f>
+        <v>0.1513317191283293</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3153,16 +3164,16 @@
         <v>8</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="15"/>
-        <v>0.1436388508891929</v>
+        <f>IF($A$3 &gt; N57, P57/SUM(P$54:P$67), 0)</f>
+        <v>0.1271186440677966</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3201,16 +3212,16 @@
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>95</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>95</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="15"/>
-        <v>0.12995896032831739</v>
+        <f>IF($A$3 &gt; N58, P58/SUM(P$54:P$67), 0)</f>
+        <v>0.11501210653753027</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3251,16 +3262,16 @@
         <v>4</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="15"/>
-        <v>9.575923392612859E-2</v>
+        <f>IF($A$3 &gt; N59, P59/SUM(P$54:P$67), 0)</f>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3297,16 +3308,16 @@
         <v>8</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>61</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="15"/>
-        <v>8.3447332421340628E-2</v>
+        <f>IF($A$3 &gt; N60, P60/SUM(P$54:P$67), 0)</f>
+        <v>7.3849878934624691E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3343,16 +3354,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>65</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>65</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="15"/>
-        <v>8.8919288645690833E-2</v>
+        <f>IF($A$3 &gt; N61, P61/SUM(P$54:P$67), 0)</f>
+        <v>7.8692493946731237E-2</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3366,31 +3377,43 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="4">
+        <v>30</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4">
+        <v>20</v>
+      </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4">
+        <v>15</v>
+      </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4">
+        <v>20</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
       <c r="O62" s="5">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="14"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>95</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N62, P62/SUM(P$54:P$67), 0)</f>
+        <v>0.11501210653753027</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3419,15 +3442,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($A$3 &gt; N63, P63/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3457,15 +3480,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($A$3 &gt; N64, P64/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3495,15 +3518,15 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($A$3 &gt; N65, P65/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R65" s="2"/>
@@ -3533,15 +3556,15 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q66" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($A$3 &gt; N66, P66/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R66" s="2"/>
@@ -3571,15 +3594,15 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="15"/>
+        <f>IF($A$3 &gt; N67, P67/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R67" s="2"/>
@@ -3611,10 +3634,10 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>731</v>
+        <v>826</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q56:Q68" si="16">P68/SUM(P$54:P$67)</f>
+        <f t="shared" ref="Q68" si="12">P68/SUM(P$54:P$67)</f>
         <v>1</v>
       </c>
       <c r="R68" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9657EC88-D63A-4A7A-A2CC-092D534D34DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD698411-A99F-4BEF-8B59-8D9B4AB818E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>Assumed Personnel</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Moderate</t>
   </si>
   <si>
-    <t>Communication Blackout</t>
-  </si>
-  <si>
     <t>Electrical Storm</t>
   </si>
   <si>
@@ -165,12 +162,6 @@
   </si>
   <si>
     <t>Ion Storm</t>
-  </si>
-  <si>
-    <t>Prison Break</t>
-  </si>
-  <si>
-    <t>Containment Error - Virology</t>
   </si>
   <si>
     <t>Containment Error - Xenobiology</t>
@@ -186,9 +177,6 @@
   </si>
   <si>
     <t>Moderate Spider Infestation</t>
-  </si>
-  <si>
-    <t>Viral Infection</t>
   </si>
   <si>
     <t>Moderate Infestation</t>
@@ -219,6 +207,21 @@
   </si>
   <si>
     <t>Min Pop</t>
+  </si>
+  <si>
+    <t>Comet Expulsion</t>
+  </si>
+  <si>
+    <t>Containment Error - Bridge</t>
+  </si>
+  <si>
+    <t>Containment Error - Security</t>
+  </si>
+  <si>
+    <t>Comms Blackout</t>
+  </si>
+  <si>
+    <t>Comms Blackout - Damage</t>
   </si>
 </sst>
 </file>
@@ -261,7 +264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -284,11 +287,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -302,9 +359,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,13 +583,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
-  <dimension ref="A1:AA994"/>
+  <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
     <col min="2" max="2" width="6.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
@@ -627,16 +692,16 @@
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <f>SUM(B3:I3)*1.5</f>
-        <v>34.5</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -648,10 +713,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
         <v>4</v>
-      </c>
-      <c r="I3" s="4">
-        <v>6</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -777,7 +842,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>17</v>
@@ -785,7 +850,7 @@
       <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="R6" s="2"/>
@@ -817,20 +882,22 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="5"/>
+      <c r="N7" s="5">
+        <v>0</v>
+      </c>
       <c r="O7" s="5">
-        <f>SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
+        <f t="shared" ref="O7:O27" si="0">SUM(B7+E7*$A$3+F7*$B$3+G7*$C$3+H7*$D$3+I7*$E$3+J7*$F$3+K7*$G$3+L7*$H$3+M7*$I$3)</f>
         <v>120</v>
       </c>
-      <c r="P7" s="5">
-        <f>MEDIAN(C7,O7,D7)</f>
+      <c r="P7" s="15">
+        <f t="shared" ref="P7:P27" si="1">MEDIAN(C7,O7,D7)</f>
         <v>120</v>
       </c>
-      <c r="Q7" s="6">
-        <f t="shared" ref="Q7:Q11" si="0">P7/SUM(P$7:P$27)</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="R7" s="2"/>
+      <c r="Q7" s="17">
+        <f>IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R7" s="14"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
@@ -865,16 +932,16 @@
         <v>1</v>
       </c>
       <c r="O8" s="5">
-        <f>SUM(B8+E8*$A$3+F8*$B$3+G8*$C$3+H8*$D$3+I8*$E$3+J8*$F$3+K8*$G$3+L8*$H$3+M8*$I$3)</f>
-        <v>80</v>
-      </c>
-      <c r="P8" s="5">
-        <f>MEDIAN(C8,O8,D8)</f>
-        <v>80</v>
-      </c>
-      <c r="Q8" s="6">
         <f t="shared" si="0"/>
-        <v>3.9215686274509803E-2</v>
+        <v>65</v>
+      </c>
+      <c r="P8" s="15">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="Q8" s="17">
+        <f>IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
+        <v>2.9545454545454545E-2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -911,16 +978,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="5">
-        <f>SUM(B9+E9*$A$3+F9*$B$3+G9*$C$3+H9*$D$3+I9*$E$3+J9*$F$3+K9*$G$3+L9*$H$3+M9*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="P9" s="5">
-        <f>MEDIAN(C9,O9,D9)</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="Q9" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7156862745098041E-2</v>
+      <c r="Q9" s="17">
+        <f>IF($A$3 &gt; N9, P9/SUM(P$7:P$27), 0)</f>
+        <v>1.5909090909090907E-2</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -957,16 +1024,16 @@
         <v>1</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM(B10+E10*$A$3+F10*$B$3+G10*$C$3+H10*$D$3+I10*$E$3+J10*$F$3+K10*$G$3+L10*$H$3+M10*$I$3)</f>
-        <v>60</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="P10" s="5">
-        <f>MEDIAN(C10,O10,D10)</f>
-        <v>60</v>
-      </c>
-      <c r="Q10" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9411764705882353E-2</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="Q10" s="17">
+        <f>IF($A$3 &gt; N10, P10/SUM(P$7:P$27), 0)</f>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1001,16 +1068,16 @@
         <v>1</v>
       </c>
       <c r="O11" s="5">
-        <f>SUM(B11+E11*$A$3+F11*$B$3+G11*$C$3+H11*$D$3+I11*$E$3+J11*$F$3+K11*$G$3+L11*$H$3+M11*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P11" s="5">
-        <f>MEDIAN(C11,O11,D11)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q11" s="6">
-        <f t="shared" si="0"/>
-        <v>0.14705882352941177</v>
+      <c r="Q11" s="17">
+        <f>IF($A$3 &gt; N11, P11/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1045,16 +1112,16 @@
         <v>1</v>
       </c>
       <c r="O12" s="8">
-        <f>SUM(B12+E12*$A$3+F12*$B$3+G12*$C$3+H12*$D$3+I12*$E$3+J12*$F$3+K12*$G$3+L12*$H$3+M12*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="P12" s="8">
-        <f>MEDIAN(C12,O12,D12)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="Q12" s="9">
-        <f t="shared" ref="Q12:Q28" si="1">P12/SUM(P$7:P$27)</f>
-        <v>4.9019607843137254E-3</v>
+      <c r="Q12" s="17">
+        <f>IF($A$3 &gt; N12, P12/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545452E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1095,16 +1162,16 @@
         <v>1</v>
       </c>
       <c r="O13" s="5">
-        <f>SUM(B13+E13*$A$3+F13*$B$3+G13*$C$3+H13*$D$3+I13*$E$3+J13*$F$3+K13*$G$3+L13*$H$3+M13*$I$3)</f>
-        <v>34.5</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
       <c r="P13" s="5">
-        <f>MEDIAN(C13,O13,D13)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="Q13" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3529411764705881E-3</v>
+      <c r="Q13" s="17">
+        <f>IF($A$3 &gt; N13, P13/SUM(P$7:P$27), 0)</f>
+        <v>6.8181818181818179E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1139,16 +1206,16 @@
         <v>1</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM(B14+E14*$A$3+F14*$B$3+G14*$C$3+H14*$D$3+I14*$E$3+J14*$F$3+K14*$G$3+L14*$H$3+M14*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P14" s="5">
-        <f>MEDIAN(C14,O14,D14)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q14" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+      <c r="Q14" s="17">
+        <f>IF($A$3 &gt; N14, P14/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1189,16 +1256,16 @@
         <v>1</v>
       </c>
       <c r="O15" s="5">
-        <f>SUM(B15+E15*$A$3+F15*$B$3+G15*$C$3+H15*$D$3+I15*$E$3+J15*$F$3+K15*$G$3+L15*$H$3+M15*$I$3)</f>
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>96</v>
       </c>
       <c r="P15" s="5">
-        <f>MEDIAN(C15,O15,D15)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="Q15" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4509803921568627E-2</v>
+      <c r="Q15" s="17">
+        <f>IF($A$3 &gt; N15, P15/SUM(P$7:P$27), 0)</f>
+        <v>2.2727272727272728E-2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1237,16 +1304,16 @@
         <v>1</v>
       </c>
       <c r="O16" s="5">
-        <f>SUM(B16+E16*$A$3+F16*$B$3+G16*$C$3+H16*$D$3+I16*$E$3+J16*$F$3+K16*$G$3+L16*$H$3+M16*$I$3)</f>
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>120</v>
       </c>
       <c r="P16" s="5">
-        <f>MEDIAN(C16,O16,D16)</f>
-        <v>140</v>
-      </c>
-      <c r="Q16" s="6">
         <f t="shared" si="1"/>
-        <v>6.8627450980392163E-2</v>
+        <v>120</v>
+      </c>
+      <c r="Q16" s="17">
+        <f>IF($A$3 &gt; N16, P16/SUM(P$7:P$27), 0)</f>
+        <v>5.4545454545454543E-2</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1285,16 +1352,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="5">
-        <f>SUM(B17+E17*$A$3+F17*$B$3+G17*$C$3+H17*$D$3+I17*$E$3+J17*$F$3+K17*$G$3+L17*$H$3+M17*$I$3)</f>
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>110</v>
       </c>
       <c r="P17" s="5">
-        <f>MEDIAN(C17,O17,D17)</f>
-        <v>115</v>
-      </c>
-      <c r="Q17" s="6">
         <f t="shared" si="1"/>
-        <v>5.6372549019607844E-2</v>
+        <v>110</v>
+      </c>
+      <c r="Q17" s="17">
+        <f>IF($A$3 &gt; N17, P17/SUM(P$7:P$27), 0)</f>
+        <v>0.05</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1329,16 +1396,16 @@
         <v>1</v>
       </c>
       <c r="O18" s="5">
-        <f>SUM(B18+E18*$A$3+F18*$B$3+G18*$C$3+H18*$D$3+I18*$E$3+J18*$F$3+K18*$G$3+L18*$H$3+M18*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="P18" s="5">
-        <f>MEDIAN(C18,O18,D18)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="Q18" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6960784313725492E-2</v>
+      <c r="Q18" s="17">
+        <f>IF($A$3 &gt; N18, P18/SUM(P$7:P$27), 0)</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1373,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="O19" s="5">
-        <f>SUM(B19+E19*$A$3+F19*$B$3+G19*$C$3+H19*$D$3+I19*$E$3+J19*$F$3+K19*$G$3+L19*$H$3+M19*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="P19" s="5">
-        <f>MEDIAN(C19,O19,D19)</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="1"/>
-        <v>4.9019607843137254E-2</v>
+      <c r="Q19" s="17">
+        <f>IF($A$3 &gt; N19, P19/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1417,16 +1484,16 @@
         <v>1</v>
       </c>
       <c r="O20" s="5">
-        <f>SUM(B20+E20*$A$3+F20*$B$3+G20*$C$3+H20*$D$3+I20*$E$3+J20*$F$3+K20*$G$3+L20*$H$3+M20*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="P20" s="5">
-        <f>MEDIAN(C20,O20,D20)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="Q20" s="6">
-        <f t="shared" si="1"/>
-        <v>3.9215686274509803E-2</v>
+      <c r="Q20" s="17">
+        <f>IF($A$3 &gt; N20, P20/SUM(P$7:P$27), 0)</f>
+        <v>3.6363636363636362E-2</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1461,16 +1528,16 @@
         <v>1</v>
       </c>
       <c r="O21" s="5">
-        <f>SUM(B21+E21*$A$3+F21*$B$3+G21*$C$3+H21*$D$3+I21*$E$3+J21*$F$3+K21*$G$3+L21*$H$3+M21*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="P21" s="5">
-        <f>MEDIAN(C21,O21,D21)</f>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="Q21" s="6">
-        <f t="shared" si="1"/>
-        <v>0.14705882352941177</v>
+      <c r="Q21" s="17">
+        <f>IF($A$3 &gt; N21, P21/SUM(P$7:P$27), 0)</f>
+        <v>0.13636363636363635</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1498,25 +1565,29 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4">
-        <v>30</v>
-      </c>
-      <c r="K22" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="K22" s="4">
+        <v>15</v>
+      </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="M22" s="4">
+        <v>15</v>
+      </c>
       <c r="N22" s="5">
         <v>1</v>
       </c>
       <c r="O22" s="5">
-        <f>SUM(B22+E22*$A$3+F22*$B$3+G22*$C$3+H22*$D$3+I22*$E$3+J22*$F$3+K22*$G$3+L22*$H$3+M22*$I$3)</f>
-        <v>90</v>
+        <f t="shared" si="0"/>
+        <v>195</v>
       </c>
       <c r="P22" s="5">
-        <f>MEDIAN(C22,O22,D22)</f>
-        <v>90</v>
-      </c>
-      <c r="Q22" s="6">
         <f t="shared" si="1"/>
-        <v>4.4117647058823532E-2</v>
+        <v>195</v>
+      </c>
+      <c r="Q22" s="17">
+        <f>IF($A$3 &gt; N22, P22/SUM(P$7:P$27), 0)</f>
+        <v>8.8636363636363638E-2</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1553,16 +1624,16 @@
         <v>1</v>
       </c>
       <c r="O23" s="5">
-        <f>SUM(B23+E23*$A$3+F23*$B$3+G23*$C$3+H23*$D$3+I23*$E$3+J23*$F$3+K23*$G$3+L23*$H$3+M23*$I$3)</f>
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>100</v>
       </c>
       <c r="P23" s="5">
-        <f>MEDIAN(C23,O23,D23)</f>
-        <v>130</v>
-      </c>
-      <c r="Q23" s="6">
         <f t="shared" si="1"/>
-        <v>6.3725490196078427E-2</v>
+        <v>100</v>
+      </c>
+      <c r="Q23" s="17">
+        <f>IF($A$3 &gt; N23, P23/SUM(P$7:P$27), 0)</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1597,16 +1668,16 @@
         <v>1</v>
       </c>
       <c r="O24" s="5">
-        <f>SUM(B24+E24*$A$3+F24*$B$3+G24*$C$3+H24*$D$3+I24*$E$3+J24*$F$3+K24*$G$3+L24*$H$3+M24*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="P24" s="5">
-        <f>MEDIAN(C24,O24,D24)</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="Q24" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9411764705882353E-2</v>
+      <c r="Q24" s="17">
+        <f>IF($A$3 &gt; N24, P24/SUM(P$7:P$27), 0)</f>
+        <v>2.7272727272727271E-2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1620,31 +1691,41 @@
       <c r="AA24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="4">
+        <v>50</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="H25" s="4">
+        <v>20</v>
+      </c>
       <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="J25" s="4">
+        <v>25</v>
+      </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="5"/>
+      <c r="N25" s="5">
+        <v>1</v>
+      </c>
       <c r="O25" s="5">
-        <f>SUM(B25+E25*$A$3+F25*$B$3+G25*$C$3+H25*$D$3+I25*$E$3+J25*$F$3+K25*$G$3+L25*$H$3+M25*$I$3)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>135</v>
       </c>
       <c r="P25" s="5">
-        <f>MEDIAN(C25,O25,D25)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="Q25" s="17">
+        <f>IF($A$3 &gt; N25, P25/SUM(P$7:P$27), 0)</f>
+        <v>6.1363636363636363E-2</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1673,15 +1754,15 @@
       <c r="M26" s="4"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5">
-        <f>SUM(B26+E26*$A$3+F26*$B$3+G26*$C$3+H26*$D$3+I26*$E$3+J26*$F$3+K26*$G$3+L26*$H$3+M26*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P26" s="5">
-        <f>MEDIAN(C26,O26,D26)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q26" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q26" s="17">
+        <f>IF($A$3 &gt; N26, P26/SUM(P$7:P$27), 0)</f>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1711,15 +1792,15 @@
       <c r="M27" s="4"/>
       <c r="N27" s="5"/>
       <c r="O27" s="5">
-        <f>SUM(B27+E27*$A$3+F27*$B$3+G27*$C$3+H27*$D$3+I27*$E$3+J27*$F$3+K27*$G$3+L27*$H$3+M27*$I$3)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P27" s="5">
-        <f>MEDIAN(C27,O27,D27)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="6">
-        <f t="shared" si="1"/>
+      <c r="Q27" s="17">
+        <f>IF($A$3 &gt; N27, P27/SUM(P$7:P$27), 0)</f>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1751,10 +1832,10 @@
       <c r="O28" s="2"/>
       <c r="P28" s="5">
         <f>SUM(P7:P27)</f>
-        <v>2040</v>
+        <v>2200</v>
       </c>
       <c r="Q28" s="6">
-        <f t="shared" si="1"/>
+        <f>P28/SUM(P$7:P$27)</f>
         <v>1</v>
       </c>
       <c r="R28" s="2"/>
@@ -1840,7 +1921,7 @@
         <v>9</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="O30" s="3" t="s">
         <v>17</v>
@@ -1880,18 +1961,20 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="5"/>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
       <c r="O31" s="5">
-        <f>IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <f t="shared" ref="O31:O47" si="2">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
       <c r="P31" s="5">
-        <f>MEDIAN(C31,O31,D31)</f>
+        <f t="shared" ref="P31:P47" si="3">MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
       <c r="Q31" s="6">
-        <f>P31/SUM(P$31:P$47)</f>
-        <v>9.7967180994366881E-2</v>
+        <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
+        <v>0.11344299489506524</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1906,10 +1989,10 @@
     </row>
     <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B32" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -1919,23 +2002,25 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
+      <c r="K32" s="4">
+        <v>25</v>
+      </c>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="5">
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <f>IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
-        <v>60</v>
+        <f t="shared" ref="O32" si="4">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <v>100</v>
       </c>
       <c r="P32" s="5">
-        <f>MEDIAN(C32,O32,D32)</f>
-        <v>60</v>
+        <f t="shared" ref="P32" si="5">MEDIAN(C32,O32,D32)</f>
+        <v>100</v>
       </c>
       <c r="Q32" s="6">
-        <f t="shared" ref="Q32:Q48" si="2">P32/SUM(P$31:P$47)</f>
-        <v>2.9390154298310066E-2</v>
+        <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -1950,23 +2035,19 @@
     </row>
     <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B33" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="4">
-        <v>5</v>
-      </c>
+      <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4">
-        <v>20</v>
-      </c>
+      <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
@@ -1974,16 +2055,16 @@
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f>IF(C33&gt;0,MAX(B33,C33),B33)+E33*$A$3+F33*$B$3+G33*$C$3+H33*$D$3+I33*$E$3+J33*$F$3+K33*$G$3+L33*$H$3+M33*$I$3</f>
-        <v>90</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="P33" s="5">
-        <f>MEDIAN(C33,O33,D33)</f>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="Q33" s="6">
-        <f t="shared" si="2"/>
-        <v>4.4085231447465102E-2</v>
+        <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1998,7 +2079,7 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="B34" s="4">
         <v>100</v>
@@ -2008,26 +2089,28 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="H34" s="4">
+        <v>25</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
       <c r="N34" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O34" s="5">
-        <f>IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
-        <v>100</v>
+        <f t="shared" ref="O34" si="6">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <v>175</v>
       </c>
       <c r="P34" s="5">
-        <f>MEDIAN(C34,O34,D34)</f>
-        <v>100</v>
+        <f t="shared" ref="P34" si="7">MEDIAN(C34,O34,D34)</f>
+        <v>175</v>
       </c>
       <c r="Q34" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
+        <v>9.9262620533182078E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2042,19 +2125,25 @@
     </row>
     <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4">
+        <v>10</v>
+      </c>
       <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="H35" s="4">
+        <v>15</v>
+      </c>
       <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="J35" s="4">
+        <v>20</v>
+      </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
@@ -2062,16 +2151,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f>IF(C35&gt;0,MAX(B35,C35),B35)+E35*$A$3+F35*$B$3+G35*$C$3+H35*$D$3+I35*$E$3+J35*$F$3+K35*$G$3+L35*$H$3+M35*$I$3</f>
-        <v>80</v>
+        <f t="shared" si="2"/>
+        <v>105</v>
       </c>
       <c r="P35" s="5">
-        <f>MEDIAN(C35,O35,D35)</f>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="Q35" s="6">
-        <f t="shared" si="2"/>
-        <v>3.9186872397746757E-2</v>
+        <f>IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
+        <v>5.9557572319909248E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2086,7 +2175,7 @@
     </row>
     <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B36" s="4">
         <v>0</v>
@@ -2094,36 +2183,28 @@
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4">
-        <v>45</v>
-      </c>
-      <c r="G36" s="4">
-        <v>25</v>
-      </c>
-      <c r="H36" s="4">
-        <v>6</v>
-      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4">
-        <v>6</v>
-      </c>
+      <c r="L36" s="4"/>
       <c r="M36" s="4"/>
       <c r="N36" s="5">
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f>IF(C36&gt;0,MAX(B36,C36),B36)+E36*$A$3+F36*$B$3+G36*$C$3+H36*$D$3+I36*$E$3+J36*$F$3+K36*$G$3+L36*$H$3+M36*$I$3</f>
-        <v>143</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f>MEDIAN(C36,O36,D36)</f>
-        <v>143</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f t="shared" si="2"/>
-        <v>7.0046534410972319E-2</v>
+        <f>IF($A$3 &gt; N36, P36/SUM(P$31:P$50), 0)</f>
+        <v>0</v>
       </c>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -2138,7 +2219,7 @@
     </row>
     <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B37" s="4">
         <v>0</v>
@@ -2147,31 +2228,27 @@
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="4">
-        <v>20</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="4">
-        <v>15</v>
-      </c>
+      <c r="M37" s="4"/>
       <c r="N37" s="5">
         <v>1</v>
       </c>
       <c r="O37" s="5">
-        <f>IF(C37&gt;0,MAX(B37,C37),B37)+E37*$A$3+F37*$B$3+G37*$C$3+H37*$D$3+I37*$E$3+J37*$F$3+K37*$G$3+L37*$H$3+M37*$I$3</f>
-        <v>130</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f>MEDIAN(C37,O37,D37)</f>
-        <v>130</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f t="shared" si="2"/>
-        <v>6.3678667646338477E-2</v>
+        <f>IF($A$3 &gt; N37, P37/SUM(P$31:P$50), 0)</f>
+        <v>0</v>
       </c>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2186,7 +2263,7 @@
     </row>
     <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -2194,32 +2271,36 @@
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4">
+        <v>45</v>
+      </c>
       <c r="G38" s="4">
-        <v>20</v>
-      </c>
-      <c r="H38" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="H38" s="4">
+        <v>6</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4">
-        <v>15</v>
-      </c>
-      <c r="L38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4">
+        <v>6</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="5">
         <v>1</v>
       </c>
       <c r="O38" s="5">
-        <f>IF(C38&gt;0,MAX(B38,C38),B38)+E38*$A$3+F38*$B$3+G38*$C$3+H38*$D$3+I38*$E$3+J38*$F$3+K38*$G$3+L38*$H$3+M38*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="P38" s="5">
-        <f>MEDIAN(C38,O38,D38)</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>74</v>
       </c>
       <c r="Q38" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>IF($A$3 &gt; N38, P38/SUM(P$31:P$50), 0)</f>
+        <v>4.1973908111174137E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2234,7 +2315,7 @@
     </row>
     <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B39" s="4">
         <v>0</v>
@@ -2250,24 +2331,24 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4">
         <v>15</v>
       </c>
-      <c r="M39" s="4"/>
       <c r="N39" s="5">
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f>IF(C39&gt;0,MAX(B39,C39),B39)+E39*$A$3+F39*$B$3+G39*$C$3+H39*$D$3+I39*$E$3+J39*$F$3+K39*$G$3+L39*$H$3+M39*$I$3</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="P39" s="5">
-        <f>MEDIAN(C39,O39,D39)</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="Q39" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>IF($A$3 &gt; N39, P39/SUM(P$31:P$50), 0)</f>
+        <v>5.6721497447532618E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2282,17 +2363,21 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B40" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="G40" s="4">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4">
+        <v>15</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -2302,16 +2387,16 @@
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f>IF(C40&gt;0,MAX(B40,C40),B40)+E40*$A$3+F40*$B$3+G40*$C$3+H40*$D$3+I40*$E$3+J40*$F$3+K40*$G$3+L40*$H$3+M40*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>85</v>
       </c>
       <c r="P40" s="5">
-        <f>MEDIAN(C40,O40,D40)</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>85</v>
       </c>
       <c r="Q40" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>IF($A$3 &gt; N40, P40/SUM(P$31:P$50), 0)</f>
+        <v>4.821327283040272E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2326,44 +2411,40 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
       </c>
-      <c r="C41" s="4">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4">
-        <v>125</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>20</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4">
-        <v>1</v>
-      </c>
+      <c r="L41" s="4">
+        <v>25</v>
+      </c>
+      <c r="M41" s="4"/>
       <c r="N41" s="5">
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f>IF(C41&gt;0,MAX(B41,C41),B41)+E41*$A$3+F41*$B$3+G41*$C$3+H41*$D$3+I41*$E$3+J41*$F$3+K41*$G$3+L41*$H$3+M41*$I$3</f>
-        <v>50.5</v>
+        <f t="shared" si="2"/>
+        <v>65</v>
       </c>
       <c r="P41" s="5">
-        <f>MEDIAN(C41,O41,D41)</f>
-        <v>50.5</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
       </c>
       <c r="Q41" s="6">
-        <f t="shared" si="2"/>
-        <v>2.4736713201077638E-2</v>
+        <f>IF($A$3 &gt; N41, P41/SUM(P$31:P$50), 0)</f>
+        <v>3.6868973340896199E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2378,10 +2459,10 @@
     </row>
     <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B42" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2391,25 +2472,25 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
+      <c r="K42" s="4">
+        <v>20</v>
+      </c>
       <c r="L42" s="4"/>
-      <c r="M42" s="4">
-        <v>25</v>
-      </c>
+      <c r="M42" s="4"/>
       <c r="N42" s="5">
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f>IF(C42&gt;0,MAX(B42,C42),B42)+E42*$A$3+F42*$B$3+G42*$C$3+H42*$D$3+I42*$E$3+J42*$F$3+K42*$G$3+L42*$H$3+M42*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>180</v>
       </c>
       <c r="P42" s="5">
-        <f>MEDIAN(C42,O42,D42)</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>180</v>
       </c>
       <c r="Q42" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
+        <f>IF($A$3 &gt; N42, P42/SUM(P$31:P$50), 0)</f>
+        <v>0.1020986954055587</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2424,14 +2505,20 @@
     </row>
     <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B43" s="4">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+      <c r="D43" s="4">
+        <v>125</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -2440,22 +2527,22 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="N43" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f>IF(C43&gt;0,MAX(B43,C43),B43)+E43*$A$3+F43*$B$3+G43*$C$3+H43*$D$3+I43*$E$3+J43*$F$3+K43*$G$3+L43*$H$3+M43*$I$3</f>
-        <v>200</v>
+        <f t="shared" si="2"/>
+        <v>54</v>
       </c>
       <c r="P43" s="5">
-        <f>MEDIAN(C43,O43,D43)</f>
-        <v>200</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
       </c>
       <c r="Q43" s="6">
-        <f t="shared" si="2"/>
-        <v>9.7967180994366881E-2</v>
+        <f>IF($A$3 &gt; N43, P43/SUM(P$31:P$50), 0)</f>
+        <v>3.0629608621667612E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2470,10 +2557,10 @@
     </row>
     <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B44" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2483,25 +2570,25 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="4">
-        <v>12</v>
-      </c>
+      <c r="K44" s="4"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
+      <c r="M44" s="4">
+        <v>15</v>
+      </c>
       <c r="N44" s="5">
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f>IF(C44&gt;0,MAX(B44,C44),B44)+E44*$A$3+F44*$B$3+G44*$C$3+H44*$D$3+I44*$E$3+J44*$F$3+K44*$G$3+L44*$H$3+M44*$I$3</f>
-        <v>48</v>
+        <f t="shared" si="2"/>
+        <v>110</v>
       </c>
       <c r="P44" s="5">
-        <f>MEDIAN(C44,O44,D44)</f>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="Q44" s="6">
-        <f t="shared" si="2"/>
-        <v>2.3512123438648051E-2</v>
+        <f>IF($A$3 &gt; N44, P44/SUM(P$31:P$50), 0)</f>
+        <v>6.2393647192285878E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2516,10 +2603,10 @@
     </row>
     <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2528,30 +2615,26 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="4">
-        <v>15</v>
-      </c>
-      <c r="K45" s="4">
-        <v>15</v>
-      </c>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N45" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O45" s="5">
-        <f>IF(C45&gt;0,MAX(B45,C45),B45)+E45*$A$3+F45*$B$3+G45*$C$3+H45*$D$3+I45*$E$3+J45*$F$3+K45*$G$3+L45*$H$3+M45*$I$3</f>
-        <v>195</v>
+        <f t="shared" si="2"/>
+        <v>90</v>
       </c>
       <c r="P45" s="5">
-        <f>MEDIAN(C45,O45,D45)</f>
-        <v>195</v>
+        <f t="shared" si="3"/>
+        <v>90</v>
       </c>
       <c r="Q45" s="6">
-        <f t="shared" si="2"/>
-        <v>9.5518001469507716E-2</v>
+        <f>IF($A$3 &gt; N45, P45/SUM(P$31:P$50), 0)</f>
+        <v>5.104934770277935E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2566,10 +2649,10 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2578,26 +2661,30 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
+      <c r="J46" s="4">
+        <v>15</v>
+      </c>
       <c r="K46" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="M46" s="4">
+        <v>15</v>
+      </c>
       <c r="N46" s="5">
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f>IF(C46&gt;0,MAX(B46,C46),B46)+E46*$A$3+F46*$B$3+G46*$C$3+H46*$D$3+I46*$E$3+J46*$F$3+K46*$G$3+L46*$H$3+M46*$I$3</f>
-        <v>100</v>
+        <f t="shared" si="2"/>
+        <v>145</v>
       </c>
       <c r="P46" s="5">
-        <f>MEDIAN(C46,O46,D46)</f>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>145</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" si="2"/>
-        <v>4.8983590497183441E-2</v>
+        <f>IF($A$3 &gt; N46, P46/SUM(P$31:P$50), 0)</f>
+        <v>8.2246171298922296E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2611,39 +2698,39 @@
       <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B47" s="4">
+      <c r="A47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="10">
         <v>25</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4">
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10">
         <v>30</v>
       </c>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="5">
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="11">
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f>IF(C47&gt;0,MAX(B47,C47),B47)+E47*$A$3+F47*$B$3+G47*$C$3+H47*$D$3+I47*$E$3+J47*$F$3+K47*$G$3+L47*$H$3+M47*$I$3</f>
-        <v>145</v>
+        <f t="shared" si="2"/>
+        <v>115</v>
       </c>
       <c r="P47" s="5">
-        <f>MEDIAN(C47,O47,D47)</f>
-        <v>145</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="Q47" s="6">
-        <f t="shared" si="2"/>
-        <v>7.1026206220915988E-2</v>
+        <f>IF($A$3 &gt; N47, P47/SUM(P$31:P$50), 0)</f>
+        <v>6.5229722064662501E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2657,28 +2744,39 @@
       <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+      <c r="A48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="12">
+        <v>20</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12">
+        <v>15</v>
+      </c>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="13">
+        <v>1</v>
+      </c>
+      <c r="O48" s="9">
+        <f t="shared" ref="O48:O50" si="8">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>65</v>
+      </c>
       <c r="P48" s="5">
-        <f>SUM(P31:P47)</f>
-        <v>2041.5</v>
+        <f t="shared" ref="P48:P50" si="9">MEDIAN(C48,O48,D48)</f>
+        <v>65</v>
       </c>
       <c r="Q48" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>IF($A$3 &gt; N48, P48/SUM(P$31:P$50), 0)</f>
+        <v>3.6868973340896199E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2692,25 +2790,34 @@
       <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13">
+        <v>1</v>
+      </c>
+      <c r="O49" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P49" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <f>IF($A$3 &gt; N49, P49/SUM(P$31:P$50), 0)</f>
+        <v>0</v>
+      </c>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
       <c r="T49" s="2"/>
@@ -2723,56 +2830,33 @@
       <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E50" s="3" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13">
         <v>1</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="3" t="s">
-        <v>19</v>
+      <c r="O50" s="9">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P50" s="5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <f>IF($A$3 &gt; N50, P50/SUM(P$31:P$50), 0)</f>
+        <v>0</v>
       </c>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -2786,35 +2870,28 @@
       <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B51" s="4">
-        <v>135</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5">
-        <f>IF(C51&gt;0,MAX(B51,C51),B51)+E51*$A$3+F51*$B$3+G51*$C$3+H51*$D$3+I51*$E$3+J51*$F$3+K51*$G$3+L51*$H$3+M51*$I$3</f>
-        <v>135</v>
-      </c>
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" s="5">
-        <f>MEDIAN(C51,O51,D51)</f>
-        <v>135</v>
+        <f>SUM(P31:P50)</f>
+        <v>1763</v>
       </c>
       <c r="Q51" s="6">
-        <f>P51/SUM(P$51:P$64)</f>
-        <v>0.19285714285714287</v>
+        <f>P51/SUM(P$31:P$50)</f>
+        <v>1</v>
       </c>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -2828,42 +2905,25 @@
       <c r="AA51" s="2"/>
     </row>
     <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="4">
-        <v>40</v>
-      </c>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4">
-        <v>5</v>
-      </c>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4">
-        <v>5</v>
-      </c>
-      <c r="N52" s="5">
-        <v>10</v>
-      </c>
-      <c r="O52" s="5">
-        <f>IF(C52&gt;0,MAX(B52,C52),B52)+E52*$A$3+F52*$B$3+G52*$C$3+H52*$D$3+I52*$E$3+J52*$F$3+K52*$G$3+L52*$H$3+M52*$I$3</f>
-        <v>90</v>
-      </c>
-      <c r="P52" s="5">
-        <f>MEDIAN(C52,O52,D52)</f>
-        <v>90</v>
-      </c>
-      <c r="Q52" s="6">
-        <f>P52/SUM(P$51:P$64)</f>
-        <v>0.12857142857142856</v>
-      </c>
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
       <c r="T52" s="2"/>
@@ -2876,41 +2936,56 @@
       <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="4">
-        <v>75</v>
-      </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4">
-        <v>10</v>
-      </c>
-      <c r="I53" s="4">
-        <v>20</v>
-      </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="5">
-        <v>1</v>
-      </c>
-      <c r="O53" s="5">
-        <f>IF(C53&gt;0,MAX(B53,C53),B53)+E53*$A$3+F53*$B$3+G53*$C$3+H53*$D$3+I53*$E$3+J53*$F$3+K53*$G$3+L53*$H$3+M53*$I$3</f>
-        <v>135</v>
-      </c>
-      <c r="P53" s="5">
-        <f>MEDIAN(C53,O53,D53)</f>
-        <v>135</v>
-      </c>
-      <c r="Q53" s="6">
-        <f t="shared" ref="Q53:Q65" si="3">P53/SUM(P$51:P$64)</f>
-        <v>0.19285714285714287</v>
+      <c r="O53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -2925,10 +3000,10 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="B54" s="4">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2938,27 +3013,23 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4">
-        <v>5</v>
-      </c>
+      <c r="K54" s="4"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="4">
-        <v>10</v>
-      </c>
+      <c r="M54" s="4"/>
       <c r="N54" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f>IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
-        <v>105</v>
+        <f t="shared" ref="O54:O67" si="10">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f>MEDIAN(C54,O54,D54)</f>
-        <v>105</v>
+        <f t="shared" ref="P54:P67" si="11">MEDIAN(C54,O54,D54)</f>
+        <v>135</v>
       </c>
       <c r="Q54" s="6">
-        <f t="shared" si="3"/>
-        <v>0.15</v>
+        <f>IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
+        <v>0.16343825665859565</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -2973,40 +3044,40 @@
     </row>
     <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="H55" s="4">
+        <v>5</v>
+      </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="4">
-        <v>10</v>
-      </c>
+      <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="N55" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f>IF(C55&gt;0,MAX(B55,C55),B55)+E55*$A$3+F55*$B$3+G55*$C$3+H55*$D$3+I55*$E$3+J55*$F$3+K55*$G$3+L55*$H$3+M55*$I$3</f>
-        <v>145</v>
+        <f t="shared" si="10"/>
+        <v>75</v>
       </c>
       <c r="P55" s="5">
-        <f>MEDIAN(C55,O55,D55)</f>
-        <v>145</v>
+        <f t="shared" si="11"/>
+        <v>75</v>
       </c>
       <c r="Q55" s="6">
-        <f t="shared" si="3"/>
-        <v>0.20714285714285716</v>
+        <f>IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
+        <v>9.0799031476997583E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3021,10 +3092,10 @@
     </row>
     <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B56" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3034,29 +3105,27 @@
       <c r="H56" s="4">
         <v>10</v>
       </c>
-      <c r="I56" s="4"/>
+      <c r="I56" s="4">
+        <v>20</v>
+      </c>
       <c r="J56" s="4"/>
-      <c r="K56" s="4">
-        <v>5</v>
-      </c>
+      <c r="K56" s="4"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="4">
-        <v>5</v>
-      </c>
+      <c r="M56" s="4"/>
       <c r="N56" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f>IF(C56&gt;0,MAX(B56,C56),B56)+E56*$A$3+F56*$B$3+G56*$C$3+H56*$D$3+I56*$E$3+J56*$F$3+K56*$G$3+L56*$H$3+M56*$I$3</f>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>125</v>
       </c>
       <c r="P56" s="5">
-        <f>MEDIAN(C56,O56,D56)</f>
-        <v>90</v>
+        <f t="shared" si="11"/>
+        <v>125</v>
       </c>
       <c r="Q56" s="6">
-        <f t="shared" si="3"/>
-        <v>0.12857142857142856</v>
+        <f>IF($A$3 &gt; N56, P56/SUM(P$54:P$67), 0)</f>
+        <v>0.1513317191283293</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3070,8 +3139,12 @@
       <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4">
+        <v>25</v>
+      </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -3080,21 +3153,27 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
+      <c r="K57" s="4">
+        <v>10</v>
+      </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="5"/>
+      <c r="M57" s="4">
+        <v>10</v>
+      </c>
+      <c r="N57" s="5">
+        <v>8</v>
+      </c>
       <c r="O57" s="5">
-        <f>IF(C57&gt;0,MAX(B57,C57),B57)+E57*$A$3+F57*$B$3+G57*$C$3+H57*$D$3+I57*$E$3+J57*$F$3+K57*$G$3+L57*$H$3+M57*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>105</v>
       </c>
       <c r="P57" s="5">
-        <f>MEDIAN(C57,O57,D57)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>105</v>
       </c>
       <c r="Q57" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N57, P57/SUM(P$54:P$67), 0)</f>
+        <v>0.1271186440677966</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3108,8 +3187,12 @@
       <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
+      <c r="A58" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4">
+        <v>15</v>
+      </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
@@ -3118,21 +3201,27 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
+      <c r="K58" s="4">
+        <v>5</v>
+      </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="5"/>
+      <c r="M58" s="4">
+        <v>15</v>
+      </c>
+      <c r="N58" s="5">
+        <v>1</v>
+      </c>
       <c r="O58" s="5">
-        <f>IF(C58&gt;0,MAX(B58,C58),B58)+E58*$A$3+F58*$B$3+G58*$C$3+H58*$D$3+I58*$E$3+J58*$F$3+K58*$G$3+L58*$H$3+M58*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="P58" s="5">
-        <f>MEDIAN(C58,O58,D58)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>95</v>
       </c>
       <c r="Q58" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N58, P58/SUM(P$54:P$67), 0)</f>
+        <v>0.11501210653753027</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3146,31 +3235,43 @@
       <c r="AA58" s="2"/>
     </row>
     <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
+      <c r="A59" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0</v>
+      </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="H59" s="4">
+        <v>10</v>
+      </c>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
+      <c r="K59" s="4">
+        <v>5</v>
+      </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="5"/>
+      <c r="M59" s="4">
+        <v>5</v>
+      </c>
+      <c r="N59" s="5">
+        <v>4</v>
+      </c>
       <c r="O59" s="5">
-        <f>IF(C59&gt;0,MAX(B59,C59),B59)+E59*$A$3+F59*$B$3+G59*$C$3+H59*$D$3+I59*$E$3+J59*$F$3+K59*$G$3+L59*$H$3+M59*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>70</v>
       </c>
       <c r="P59" s="5">
-        <f>MEDIAN(C59,O59,D59)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>70</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N59, P59/SUM(P$54:P$67), 0)</f>
+        <v>8.4745762711864403E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3184,31 +3285,39 @@
       <c r="AA59" s="2"/>
     </row>
     <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
+      <c r="A60" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="H60" s="4">
+        <v>20</v>
+      </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="5"/>
+      <c r="N60" s="5">
+        <v>8</v>
+      </c>
       <c r="O60" s="5">
-        <f>IF(C60&gt;0,MAX(B60,C60),B60)+E60*$A$3+F60*$B$3+G60*$C$3+H60*$D$3+I60*$E$3+J60*$F$3+K60*$G$3+L60*$H$3+M60*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>61</v>
       </c>
       <c r="P60" s="5">
-        <f>MEDIAN(C60,O60,D60)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>61</v>
       </c>
       <c r="Q60" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N60, P60/SUM(P$54:P$67), 0)</f>
+        <v>7.3849878934624691E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3222,31 +3331,39 @@
       <c r="AA60" s="2"/>
     </row>
     <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
+      <c r="A61" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B61" s="4">
+        <v>20</v>
+      </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
+      <c r="H61" s="4">
+        <v>15</v>
+      </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="5"/>
+      <c r="N61" s="5">
+        <v>1</v>
+      </c>
       <c r="O61" s="5">
-        <f>IF(C61&gt;0,MAX(B61,C61),B61)+E61*$A$3+F61*$B$3+G61*$C$3+H61*$D$3+I61*$E$3+J61*$F$3+K61*$G$3+L61*$H$3+M61*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>65</v>
       </c>
       <c r="P61" s="5">
-        <f>MEDIAN(C61,O61,D61)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>65</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N61, P61/SUM(P$54:P$67), 0)</f>
+        <v>7.8692493946731237E-2</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3260,31 +3377,43 @@
       <c r="AA61" s="2"/>
     </row>
     <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
+      <c r="A62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="4">
+        <v>30</v>
+      </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="F62" s="4">
+        <v>20</v>
+      </c>
       <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
+      <c r="H62" s="4">
+        <v>15</v>
+      </c>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4">
+        <v>20</v>
+      </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="5"/>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
       <c r="O62" s="5">
-        <f>IF(C62&gt;0,MAX(B62,C62),B62)+E62*$A$3+F62*$B$3+G62*$C$3+H62*$D$3+I62*$E$3+J62*$F$3+K62*$G$3+L62*$H$3+M62*$I$3</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>95</v>
       </c>
       <c r="P62" s="5">
-        <f>MEDIAN(C62,O62,D62)</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>95</v>
       </c>
       <c r="Q62" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>IF($A$3 &gt; N62, P62/SUM(P$54:P$67), 0)</f>
+        <v>0.11501210653753027</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3313,15 +3442,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f>IF(C63&gt;0,MAX(B63,C63),B63)+E63*$A$3+F63*$B$3+G63*$C$3+H63*$D$3+I63*$E$3+J63*$F$3+K63*$G$3+L63*$H$3+M63*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f>MEDIAN(C63,O63,D63)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($A$3 &gt; N63, P63/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3351,15 +3480,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f>IF(C64&gt;0,MAX(B64,C64),B64)+E64*$A$3+F64*$B$3+G64*$C$3+H64*$D$3+I64*$E$3+J64*$F$3+K64*$G$3+L64*$H$3+M64*$I$3</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f>MEDIAN(C64,O64,D64)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f t="shared" si="3"/>
+        <f>IF($A$3 &gt; N64, P64/SUM(P$54:P$67), 0)</f>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3374,28 +3503,31 @@
       <c r="AA64" s="2"/>
     </row>
     <row r="65" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="P65" s="5">
-        <f>SUM(P50:P64)</f>
-        <v>700</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f>IF($A$3 &gt; N65, P65/SUM(P$54:P$67), 0)</f>
+        <v>0</v>
       </c>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -3409,23 +3541,32 @@
       <c r="AA65" s="2"/>
     </row>
     <row r="66" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P66" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <f>IF($A$3 &gt; N66, P66/SUM(P$54:P$67), 0)</f>
+        <v>0</v>
+      </c>
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
       <c r="T66" s="2"/>
@@ -3438,23 +3579,32 @@
       <c r="AA66" s="2"/>
     </row>
     <row r="67" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="5"/>
+      <c r="O67" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="6">
+        <f>IF($A$3 &gt; N67, P67/SUM(P$54:P$67), 0)</f>
+        <v>0</v>
+      </c>
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
       <c r="T67" s="2"/>
@@ -3482,8 +3632,14 @@
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="P68" s="5">
+        <f>SUM(P53:P67)</f>
+        <v>826</v>
+      </c>
+      <c r="Q68" s="6">
+        <f t="shared" ref="Q68" si="12">P68/SUM(P$54:P$67)</f>
+        <v>1</v>
+      </c>
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
       <c r="T68" s="2"/>
@@ -9208,9 +9364,93 @@
       <c r="Z265" s="2"/>
       <c r="AA265" s="2"/>
     </row>
-    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
+      <c r="H266" s="2"/>
+      <c r="I266" s="2"/>
+      <c r="J266" s="2"/>
+      <c r="K266" s="2"/>
+      <c r="L266" s="2"/>
+      <c r="M266" s="2"/>
+      <c r="N266" s="2"/>
+      <c r="O266" s="2"/>
+      <c r="P266" s="2"/>
+      <c r="Q266" s="2"/>
+      <c r="R266" s="2"/>
+      <c r="S266" s="2"/>
+      <c r="T266" s="2"/>
+      <c r="U266" s="2"/>
+      <c r="V266" s="2"/>
+      <c r="W266" s="2"/>
+      <c r="X266" s="2"/>
+      <c r="Y266" s="2"/>
+      <c r="Z266" s="2"/>
+      <c r="AA266" s="2"/>
+    </row>
+    <row r="267" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
+      <c r="H267" s="2"/>
+      <c r="I267" s="2"/>
+      <c r="J267" s="2"/>
+      <c r="K267" s="2"/>
+      <c r="L267" s="2"/>
+      <c r="M267" s="2"/>
+      <c r="N267" s="2"/>
+      <c r="O267" s="2"/>
+      <c r="P267" s="2"/>
+      <c r="Q267" s="2"/>
+      <c r="R267" s="2"/>
+      <c r="S267" s="2"/>
+      <c r="T267" s="2"/>
+      <c r="U267" s="2"/>
+      <c r="V267" s="2"/>
+      <c r="W267" s="2"/>
+      <c r="X267" s="2"/>
+      <c r="Y267" s="2"/>
+      <c r="Z267" s="2"/>
+      <c r="AA267" s="2"/>
+    </row>
+    <row r="268" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
+      <c r="H268" s="2"/>
+      <c r="I268" s="2"/>
+      <c r="J268" s="2"/>
+      <c r="K268" s="2"/>
+      <c r="L268" s="2"/>
+      <c r="M268" s="2"/>
+      <c r="N268" s="2"/>
+      <c r="O268" s="2"/>
+      <c r="P268" s="2"/>
+      <c r="Q268" s="2"/>
+      <c r="R268" s="2"/>
+      <c r="S268" s="2"/>
+      <c r="T268" s="2"/>
+      <c r="U268" s="2"/>
+      <c r="V268" s="2"/>
+      <c r="W268" s="2"/>
+      <c r="X268" s="2"/>
+      <c r="Y268" s="2"/>
+      <c r="Z268" s="2"/>
+      <c r="AA268" s="2"/>
+    </row>
     <row r="269" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="270" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9937,6 +10177,9 @@
     <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD698411-A99F-4BEF-8B59-8D9B4AB818E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D3374-8D43-46A9-9E70-0BFAB4580683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
         <v>120</v>
       </c>
       <c r="Q7" s="17">
-        <f>IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
+        <f t="shared" ref="Q7:Q27" si="2">IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="R7" s="14"/>
@@ -924,7 +924,9 @@
         <v>15</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -933,15 +935,15 @@
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="17">
-        <f>IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
-        <v>2.9545454545454545E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8636363636363635E-2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -986,7 +988,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="17">
-        <f>IF($A$3 &gt; N9, P9/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>1.5909090909090907E-2</v>
       </c>
       <c r="R9" s="2"/>
@@ -1032,7 +1034,7 @@
         <v>50</v>
       </c>
       <c r="Q10" s="17">
-        <f>IF($A$3 &gt; N10, P10/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="R10" s="2"/>
@@ -1076,7 +1078,7 @@
         <v>300</v>
       </c>
       <c r="Q11" s="17">
-        <f>IF($A$3 &gt; N11, P11/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R11" s="2"/>
@@ -1120,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="17">
-        <f>IF($A$3 &gt; N12, P12/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="R12" s="2"/>
@@ -1170,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="Q13" s="17">
-        <f>IF($A$3 &gt; N13, P13/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>6.8181818181818179E-3</v>
       </c>
       <c r="R13" s="2"/>
@@ -1214,7 +1216,7 @@
         <v>300</v>
       </c>
       <c r="Q14" s="17">
-        <f>IF($A$3 &gt; N14, P14/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R14" s="2"/>
@@ -1264,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="17">
-        <f>IF($A$3 &gt; N15, P15/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="R15" s="2"/>
@@ -1312,7 +1314,7 @@
         <v>120</v>
       </c>
       <c r="Q16" s="17">
-        <f>IF($A$3 &gt; N16, P16/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="R16" s="2"/>
@@ -1360,7 +1362,7 @@
         <v>110</v>
       </c>
       <c r="Q17" s="17">
-        <f>IF($A$3 &gt; N17, P17/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="R17" s="2"/>
@@ -1404,7 +1406,7 @@
         <v>55</v>
       </c>
       <c r="Q18" s="17">
-        <f>IF($A$3 &gt; N18, P18/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R18" s="2"/>
@@ -1448,7 +1450,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="17">
-        <f>IF($A$3 &gt; N19, P19/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="R19" s="2"/>
@@ -1492,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="17">
-        <f>IF($A$3 &gt; N20, P20/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="R20" s="2"/>
@@ -1536,7 +1538,7 @@
         <v>300</v>
       </c>
       <c r="Q21" s="17">
-        <f>IF($A$3 &gt; N21, P21/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R21" s="2"/>
@@ -1586,7 +1588,7 @@
         <v>195</v>
       </c>
       <c r="Q22" s="17">
-        <f>IF($A$3 &gt; N22, P22/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>8.8636363636363638E-2</v>
       </c>
       <c r="R22" s="2"/>
@@ -1632,7 +1634,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="17">
-        <f>IF($A$3 &gt; N23, P23/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="R23" s="2"/>
@@ -1676,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="Q24" s="17">
-        <f>IF($A$3 &gt; N24, P24/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.7272727272727271E-2</v>
       </c>
       <c r="R24" s="2"/>
@@ -1695,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1717,15 +1719,15 @@
       </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="17">
-        <f>IF($A$3 &gt; N25, P25/SUM(P$7:P$27), 0)</f>
-        <v>6.1363636363636363E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2272727272727269E-2</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="17">
-        <f>IF($A$3 &gt; N26, P26/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1800,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="17">
-        <f>IF($A$3 &gt; N27, P27/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1965,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:O47" si="2">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <f t="shared" ref="O31:O47" si="3">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" ref="P31:P47" si="3">MEDIAN(C31,O31,D31)</f>
+        <f t="shared" ref="P31:P47" si="4">MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
       <c r="Q31" s="6">
         <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
-        <v>0.11344299489506524</v>
+        <v>0.12099213551119177</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2011,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32" si="4">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="O32" si="5">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>100</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" ref="P32" si="5">MEDIAN(C32,O32,D32)</f>
+        <f t="shared" ref="P32" si="6">MEDIAN(C32,O32,D32)</f>
         <v>100</v>
       </c>
       <c r="Q32" s="6">
         <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <v>6.0496067755595885E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2038,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2055,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="Q33" s="6">
         <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <v>3.0248033877797943E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2082,7 +2084,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2101,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34" si="6">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
-        <v>175</v>
+        <f t="shared" ref="O34" si="7">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <v>125</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34" si="7">MEDIAN(C34,O34,D34)</f>
-        <v>175</v>
+        <f t="shared" ref="P34" si="8">MEDIAN(C34,O34,D34)</f>
+        <v>125</v>
       </c>
       <c r="Q34" s="6">
-        <f>IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
-        <v>9.9262620533182078E-2</v>
+        <f t="shared" ref="Q34" si="9">IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
+        <v>7.5620084694494855E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2128,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2151,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="Q35" s="6">
         <f>IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
-        <v>5.9557572319909248E-2</v>
+        <v>5.7471264367816091E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2195,11 +2197,11 @@
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q36" s="6">
@@ -2239,11 +2241,11 @@
         <v>1</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="6">
@@ -2291,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="P38" s="5">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
+      <c r="P38" s="5">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
       <c r="Q38" s="6">
         <f>IF($A$3 &gt; N38, P38/SUM(P$31:P$50), 0)</f>
-        <v>4.1973908111174137E-2</v>
+        <v>4.4767090139140958E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2339,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="P39" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="P39" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="Q39" s="6">
         <f>IF($A$3 &gt; N39, P39/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <v>6.0496067755595885E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2387,16 +2389,16 @@
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="P40" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
+      <c r="P40" s="5">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="Q40" s="6">
         <f>IF($A$3 &gt; N40, P40/SUM(P$31:P$50), 0)</f>
-        <v>4.821327283040272E-2</v>
+        <v>5.1421657592256503E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2435,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="P41" s="5">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
       <c r="Q41" s="6">
         <f>IF($A$3 &gt; N41, P41/SUM(P$31:P$50), 0)</f>
-        <v>3.6868973340896199E-2</v>
+        <v>3.9322444041137328E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2481,16 +2483,16 @@
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="P42" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
       <c r="Q42" s="6">
         <f>IF($A$3 &gt; N42, P42/SUM(P$31:P$50), 0)</f>
-        <v>0.1020986954055587</v>
+        <v>0.10889292196007259</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2533,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="P43" s="5">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
+      <c r="P43" s="5">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="Q43" s="6">
         <f>IF($A$3 &gt; N43, P43/SUM(P$31:P$50), 0)</f>
-        <v>3.0629608621667612E-2</v>
+        <v>3.2667876588021776E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2579,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="P44" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
+      <c r="P44" s="5">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
       <c r="Q44" s="6">
         <f>IF($A$3 &gt; N44, P44/SUM(P$31:P$50), 0)</f>
-        <v>6.2393647192285878E-2</v>
+        <v>6.654567453115548E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2625,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="P45" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="P45" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
       <c r="Q45" s="6">
         <f>IF($A$3 &gt; N45, P45/SUM(P$31:P$50), 0)</f>
-        <v>5.104934770277935E-2</v>
+        <v>5.4446460980036297E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2675,16 +2677,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="P46" s="5">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
+      <c r="P46" s="5">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
       <c r="Q46" s="6">
         <f>IF($A$3 &gt; N46, P46/SUM(P$31:P$50), 0)</f>
-        <v>8.2246171298922296E-2</v>
+        <v>8.771929824561403E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2721,16 +2723,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="P47" s="5">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
+      <c r="P47" s="5">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
       <c r="Q47" s="6">
         <f>IF($A$3 &gt; N47, P47/SUM(P$31:P$50), 0)</f>
-        <v>6.5229722064662501E-2</v>
+        <v>6.9570477918935267E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2767,16 +2769,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O50" si="8">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <f t="shared" ref="O48:O50" si="10">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
         <v>65</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:P50" si="9">MEDIAN(C48,O48,D48)</f>
+        <f t="shared" ref="P48:P50" si="11">MEDIAN(C48,O48,D48)</f>
         <v>65</v>
       </c>
       <c r="Q48" s="6">
         <f>IF($A$3 &gt; N48, P48/SUM(P$31:P$50), 0)</f>
-        <v>3.6868973340896199E-2</v>
+        <v>3.9322444041137328E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2807,11 +2809,11 @@
         <v>1</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q49" s="6">
@@ -2847,11 +2849,11 @@
         <v>1</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
@@ -2887,7 +2889,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="5">
         <f>SUM(P31:P50)</f>
-        <v>1763</v>
+        <v>1653</v>
       </c>
       <c r="Q51" s="6">
         <f>P51/SUM(P$31:P$50)</f>
@@ -3020,11 +3022,11 @@
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O67" si="10">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="O54:O67" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ref="P54:P67" si="11">MEDIAN(C54,O54,D54)</f>
+        <f t="shared" ref="P54:P67" si="13">MEDIAN(C54,O54,D54)</f>
         <v>135</v>
       </c>
       <c r="Q54" s="6">
@@ -3068,11 +3070,11 @@
         <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>75</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="Q55" s="6">
@@ -3116,11 +3118,11 @@
         <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>125</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="Q56" s="6">
@@ -3164,11 +3166,11 @@
         <v>8</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="Q57" s="6">
@@ -3212,11 +3214,11 @@
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="Q58" s="6">
@@ -3262,11 +3264,11 @@
         <v>4</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>70</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="Q59" s="6">
@@ -3308,11 +3310,11 @@
         <v>8</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>61</v>
       </c>
       <c r="Q60" s="6">
@@ -3354,11 +3356,11 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65</v>
       </c>
       <c r="Q61" s="6">
@@ -3404,11 +3406,11 @@
         <v>1</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>95</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="Q62" s="6">
@@ -3442,11 +3444,11 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
@@ -3480,11 +3482,11 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
@@ -3518,11 +3520,11 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q65" s="6">
@@ -3556,11 +3558,11 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q66" s="6">
@@ -3594,11 +3596,11 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q67" s="6">
@@ -3637,7 +3639,7 @@
         <v>826</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q68" si="12">P68/SUM(P$54:P$67)</f>
+        <f t="shared" ref="Q68" si="14">P68/SUM(P$54:P$67)</f>
         <v>1</v>
       </c>
       <c r="R68" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D3374-8D43-46A9-9E70-0BFAB4580683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184E218-7B06-4BB4-B93C-B09395072FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="Q31" s="6">
         <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
-        <v>0.12099213551119177</v>
+        <v>0.11954572624028691</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="Q32" s="6">
         <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
-        <v>6.0496067755595885E-2</v>
+        <v>5.9772863120143453E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="Q33" s="6">
         <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
-        <v>3.0248033877797943E-2</v>
+        <v>2.9886431560071727E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" ref="Q34" si="9">IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
-        <v>7.5620084694494855E-2</v>
+        <v>7.4716078900179325E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2161,8 +2161,8 @@
         <v>95</v>
       </c>
       <c r="Q35" s="6">
-        <f>IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
-        <v>5.7471264367816091E-2</v>
+        <f t="shared" ref="Q35:Q50" si="10">IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
+        <v>5.6784219964136282E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="6">
-        <f>IF($A$3 &gt; N36, P36/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R36" s="2"/>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="6">
-        <f>IF($A$3 &gt; N37, P37/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R37" s="2"/>
@@ -2301,8 +2301,8 @@
         <v>74</v>
       </c>
       <c r="Q38" s="6">
-        <f>IF($A$3 &gt; N38, P38/SUM(P$31:P$50), 0)</f>
-        <v>4.4767090139140958E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4231918708906158E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2349,8 +2349,8 @@
         <v>100</v>
       </c>
       <c r="Q39" s="6">
-        <f>IF($A$3 &gt; N39, P39/SUM(P$31:P$50), 0)</f>
-        <v>6.0496067755595885E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.9772863120143453E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2397,8 +2397,8 @@
         <v>85</v>
       </c>
       <c r="Q40" s="6">
-        <f>IF($A$3 &gt; N40, P40/SUM(P$31:P$50), 0)</f>
-        <v>5.1421657592256503E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.0806933652121938E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2445,8 +2445,8 @@
         <v>65</v>
       </c>
       <c r="Q41" s="6">
-        <f>IF($A$3 &gt; N41, P41/SUM(P$31:P$50), 0)</f>
-        <v>3.9322444041137328E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8852361028093245E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2491,8 +2491,8 @@
         <v>180</v>
       </c>
       <c r="Q42" s="6">
-        <f>IF($A$3 &gt; N42, P42/SUM(P$31:P$50), 0)</f>
-        <v>0.10889292196007259</v>
+        <f t="shared" si="10"/>
+        <v>0.10759115361625822</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2543,8 +2543,8 @@
         <v>54</v>
       </c>
       <c r="Q43" s="6">
-        <f>IF($A$3 &gt; N43, P43/SUM(P$31:P$50), 0)</f>
-        <v>3.2667876588021776E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.2277346084877465E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2589,8 +2589,8 @@
         <v>110</v>
       </c>
       <c r="Q44" s="6">
-        <f>IF($A$3 &gt; N44, P44/SUM(P$31:P$50), 0)</f>
-        <v>6.654567453115548E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.5750149432157803E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2635,8 +2635,8 @@
         <v>90</v>
       </c>
       <c r="Q45" s="6">
-        <f>IF($A$3 &gt; N45, P45/SUM(P$31:P$50), 0)</f>
-        <v>5.4446460980036297E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.379557680812911E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2685,8 +2685,8 @@
         <v>145</v>
       </c>
       <c r="Q46" s="6">
-        <f>IF($A$3 &gt; N46, P46/SUM(P$31:P$50), 0)</f>
-        <v>8.771929824561403E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.6670651524208012E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2731,8 +2731,8 @@
         <v>115</v>
       </c>
       <c r="Q47" s="6">
-        <f>IF($A$3 &gt; N47, P47/SUM(P$31:P$50), 0)</f>
-        <v>6.9570477918935267E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.8738792588164968E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2761,7 +2761,9 @@
         <v>15</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12">
+        <v>20</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -2769,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O50" si="10">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
-        <v>65</v>
+        <f t="shared" ref="O48:O50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>85</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:P50" si="11">MEDIAN(C48,O48,D48)</f>
-        <v>65</v>
+        <f t="shared" ref="P48:P50" si="12">MEDIAN(C48,O48,D48)</f>
+        <v>85</v>
       </c>
       <c r="Q48" s="6">
-        <f>IF($A$3 &gt; N48, P48/SUM(P$31:P$50), 0)</f>
-        <v>3.9322444041137328E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.0806933652121938E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2809,15 +2811,15 @@
         <v>1</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="P49" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q49" s="6">
-        <f>IF($A$3 &gt; N49, P49/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R49" s="2"/>
@@ -2849,15 +2851,15 @@
         <v>1</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P50" s="5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
+      <c r="P50" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="Q50" s="6">
-        <f>IF($A$3 &gt; N50, P50/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R50" s="2"/>
@@ -2889,7 +2891,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="5">
         <f>SUM(P31:P50)</f>
-        <v>1653</v>
+        <v>1673</v>
       </c>
       <c r="Q51" s="6">
         <f>P51/SUM(P$31:P$50)</f>
@@ -3022,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O67" si="12">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="O54:O67" si="13">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ref="P54:P67" si="13">MEDIAN(C54,O54,D54)</f>
+        <f t="shared" ref="P54:P67" si="14">MEDIAN(C54,O54,D54)</f>
         <v>135</v>
       </c>
       <c r="Q54" s="6">
-        <f>IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
-        <v>0.16343825665859565</v>
+        <f t="shared" ref="Q54:Q67" si="15">IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
+        <v>0.16423357664233576</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3070,16 +3072,16 @@
         <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="12"/>
-        <v>75</v>
-      </c>
-      <c r="P55" s="5">
         <f t="shared" si="13"/>
         <v>75</v>
       </c>
+      <c r="P55" s="5">
+        <f t="shared" si="14"/>
+        <v>75</v>
+      </c>
       <c r="Q55" s="6">
-        <f>IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
-        <v>9.0799031476997583E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.1240875912408759E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3118,16 +3120,16 @@
         <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="12"/>
-        <v>125</v>
-      </c>
-      <c r="P56" s="5">
         <f t="shared" si="13"/>
         <v>125</v>
       </c>
+      <c r="P56" s="5">
+        <f t="shared" si="14"/>
+        <v>125</v>
+      </c>
       <c r="Q56" s="6">
-        <f>IF($A$3 &gt; N56, P56/SUM(P$54:P$67), 0)</f>
-        <v>0.1513317191283293</v>
+        <f t="shared" si="15"/>
+        <v>0.15206812652068127</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3166,16 +3168,16 @@
         <v>8</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="12"/>
-        <v>105</v>
-      </c>
-      <c r="P57" s="5">
         <f t="shared" si="13"/>
         <v>105</v>
       </c>
+      <c r="P57" s="5">
+        <f t="shared" si="14"/>
+        <v>105</v>
+      </c>
       <c r="Q57" s="6">
-        <f>IF($A$3 &gt; N57, P57/SUM(P$54:P$67), 0)</f>
-        <v>0.1271186440677966</v>
+        <f t="shared" si="15"/>
+        <v>0.12773722627737227</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3214,16 +3216,16 @@
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="P58" s="5">
         <f t="shared" si="13"/>
         <v>95</v>
       </c>
+      <c r="P58" s="5">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
       <c r="Q58" s="6">
-        <f>IF($A$3 &gt; N58, P58/SUM(P$54:P$67), 0)</f>
-        <v>0.11501210653753027</v>
+        <f t="shared" si="15"/>
+        <v>0.11557177615571776</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3264,16 +3266,16 @@
         <v>4</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="12"/>
-        <v>70</v>
-      </c>
-      <c r="P59" s="5">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
+      <c r="P59" s="5">
+        <f t="shared" si="14"/>
+        <v>70</v>
+      </c>
       <c r="Q59" s="6">
-        <f>IF($A$3 &gt; N59, P59/SUM(P$54:P$67), 0)</f>
-        <v>8.4745762711864403E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.5158150851581502E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3299,7 +3301,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -3310,16 +3312,16 @@
         <v>8</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="12"/>
-        <v>61</v>
+        <f t="shared" si="13"/>
+        <v>37</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="13"/>
-        <v>61</v>
+        <f t="shared" si="14"/>
+        <v>37</v>
       </c>
       <c r="Q60" s="6">
-        <f>IF($A$3 &gt; N60, P60/SUM(P$54:P$67), 0)</f>
-        <v>7.3849878934624691E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.5012165450121655E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3348,7 +3350,9 @@
         <v>15</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4">
+        <v>20</v>
+      </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -3356,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="12"/>
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>85</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="13"/>
-        <v>65</v>
+        <f t="shared" si="14"/>
+        <v>85</v>
       </c>
       <c r="Q61" s="6">
-        <f>IF($A$3 &gt; N61, P61/SUM(P$54:P$67), 0)</f>
-        <v>7.8692493946731237E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.10340632603406326</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3406,16 +3410,16 @@
         <v>1</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="12"/>
-        <v>95</v>
-      </c>
-      <c r="P62" s="5">
         <f t="shared" si="13"/>
         <v>95</v>
       </c>
+      <c r="P62" s="5">
+        <f t="shared" si="14"/>
+        <v>95</v>
+      </c>
       <c r="Q62" s="6">
-        <f>IF($A$3 &gt; N62, P62/SUM(P$54:P$67), 0)</f>
-        <v>0.11501210653753027</v>
+        <f t="shared" si="15"/>
+        <v>0.11557177615571776</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3444,15 +3448,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P63" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P63" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q63" s="6">
-        <f>IF($A$3 &gt; N63, P63/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3482,15 +3486,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P64" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P64" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q64" s="6">
-        <f>IF($A$3 &gt; N64, P64/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3520,15 +3524,15 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P65" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P65" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q65" s="6">
-        <f>IF($A$3 &gt; N65, P65/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65" s="2"/>
@@ -3558,15 +3562,15 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P66" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P66" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q66" s="6">
-        <f>IF($A$3 &gt; N66, P66/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R66" s="2"/>
@@ -3596,15 +3600,15 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="P67" s="5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
+      <c r="P67" s="5">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="Q67" s="6">
-        <f>IF($A$3 &gt; N67, P67/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R67" s="2"/>
@@ -3636,10 +3640,10 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q68" si="14">P68/SUM(P$54:P$67)</f>
+        <f t="shared" ref="Q68" si="16">P68/SUM(P$54:P$67)</f>
         <v>1</v>
       </c>
       <c r="R68" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD698411-A99F-4BEF-8B59-8D9B4AB818E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184E218-7B06-4BB4-B93C-B09395072FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +894,7 @@
         <v>120</v>
       </c>
       <c r="Q7" s="17">
-        <f>IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
+        <f t="shared" ref="Q7:Q27" si="2">IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="R7" s="14"/>
@@ -924,7 +924,9 @@
         <v>15</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4">
+        <v>20</v>
+      </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
@@ -933,15 +935,15 @@
       </c>
       <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="P8" s="15">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="17">
-        <f>IF($A$3 &gt; N8, P8/SUM(P$7:P$27), 0)</f>
-        <v>2.9545454545454545E-2</v>
+        <f t="shared" si="2"/>
+        <v>3.8636363636363635E-2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -986,7 +988,7 @@
         <v>35</v>
       </c>
       <c r="Q9" s="17">
-        <f>IF($A$3 &gt; N9, P9/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>1.5909090909090907E-2</v>
       </c>
       <c r="R9" s="2"/>
@@ -1032,7 +1034,7 @@
         <v>50</v>
       </c>
       <c r="Q10" s="17">
-        <f>IF($A$3 &gt; N10, P10/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="R10" s="2"/>
@@ -1076,7 +1078,7 @@
         <v>300</v>
       </c>
       <c r="Q11" s="17">
-        <f>IF($A$3 &gt; N11, P11/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R11" s="2"/>
@@ -1120,7 +1122,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="17">
-        <f>IF($A$3 &gt; N12, P12/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545452E-3</v>
       </c>
       <c r="R12" s="2"/>
@@ -1170,7 +1172,7 @@
         <v>15</v>
       </c>
       <c r="Q13" s="17">
-        <f>IF($A$3 &gt; N13, P13/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>6.8181818181818179E-3</v>
       </c>
       <c r="R13" s="2"/>
@@ -1214,7 +1216,7 @@
         <v>300</v>
       </c>
       <c r="Q14" s="17">
-        <f>IF($A$3 &gt; N14, P14/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R14" s="2"/>
@@ -1264,7 +1266,7 @@
         <v>50</v>
       </c>
       <c r="Q15" s="17">
-        <f>IF($A$3 &gt; N15, P15/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.2727272727272728E-2</v>
       </c>
       <c r="R15" s="2"/>
@@ -1312,7 +1314,7 @@
         <v>120</v>
       </c>
       <c r="Q16" s="17">
-        <f>IF($A$3 &gt; N16, P16/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>5.4545454545454543E-2</v>
       </c>
       <c r="R16" s="2"/>
@@ -1360,7 +1362,7 @@
         <v>110</v>
       </c>
       <c r="Q17" s="17">
-        <f>IF($A$3 &gt; N17, P17/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.05</v>
       </c>
       <c r="R17" s="2"/>
@@ -1404,7 +1406,7 @@
         <v>55</v>
       </c>
       <c r="Q18" s="17">
-        <f>IF($A$3 &gt; N18, P18/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="R18" s="2"/>
@@ -1448,7 +1450,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="17">
-        <f>IF($A$3 &gt; N19, P19/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="R19" s="2"/>
@@ -1492,7 +1494,7 @@
         <v>80</v>
       </c>
       <c r="Q20" s="17">
-        <f>IF($A$3 &gt; N20, P20/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>3.6363636363636362E-2</v>
       </c>
       <c r="R20" s="2"/>
@@ -1536,7 +1538,7 @@
         <v>300</v>
       </c>
       <c r="Q21" s="17">
-        <f>IF($A$3 &gt; N21, P21/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="R21" s="2"/>
@@ -1586,7 +1588,7 @@
         <v>195</v>
       </c>
       <c r="Q22" s="17">
-        <f>IF($A$3 &gt; N22, P22/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>8.8636363636363638E-2</v>
       </c>
       <c r="R22" s="2"/>
@@ -1632,7 +1634,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="17">
-        <f>IF($A$3 &gt; N23, P23/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="R23" s="2"/>
@@ -1676,7 +1678,7 @@
         <v>60</v>
       </c>
       <c r="Q24" s="17">
-        <f>IF($A$3 &gt; N24, P24/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>2.7272727272727271E-2</v>
       </c>
       <c r="R24" s="2"/>
@@ -1695,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1717,15 +1719,15 @@
       </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="17">
-        <f>IF($A$3 &gt; N25, P25/SUM(P$7:P$27), 0)</f>
-        <v>6.1363636363636363E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.2272727272727269E-2</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1762,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="17">
-        <f>IF($A$3 &gt; N26, P26/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R26" s="2"/>
@@ -1800,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="17">
-        <f>IF($A$3 &gt; N27, P27/SUM(P$7:P$27), 0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R27" s="2"/>
@@ -1965,16 +1967,16 @@
         <v>0</v>
       </c>
       <c r="O31" s="5">
-        <f t="shared" ref="O31:O47" si="2">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
+        <f t="shared" ref="O31:O47" si="3">IF(C31&gt;0,MAX(B31,C31),B31)+E31*$A$3+F31*$B$3+G31*$C$3+H31*$D$3+I31*$E$3+J31*$F$3+K31*$G$3+L31*$H$3+M31*$I$3</f>
         <v>200</v>
       </c>
       <c r="P31" s="5">
-        <f t="shared" ref="P31:P47" si="3">MEDIAN(C31,O31,D31)</f>
+        <f t="shared" ref="P31:P47" si="4">MEDIAN(C31,O31,D31)</f>
         <v>200</v>
       </c>
       <c r="Q31" s="6">
         <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
-        <v>0.11344299489506524</v>
+        <v>0.11954572624028691</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2011,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="O32" s="5">
-        <f t="shared" ref="O32" si="4">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
+        <f t="shared" ref="O32" si="5">IF(C32&gt;0,MAX(B32,C32),B32)+E32*$A$3+F32*$B$3+G32*$C$3+H32*$D$3+I32*$E$3+J32*$F$3+K32*$G$3+L32*$H$3+M32*$I$3</f>
         <v>100</v>
       </c>
       <c r="P32" s="5">
-        <f t="shared" ref="P32" si="5">MEDIAN(C32,O32,D32)</f>
+        <f t="shared" ref="P32" si="6">MEDIAN(C32,O32,D32)</f>
         <v>100</v>
       </c>
       <c r="Q32" s="6">
         <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <v>5.9772863120143453E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2038,7 +2040,7 @@
         <v>61</v>
       </c>
       <c r="B33" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2055,16 +2057,16 @@
         <v>1</v>
       </c>
       <c r="O33" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
       </c>
       <c r="P33" s="5">
-        <f t="shared" si="3"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>50</v>
       </c>
       <c r="Q33" s="6">
         <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <v>2.9886431560071727E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2082,7 +2084,7 @@
         <v>62</v>
       </c>
       <c r="B34" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2101,16 +2103,16 @@
         <v>6</v>
       </c>
       <c r="O34" s="5">
-        <f t="shared" ref="O34" si="6">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
-        <v>175</v>
+        <f t="shared" ref="O34" si="7">IF(C34&gt;0,MAX(B34,C34),B34)+E34*$A$3+F34*$B$3+G34*$C$3+H34*$D$3+I34*$E$3+J34*$F$3+K34*$G$3+L34*$H$3+M34*$I$3</f>
+        <v>125</v>
       </c>
       <c r="P34" s="5">
-        <f t="shared" ref="P34" si="7">MEDIAN(C34,O34,D34)</f>
-        <v>175</v>
+        <f t="shared" ref="P34" si="8">MEDIAN(C34,O34,D34)</f>
+        <v>125</v>
       </c>
       <c r="Q34" s="6">
-        <f>IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
-        <v>9.9262620533182078E-2</v>
+        <f t="shared" ref="Q34" si="9">IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
+        <v>7.4716078900179325E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2128,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2151,16 +2153,16 @@
         <v>1</v>
       </c>
       <c r="O35" s="5">
-        <f t="shared" si="2"/>
-        <v>105</v>
+        <f t="shared" si="3"/>
+        <v>95</v>
       </c>
       <c r="P35" s="5">
-        <f t="shared" si="3"/>
-        <v>105</v>
+        <f t="shared" si="4"/>
+        <v>95</v>
       </c>
       <c r="Q35" s="6">
-        <f>IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
-        <v>5.9557572319909248E-2</v>
+        <f t="shared" ref="Q35:Q50" si="10">IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
+        <v>5.6784219964136282E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2195,15 +2197,15 @@
         <v>1</v>
       </c>
       <c r="O36" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P36" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q36" s="6">
-        <f>IF($A$3 &gt; N36, P36/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R36" s="2"/>
@@ -2239,15 +2241,15 @@
         <v>1</v>
       </c>
       <c r="O37" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="P37" s="5">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="Q37" s="6">
-        <f>IF($A$3 &gt; N37, P37/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R37" s="2"/>
@@ -2291,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="O38" s="5">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="P38" s="5">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
+      <c r="P38" s="5">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
       <c r="Q38" s="6">
-        <f>IF($A$3 &gt; N38, P38/SUM(P$31:P$50), 0)</f>
-        <v>4.1973908111174137E-2</v>
+        <f t="shared" si="10"/>
+        <v>4.4231918708906158E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2339,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="O39" s="5">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="P39" s="5">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
+      <c r="P39" s="5">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
       <c r="Q39" s="6">
-        <f>IF($A$3 &gt; N39, P39/SUM(P$31:P$50), 0)</f>
-        <v>5.6721497447532618E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.9772863120143453E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2387,16 +2389,16 @@
         <v>1</v>
       </c>
       <c r="O40" s="5">
-        <f t="shared" si="2"/>
-        <v>85</v>
-      </c>
-      <c r="P40" s="5">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
+      <c r="P40" s="5">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
       <c r="Q40" s="6">
-        <f>IF($A$3 &gt; N40, P40/SUM(P$31:P$50), 0)</f>
-        <v>4.821327283040272E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.0806933652121938E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2435,16 +2437,16 @@
         <v>1</v>
       </c>
       <c r="O41" s="5">
-        <f t="shared" si="2"/>
-        <v>65</v>
-      </c>
-      <c r="P41" s="5">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
+      <c r="P41" s="5">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
       <c r="Q41" s="6">
-        <f>IF($A$3 &gt; N41, P41/SUM(P$31:P$50), 0)</f>
-        <v>3.6868973340896199E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.8852361028093245E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2481,16 +2483,16 @@
         <v>1</v>
       </c>
       <c r="O42" s="5">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="P42" s="5">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
+      <c r="P42" s="5">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
       <c r="Q42" s="6">
-        <f>IF($A$3 &gt; N42, P42/SUM(P$31:P$50), 0)</f>
-        <v>0.1020986954055587</v>
+        <f t="shared" si="10"/>
+        <v>0.10759115361625822</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2533,16 +2535,16 @@
         <v>1</v>
       </c>
       <c r="O43" s="5">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="P43" s="5">
         <f t="shared" si="3"/>
         <v>54</v>
       </c>
+      <c r="P43" s="5">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
       <c r="Q43" s="6">
-        <f>IF($A$3 &gt; N43, P43/SUM(P$31:P$50), 0)</f>
-        <v>3.0629608621667612E-2</v>
+        <f t="shared" si="10"/>
+        <v>3.2277346084877465E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2579,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="O44" s="5">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="P44" s="5">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
+      <c r="P44" s="5">
+        <f t="shared" si="4"/>
+        <v>110</v>
+      </c>
       <c r="Q44" s="6">
-        <f>IF($A$3 &gt; N44, P44/SUM(P$31:P$50), 0)</f>
-        <v>6.2393647192285878E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.5750149432157803E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2625,16 +2627,16 @@
         <v>8</v>
       </c>
       <c r="O45" s="5">
-        <f t="shared" si="2"/>
-        <v>90</v>
-      </c>
-      <c r="P45" s="5">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
+      <c r="P45" s="5">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
       <c r="Q45" s="6">
-        <f>IF($A$3 &gt; N45, P45/SUM(P$31:P$50), 0)</f>
-        <v>5.104934770277935E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.379557680812911E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2675,16 +2677,16 @@
         <v>1</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="2"/>
-        <v>145</v>
-      </c>
-      <c r="P46" s="5">
         <f t="shared" si="3"/>
         <v>145</v>
       </c>
+      <c r="P46" s="5">
+        <f t="shared" si="4"/>
+        <v>145</v>
+      </c>
       <c r="Q46" s="6">
-        <f>IF($A$3 &gt; N46, P46/SUM(P$31:P$50), 0)</f>
-        <v>8.2246171298922296E-2</v>
+        <f t="shared" si="10"/>
+        <v>8.6670651524208012E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2721,16 +2723,16 @@
         <v>1</v>
       </c>
       <c r="O47" s="5">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="P47" s="5">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
+      <c r="P47" s="5">
+        <f t="shared" si="4"/>
+        <v>115</v>
+      </c>
       <c r="Q47" s="6">
-        <f>IF($A$3 &gt; N47, P47/SUM(P$31:P$50), 0)</f>
-        <v>6.5229722064662501E-2</v>
+        <f t="shared" si="10"/>
+        <v>6.8738792588164968E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2759,7 +2761,9 @@
         <v>15</v>
       </c>
       <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
+      <c r="J48" s="12">
+        <v>20</v>
+      </c>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -2767,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="O48" s="9">
-        <f t="shared" ref="O48:O50" si="8">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
-        <v>65</v>
+        <f t="shared" ref="O48:O50" si="11">IF(C48&gt;0,MAX(B48,C48),B48)+E48*$A$3+F48*$B$3+G48*$C$3+H48*$D$3+I48*$E$3+J48*$F$3+K48*$G$3+L48*$H$3+M48*$I$3</f>
+        <v>85</v>
       </c>
       <c r="P48" s="5">
-        <f t="shared" ref="P48:P50" si="9">MEDIAN(C48,O48,D48)</f>
-        <v>65</v>
+        <f t="shared" ref="P48:P50" si="12">MEDIAN(C48,O48,D48)</f>
+        <v>85</v>
       </c>
       <c r="Q48" s="6">
-        <f>IF($A$3 &gt; N48, P48/SUM(P$31:P$50), 0)</f>
-        <v>3.6868973340896199E-2</v>
+        <f t="shared" si="10"/>
+        <v>5.0806933652121938E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2807,15 +2811,15 @@
         <v>1</v>
       </c>
       <c r="O49" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q49" s="6">
-        <f>IF($A$3 &gt; N49, P49/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R49" s="2"/>
@@ -2847,15 +2851,15 @@
         <v>1</v>
       </c>
       <c r="O50" s="9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q50" s="6">
-        <f>IF($A$3 &gt; N50, P50/SUM(P$31:P$50), 0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R50" s="2"/>
@@ -2887,7 +2891,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="5">
         <f>SUM(P31:P50)</f>
-        <v>1763</v>
+        <v>1673</v>
       </c>
       <c r="Q51" s="6">
         <f>P51/SUM(P$31:P$50)</f>
@@ -3020,16 +3024,16 @@
         <v>0</v>
       </c>
       <c r="O54" s="5">
-        <f t="shared" ref="O54:O67" si="10">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
+        <f t="shared" ref="O54:O67" si="13">IF(C54&gt;0,MAX(B54,C54),B54)+E54*$A$3+F54*$B$3+G54*$C$3+H54*$D$3+I54*$E$3+J54*$F$3+K54*$G$3+L54*$H$3+M54*$I$3</f>
         <v>135</v>
       </c>
       <c r="P54" s="5">
-        <f t="shared" ref="P54:P67" si="11">MEDIAN(C54,O54,D54)</f>
+        <f t="shared" ref="P54:P67" si="14">MEDIAN(C54,O54,D54)</f>
         <v>135</v>
       </c>
       <c r="Q54" s="6">
-        <f>IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
-        <v>0.16343825665859565</v>
+        <f t="shared" ref="Q54:Q67" si="15">IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
+        <v>0.16423357664233576</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3068,16 +3072,16 @@
         <v>10</v>
       </c>
       <c r="O55" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>75</v>
       </c>
       <c r="P55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>75</v>
       </c>
       <c r="Q55" s="6">
-        <f>IF($A$3 &gt; N55, P55/SUM(P$54:P$67), 0)</f>
-        <v>9.0799031476997583E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.1240875912408759E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3116,16 +3120,16 @@
         <v>4</v>
       </c>
       <c r="O56" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>125</v>
       </c>
       <c r="P56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>125</v>
       </c>
       <c r="Q56" s="6">
-        <f>IF($A$3 &gt; N56, P56/SUM(P$54:P$67), 0)</f>
-        <v>0.1513317191283293</v>
+        <f t="shared" si="15"/>
+        <v>0.15206812652068127</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3164,16 +3168,16 @@
         <v>8</v>
       </c>
       <c r="O57" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>105</v>
       </c>
       <c r="P57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
       <c r="Q57" s="6">
-        <f>IF($A$3 &gt; N57, P57/SUM(P$54:P$67), 0)</f>
-        <v>0.1271186440677966</v>
+        <f t="shared" si="15"/>
+        <v>0.12773722627737227</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3212,16 +3216,16 @@
         <v>1</v>
       </c>
       <c r="O58" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="P58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="Q58" s="6">
-        <f>IF($A$3 &gt; N58, P58/SUM(P$54:P$67), 0)</f>
-        <v>0.11501210653753027</v>
+        <f t="shared" si="15"/>
+        <v>0.11557177615571776</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3262,16 +3266,16 @@
         <v>4</v>
       </c>
       <c r="O59" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>70</v>
       </c>
       <c r="P59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>70</v>
       </c>
       <c r="Q59" s="6">
-        <f>IF($A$3 &gt; N59, P59/SUM(P$54:P$67), 0)</f>
-        <v>8.4745762711864403E-2</v>
+        <f t="shared" si="15"/>
+        <v>8.5158150851581502E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3297,7 +3301,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
@@ -3308,16 +3312,16 @@
         <v>8</v>
       </c>
       <c r="O60" s="5">
-        <f t="shared" si="10"/>
-        <v>61</v>
+        <f t="shared" si="13"/>
+        <v>37</v>
       </c>
       <c r="P60" s="5">
-        <f t="shared" si="11"/>
-        <v>61</v>
+        <f t="shared" si="14"/>
+        <v>37</v>
       </c>
       <c r="Q60" s="6">
-        <f>IF($A$3 &gt; N60, P60/SUM(P$54:P$67), 0)</f>
-        <v>7.3849878934624691E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.5012165450121655E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3346,7 +3350,9 @@
         <v>15</v>
       </c>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4">
+        <v>20</v>
+      </c>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -3354,16 +3360,16 @@
         <v>1</v>
       </c>
       <c r="O61" s="5">
-        <f t="shared" si="10"/>
-        <v>65</v>
+        <f t="shared" si="13"/>
+        <v>85</v>
       </c>
       <c r="P61" s="5">
-        <f t="shared" si="11"/>
-        <v>65</v>
+        <f t="shared" si="14"/>
+        <v>85</v>
       </c>
       <c r="Q61" s="6">
-        <f>IF($A$3 &gt; N61, P61/SUM(P$54:P$67), 0)</f>
-        <v>7.8692493946731237E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.10340632603406326</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3404,16 +3410,16 @@
         <v>1</v>
       </c>
       <c r="O62" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>95</v>
       </c>
       <c r="P62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>95</v>
       </c>
       <c r="Q62" s="6">
-        <f>IF($A$3 &gt; N62, P62/SUM(P$54:P$67), 0)</f>
-        <v>0.11501210653753027</v>
+        <f t="shared" si="15"/>
+        <v>0.11557177615571776</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3442,15 +3448,15 @@
       <c r="M63" s="4"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q63" s="6">
-        <f>IF($A$3 &gt; N63, P63/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R63" s="2"/>
@@ -3480,15 +3486,15 @@
       <c r="M64" s="4"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q64" s="6">
-        <f>IF($A$3 &gt; N64, P64/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R64" s="2"/>
@@ -3518,15 +3524,15 @@
       <c r="M65" s="4"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65" s="6">
-        <f>IF($A$3 &gt; N65, P65/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R65" s="2"/>
@@ -3556,15 +3562,15 @@
       <c r="M66" s="4"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q66" s="6">
-        <f>IF($A$3 &gt; N66, P66/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R66" s="2"/>
@@ -3594,15 +3600,15 @@
       <c r="M67" s="4"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P67" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q67" s="6">
-        <f>IF($A$3 &gt; N67, P67/SUM(P$54:P$67), 0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R67" s="2"/>
@@ -3634,10 +3640,10 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" ref="Q68" si="12">P68/SUM(P$54:P$67)</f>
+        <f t="shared" ref="Q68" si="16">P68/SUM(P$54:P$67)</f>
         <v>1</v>
       </c>
       <c r="R68" s="2"/>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7184E218-7B06-4BB4-B93C-B09395072FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F3034B-0776-4BCB-8615-B3239A842E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N60" sqref="N60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -895,7 +895,7 @@
       </c>
       <c r="Q7" s="17">
         <f t="shared" ref="Q7:Q27" si="2">IF($A$3 &gt; N7, P7/SUM(P$7:P$27), 0)</f>
-        <v>5.4545454545454543E-2</v>
+        <v>5.6737588652482268E-2</v>
       </c>
       <c r="R7" s="14"/>
       <c r="S7" s="2"/>
@@ -943,7 +943,7 @@
       </c>
       <c r="Q8" s="17">
         <f t="shared" si="2"/>
-        <v>3.8636363636363635E-2</v>
+        <v>4.0189125295508277E-2</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -989,7 +989,7 @@
       </c>
       <c r="Q9" s="17">
         <f t="shared" si="2"/>
-        <v>1.5909090909090907E-2</v>
+        <v>1.6548463356973995E-2</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="Q10" s="17">
         <f t="shared" si="2"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.3640661938534278E-2</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -1079,7 +1079,7 @@
       </c>
       <c r="Q11" s="17">
         <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="Q12" s="17">
         <f t="shared" si="2"/>
-        <v>4.5454545454545452E-3</v>
+        <v>4.7281323877068557E-3</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="Q13" s="17">
         <f t="shared" si="2"/>
-        <v>6.8181818181818179E-3</v>
+        <v>7.0921985815602835E-3</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="Q14" s="17">
         <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="Q15" s="17">
         <f t="shared" si="2"/>
-        <v>2.2727272727272728E-2</v>
+        <v>2.3640661938534278E-2</v>
       </c>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="Q16" s="17">
         <f t="shared" si="2"/>
-        <v>5.4545454545454543E-2</v>
+        <v>5.6737588652482268E-2</v>
       </c>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="Q17" s="17">
         <f t="shared" si="2"/>
-        <v>0.05</v>
+        <v>5.2009456264775412E-2</v>
       </c>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Q18" s="17">
         <f t="shared" si="2"/>
-        <v>2.5000000000000001E-2</v>
+        <v>2.6004728132387706E-2</v>
       </c>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="Q19" s="17">
         <f t="shared" si="2"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.7281323877068557E-2</v>
       </c>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="Q20" s="17">
         <f t="shared" si="2"/>
-        <v>3.6363636363636362E-2</v>
+        <v>3.7825059101654845E-2</v>
       </c>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="Q21" s="17">
         <f t="shared" si="2"/>
-        <v>0.13636363636363635</v>
+        <v>0.14184397163120568</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1589,7 +1589,7 @@
       </c>
       <c r="Q22" s="17">
         <f t="shared" si="2"/>
-        <v>8.8636363636363638E-2</v>
+        <v>9.2198581560283682E-2</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="Q23" s="17">
         <f t="shared" si="2"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.7281323877068557E-2</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="Q24" s="17">
         <f t="shared" si="2"/>
-        <v>2.7272727272727271E-2</v>
+        <v>2.8368794326241134E-2</v>
       </c>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1697,7 +1697,7 @@
         <v>39</v>
       </c>
       <c r="B25" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1705,11 +1705,11 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -1719,15 +1719,15 @@
       </c>
       <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="P25" s="5">
         <f t="shared" si="1"/>
-        <v>115</v>
+        <v>30</v>
       </c>
       <c r="Q25" s="17">
         <f t="shared" si="2"/>
-        <v>5.2272727272727269E-2</v>
+        <v>1.4184397163120567E-2</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1834,7 +1834,7 @@
       <c r="O28" s="2"/>
       <c r="P28" s="5">
         <f>SUM(P7:P27)</f>
-        <v>2200</v>
+        <v>2115</v>
       </c>
       <c r="Q28" s="6">
         <f>P28/SUM(P$7:P$27)</f>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="Q31" s="6">
         <f>IF($A$3 &gt; N31, P31/SUM(P$31:P$50), 0)</f>
-        <v>0.11954572624028691</v>
+        <v>0.12437810945273632</v>
       </c>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2022,7 +2022,7 @@
       </c>
       <c r="Q32" s="6">
         <f>IF($A$3 &gt; N32, P32/SUM(P$31:P$50), 0)</f>
-        <v>5.9772863120143453E-2</v>
+        <v>6.2189054726368161E-2</v>
       </c>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="Q33" s="6">
         <f>IF($A$3 &gt; N33, P33/SUM(P$31:P$50), 0)</f>
-        <v>2.9886431560071727E-2</v>
+        <v>3.109452736318408E-2</v>
       </c>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Q34" s="6">
         <f t="shared" ref="Q34" si="9">IF($A$3 &gt; N34, P34/SUM(P$31:P$50), 0)</f>
-        <v>7.4716078900179325E-2</v>
+        <v>7.7736318407960192E-2</v>
       </c>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2130,7 +2130,7 @@
         <v>39</v>
       </c>
       <c r="B35" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2140,11 +2140,11 @@
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K35" s="4"/>
       <c r="L35" s="4"/>
@@ -2154,15 +2154,15 @@
       </c>
       <c r="O35" s="5">
         <f t="shared" si="3"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="P35" s="5">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" ref="Q35:Q50" si="10">IF($A$3 &gt; N35, P35/SUM(P$31:P$50), 0)</f>
-        <v>5.6784219964136282E-2</v>
+        <v>1.8656716417910446E-2</v>
       </c>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="Q38" s="6">
         <f t="shared" si="10"/>
-        <v>4.4231918708906158E-2</v>
+        <v>4.6019900497512436E-2</v>
       </c>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="Q39" s="6">
         <f t="shared" si="10"/>
-        <v>5.9772863120143453E-2</v>
+        <v>6.2189054726368161E-2</v>
       </c>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="Q40" s="6">
         <f t="shared" si="10"/>
-        <v>5.0806933652121938E-2</v>
+        <v>5.2860696517412938E-2</v>
       </c>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="Q41" s="6">
         <f t="shared" si="10"/>
-        <v>3.8852361028093245E-2</v>
+        <v>4.0422885572139307E-2</v>
       </c>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -2492,7 +2492,7 @@
       </c>
       <c r="Q42" s="6">
         <f t="shared" si="10"/>
-        <v>0.10759115361625822</v>
+        <v>0.11194029850746269</v>
       </c>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="Q43" s="6">
         <f t="shared" si="10"/>
-        <v>3.2277346084877465E-2</v>
+        <v>3.3582089552238806E-2</v>
       </c>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -2590,7 +2590,7 @@
       </c>
       <c r="Q44" s="6">
         <f t="shared" si="10"/>
-        <v>6.5750149432157803E-2</v>
+        <v>6.8407960199004969E-2</v>
       </c>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="Q45" s="6">
         <f t="shared" si="10"/>
-        <v>5.379557680812911E-2</v>
+        <v>5.5970149253731345E-2</v>
       </c>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="Q46" s="6">
         <f t="shared" si="10"/>
-        <v>8.6670651524208012E-2</v>
+        <v>9.0174129353233837E-2</v>
       </c>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="Q47" s="6">
         <f t="shared" si="10"/>
-        <v>6.8738792588164968E-2</v>
+        <v>7.1517412935323377E-2</v>
       </c>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="Q48" s="6">
         <f t="shared" si="10"/>
-        <v>5.0806933652121938E-2</v>
+        <v>5.2860696517412938E-2</v>
       </c>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -2891,7 +2891,7 @@
       <c r="O51" s="2"/>
       <c r="P51" s="5">
         <f>SUM(P31:P50)</f>
-        <v>1673</v>
+        <v>1608</v>
       </c>
       <c r="Q51" s="6">
         <f>P51/SUM(P$31:P$50)</f>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="Q54" s="6">
         <f t="shared" ref="Q54:Q67" si="15">IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
-        <v>0.16423357664233576</v>
+        <v>0.18194070080862534</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3051,7 +3051,7 @@
         <v>52</v>
       </c>
       <c r="B55" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -3073,15 +3073,15 @@
       </c>
       <c r="O55" s="5">
         <f t="shared" si="13"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="P55" s="5">
         <f t="shared" si="14"/>
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="Q55" s="6">
         <f t="shared" si="15"/>
-        <v>9.1240875912408759E-2</v>
+        <v>5.3908355795148251E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="Q56" s="6">
         <f t="shared" si="15"/>
-        <v>0.15206812652068127</v>
+        <v>0.16846361185983827</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="Q57" s="6">
         <f t="shared" si="15"/>
-        <v>0.12773722627737227</v>
+        <v>0.14150943396226415</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="Q58" s="6">
         <f t="shared" si="15"/>
-        <v>0.11557177615571776</v>
+        <v>0.1280323450134771</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="Q59" s="6">
         <f t="shared" si="15"/>
-        <v>8.5158150851581502E-2</v>
+        <v>9.4339622641509441E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="Q60" s="6">
         <f t="shared" si="15"/>
-        <v>4.5012165450121655E-2</v>
+        <v>4.9865229110512131E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="Q61" s="6">
         <f t="shared" si="15"/>
-        <v>0.10340632603406326</v>
+        <v>0.11455525606469003</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3387,21 +3387,21 @@
         <v>39</v>
       </c>
       <c r="B62" s="4">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I62" s="4"/>
       <c r="J62" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -3411,15 +3411,15 @@
       </c>
       <c r="O62" s="5">
         <f t="shared" si="13"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="P62" s="5">
         <f t="shared" si="14"/>
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="Q62" s="6">
         <f t="shared" si="15"/>
-        <v>0.11557177615571776</v>
+        <v>6.7385444743935305E-2</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3640,7 +3640,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>822</v>
+        <v>742</v>
       </c>
       <c r="Q68" s="6">
         <f t="shared" ref="Q68" si="16">P68/SUM(P$54:P$67)</f>

--- a/tools/Event Probabilities/Event Probabilities.xlsx
+++ b/tools/Event Probabilities/Event Probabilities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Aurora.3\tools\Event Probabilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F3034B-0776-4BCB-8615-B3239A842E18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416C1A98-5A60-47AE-8F87-2233F878C864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18120" yWindow="-4995" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EE11BF8-2C51-4794-BAB0-B08C213463FD}">
   <dimension ref="A1:AA997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="Q54" s="6">
         <f t="shared" ref="Q54:Q67" si="15">IF($A$3 &gt; N54, P54/SUM(P$54:P$67), 0)</f>
-        <v>0.18194070080862534</v>
+        <v>0.18096514745308312</v>
       </c>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="Q55" s="6">
         <f t="shared" si="15"/>
-        <v>5.3908355795148251E-2</v>
+        <v>5.3619302949061663E-2</v>
       </c>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="Q56" s="6">
         <f t="shared" si="15"/>
-        <v>0.16846361185983827</v>
+        <v>0.16756032171581769</v>
       </c>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="Q57" s="6">
         <f t="shared" si="15"/>
-        <v>0.14150943396226415</v>
+        <v>0.14075067024128687</v>
       </c>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="Q58" s="6">
         <f t="shared" si="15"/>
-        <v>0.1280323450134771</v>
+        <v>0.12734584450402145</v>
       </c>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -3275,7 +3275,7 @@
       </c>
       <c r="Q59" s="6">
         <f t="shared" si="15"/>
-        <v>9.4339622641509441E-2</v>
+        <v>9.3833780160857902E-2</v>
       </c>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -3293,7 +3293,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -3313,15 +3313,15 @@
       </c>
       <c r="O60" s="5">
         <f t="shared" si="13"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P60" s="5">
         <f t="shared" si="14"/>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q60" s="6">
         <f t="shared" si="15"/>
-        <v>4.9865229110512131E-2</v>
+        <v>5.4959785522788206E-2</v>
       </c>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="Q61" s="6">
         <f t="shared" si="15"/>
-        <v>0.11455525606469003</v>
+        <v>0.11394101876675604</v>
       </c>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="Q62" s="6">
         <f t="shared" si="15"/>
-        <v>6.7385444743935305E-2</v>
+        <v>6.7024128686327081E-2</v>
       </c>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -3640,7 +3640,7 @@
       <c r="O68" s="2"/>
       <c r="P68" s="5">
         <f>SUM(P53:P67)</f>
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="Q68" s="6">
         <f t="shared" ref="Q68" si="16">P68/SUM(P$54:P$67)</f>
